--- a/app/App-Bilder.xlsx
+++ b/app/App-Bilder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FD\Dokumente\Office\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\GitHub\WhatsThat\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bildersammlung" sheetId="1" r:id="rId1"/>
@@ -1452,15 +1452,9 @@
     <t>&lt;image&gt;&lt;resname&gt;sky2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Himmel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sky&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;alexis&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-berg-wolke-berge-wolken-62732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sky2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;moustache&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnurrbart&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moustache&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;amandaelizabeth84&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schnurrbart-lenker-m%C3%A4nnlich-haar-473661/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;moustache&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;pills2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Angie525A&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/16045.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Licht und Schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;biological&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Marienkäfer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;ladybug&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;blickpixel&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/biologische-blatt-bl%C3%A4tter-181237/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;biological&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;bench&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bank&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bench&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;catherinemary&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bank-rot-himmel-blau-natur-185234/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bench&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
@@ -1470,21 +1464,12 @@
     <t>&lt;image&gt;&lt;resname&gt;heissluftballon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Heissluftballon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;aerostat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Fabian&lt;/name&gt;&lt;source&gt;&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;heissluftballon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;gummibears&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gummibär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;gummibear&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hans&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummib%C3%A4ren-fruchtgummis-b%C3%A4ren-8551/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gummibears&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;adler&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Adler&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eagle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/adler-greifvogel-tier-695171/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;adler&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;chile&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Straße&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;street&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/chile-panamericana-stra%C3%9Fe-693053/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;chile&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;elephant2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Elefant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;elephant&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/elefant-wasserloch-%C3%BCbermut-694470/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;elephant2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;gobi&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wüste&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;desert&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gobi-w%C3%BCste-hei%C3%9F-sandd%C3%BCne-mongolei-692640/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gobi&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;leopard&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leopard&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;leopard&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leopard-raubkatze-savuti-botswana-694460/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leopard&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
@@ -1494,105 +1479,30 @@
     <t>&lt;image&gt;&lt;resname&gt;structure&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Struktur&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;structure&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/struktur-herbst-weinlaub-698163/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;structure&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;yak&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yak&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yak-tier-tibet-grunzochse-642700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yak&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;bat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Batman&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;batman&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fledermaus-schwarz-dracula-fl%C3%BCgel-151366/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;butterfly&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schmetterling&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;butterfly&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schmetterling-schwarz-weiss-konturen-658047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;butterfly&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;cat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tier-katze-kontur-umrisse-675646/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;cat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;flower&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Blume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blume-rose-kontur-umrisse-schwarz-681009/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flower&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;tree&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baum&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tree&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baum-scherenschnitt-natur-657481/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tree&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;airplane&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flugzeug&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;airplane&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Holgi&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/personenverkehr-fluggesellschaft-122999/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;airplane&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;sky1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wolke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cloud&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hongmyeon&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-wolke-sonnenschein-sommer-383823/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sky1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;vase&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Vase&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;vase&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hrohmann&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vase-standvase-blau-wappen-700862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vase&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;glowing&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnenuntergang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sunset&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;JanneG&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gl%C3%BChend-gegenlicht-vogel-m%C3%B6we-253676/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;glowing&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;moon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Mond&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;jrperes&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mond-himmel-wolken-tag-v%C3%B6gel-323425/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;moon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;kaffeebohne&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kaffeebohne&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;coffebean&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Karl Dichtler &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/136975.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;andere Sicht&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;kuerbis&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kürbis&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pumpkin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Klaus Maier&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/20758.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Kürbisse - Farben &lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;clock&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Uhr&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;clock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;KTEditor&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/uhr-zeit-stunden-559963/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;clock&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;fliegenpilz&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;(Fliegen-) Pilz&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mushroom&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lichtwerk2&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fliegenpilze-roter-fliegenpilz-pilze-516281/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fliegenpilz&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;Seifen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Seife&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soap&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lukas_reinhardt &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/103663.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Export&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;rhino2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Maddox74&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-safaripark-d%C3%A4nemark-tier-433495/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
     <t>&lt;image&gt;&lt;resname&gt;pink&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rose&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;MJO&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/rosa-rot-blume-geschenk-143445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pink&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;lego&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lego&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lego&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;mwewering&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lego-legosteine-steine-spielzeug-615239/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lego&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;tomate&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tomate&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tomato&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;naliha&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/33783.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;rote Tomaten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;alien&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Alien&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;alien&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/au%C3%9Ferirdischer-geste-des-friedens-308429/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;alien&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;anchor&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Anker&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;anchor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/anker-meer-yacht-marine-schiff-312599/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;anchor&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;baloons&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Luftballon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;balloons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/luftballons-aufgeblasen-luft-feier-312654/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;baloons&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;baloons2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Luftballon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;balloons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/luftballons-lila-string-schwimmend-303734/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;baloons2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;banana&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Banane&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;banana&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/banane-haufen-obst-lebensmittel-25339/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;banana&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;basket&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Korb&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;basket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/korb-gr%C3%BCn-kunststoff-container-312684/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;basket&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;bicycle&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fahrrad&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bicycle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fahrrad-r%C3%A4der-verkehr-zyklus-sport-38028/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bicycle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;bicycle2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fahrrad&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bicycle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fahrrad-zyklus-rad-pedal-311808/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bicycle2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;blackbird&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Amsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;blackbird&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/amsel-stehen-silhouette-rosa-305542/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;blackbird&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;bottle&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flasche&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bottle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/flasche-ketchup-leere-geschlossen-306549/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bottle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;campfire&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lagerfeuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;campfire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-lager-holz-w%C3%A4rme-flammen-30231/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;campfire&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;card&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auto&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;car&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auto-spielzeugauto-spielzeug-spa%C3%9F-312461/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;card&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;crown&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Krone&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;crown&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/krone-royal-kreuz-edelsteine-308054/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;crown&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;dinosaurier&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Dinosaurier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dinosaur&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/brontosaurus-dinosaurier-dino-297003/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dinosaurier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
@@ -1602,9 +1512,6 @@
     <t>&lt;image&gt;&lt;resname&gt;elephant&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Elefant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;elephant&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/elefant-profil-rot-gro%C3%9F-306223/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;elephant&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;eyeglasses&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Brille&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;glasses&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/brillen-schwarz-silhouette-310516/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;eyeglasses&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;feet&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Füße&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;feet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/f%C3%BC%C3%9Fe-zehen-abdruck-gliederung-311827/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;feet&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
@@ -1614,12 +1521,6 @@
     <t>&lt;image&gt;&lt;resname&gt;fox&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fuchs&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fox&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fox-blau-silhouette-kunst-tierwelt-310123/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fox&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;hands&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hand/Hände&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;hands&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/h%C3%A4nde-zwei-offen-silhouette-296850/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;hands&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;house&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Haus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;house&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/h%C3%BCtte-haus-ferienhaus-urlaub-dach-312420/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;house&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;kangaroo&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Känguru&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;kangaroo&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/k%C3%A4nguru-s%C3%A4ugetier-australien-295261/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kangaroo&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
@@ -1629,18 +1530,9 @@
     <t>&lt;image&gt;&lt;resname&gt;monitor&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bildschirm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monitor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/monitor-flatscreen-bildschirm-23269/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;monitor&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;paintbrush&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;paintbrush&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pinsel-borsten-griff-holz-312711/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;paintbrush&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;pirano&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Klavir&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;piano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/klavier-musical-instrument-tastatur-312543/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pirano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;pirate&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pirat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pirate&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pirat-hut-kappe-tod-warnung-311819/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pirate&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;rabbit&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hase&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rabbit&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kaninchen-hase-osterhase-312164/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rabbit&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;rings&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hochzeit&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;wedding&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ringe-hochzeit-bands-duo-mann-312341/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rings&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
@@ -1650,102 +1542,27 @@
     <t>&lt;image&gt;&lt;resname&gt;skull&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Totenkopf&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;skull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/totenkopf-sch%C3%A4del-gekreuzten-knochen-30325/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;skull&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;teddybear&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Teddybär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;teddy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/teddyb%C3%A4r-b%C3%A4r-pl%C3%BCsch-gef%C3%BCllt-anial-303837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;teddybear&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;twitter&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Twitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;twitter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/twitter-tweet-twitter-vogel-312464/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;twitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;volcano&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Vulkan&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;volcano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkan-eruption-ausbruch-lava-berg-310172/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;volcano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;bull&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stier-buffalo-tier-s%C3%A4ugetier-155411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bull&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;card&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Karte/Pik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;card/peak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/karte-umrissen-spielen-schwarz-157404/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;card&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;diamond&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Diamant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;diamond&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/diamant-teuer-juwel-wertvolle-158431/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;diamond&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
     <t>&lt;image&gt;&lt;resname&gt;dragon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monster&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monster&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-eidechse-monster-chinesisch-149393/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dragon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;gummiente&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gummiente&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rubberdruck&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummi-ente-quietschende-schwimmen-156597/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gummiente&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;rhino1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-afrika-tier-s%C3%BCdafrika-161569/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;school&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bleistift&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pencil&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schule-bleistift-stift-schreiben-153561/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;school&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;july&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;month&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/juli-jul-monat-jahr-neue-tag-706938/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;july&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;pills&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pillen-medizin-gesundheit-684989/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pills&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;symbol&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Internet&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;internet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/symbol-bei-computer-icon-design-684962/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;symbol&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;lighthouse&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leuchtturm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lighthouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;prosaica&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leuchtturm-bodie-island-186722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lighthouse&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;background1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wiese&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;grassland?&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/hintergrund-blau-sauber-klar-tag-21717/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;background1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;background2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gras&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;grass&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/hintergrund-nahaufnahme-flora-16051/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;background2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;waterdrop&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wassertropfen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;waterdrop&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;roegger&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wassertropfen-spritzen-wasser-545377/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waterdrop&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;denmark&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Meer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sea&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;rolypolys&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/d%C3%A4nemark-ostsee-k%C3%BCste-meer-wasser-239992/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;denmark&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;fishingboat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Boot&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;boat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Suedelbien&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fischerboot-d%C3%A4nemark-strand-meer-49523/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fishingboat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
     <t>&lt;image&gt;&lt;resname&gt;pebble&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kieselsteine&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pebble&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;SuXxLe&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kies-steine-desktop-hintergrund-618737/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pebble&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;apple&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Apfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;apple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/apple-rot-obst-696445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;apple&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;light&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schatten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shadow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/licht-schatten-licht-und-schatten-685069/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;light&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;strawberry&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Erdbeere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;strawberry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/erdbeere-rot-makro-629180/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;strawberry&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;vegetables&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gurke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cucumber&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gem%C3%BCse-gurke-lebensmittel-700047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vegetables&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;phone&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Telefon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;phone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;traude&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/telefon-handy-telefonieren-558022/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;phone&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;fire&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flamme&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flame&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-kamin-flamme-hei%C3%9F-brennen-690944/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fire&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;landscape&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Landschaft&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;landscape&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/landschaft-berge-h%C3%BCgel-t%C3%A4ler-690244/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;landscape&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;lightning&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gewitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lightning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blitz-himmel-nacht-dunkel-690410/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lightning&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;logs&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baumstamm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;log/trunk&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baumst%C3%A4mme-holz-anmelden-bauholz-690888/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;logs&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;sanfrancisco&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stadt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;city&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/san-francisco-geb%C3%A4ude-t%C3%BCrme-690243/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sanfrancisco&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;turtle&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schildkr%C3%B6te-unterwasser-wasser-691040/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;turtle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;lava&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lava/Magma&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lava&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lava-magma-vulkanausbruch-gl%C3%BChen-67574/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lava&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>seifen</t>
   </si>
   <si>
@@ -2095,6 +1912,189 @@
   </si>
   <si>
     <t>wassertropfen</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;amsel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Amsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;blackbird&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/amsel-stehen-silhouette-rosa-305542/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;amsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;anker&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Anker&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;anchor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/anker-meer-yacht-marine-schiff-312599/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;anker&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;apfel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Apfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;apple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/apple-rot-obst-696445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;apfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;auto2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auto&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;car&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auto-spielzeugauto-spielzeug-spa%C3%9F-312461/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auto2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;background1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wiese&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;grassland&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/hintergrund-blau-sauber-klar-tag-21717/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;background1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;balloons&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Luftballon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;balloons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/luftballons-aufgeblasen-luft-feier-312654/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;balloons&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;banane&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Banane&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;banana&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/banane-haufen-obst-lebensmittel-25339/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;banane&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;bart&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnurrbart&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moustache&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;amandaelizabeth84&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schnurrbart-lenker-m%C3%A4nnlich-haar-473661/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bart&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;baumstamm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baumstamm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;log/trunk&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baumst%C3%A4mme-holz-anmelden-bauholz-690888/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;baumstamm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;blume&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Blume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blume-rose-kontur-umrisse-schwarz-681009/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;blume&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;bombe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bombe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bomb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bomb-explosive-detonation-fuze-154456&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bombe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;brille&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Brille&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;glasses&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/brillen-schwarz-silhouette-310516/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;brille&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;esel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Esel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;donkey&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/donkey-animal-farm-gray-comic-310798/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;esel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;fahrrad&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fahrrad&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bicycle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fahrrad-zyklus-rad-pedal-311808/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fahrrad&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;feuer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Feuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-kamin-flamme-hei%C3%9F-brennen-690944/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;feuer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;fisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fish&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unknown&lt;/name&gt;&lt;source&gt;www.pngimg.com/download/1160&lt;/source&gt;&lt;license&gt;&lt;/license&gt;&lt;title&gt;fisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;flasche&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flasche&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bottle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/flasche-ketchup-leere-geschlossen-306549/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flasche&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;fliegenpilz&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fliegenpilz&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mushroom&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lichtwerk2&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fliegenpilze-roter-fliegenpilz-pilze-516281/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fliegenpilz&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;flugzeug&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flugzeug&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;airplane&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Holgi&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/personenverkehr-fluggesellschaft-122999/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flugzeug&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;fussball&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fußball&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soccer&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/football-ball-sport-soccer-round-157930&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fussball&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;gewitter&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gewitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lightning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blitz-himmel-nacht-dunkel-690410/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gewitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;gummibears&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gummibär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;gummibear&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hans&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummib%C3%A4ren-fruchtgummis-b%C3%A4ren-8551/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gummibears&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;gummiente&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Ente&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;duck&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummi-ente-quietschende-schwimmen-156597/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gummiente&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;haende&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hände&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;hands&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/h%C3%A4nde-zwei-offen-silhouette-296850/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;haende&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;hase&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hase&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rabbit&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bunny-outline-easter-cutout-cookie-306263/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;hase&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;haus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Haus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;house&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/h%C3%BCtte-haus-ferienhaus-urlaub-dach-312420/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;haus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;juli&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;month&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/juli-jul-monat-jahr-neue-tag-706938/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;juli&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;kaefer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Marienkäfer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;ladybug&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;blickpixel&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/biologische-blatt-bl%C3%A4tter-181237/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kaefer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;kaffeebohne&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kaffeebohne&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;coffebean&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Karl Dichtler &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/136975.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;andere Sicht&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;katze&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/animal-cat-contour-outlines-675646&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;katze&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;knochen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Knochen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bones-dog-chicken-comic-307870/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;knochen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;korb&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Korb&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;basket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/korb-gr%C3%BCn-kunststoff-container-312684/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;korb&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;krone&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Krone&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;crown&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/krone-royal-kreuz-edelsteine-308054/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;krone&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;landstrasse&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Straße&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;street&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/chile-panamericana-stra%C3%9Fe-693053/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;landstrasse&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;lava&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lava&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lava&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lava-magma-vulkanausbruch-gl%C3%BChen-67574/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lava&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;lego&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lego&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lego&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;mwewering&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lego-legosteine-steine-spielzeug-615239/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lego&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;leuchtturm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leuchtturm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lighthouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;prosaica&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leuchtturm-bodie-island-186722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leuchtturm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;maus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Maus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/mouse-rodent-animal-small-pet-311207/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;maus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;meer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Meer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sea&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;rolypolys&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/d%C3%A4nemark-ostsee-k%C3%BCste-meer-wasser-239992/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;meer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;mond&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Mond&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;jrperes&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mond-himmel-wolken-tag-v%C3%B6gel-323425/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;mond&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;nikolaus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nikolaus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;santa&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/santa-claus-st-nicholas-funny-x-mas-153309/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;nikolaus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;piano&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Klavier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;piano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/klavier-musical-instrument-tastatur-312543/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;piano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;pik&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;peak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/karte-umrissen-spielen-schwarz-157404/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;pills&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pillen-medizin-gesundheit-684989/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pills&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;pinguin&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinguin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;penguin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/penguin-aquatic-flightless-birds-41066/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinguin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;pinsel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;paintbrush&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pinsel-borsten-griff-holz-312711/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;rakete&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rakete&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rocket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/rocket-spaceship-space-shuttle-nasa-147466/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rakete&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;schatten&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schatten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shadow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/licht-schatten-licht-und-schatten-685069/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;schere&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scissor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/scissors-shears-cut-tool-equipment-24188/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schere&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;schildkroete1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schildkr%C3%B6te-unterwasser-wasser-691040/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;schildkroete2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/turtle-carapace-tortoise-green-303732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;schloss&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schloss&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;stux&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/castle-padlock-shut-off-to-378353&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schloss&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;schmetterling&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schmetterling&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;butterfly&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schmetterling-schwarz-weiss-konturen-658047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schmetterling&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;schnee&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnee&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;snow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/landschaft-berge-h%C3%BCgel-t%C3%A4ler-690244/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schnee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;school&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stift&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pencil&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schule-bleistift-stift-schreiben-153561/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;school&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;schraubenzieher&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schraubenzieher&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;screwdriver&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/screwdriver-starhead-star-torx-33634&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schraubenzieher&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;seifen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Seife&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soap&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lukas_reinhardt &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/103663.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Export&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;sonnenuntergang&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnenuntergang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sunset&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;JanneG&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gl%C3%BChend-gegenlicht-vogel-m%C3%B6we-253676/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonnenuntergang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;stier&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stier-buffalo-tier-s%C3%A4ugetier-155411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;strawberry&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Erdbeere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;strawberry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/erdbeere-rot-makro-629180/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;strawberry&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;symbol&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Email&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;email&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/symbol-bei-computer-icon-design-684962/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;symbol&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
 </sst>
 </file>
@@ -2454,7 +2454,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:L115" totalsRowShown="0">
   <autoFilter ref="A1:L115"/>
   <sortState ref="A2:L115">
-    <sortCondition ref="I1:I115"/>
+    <sortCondition ref="I1"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="2" name="Autor/Psyeudonym" dataDxfId="8"/>
@@ -2771,9 +2771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,7 +2908,7 @@
         <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>564</v>
+        <v>503</v>
       </c>
       <c r="J4" t="s">
         <v>183</v>
@@ -2936,7 +2936,7 @@
         <v>364</v>
       </c>
       <c r="I5" t="s">
-        <v>559</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
         <v>253</v>
       </c>
       <c r="I6" t="s">
-        <v>560</v>
+        <v>499</v>
       </c>
       <c r="L6" t="s">
         <v>404</v>
@@ -2989,7 +2989,7 @@
         <v>343</v>
       </c>
       <c r="I7" t="s">
-        <v>524</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3011,7 +3011,7 @@
         <v>57</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>595</v>
+        <v>534</v>
       </c>
       <c r="I8" t="s">
         <v>137</v>
@@ -3104,7 +3104,7 @@
         <v>330</v>
       </c>
       <c r="I11" t="s">
-        <v>561</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -3129,7 +3129,7 @@
         <v>121</v>
       </c>
       <c r="I12" t="s">
-        <v>622</v>
+        <v>561</v>
       </c>
       <c r="J12" t="s">
         <v>183</v>
@@ -3185,7 +3185,7 @@
         <v>201</v>
       </c>
       <c r="I14" t="s">
-        <v>620</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3238,7 +3238,7 @@
         <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>607</v>
+        <v>546</v>
       </c>
       <c r="J16" t="s">
         <v>181</v>
@@ -3256,17 +3256,17 @@
         <v>6</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>567</v>
+        <v>506</v>
       </c>
       <c r="E17" s="15"/>
       <c r="G17" t="s">
-        <v>568</v>
+        <v>507</v>
       </c>
       <c r="H17" t="s">
-        <v>569</v>
+        <v>508</v>
       </c>
       <c r="I17" t="s">
-        <v>570</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3291,7 +3291,7 @@
         <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>605</v>
+        <v>544</v>
       </c>
       <c r="J18" t="s">
         <v>183</v>
@@ -3515,17 +3515,17 @@
         <v>6</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>525</v>
+        <v>464</v>
       </c>
       <c r="E27" s="10"/>
       <c r="G27" t="s">
-        <v>526</v>
+        <v>465</v>
       </c>
       <c r="H27" t="s">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="I27" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3550,7 +3550,7 @@
         <v>332</v>
       </c>
       <c r="I28" t="s">
-        <v>563</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3594,13 +3594,13 @@
       </c>
       <c r="E30" s="10"/>
       <c r="G30" t="s">
-        <v>522</v>
+        <v>461</v>
       </c>
       <c r="H30" t="s">
         <v>279</v>
       </c>
       <c r="I30" t="s">
-        <v>606</v>
+        <v>545</v>
       </c>
       <c r="J30" t="s">
         <v>182</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>530</v>
+        <v>469</v>
       </c>
       <c r="B31" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -3616,17 +3616,17 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="11" t="s">
-        <v>529</v>
+        <v>468</v>
       </c>
       <c r="E31" s="15"/>
       <c r="G31" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="H31" t="s">
-        <v>532</v>
+        <v>471</v>
       </c>
       <c r="I31" t="s">
-        <v>533</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3707,7 +3707,7 @@
         <v>87</v>
       </c>
       <c r="I34" t="s">
-        <v>596</v>
+        <v>535</v>
       </c>
       <c r="J34" t="s">
         <v>184</v>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="E35" s="10"/>
       <c r="G35" t="s">
-        <v>518</v>
+        <v>457</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -3763,7 +3763,7 @@
         <v>240</v>
       </c>
       <c r="I36" t="s">
-        <v>558</v>
+        <v>497</v>
       </c>
       <c r="L36" t="s">
         <v>404</v>
@@ -3809,17 +3809,17 @@
         <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>544</v>
+        <v>483</v>
       </c>
       <c r="E38" s="15"/>
       <c r="G38" t="s">
-        <v>545</v>
+        <v>484</v>
       </c>
       <c r="H38" t="s">
-        <v>546</v>
+        <v>485</v>
       </c>
       <c r="I38" t="s">
-        <v>547</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3844,7 +3844,7 @@
         <v>197</v>
       </c>
       <c r="I39" t="s">
-        <v>619</v>
+        <v>558</v>
       </c>
       <c r="L39" t="s">
         <v>404</v>
@@ -3894,10 +3894,10 @@
       </c>
       <c r="E41" s="10"/>
       <c r="G41" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="H41" t="s">
-        <v>512</v>
+        <v>451</v>
       </c>
       <c r="I41" t="s">
         <v>406</v>
@@ -3919,13 +3919,13 @@
       </c>
       <c r="E42" s="1"/>
       <c r="G42" t="s">
-        <v>515</v>
+        <v>454</v>
       </c>
       <c r="H42" t="s">
         <v>110</v>
       </c>
       <c r="I42" t="s">
-        <v>610</v>
+        <v>549</v>
       </c>
       <c r="J42" t="s">
         <v>182</v>
@@ -3946,7 +3946,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>538</v>
+        <v>477</v>
       </c>
       <c r="E43" s="15"/>
       <c r="G43" t="s">
@@ -3956,7 +3956,7 @@
         <v>377</v>
       </c>
       <c r="I43" t="s">
-        <v>539</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3981,7 +3981,7 @@
         <v>361</v>
       </c>
       <c r="I44" t="s">
-        <v>611</v>
+        <v>550</v>
       </c>
       <c r="J44" t="s">
         <v>182</v>
@@ -4057,7 +4057,7 @@
         <v>190</v>
       </c>
       <c r="I47" t="s">
-        <v>612</v>
+        <v>551</v>
       </c>
       <c r="L47" t="s">
         <v>404</v>
@@ -4085,7 +4085,7 @@
         <v>26</v>
       </c>
       <c r="I48" t="s">
-        <v>613</v>
+        <v>552</v>
       </c>
       <c r="J48" t="s">
         <v>181</v>
@@ -4158,7 +4158,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>565</v>
+        <v>504</v>
       </c>
       <c r="E51" s="15"/>
       <c r="G51" t="s">
@@ -4168,7 +4168,7 @@
         <v>75</v>
       </c>
       <c r="I51" t="s">
-        <v>566</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -4183,17 +4183,17 @@
         <v>6</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>571</v>
+        <v>510</v>
       </c>
       <c r="E52" s="15"/>
       <c r="G52" t="s">
-        <v>572</v>
+        <v>511</v>
       </c>
       <c r="H52" t="s">
-        <v>573</v>
+        <v>512</v>
       </c>
       <c r="I52" t="s">
-        <v>574</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -4218,7 +4218,7 @@
         <v>358</v>
       </c>
       <c r="I53" t="s">
-        <v>562</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -4243,7 +4243,7 @@
         <v>222</v>
       </c>
       <c r="I54" t="s">
-        <v>602</v>
+        <v>541</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -4292,7 +4292,7 @@
         <v>245</v>
       </c>
       <c r="I56" t="s">
-        <v>600</v>
+        <v>539</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="E57" s="10"/>
       <c r="G57" t="s">
-        <v>519</v>
+        <v>458</v>
       </c>
       <c r="H57" t="s">
         <v>276</v>
@@ -4398,7 +4398,7 @@
         <v>38</v>
       </c>
       <c r="I60" t="s">
-        <v>618</v>
+        <v>557</v>
       </c>
       <c r="J60" t="s">
         <v>181</v>
@@ -4441,17 +4441,17 @@
         <v>6</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>575</v>
+        <v>514</v>
       </c>
       <c r="E62" s="15"/>
       <c r="G62" t="s">
-        <v>576</v>
+        <v>515</v>
       </c>
       <c r="H62" t="s">
-        <v>577</v>
+        <v>516</v>
       </c>
       <c r="I62" t="s">
-        <v>578</v>
+        <v>517</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4476,7 +4476,7 @@
         <v>54</v>
       </c>
       <c r="I63" t="s">
-        <v>604</v>
+        <v>543</v>
       </c>
       <c r="J63" t="s">
         <v>181</v>
@@ -4504,7 +4504,7 @@
         <v>42</v>
       </c>
       <c r="I64" t="s">
-        <v>621</v>
+        <v>560</v>
       </c>
       <c r="J64" t="s">
         <v>181</v>
@@ -4550,17 +4550,17 @@
         <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>590</v>
+        <v>529</v>
       </c>
       <c r="E66" s="15"/>
       <c r="G66" t="s">
-        <v>591</v>
+        <v>530</v>
       </c>
       <c r="H66" t="s">
-        <v>592</v>
+        <v>531</v>
       </c>
       <c r="I66" t="s">
-        <v>593</v>
+        <v>532</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="E68" s="10"/>
       <c r="G68" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="H68" t="s">
         <v>373</v>
@@ -4629,13 +4629,13 @@
       </c>
       <c r="E69" s="1"/>
       <c r="G69" t="s">
-        <v>513</v>
+        <v>452</v>
       </c>
       <c r="H69" t="s">
-        <v>514</v>
+        <v>453</v>
       </c>
       <c r="I69" t="s">
-        <v>599</v>
+        <v>538</v>
       </c>
       <c r="J69" t="s">
         <v>183</v>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="E71" s="10"/>
       <c r="F71" t="s">
-        <v>557</v>
+        <v>496</v>
       </c>
       <c r="G71" t="s">
         <v>301</v>
@@ -4708,17 +4708,17 @@
         <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>548</v>
+        <v>487</v>
       </c>
       <c r="E72" s="15"/>
       <c r="G72" t="s">
-        <v>549</v>
+        <v>488</v>
       </c>
       <c r="H72" t="s">
-        <v>550</v>
+        <v>489</v>
       </c>
       <c r="I72" t="s">
-        <v>551</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4774,7 +4774,7 @@
         <v>355</v>
       </c>
       <c r="I74" t="s">
-        <v>594</v>
+        <v>533</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -4814,17 +4814,17 @@
         <v>6</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>579</v>
+        <v>518</v>
       </c>
       <c r="E76" s="15"/>
       <c r="G76" t="s">
-        <v>580</v>
+        <v>519</v>
       </c>
       <c r="H76" t="s">
-        <v>581</v>
+        <v>520</v>
       </c>
       <c r="I76" t="s">
-        <v>582</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -4989,7 +4989,7 @@
         <v>255</v>
       </c>
       <c r="I82" t="s">
-        <v>617</v>
+        <v>556</v>
       </c>
       <c r="J82" t="s">
         <v>182</v>
@@ -5007,17 +5007,17 @@
         <v>6</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>540</v>
+        <v>479</v>
       </c>
       <c r="E83" s="15"/>
       <c r="G83" t="s">
-        <v>541</v>
+        <v>480</v>
       </c>
       <c r="H83" t="s">
-        <v>542</v>
+        <v>481</v>
       </c>
       <c r="I83" t="s">
-        <v>543</v>
+        <v>482</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -5042,7 +5042,7 @@
         <v>204</v>
       </c>
       <c r="I84" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -5057,7 +5057,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="E85" s="15"/>
       <c r="G85" t="s">
@@ -5067,12 +5067,12 @@
         <v>204</v>
       </c>
       <c r="I85" t="s">
-        <v>588</v>
+        <v>527</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="B86" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -5082,17 +5082,17 @@
         <v>6</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>553</v>
+        <v>492</v>
       </c>
       <c r="E86" s="15"/>
       <c r="G86" t="s">
-        <v>554</v>
+        <v>493</v>
       </c>
       <c r="H86" t="s">
-        <v>555</v>
+        <v>494</v>
       </c>
       <c r="I86" t="s">
-        <v>556</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -5117,7 +5117,7 @@
         <v>72</v>
       </c>
       <c r="I87" t="s">
-        <v>598</v>
+        <v>537</v>
       </c>
       <c r="J87" t="s">
         <v>181</v>
@@ -5139,13 +5139,13 @@
       </c>
       <c r="E88" s="10"/>
       <c r="G88" t="s">
-        <v>614</v>
+        <v>553</v>
       </c>
       <c r="H88" t="s">
-        <v>615</v>
+        <v>554</v>
       </c>
       <c r="I88" t="s">
-        <v>616</v>
+        <v>555</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="E89" s="10"/>
       <c r="G89" t="s">
-        <v>523</v>
+        <v>462</v>
       </c>
       <c r="H89" t="s">
         <v>316</v>
@@ -5188,17 +5188,17 @@
         <v>6</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>534</v>
+        <v>473</v>
       </c>
       <c r="E90" s="15"/>
       <c r="G90" t="s">
-        <v>535</v>
+        <v>474</v>
       </c>
       <c r="H90" t="s">
-        <v>536</v>
+        <v>475</v>
       </c>
       <c r="I90" t="s">
-        <v>537</v>
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -5222,7 +5222,7 @@
         <v>299</v>
       </c>
       <c r="I91" t="s">
-        <v>509</v>
+        <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -5328,7 +5328,7 @@
         <v>34</v>
       </c>
       <c r="I95" t="s">
-        <v>608</v>
+        <v>547</v>
       </c>
       <c r="J95" t="s">
         <v>181</v>
@@ -5356,7 +5356,7 @@
         <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>597</v>
+        <v>536</v>
       </c>
       <c r="J96" t="s">
         <v>184</v>
@@ -5456,10 +5456,10 @@
       </c>
       <c r="E100" s="10"/>
       <c r="G100" t="s">
-        <v>516</v>
+        <v>455</v>
       </c>
       <c r="H100" t="s">
-        <v>517</v>
+        <v>456</v>
       </c>
       <c r="I100" t="s">
         <v>282</v>
@@ -5515,7 +5515,7 @@
         <v>84</v>
       </c>
       <c r="I102" t="s">
-        <v>623</v>
+        <v>562</v>
       </c>
       <c r="J102" t="s">
         <v>183</v>
@@ -5592,13 +5592,13 @@
       </c>
       <c r="E105" s="10"/>
       <c r="G105" t="s">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="H105" t="s">
-        <v>521</v>
+        <v>460</v>
       </c>
       <c r="I105" t="s">
-        <v>624</v>
+        <v>563</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -5648,7 +5648,7 @@
         <v>117</v>
       </c>
       <c r="I107" t="s">
-        <v>601</v>
+        <v>540</v>
       </c>
       <c r="J107" t="s">
         <v>184</v>
@@ -5751,7 +5751,7 @@
         <v>270</v>
       </c>
       <c r="I111" t="s">
-        <v>625</v>
+        <v>564</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -5776,7 +5776,7 @@
         <v>9</v>
       </c>
       <c r="I112" t="s">
-        <v>603</v>
+        <v>542</v>
       </c>
       <c r="J112" t="s">
         <v>181</v>
@@ -5804,7 +5804,7 @@
         <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>609</v>
+        <v>548</v>
       </c>
       <c r="J113" t="s">
         <v>181</v>
@@ -5822,17 +5822,17 @@
         <v>6</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>583</v>
+        <v>522</v>
       </c>
       <c r="E114" s="15"/>
       <c r="G114" t="s">
-        <v>584</v>
+        <v>523</v>
       </c>
       <c r="H114" t="s">
-        <v>585</v>
+        <v>524</v>
       </c>
       <c r="I114" t="s">
-        <v>586</v>
+        <v>525</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5966,8 +5966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6037,7 +6037,7 @@
         <v>&lt;image&gt;&lt;resname&gt;adler&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Adler&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eagle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/adler-greifvogel-tier-695171/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;adler&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6070,7 +6070,7 @@
         <v>&lt;image&gt;&lt;resname&gt;alien&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Alien&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;alien&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/au%C3%9Ferirdischer-geste-des-friedens-308429/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;alien&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6103,7 +6103,7 @@
         <v>&lt;image&gt;&lt;resname&gt;amsel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Amsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;blackbird&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/amsel-stehen-silhouette-rosa-305542/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;amsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>412</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6136,7 +6136,7 @@
         <v>&lt;image&gt;&lt;resname&gt;anker&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Anker&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;anchor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/anker-meer-yacht-marine-schiff-312599/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;anker&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>413</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6169,7 +6169,7 @@
         <v>&lt;image&gt;&lt;resname&gt;apfel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Apfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;apple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/apple-rot-obst-696445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;apfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>414</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6202,7 +6202,7 @@
         <v>&lt;image&gt;&lt;resname&gt;auto2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auto&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;car&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auto-spielzeugauto-spielzeug-spa%C3%9F-312461/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auto2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>415</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6235,7 +6235,7 @@
         <v>&lt;image&gt;&lt;resname&gt;background1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wiese&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;grassland&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/hintergrund-blau-sauber-klar-tag-21717/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;background1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>416</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6268,7 +6268,7 @@
         <v>&lt;image&gt;&lt;resname&gt;background2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gras&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;grass&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/hintergrund-nahaufnahme-flora-16051/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;background2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6301,7 +6301,7 @@
         <v>&lt;image&gt;&lt;resname&gt;balloons&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Luftballon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;balloons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/luftballons-aufgeblasen-luft-feier-312654/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;balloons&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>418</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6334,7 +6334,7 @@
         <v>&lt;image&gt;&lt;resname&gt;banane&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Banane&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;banana&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/banane-haufen-obst-lebensmittel-25339/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;banane&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>419</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6367,7 +6367,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bart&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnurrbart&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moustache&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;amandaelizabeth84&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schnurrbart-lenker-m%C3%A4nnlich-haar-473661/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bart&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>420</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6400,7 +6400,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Batman&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;batman&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fledermaus-schwarz-dracula-fl%C3%BCgel-151366/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6433,7 +6433,7 @@
         <v>&lt;image&gt;&lt;resname&gt;baumstamm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baumstamm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;log/trunk&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baumst%C3%A4mme-holz-anmelden-bauholz-690888/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;baumstamm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>422</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6466,7 +6466,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bench&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bank&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bench&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;catherinemary&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bank-rot-himmel-blau-natur-185234/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bench&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6499,7 +6499,7 @@
         <v>&lt;image&gt;&lt;resname&gt;blume&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Blume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blume-rose-kontur-umrisse-schwarz-681009/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;blume&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>424</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6532,7 +6532,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bombe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bombe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bomb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bomb-explosive-detonation-fuze-154456&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bombe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>425</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6565,7 +6565,7 @@
         <v>&lt;image&gt;&lt;resname&gt;brille&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Brille&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;glasses&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/brillen-schwarz-silhouette-310516/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;brille&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>426</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6631,7 +6631,7 @@
         <v>&lt;image&gt;&lt;resname&gt;cat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tier-katze-kontur-umrisse-675646/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;cat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -6664,7 +6664,7 @@
         <v>&lt;image&gt;&lt;resname&gt;diamond&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Diamant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;diamond&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/diamant-teuer-juwel-wertvolle-158431/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;diamond&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6697,7 +6697,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dinosaurier&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Dinosaurier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dinosaur&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/brontosaurus-dinosaurier-dino-297003/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dinosaurier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -6730,7 +6730,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dragon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monster&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monster&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-eidechse-monster-chinesisch-149393/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dragon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -6763,7 +6763,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dragon2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Drache&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dragon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-rot-symbol-fantasie-312035/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dragon2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6796,7 +6796,7 @@
         <v>&lt;image&gt;&lt;resname&gt;elephant&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Elefant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;elephant&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/elefant-profil-rot-gro%C3%9F-306223/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;elephant&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6829,7 +6829,7 @@
         <v>&lt;image&gt;&lt;resname&gt;elephant2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Elefant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;elephant&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/elefant-wasserloch-%C3%BCbermut-694470/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;elephant2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -6862,7 +6862,7 @@
         <v>&lt;image&gt;&lt;resname&gt;esel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Esel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;donkey&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/donkey-animal-farm-gray-comic-310798/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;esel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>435</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -6895,7 +6895,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fahrrad&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fahrrad&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bicycle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fahrrad-zyklus-rad-pedal-311808/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fahrrad&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>436</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -6928,7 +6928,7 @@
         <v>&lt;image&gt;&lt;resname&gt;feet&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Füße&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;feet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/f%C3%BC%C3%9Fe-zehen-abdruck-gliederung-311827/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;feet&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -6961,7 +6961,7 @@
         <v>&lt;image&gt;&lt;resname&gt;feuer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Feuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-kamin-flamme-hei%C3%9F-brennen-690944/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;feuer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>438</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6994,7 +6994,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fish&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unknown&lt;/name&gt;&lt;source&gt;www.pngimg.com/download/1160&lt;/source&gt;&lt;license&gt;&lt;/license&gt;&lt;title&gt;fisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>439</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -7027,7 +7027,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fishingboat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Boot&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;boat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Suedelbien&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fischerboot-d%C3%A4nemark-strand-meer-49523/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fishingboat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -7060,7 +7060,7 @@
         <v>&lt;image&gt;&lt;resname&gt;flag&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flagge&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flag&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/flagge-rot-signal-aufmerksamkeit-312763/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flag&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -7093,7 +7093,7 @@
         <v>&lt;image&gt;&lt;resname&gt;flasche&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flasche&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bottle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/flasche-ketchup-leere-geschlossen-306549/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flasche&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>442</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -7126,7 +7126,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fliegenpilz&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fliegenpilz&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mushroom&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lichtwerk2&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fliegenpilze-roter-fliegenpilz-pilze-516281/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fliegenpilz&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>443</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -7159,7 +7159,7 @@
         <v>&lt;image&gt;&lt;resname&gt;flugzeug&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flugzeug&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;airplane&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Holgi&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/personenverkehr-fluggesellschaft-122999/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flugzeug&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>444</v>
+        <v>583</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -7192,7 +7192,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fox&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fuchs&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fox&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fox-blau-silhouette-kunst-tierwelt-310123/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fox&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -7225,7 +7225,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fussball&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fußball&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soccer&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/football-ball-sport-soccer-round-157930&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fussball&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>446</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7258,7 +7258,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gewitter&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gewitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lightning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blitz-himmel-nacht-dunkel-690410/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gewitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>447</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -7291,7 +7291,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gummibears&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gummibär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;gummibear&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hans&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummib%C3%A4ren-fruchtgummis-b%C3%A4ren-8551/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gummibears&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>448</v>
+        <v>586</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -7324,7 +7324,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gummiente&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Ente&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;duck&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummi-ente-quietschende-schwimmen-156597/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gummiente&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>449</v>
+        <v>587</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -7357,7 +7357,7 @@
         <v>&lt;image&gt;&lt;resname&gt;haende&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hände&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;hands&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/h%C3%A4nde-zwei-offen-silhouette-296850/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;haende&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>450</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -7390,7 +7390,7 @@
         <v>&lt;image&gt;&lt;resname&gt;hase&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hase&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rabbit&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bunny-outline-easter-cutout-cookie-306263/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;hase&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>451</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -7423,7 +7423,7 @@
         <v>&lt;image&gt;&lt;resname&gt;haus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Haus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;house&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/h%C3%BCtte-haus-ferienhaus-urlaub-dach-312420/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;haus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>452</v>
+        <v>590</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -7456,7 +7456,7 @@
         <v>&lt;image&gt;&lt;resname&gt;heissluftballon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Heissluftballon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;aerostat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Fabian&lt;/name&gt;&lt;source&gt;&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;heissluftballon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -7489,7 +7489,7 @@
         <v>&lt;image&gt;&lt;resname&gt;himbeeren&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Himbeeren&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;raspberry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;donpolo&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/54811.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Ne Hand voll Himbeeren &lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -7522,7 +7522,7 @@
         <v>&lt;image&gt;&lt;resname&gt;juli&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;month&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/juli-jul-monat-jahr-neue-tag-706938/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;juli&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>455</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -7555,7 +7555,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kaefer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Marienkäfer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;ladybug&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;blickpixel&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/biologische-blatt-bl%C3%A4tter-181237/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kaefer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>456</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -7588,7 +7588,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kaffeebohne&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kaffeebohne&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;coffebean&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Karl Dichtler &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/136975.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;andere Sicht&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>457</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -7621,7 +7621,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kangaroo&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Känguru&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;kangaroo&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/k%C3%A4nguru-s%C3%A4ugetier-australien-295261/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kangaroo&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -7654,7 +7654,7 @@
         <v>&lt;image&gt;&lt;resname&gt;katze&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/animal-cat-contour-outlines-675646&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;katze&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>459</v>
+        <v>594</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -7687,7 +7687,7 @@
         <v>&lt;image&gt;&lt;resname&gt;knochen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Knochen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bones-dog-chicken-comic-307870/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;knochen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -7720,7 +7720,7 @@
         <v>&lt;image&gt;&lt;resname&gt;korb&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Korb&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;basket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/korb-gr%C3%BCn-kunststoff-container-312684/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;korb&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -7753,7 +7753,7 @@
         <v>&lt;image&gt;&lt;resname&gt;krone&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Krone&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;crown&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/krone-royal-kreuz-edelsteine-308054/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;krone&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>462</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -7786,7 +7786,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kuerbis&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kürbis&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pumpkin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Klaus Maier&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/20758.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Kürbisse - Farben &lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -7819,7 +7819,7 @@
         <v>&lt;image&gt;&lt;resname&gt;landstrasse&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Straße&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;street&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/chile-panamericana-stra%C3%9Fe-693053/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;landstrasse&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>464</v>
+        <v>598</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -7852,7 +7852,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lava&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lava&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lava&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lava-magma-vulkanausbruch-gl%C3%BChen-67574/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lava&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>465</v>
+        <v>599</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -7885,7 +7885,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lego&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lego&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lego&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;mwewering&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lego-legosteine-steine-spielzeug-615239/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lego&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>466</v>
+        <v>600</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -7918,7 +7918,7 @@
         <v>&lt;image&gt;&lt;resname&gt;leopard&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leopard&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;leopard&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leopard-raubkatze-savuti-botswana-694460/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leopard&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -7951,7 +7951,7 @@
         <v>&lt;image&gt;&lt;resname&gt;leuchtturm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leuchtturm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lighthouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;prosaica&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leuchtturm-bodie-island-186722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leuchtturm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>468</v>
+        <v>601</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -7984,7 +7984,7 @@
         <v>&lt;image&gt;&lt;resname&gt;magnet&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Magnet&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;magnet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/magnet-hufeisen-polen-norden-s%C3%BCden-312777/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;magnet&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -8017,7 +8017,7 @@
         <v>&lt;image&gt;&lt;resname&gt;maus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Maus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/mouse-rodent-animal-small-pet-311207/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;maus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>470</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -8050,7 +8050,7 @@
         <v>&lt;image&gt;&lt;resname&gt;meer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Meer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sea&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;rolypolys&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/d%C3%A4nemark-ostsee-k%C3%BCste-meer-wasser-239992/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;meer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>471</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -8083,7 +8083,7 @@
         <v>&lt;image&gt;&lt;resname&gt;mond&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Mond&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;jrperes&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mond-himmel-wolken-tag-v%C3%B6gel-323425/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;mond&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>472</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -8116,7 +8116,7 @@
         <v>&lt;image&gt;&lt;resname&gt;monitor&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bildschirm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monitor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/monitor-flatscreen-bildschirm-23269/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;monitor&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -8149,7 +8149,7 @@
         <v>&lt;image&gt;&lt;resname&gt;nikolaus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nikolaus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;santa&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/santa-claus-st-nicholas-funny-x-mas-153309/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;nikolaus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>474</v>
+        <v>605</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -8182,7 +8182,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pebble&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kieselsteine&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pebble&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;SuXxLe&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kies-steine-desktop-hintergrund-618737/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pebble&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -8215,7 +8215,7 @@
         <v>&lt;image&gt;&lt;resname&gt;piano&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Klavier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;piano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/klavier-musical-instrument-tastatur-312543/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;piano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>476</v>
+        <v>606</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -8248,7 +8248,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pik&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;peak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/karte-umrissen-spielen-schwarz-157404/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>477</v>
+        <v>607</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -8281,7 +8281,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pills&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pillen-medizin-gesundheit-684989/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pills&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>478</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -8314,7 +8314,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pills2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Angie525A&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/16045.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Licht und Schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>479</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -8347,7 +8347,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pinguin&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinguin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;penguin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/penguin-aquatic-flightless-birds-41066/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinguin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>480</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -8380,7 +8380,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pink&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rose&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;MJO&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/rosa-rot-blume-geschenk-143445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pink&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>481</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -8413,7 +8413,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pinsel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;paintbrush&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pinsel-borsten-griff-holz-312711/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>482</v>
+        <v>610</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -8446,7 +8446,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pirate&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pirat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pirate&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pirat-hut-kappe-tod-warnung-311819/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pirate&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>483</v>
+        <v>437</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -8479,7 +8479,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rakete&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rakete&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rocket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/rocket-spaceship-space-shuttle-nasa-147466/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rakete&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>484</v>
+        <v>611</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -8512,7 +8512,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rhino1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-afrika-tier-s%C3%BCdafrika-161569/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -8545,7 +8545,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rhino2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Maddox74&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-safaripark-d%C3%A4nemark-tier-433495/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -8578,7 +8578,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rings&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hochzeit&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;wedding&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ringe-hochzeit-bands-duo-mann-312341/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rings&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -8611,7 +8611,7 @@
         <v>&lt;image&gt;&lt;resname&gt;robot&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Roboter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;robot&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/roboter-maschine-technologie-312566/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;robot&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -8644,7 +8644,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sanfrancisco&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stadt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;city&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/san-francisco-geb%C3%A4ude-t%C3%BCrme-690243/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sanfrancisco&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -8677,7 +8677,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schatten&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schatten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shadow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/licht-schatten-licht-und-schatten-685069/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>490</v>
+        <v>612</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -8710,7 +8710,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schere&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scissor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/scissors-shears-cut-tool-equipment-24188/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schere&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>491</v>
+        <v>613</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -8743,7 +8743,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schildkroete1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schildkr%C3%B6te-unterwasser-wasser-691040/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>492</v>
+        <v>614</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -8776,7 +8776,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schildkroete2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/turtle-carapace-tortoise-green-303732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>493</v>
+        <v>615</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -8809,7 +8809,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schloss&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schloss&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;stux&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/castle-padlock-shut-off-to-378353&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schloss&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>494</v>
+        <v>616</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -8842,7 +8842,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schmetterling&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schmetterling&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;butterfly&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schmetterling-schwarz-weiss-konturen-658047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schmetterling&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>495</v>
+        <v>617</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -8875,7 +8875,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schnee&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnee&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;snow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/landschaft-berge-h%C3%BCgel-t%C3%A4ler-690244/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schnee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>496</v>
+        <v>618</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -8908,7 +8908,7 @@
         <v>&lt;image&gt;&lt;resname&gt;school&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stift&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pencil&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schule-bleistift-stift-schreiben-153561/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;school&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>497</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -8941,7 +8941,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schraubenzieher&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schraubenzieher&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;screwdriver&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/screwdriver-starhead-star-torx-33634&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schraubenzieher&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>498</v>
+        <v>620</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -8974,7 +8974,7 @@
         <v>&lt;image&gt;&lt;resname&gt;seifen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Seife&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soap&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lukas_reinhardt &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/103663.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Export&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>499</v>
+        <v>621</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -9007,7 +9007,7 @@
         <v>&lt;image&gt;&lt;resname&gt;skull&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Totenkopf&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;skull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/totenkopf-sch%C3%A4del-gekreuzten-knochen-30325/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;skull&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -9040,7 +9040,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sky1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wolke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cloud&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hongmyeon&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-wolke-sonnenschein-sommer-383823/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sky1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>501</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -9073,7 +9073,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sky2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Himmel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sky&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;alexis&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-berg-wolke-berge-wolken-62732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sky2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>502</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -9106,7 +9106,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sonnenuntergang&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnenuntergang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sunset&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;JanneG&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gl%C3%BChend-gegenlicht-vogel-m%C3%B6we-253676/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonnenuntergang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>503</v>
+        <v>622</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -9139,7 +9139,7 @@
         <v>&lt;image&gt;&lt;resname&gt;stier&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stier-buffalo-tier-s%C3%A4ugetier-155411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>504</v>
+        <v>623</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -9172,7 +9172,7 @@
         <v>&lt;image&gt;&lt;resname&gt;stone&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Balance&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;balance&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stein-balance-gleichgewicht-698354/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stone&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>505</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -9205,7 +9205,7 @@
         <v>&lt;image&gt;&lt;resname&gt;strawberry&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Erdbeere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;strawberry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/erdbeere-rot-makro-629180/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;strawberry&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>506</v>
+        <v>624</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -9238,7 +9238,7 @@
         <v>&lt;image&gt;&lt;resname&gt;structure&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Struktur&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;structure&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/struktur-herbst-weinlaub-698163/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;structure&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>507</v>
+        <v>419</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -9271,7 +9271,7 @@
         <v>&lt;image&gt;&lt;resname&gt;symbol&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Email&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;email&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/symbol-bei-computer-icon-design-684962/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;symbol&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>508</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/app/App-Bilder.xlsx
+++ b/app/App-Bilder.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="810"/>
   </bookViews>
   <sheets>
     <sheet name="Bildersammlung" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="641">
   <si>
     <t>Autor/Psyeudonym</t>
   </si>
@@ -1482,9 +1482,6 @@
     <t>&lt;image&gt;&lt;resname&gt;bat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Batman&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;batman&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fledermaus-schwarz-dracula-fl%C3%BCgel-151366/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;cat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tier-katze-kontur-umrisse-675646/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;cat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;sky1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wolke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cloud&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hongmyeon&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-wolke-sonnenschein-sommer-383823/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sky1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
@@ -2095,6 +2092,54 @@
   </si>
   <si>
     <t>&lt;image&gt;&lt;resname&gt;symbol&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Email&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;email&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/symbol-bei-computer-icon-design-684962/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;symbol&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;katze&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tier-katze-kontur-umrisse-675646/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;katze&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;teddybear&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Teddybär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;teddy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/teddyb%C3%A4r-b%C3%A4r-pl%C3%BCsch-gef%C3%BCllt-anial-303837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;teddybear&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;telefon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Telefon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;phone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;traude&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/telefon-handy-telefonieren-558022/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;telefon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;tomate&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tomate&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tomato&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;naliha&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/33783.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;rote Tomaten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;tree&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baum&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tree&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baum-scherenschnitt-natur-657481/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tree&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;trophaee&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pokal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;trophy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hrohmann&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vase-standvase-blau-wappen-700862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;trophaee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;twitter&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Twitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;twitter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/twitter-tweet-twitter-vogel-312464/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;twitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;uhr&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Uhr&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;clock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;KTEditor&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/uhr-zeit-stunden-559963/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;uhr&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;vegetables&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gurke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cucumber&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gem%C3%BCse-gurke-lebensmittel-700047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vegetables&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;volcano&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Vulkan&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;volcano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkan-eruption-ausbruch-lava-berg-310172/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;volcano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;volcano2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Eruption&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eruption&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkanausbruch-eruption-vulkan-67668/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;volcano2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;wassertropfen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wassertropfen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;waterdrop&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;roegger&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wassertropfen-spritzen-wasser-545377/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wassertropfen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;wuerfel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cube&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;wilhei&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;wueste&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wüste&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;desert&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gobi-w%C3%BCste-hei%C3%9F-sandd%C3%BCne-mongolei-692640/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wueste&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;wurm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wurm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;worm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/worm-cartoon-character-cute-funny-309559/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wurm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;yak&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yak&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yak-tier-tibet-grunzochse-642700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yak&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
 </sst>
 </file>
@@ -2477,8 +2522,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G100" totalsRowShown="0">
-  <autoFilter ref="A1:G100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G120" totalsRowShown="0">
+  <autoFilter ref="A1:G120"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Rätselzeile">
       <calculatedColumnFormula>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</calculatedColumnFormula>
@@ -2771,9 +2816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,7 +2953,7 @@
         <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J4" t="s">
         <v>183</v>
@@ -2936,7 +2981,7 @@
         <v>364</v>
       </c>
       <c r="I5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2961,7 +3006,7 @@
         <v>253</v>
       </c>
       <c r="I6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L6" t="s">
         <v>404</v>
@@ -2989,7 +3034,7 @@
         <v>343</v>
       </c>
       <c r="I7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3011,7 +3056,7 @@
         <v>57</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I8" t="s">
         <v>137</v>
@@ -3104,7 +3149,7 @@
         <v>330</v>
       </c>
       <c r="I11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -3129,7 +3174,7 @@
         <v>121</v>
       </c>
       <c r="I12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J12" t="s">
         <v>183</v>
@@ -3185,7 +3230,7 @@
         <v>201</v>
       </c>
       <c r="I14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3238,7 +3283,7 @@
         <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J16" t="s">
         <v>181</v>
@@ -3256,17 +3301,17 @@
         <v>6</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E17" s="15"/>
       <c r="G17" t="s">
+        <v>506</v>
+      </c>
+      <c r="H17" t="s">
         <v>507</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>508</v>
-      </c>
-      <c r="I17" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3291,7 +3336,7 @@
         <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J18" t="s">
         <v>183</v>
@@ -3328,7 +3373,7 @@
       </c>
       <c r="B20" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>cat</v>
+        <v>katze</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
@@ -3344,7 +3389,7 @@
         <v>75</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>504</v>
       </c>
       <c r="J20" t="s">
         <v>182</v>
@@ -3515,17 +3560,17 @@
         <v>6</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E27" s="10"/>
       <c r="G27" t="s">
+        <v>464</v>
+      </c>
+      <c r="H27" t="s">
         <v>465</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>466</v>
-      </c>
-      <c r="I27" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3550,7 +3595,7 @@
         <v>332</v>
       </c>
       <c r="I28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3594,13 +3639,13 @@
       </c>
       <c r="E30" s="10"/>
       <c r="G30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H30" t="s">
         <v>279</v>
       </c>
       <c r="I30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J30" t="s">
         <v>182</v>
@@ -3608,7 +3653,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B31" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -3616,17 +3661,17 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E31" s="15"/>
       <c r="G31" t="s">
+        <v>469</v>
+      </c>
+      <c r="H31" t="s">
         <v>470</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>471</v>
-      </c>
-      <c r="I31" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3707,7 +3752,7 @@
         <v>87</v>
       </c>
       <c r="I34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J34" t="s">
         <v>184</v>
@@ -3729,7 +3774,7 @@
       </c>
       <c r="E35" s="10"/>
       <c r="G35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -3763,7 +3808,7 @@
         <v>240</v>
       </c>
       <c r="I36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L36" t="s">
         <v>404</v>
@@ -3809,17 +3854,17 @@
         <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E38" s="15"/>
       <c r="G38" t="s">
+        <v>483</v>
+      </c>
+      <c r="H38" t="s">
         <v>484</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>485</v>
-      </c>
-      <c r="I38" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3844,7 +3889,7 @@
         <v>197</v>
       </c>
       <c r="I39" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L39" t="s">
         <v>404</v>
@@ -3894,10 +3939,10 @@
       </c>
       <c r="E41" s="10"/>
       <c r="G41" t="s">
+        <v>449</v>
+      </c>
+      <c r="H41" t="s">
         <v>450</v>
-      </c>
-      <c r="H41" t="s">
-        <v>451</v>
       </c>
       <c r="I41" t="s">
         <v>406</v>
@@ -3919,13 +3964,13 @@
       </c>
       <c r="E42" s="1"/>
       <c r="G42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H42" t="s">
         <v>110</v>
       </c>
       <c r="I42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J42" t="s">
         <v>182</v>
@@ -3946,7 +3991,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E43" s="15"/>
       <c r="G43" t="s">
@@ -3956,7 +4001,7 @@
         <v>377</v>
       </c>
       <c r="I43" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3981,7 +4026,7 @@
         <v>361</v>
       </c>
       <c r="I44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J44" t="s">
         <v>182</v>
@@ -4057,7 +4102,7 @@
         <v>190</v>
       </c>
       <c r="I47" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L47" t="s">
         <v>404</v>
@@ -4085,7 +4130,7 @@
         <v>26</v>
       </c>
       <c r="I48" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J48" t="s">
         <v>181</v>
@@ -4158,7 +4203,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E51" s="15"/>
       <c r="G51" t="s">
@@ -4168,7 +4213,7 @@
         <v>75</v>
       </c>
       <c r="I51" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -4183,17 +4228,17 @@
         <v>6</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E52" s="15"/>
       <c r="G52" t="s">
+        <v>510</v>
+      </c>
+      <c r="H52" t="s">
         <v>511</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>512</v>
-      </c>
-      <c r="I52" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -4218,7 +4263,7 @@
         <v>358</v>
       </c>
       <c r="I53" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -4243,7 +4288,7 @@
         <v>222</v>
       </c>
       <c r="I54" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -4292,7 +4337,7 @@
         <v>245</v>
       </c>
       <c r="I56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4311,7 +4356,7 @@
       </c>
       <c r="E57" s="10"/>
       <c r="G57" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H57" t="s">
         <v>276</v>
@@ -4398,7 +4443,7 @@
         <v>38</v>
       </c>
       <c r="I60" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J60" t="s">
         <v>181</v>
@@ -4441,17 +4486,17 @@
         <v>6</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E62" s="15"/>
       <c r="G62" t="s">
+        <v>514</v>
+      </c>
+      <c r="H62" t="s">
         <v>515</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>516</v>
-      </c>
-      <c r="I62" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4476,7 +4521,7 @@
         <v>54</v>
       </c>
       <c r="I63" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J63" t="s">
         <v>181</v>
@@ -4504,7 +4549,7 @@
         <v>42</v>
       </c>
       <c r="I64" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J64" t="s">
         <v>181</v>
@@ -4550,17 +4595,17 @@
         <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E66" s="15"/>
       <c r="G66" t="s">
+        <v>529</v>
+      </c>
+      <c r="H66" t="s">
         <v>530</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>531</v>
-      </c>
-      <c r="I66" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -4604,7 +4649,7 @@
       </c>
       <c r="E68" s="10"/>
       <c r="G68" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H68" t="s">
         <v>373</v>
@@ -4629,13 +4674,13 @@
       </c>
       <c r="E69" s="1"/>
       <c r="G69" t="s">
+        <v>451</v>
+      </c>
+      <c r="H69" t="s">
         <v>452</v>
       </c>
-      <c r="H69" t="s">
-        <v>453</v>
-      </c>
       <c r="I69" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J69" t="s">
         <v>183</v>
@@ -4684,7 +4729,7 @@
       </c>
       <c r="E71" s="10"/>
       <c r="F71" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G71" t="s">
         <v>301</v>
@@ -4708,17 +4753,17 @@
         <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E72" s="15"/>
       <c r="G72" t="s">
+        <v>487</v>
+      </c>
+      <c r="H72" t="s">
         <v>488</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>489</v>
-      </c>
-      <c r="I72" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4774,7 +4819,7 @@
         <v>355</v>
       </c>
       <c r="I74" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -4814,17 +4859,17 @@
         <v>6</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E76" s="15"/>
       <c r="G76" t="s">
+        <v>518</v>
+      </c>
+      <c r="H76" t="s">
         <v>519</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>520</v>
-      </c>
-      <c r="I76" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -4989,7 +5034,7 @@
         <v>255</v>
       </c>
       <c r="I82" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J82" t="s">
         <v>182</v>
@@ -5007,17 +5052,17 @@
         <v>6</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E83" s="15"/>
       <c r="G83" t="s">
+        <v>479</v>
+      </c>
+      <c r="H83" t="s">
         <v>480</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>481</v>
-      </c>
-      <c r="I83" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -5042,7 +5087,7 @@
         <v>204</v>
       </c>
       <c r="I84" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -5057,7 +5102,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E85" s="15"/>
       <c r="G85" t="s">
@@ -5067,32 +5112,32 @@
         <v>204</v>
       </c>
       <c r="I85" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B86" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>schloss</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>491</v>
-      </c>
-      <c r="B86" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>schloss</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>492</v>
       </c>
       <c r="E86" s="15"/>
       <c r="G86" t="s">
+        <v>492</v>
+      </c>
+      <c r="H86" t="s">
         <v>493</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>494</v>
-      </c>
-      <c r="I86" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -5117,7 +5162,7 @@
         <v>72</v>
       </c>
       <c r="I87" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J87" t="s">
         <v>181</v>
@@ -5139,13 +5184,13 @@
       </c>
       <c r="E88" s="10"/>
       <c r="G88" t="s">
+        <v>552</v>
+      </c>
+      <c r="H88" t="s">
         <v>553</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>554</v>
-      </c>
-      <c r="I88" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -5164,7 +5209,7 @@
       </c>
       <c r="E89" s="10"/>
       <c r="G89" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H89" t="s">
         <v>316</v>
@@ -5188,17 +5233,17 @@
         <v>6</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E90" s="15"/>
       <c r="G90" t="s">
+        <v>473</v>
+      </c>
+      <c r="H90" t="s">
         <v>474</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>475</v>
-      </c>
-      <c r="I90" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -5222,7 +5267,7 @@
         <v>299</v>
       </c>
       <c r="I91" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -5328,7 +5373,7 @@
         <v>34</v>
       </c>
       <c r="I95" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J95" t="s">
         <v>181</v>
@@ -5356,7 +5401,7 @@
         <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J96" t="s">
         <v>184</v>
@@ -5456,10 +5501,10 @@
       </c>
       <c r="E100" s="10"/>
       <c r="G100" t="s">
+        <v>454</v>
+      </c>
+      <c r="H100" t="s">
         <v>455</v>
-      </c>
-      <c r="H100" t="s">
-        <v>456</v>
       </c>
       <c r="I100" t="s">
         <v>282</v>
@@ -5515,7 +5560,7 @@
         <v>84</v>
       </c>
       <c r="I102" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J102" t="s">
         <v>183</v>
@@ -5592,13 +5637,13 @@
       </c>
       <c r="E105" s="10"/>
       <c r="G105" t="s">
+        <v>458</v>
+      </c>
+      <c r="H105" t="s">
         <v>459</v>
       </c>
-      <c r="H105" t="s">
-        <v>460</v>
-      </c>
       <c r="I105" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -5648,7 +5693,7 @@
         <v>117</v>
       </c>
       <c r="I107" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J107" t="s">
         <v>184</v>
@@ -5751,7 +5796,7 @@
         <v>270</v>
       </c>
       <c r="I111" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -5776,7 +5821,7 @@
         <v>9</v>
       </c>
       <c r="I112" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J112" t="s">
         <v>181</v>
@@ -5804,7 +5849,7 @@
         <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J113" t="s">
         <v>181</v>
@@ -5822,17 +5867,17 @@
         <v>6</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E114" s="15"/>
       <c r="G114" t="s">
+        <v>522</v>
+      </c>
+      <c r="H114" t="s">
         <v>523</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>524</v>
-      </c>
-      <c r="I114" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5964,10 +6009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView windowProtection="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6070,7 +6115,7 @@
         <v>&lt;image&gt;&lt;resname&gt;alien&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Alien&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;alien&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/au%C3%9Ferirdischer-geste-des-friedens-308429/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;alien&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6103,7 +6148,7 @@
         <v>&lt;image&gt;&lt;resname&gt;amsel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Amsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;blackbird&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/amsel-stehen-silhouette-rosa-305542/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;amsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6136,7 +6181,7 @@
         <v>&lt;image&gt;&lt;resname&gt;anker&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Anker&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;anchor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/anker-meer-yacht-marine-schiff-312599/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;anker&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6169,7 +6214,7 @@
         <v>&lt;image&gt;&lt;resname&gt;apfel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Apfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;apple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/apple-rot-obst-696445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;apfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6202,7 +6247,7 @@
         <v>&lt;image&gt;&lt;resname&gt;auto2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auto&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;car&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auto-spielzeugauto-spielzeug-spa%C3%9F-312461/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auto2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6235,7 +6280,7 @@
         <v>&lt;image&gt;&lt;resname&gt;background1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wiese&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;grassland&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/hintergrund-blau-sauber-klar-tag-21717/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;background1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6268,7 +6313,7 @@
         <v>&lt;image&gt;&lt;resname&gt;background2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gras&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;grass&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/hintergrund-nahaufnahme-flora-16051/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;background2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6301,7 +6346,7 @@
         <v>&lt;image&gt;&lt;resname&gt;balloons&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Luftballon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;balloons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/luftballons-aufgeblasen-luft-feier-312654/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;balloons&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6334,7 +6379,7 @@
         <v>&lt;image&gt;&lt;resname&gt;banane&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Banane&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;banana&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/banane-haufen-obst-lebensmittel-25339/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;banane&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6367,7 +6412,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bart&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnurrbart&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moustache&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;amandaelizabeth84&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schnurrbart-lenker-m%C3%A4nnlich-haar-473661/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bart&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6433,7 +6478,7 @@
         <v>&lt;image&gt;&lt;resname&gt;baumstamm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baumstamm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;log/trunk&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baumst%C3%A4mme-holz-anmelden-bauholz-690888/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;baumstamm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6499,7 +6544,7 @@
         <v>&lt;image&gt;&lt;resname&gt;blume&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Blume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blume-rose-kontur-umrisse-schwarz-681009/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;blume&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6532,7 +6577,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bombe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bombe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bomb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bomb-explosive-detonation-fuze-154456&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bombe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6565,7 +6610,7 @@
         <v>&lt;image&gt;&lt;resname&gt;brille&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Brille&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;glasses&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/brillen-schwarz-silhouette-310516/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;brille&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6598,7 +6643,7 @@
         <v>&lt;image&gt;&lt;resname&gt;campfire&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lagerfeuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;campfire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-lager-holz-w%C3%A4rme-flammen-30231/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;campfire&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6608,7 +6653,7 @@
       </c>
       <c r="B20" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;cat&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;katze&lt;/resname&gt;</v>
       </c>
       <c r="C20" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
@@ -6616,7 +6661,7 @@
       </c>
       <c r="D20" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tier-katze-kontur-umrisse-675646/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;cat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tier-katze-kontur-umrisse-675646/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;katze&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E20" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -6628,10 +6673,10 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;image&gt;&lt;resname&gt;cat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tier-katze-kontur-umrisse-675646/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;cat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;katze&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tier-katze-kontur-umrisse-675646/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;katze&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>421</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -6664,7 +6709,7 @@
         <v>&lt;image&gt;&lt;resname&gt;diamond&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Diamant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;diamond&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/diamant-teuer-juwel-wertvolle-158431/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;diamond&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6697,7 +6742,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dinosaurier&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Dinosaurier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dinosaur&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/brontosaurus-dinosaurier-dino-297003/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dinosaurier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -6730,7 +6775,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dragon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monster&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monster&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-eidechse-monster-chinesisch-149393/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dragon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -6763,7 +6808,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dragon2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Drache&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dragon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-rot-symbol-fantasie-312035/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dragon2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6796,7 +6841,7 @@
         <v>&lt;image&gt;&lt;resname&gt;elephant&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Elefant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;elephant&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/elefant-profil-rot-gro%C3%9F-306223/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;elephant&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6862,7 +6907,7 @@
         <v>&lt;image&gt;&lt;resname&gt;esel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Esel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;donkey&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/donkey-animal-farm-gray-comic-310798/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;esel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -6895,7 +6940,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fahrrad&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fahrrad&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bicycle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fahrrad-zyklus-rad-pedal-311808/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fahrrad&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -6928,7 +6973,7 @@
         <v>&lt;image&gt;&lt;resname&gt;feet&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Füße&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;feet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/f%C3%BC%C3%9Fe-zehen-abdruck-gliederung-311827/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;feet&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -6961,7 +7006,7 @@
         <v>&lt;image&gt;&lt;resname&gt;feuer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Feuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-kamin-flamme-hei%C3%9F-brennen-690944/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;feuer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6994,7 +7039,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fish&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unknown&lt;/name&gt;&lt;source&gt;www.pngimg.com/download/1160&lt;/source&gt;&lt;license&gt;&lt;/license&gt;&lt;title&gt;fisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -7027,7 +7072,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fishingboat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Boot&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;boat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Suedelbien&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fischerboot-d%C3%A4nemark-strand-meer-49523/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fishingboat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -7060,7 +7105,7 @@
         <v>&lt;image&gt;&lt;resname&gt;flag&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flagge&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flag&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/flagge-rot-signal-aufmerksamkeit-312763/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flag&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -7093,7 +7138,7 @@
         <v>&lt;image&gt;&lt;resname&gt;flasche&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flasche&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bottle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/flasche-ketchup-leere-geschlossen-306549/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flasche&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -7126,7 +7171,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fliegenpilz&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fliegenpilz&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mushroom&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lichtwerk2&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fliegenpilze-roter-fliegenpilz-pilze-516281/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fliegenpilz&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -7159,7 +7204,7 @@
         <v>&lt;image&gt;&lt;resname&gt;flugzeug&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flugzeug&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;airplane&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Holgi&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/personenverkehr-fluggesellschaft-122999/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flugzeug&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -7192,7 +7237,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fox&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fuchs&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fox&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fox-blau-silhouette-kunst-tierwelt-310123/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fox&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -7225,7 +7270,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fussball&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fußball&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soccer&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/football-ball-sport-soccer-round-157930&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fussball&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7258,7 +7303,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gewitter&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gewitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lightning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blitz-himmel-nacht-dunkel-690410/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gewitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -7291,7 +7336,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gummibears&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gummibär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;gummibear&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hans&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummib%C3%A4ren-fruchtgummis-b%C3%A4ren-8551/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gummibears&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -7324,7 +7369,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gummiente&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Ente&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;duck&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummi-ente-quietschende-schwimmen-156597/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gummiente&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -7357,7 +7402,7 @@
         <v>&lt;image&gt;&lt;resname&gt;haende&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hände&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;hands&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/h%C3%A4nde-zwei-offen-silhouette-296850/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;haende&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -7390,7 +7435,7 @@
         <v>&lt;image&gt;&lt;resname&gt;hase&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hase&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rabbit&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bunny-outline-easter-cutout-cookie-306263/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;hase&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -7423,7 +7468,7 @@
         <v>&lt;image&gt;&lt;resname&gt;haus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Haus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;house&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/h%C3%BCtte-haus-ferienhaus-urlaub-dach-312420/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;haus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -7522,7 +7567,7 @@
         <v>&lt;image&gt;&lt;resname&gt;juli&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;month&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/juli-jul-monat-jahr-neue-tag-706938/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;juli&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -7555,7 +7600,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kaefer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Marienkäfer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;ladybug&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;blickpixel&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/biologische-blatt-bl%C3%A4tter-181237/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kaefer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -7588,7 +7633,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kaffeebohne&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kaffeebohne&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;coffebean&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Karl Dichtler &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/136975.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;andere Sicht&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -7621,7 +7666,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kangaroo&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Känguru&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;kangaroo&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/k%C3%A4nguru-s%C3%A4ugetier-australien-295261/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kangaroo&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -7654,7 +7699,7 @@
         <v>&lt;image&gt;&lt;resname&gt;katze&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/animal-cat-contour-outlines-675646&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;katze&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -7687,7 +7732,7 @@
         <v>&lt;image&gt;&lt;resname&gt;knochen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Knochen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bones-dog-chicken-comic-307870/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;knochen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -7720,7 +7765,7 @@
         <v>&lt;image&gt;&lt;resname&gt;korb&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Korb&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;basket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/korb-gr%C3%BCn-kunststoff-container-312684/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;korb&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -7753,7 +7798,7 @@
         <v>&lt;image&gt;&lt;resname&gt;krone&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Krone&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;crown&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/krone-royal-kreuz-edelsteine-308054/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;krone&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -7786,7 +7831,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kuerbis&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kürbis&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pumpkin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Klaus Maier&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/20758.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Kürbisse - Farben &lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -7819,7 +7864,7 @@
         <v>&lt;image&gt;&lt;resname&gt;landstrasse&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Straße&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;street&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/chile-panamericana-stra%C3%9Fe-693053/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;landstrasse&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -7852,7 +7897,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lava&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lava&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lava&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lava-magma-vulkanausbruch-gl%C3%BChen-67574/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lava&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -7885,7 +7930,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lego&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lego&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lego&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;mwewering&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lego-legosteine-steine-spielzeug-615239/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lego&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -7951,7 +7996,7 @@
         <v>&lt;image&gt;&lt;resname&gt;leuchtturm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leuchtturm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lighthouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;prosaica&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leuchtturm-bodie-island-186722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leuchtturm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -7984,7 +8029,7 @@
         <v>&lt;image&gt;&lt;resname&gt;magnet&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Magnet&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;magnet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/magnet-hufeisen-polen-norden-s%C3%BCden-312777/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;magnet&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -8017,7 +8062,7 @@
         <v>&lt;image&gt;&lt;resname&gt;maus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Maus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/mouse-rodent-animal-small-pet-311207/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;maus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -8050,7 +8095,7 @@
         <v>&lt;image&gt;&lt;resname&gt;meer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Meer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sea&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;rolypolys&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/d%C3%A4nemark-ostsee-k%C3%BCste-meer-wasser-239992/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;meer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -8083,7 +8128,7 @@
         <v>&lt;image&gt;&lt;resname&gt;mond&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Mond&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;jrperes&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mond-himmel-wolken-tag-v%C3%B6gel-323425/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;mond&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -8116,7 +8161,7 @@
         <v>&lt;image&gt;&lt;resname&gt;monitor&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bildschirm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monitor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/monitor-flatscreen-bildschirm-23269/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;monitor&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -8149,7 +8194,7 @@
         <v>&lt;image&gt;&lt;resname&gt;nikolaus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nikolaus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;santa&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/santa-claus-st-nicholas-funny-x-mas-153309/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;nikolaus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -8182,7 +8227,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pebble&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kieselsteine&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pebble&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;SuXxLe&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kies-steine-desktop-hintergrund-618737/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pebble&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -8215,7 +8260,7 @@
         <v>&lt;image&gt;&lt;resname&gt;piano&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Klavier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;piano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/klavier-musical-instrument-tastatur-312543/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;piano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -8248,7 +8293,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pik&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;peak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/karte-umrissen-spielen-schwarz-157404/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -8281,7 +8326,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pills&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pillen-medizin-gesundheit-684989/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pills&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -8347,7 +8392,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pinguin&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinguin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;penguin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/penguin-aquatic-flightless-birds-41066/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinguin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -8380,7 +8425,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pink&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rose&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;MJO&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/rosa-rot-blume-geschenk-143445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pink&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -8413,7 +8458,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pinsel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;paintbrush&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pinsel-borsten-griff-holz-312711/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -8446,7 +8491,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pirate&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pirat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pirate&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pirat-hut-kappe-tod-warnung-311819/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pirate&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -8479,7 +8524,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rakete&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rakete&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rocket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/rocket-spaceship-space-shuttle-nasa-147466/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rakete&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -8512,7 +8557,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rhino1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-afrika-tier-s%C3%BCdafrika-161569/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -8545,7 +8590,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rhino2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Maddox74&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-safaripark-d%C3%A4nemark-tier-433495/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -8578,7 +8623,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rings&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hochzeit&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;wedding&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ringe-hochzeit-bands-duo-mann-312341/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rings&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -8611,7 +8656,7 @@
         <v>&lt;image&gt;&lt;resname&gt;robot&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Roboter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;robot&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/roboter-maschine-technologie-312566/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;robot&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -8644,7 +8689,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sanfrancisco&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stadt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;city&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/san-francisco-geb%C3%A4ude-t%C3%BCrme-690243/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sanfrancisco&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -8677,7 +8722,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schatten&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schatten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shadow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/licht-schatten-licht-und-schatten-685069/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -8710,7 +8755,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schere&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scissor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/scissors-shears-cut-tool-equipment-24188/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schere&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -8743,7 +8788,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schildkroete1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schildkr%C3%B6te-unterwasser-wasser-691040/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -8776,7 +8821,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schildkroete2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/turtle-carapace-tortoise-green-303732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -8809,7 +8854,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schloss&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schloss&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;stux&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/castle-padlock-shut-off-to-378353&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schloss&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -8842,7 +8887,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schmetterling&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schmetterling&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;butterfly&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schmetterling-schwarz-weiss-konturen-658047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schmetterling&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -8875,7 +8920,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schnee&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnee&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;snow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/landschaft-berge-h%C3%BCgel-t%C3%A4ler-690244/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schnee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -8908,7 +8953,7 @@
         <v>&lt;image&gt;&lt;resname&gt;school&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stift&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pencil&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schule-bleistift-stift-schreiben-153561/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;school&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -8941,7 +8986,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schraubenzieher&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schraubenzieher&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;screwdriver&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/screwdriver-starhead-star-torx-33634&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schraubenzieher&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -8974,7 +9019,7 @@
         <v>&lt;image&gt;&lt;resname&gt;seifen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Seife&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soap&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lukas_reinhardt &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/103663.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Export&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -9007,7 +9052,7 @@
         <v>&lt;image&gt;&lt;resname&gt;skull&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Totenkopf&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;skull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/totenkopf-sch%C3%A4del-gekreuzten-knochen-30325/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;skull&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -9040,7 +9085,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sky1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wolke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cloud&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hongmyeon&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-wolke-sonnenschein-sommer-383823/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sky1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -9106,7 +9151,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sonnenuntergang&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnenuntergang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sunset&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;JanneG&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gl%C3%BChend-gegenlicht-vogel-m%C3%B6we-253676/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonnenuntergang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -9139,7 +9184,7 @@
         <v>&lt;image&gt;&lt;resname&gt;stier&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stier-buffalo-tier-s%C3%A4ugetier-155411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -9205,7 +9250,7 @@
         <v>&lt;image&gt;&lt;resname&gt;strawberry&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Erdbeere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;strawberry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/erdbeere-rot-makro-629180/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;strawberry&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -9271,7 +9316,667 @@
         <v>&lt;image&gt;&lt;resname&gt;symbol&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Email&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;email&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/symbol-bei-computer-icon-design-684962/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;symbol&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>101</v>
+      </c>
+      <c r="B101" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;teddybear&lt;/resname&gt;</v>
+      </c>
+      <c r="C101" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Teddybär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;teddy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D101" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/teddyb%C3%A4r-b%C3%A4r-pl%C3%BCsch-gef%C3%BCllt-anial-303837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;teddybear&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E101" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F101" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" ref="G101:G120" si="3">B101&amp;C101&amp;D101&amp;E101&amp;F101</f>
+        <v>&lt;image&gt;&lt;resname&gt;teddybear&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Teddybär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;teddy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/teddyb%C3%A4r-b%C3%A4r-pl%C3%BCsch-gef%C3%BCllt-anial-303837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;teddybear&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>102</v>
+      </c>
+      <c r="B102" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;telefon&lt;/resname&gt;</v>
+      </c>
+      <c r="C102" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Telefon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;phone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D102" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;traude&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/telefon-handy-telefonieren-558022/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;telefon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E102" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F102" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;image&gt;&lt;resname&gt;telefon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Telefon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;phone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;traude&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/telefon-handy-telefonieren-558022/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;telefon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>103</v>
+      </c>
+      <c r="B103" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;tomate&lt;/resname&gt;</v>
+      </c>
+      <c r="C103" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tomate&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tomato&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D103" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;naliha&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/33783.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;rote Tomaten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E103" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F103" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;image&gt;&lt;resname&gt;tomate&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tomate&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tomato&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;naliha&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/33783.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;rote Tomaten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>104</v>
+      </c>
+      <c r="B104" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;tree&lt;/resname&gt;</v>
+      </c>
+      <c r="C104" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baum&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tree&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D104" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baum-scherenschnitt-natur-657481/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tree&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E104" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F104" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;image&gt;&lt;resname&gt;tree&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baum&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tree&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baum-scherenschnitt-natur-657481/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tree&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>105</v>
+      </c>
+      <c r="B105" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;trophaee&lt;/resname&gt;</v>
+      </c>
+      <c r="C105" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pokal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;trophy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D105" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;hrohmann&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vase-standvase-blau-wappen-700862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;trophaee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E105" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F105" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;image&gt;&lt;resname&gt;trophaee&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pokal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;trophy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hrohmann&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vase-standvase-blau-wappen-700862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;trophaee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>106</v>
+      </c>
+      <c r="B106" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;twitter&lt;/resname&gt;</v>
+      </c>
+      <c r="C106" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Twitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;twitter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D106" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/twitter-tweet-twitter-vogel-312464/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;twitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E106" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F106" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;image&gt;&lt;resname&gt;twitter&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Twitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;twitter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/twitter-tweet-twitter-vogel-312464/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;twitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>107</v>
+      </c>
+      <c r="B107" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;uhr&lt;/resname&gt;</v>
+      </c>
+      <c r="C107" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Uhr&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;clock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D107" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;KTEditor&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/uhr-zeit-stunden-559963/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;uhr&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E107" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F107" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;image&gt;&lt;resname&gt;uhr&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Uhr&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;clock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;KTEditor&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/uhr-zeit-stunden-559963/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;uhr&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>108</v>
+      </c>
+      <c r="B108" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;vegetables&lt;/resname&gt;</v>
+      </c>
+      <c r="C108" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gurke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cucumber&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D108" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gem%C3%BCse-gurke-lebensmittel-700047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vegetables&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E108" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F108" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;image&gt;&lt;resname&gt;vegetables&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gurke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cucumber&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gem%C3%BCse-gurke-lebensmittel-700047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vegetables&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>109</v>
+      </c>
+      <c r="B109" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;volcano&lt;/resname&gt;</v>
+      </c>
+      <c r="C109" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Vulkan&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;volcano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D109" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkan-eruption-ausbruch-lava-berg-310172/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;volcano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E109" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F109" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;image&gt;&lt;resname&gt;volcano&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Vulkan&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;volcano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkan-eruption-ausbruch-lava-berg-310172/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;volcano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>110</v>
+      </c>
+      <c r="B110" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;volcano2&lt;/resname&gt;</v>
+      </c>
+      <c r="C110" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Eruption&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eruption&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D110" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkanausbruch-eruption-vulkan-67668/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;volcano2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E110" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F110" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;image&gt;&lt;resname&gt;volcano2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Eruption&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eruption&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkanausbruch-eruption-vulkan-67668/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;volcano2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>111</v>
+      </c>
+      <c r="B111" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;wassertropfen&lt;/resname&gt;</v>
+      </c>
+      <c r="C111" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wassertropfen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;waterdrop&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D111" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;roegger&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wassertropfen-spritzen-wasser-545377/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wassertropfen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E111" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F111" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;image&gt;&lt;resname&gt;wassertropfen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wassertropfen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;waterdrop&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;roegger&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wassertropfen-spritzen-wasser-545377/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wassertropfen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>112</v>
+      </c>
+      <c r="B112" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;wuerfel&lt;/resname&gt;</v>
+      </c>
+      <c r="C112" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cube&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D112" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;wilhei&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E112" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F112" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;image&gt;&lt;resname&gt;wuerfel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cube&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;wilhei&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>113</v>
+      </c>
+      <c r="B113" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;wueste&lt;/resname&gt;</v>
+      </c>
+      <c r="C113" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wüste&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;desert&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D113" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gobi-w%C3%BCste-hei%C3%9F-sandd%C3%BCne-mongolei-692640/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wueste&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E113" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F113" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;image&gt;&lt;resname&gt;wueste&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wüste&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;desert&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gobi-w%C3%BCste-hei%C3%9F-sandd%C3%BCne-mongolei-692640/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wueste&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>114</v>
+      </c>
+      <c r="B114" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;wurm&lt;/resname&gt;</v>
+      </c>
+      <c r="C114" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wurm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;worm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D114" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/worm-cartoon-character-cute-funny-309559/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wurm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E114" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F114" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;image&gt;&lt;resname&gt;wurm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wurm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;worm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/worm-cartoon-character-cute-funny-309559/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wurm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>115</v>
+      </c>
+      <c r="B115" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;yak&lt;/resname&gt;</v>
+      </c>
+      <c r="C115" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yak&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D115" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yak-tier-tibet-grunzochse-642700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yak&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E115" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F115" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;image&gt;&lt;resname&gt;yak&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yak&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yak-tier-tibet-grunzochse-642700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yak&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="e">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B116" t="e">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C116" t="e">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D116" t="e">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E116" t="e">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F116" t="e">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G116" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K116" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="e">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B117" t="e">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C117" t="e">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D117" t="e">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E117" t="e">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F117" t="e">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G117" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K117" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="e">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B118" t="e">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C118" t="e">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D118" t="e">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E118" t="e">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F118" t="e">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G118" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K118" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="e">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B119" t="e">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C119" t="e">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D119" t="e">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E119" t="e">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F119" t="e">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G119" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K119" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="e">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B120" t="e">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C120" t="e">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D120" t="e">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E120" t="e">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F120" t="e">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G120" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K120" s="3" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/app/App-Bilder.xlsx
+++ b/app/App-Bilder.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="810" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bildersammlung" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="647">
   <si>
     <t>Autor/Psyeudonym</t>
   </si>
@@ -2140,6 +2140,24 @@
   </si>
   <si>
     <t>&lt;image&gt;&lt;resname&gt;yak&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yak&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yak-tier-tibet-grunzochse-642700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yak&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>Galkenmännchen mit Puzzle</t>
+  </si>
+  <si>
+    <t>100 Fragen um ein Bild aufzudecken</t>
+  </si>
+  <si>
+    <t>100 Questions</t>
+  </si>
+  <si>
+    <t>Fragen werden nach vorgefertigtem Muster gestellt (z.B. 1. Es handelt sich um ein Lebewesen; 2. Die Farbe blau ist enthalten). Systemseitig werden die Antworten als Ja/Nein erfasst und mit der Lösung überprüft (z.B. Muster Ja/Ja/Nein/Nein/Ja/…). Ist eine Antwort richtig wird die nächste Frage gestellt und eines der 100 kleinen Teile aufgedeckt. Ist die Antwort falsch, wird das Intro Männchen vom UFO aufgezogen, Rätselpower wird abgezogen oder Galgenmännchen wird gehängt</t>
+  </si>
+  <si>
+    <t>Das Bild ist verdeckt, als 100 Teile unterteilt oder durcheinander. Anstelle der einzugebenden Buchstaben befindet sich unten nur zwei Kreise mit Auswahlmöglichkeiten (z.B. Ja-Nein)</t>
+  </si>
+  <si>
+    <t>Wird eine Frage richtig gelöst, dann wird die Verdeckung weniger. Also ein Teil wird richtig sortiert, Transparenz wird verbessert oder ein Bruchstück aufgedeckt</t>
   </si>
 </sst>
 </file>
@@ -2816,7 +2834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
     </sheetView>
@@ -9989,10 +10007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10140,6 +10158,30 @@
         <v>168</v>
       </c>
     </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/app/App-Bilder.xlsx
+++ b/app/App-Bilder.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="810"/>
   </bookViews>
   <sheets>
     <sheet name="Bildersammlung" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="903">
   <si>
     <t>Autor/Psyeudonym</t>
   </si>
@@ -1260,9 +1260,6 @@
     <t>bicycle</t>
   </si>
   <si>
-    <t>OpenClips und Nemo meist nur png Format</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ne Hand voll Himbeeren </t>
   </si>
   <si>
@@ -2637,9 +2634,6 @@
     <t>&lt;image&gt;&lt;resname&gt;rose&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rose&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;MJO&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/rosa-rot-blume-geschenk-143445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rose&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>diamont1</t>
-  </si>
-  <si>
     <t>http://pixabay.com/de/auto-fahrzeug-edel-limousine-681338/</t>
   </si>
   <si>
@@ -2649,10 +2643,337 @@
     <t>&lt;image&gt;&lt;resname&gt;auto1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auto&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;car&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auto-fahrzeug-edel-limousine-681338/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auto1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;diamont1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Diamant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;diamond&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/diamant-teuer-juwel-wertvolle-158431/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;diamont1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>Zeile</t>
+  </si>
+  <si>
+    <t>ZIPNON</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/valentine-herz-liebe-eingebettet-601705/</t>
+  </si>
+  <si>
+    <t>Herz</t>
+  </si>
+  <si>
+    <t>hearth</t>
+  </si>
+  <si>
+    <t>herz</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/m%C3%A4nnlich-weiblich-geschlecht-709687/</t>
+  </si>
+  <si>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>geschlecht</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/weiblich-symbol-frau-menschen-709700/</t>
+  </si>
+  <si>
+    <t>Frau</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>frau</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/eine-1-zahl-design-sammlung-706897/</t>
+  </si>
+  <si>
+    <t>Zahl</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>zahl</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/regenbogen-streifen-muster-298752/</t>
+  </si>
+  <si>
+    <t>Regenbogen</t>
+  </si>
+  <si>
+    <t>rainbow</t>
+  </si>
+  <si>
+    <t>regenbogen</t>
+  </si>
+  <si>
+    <t>NEU</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/blume-kontur-gelb-umrisse-668854/</t>
+  </si>
+  <si>
+    <t>Kommentar2</t>
+  </si>
+  <si>
+    <t>Wort vorhanden</t>
+  </si>
+  <si>
+    <t>blume2</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/noten-notenblatt-musik-takt-668862/</t>
+  </si>
+  <si>
+    <t>Noten</t>
+  </si>
+  <si>
+    <t>noten</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/notenschl%C3%BCssel-musik-melodie-ton-296775/</t>
+  </si>
+  <si>
+    <t>Musik</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>musik</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/pfeile-farbverlauf-design-symbol-539917/</t>
+  </si>
+  <si>
+    <t>Pfeile</t>
+  </si>
+  <si>
+    <t>arrows</t>
+  </si>
+  <si>
+    <t>pfeile</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/abc-alphabet-t-schreiben-schriften-725081/</t>
+  </si>
+  <si>
+    <t>Buchstabe</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>buchstabe</t>
+  </si>
+  <si>
+    <t>diamant1</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/schl%C3%BCssel-sperre-gesperrt-575680/</t>
+  </si>
+  <si>
+    <t>Schlüssel</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>schluessel</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/</t>
+  </si>
+  <si>
+    <t>Tisch</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>tisch</t>
+  </si>
+  <si>
+    <t>Schatten! Testen!</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/ei-sonnenseite-bis-gebraten-576086/</t>
+  </si>
+  <si>
+    <t>Spiegelei</t>
+  </si>
+  <si>
+    <t>friedegg</t>
+  </si>
+  <si>
+    <t>spiegelei</t>
+  </si>
+  <si>
+    <t>Kontur! Testen</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/zaun-gartenzaun-geschlossen-156818/</t>
+  </si>
+  <si>
+    <t>Zaun</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>zaun</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/linse-vergr%C3%B6%C3%9Fern-glas-lupen-lupe-156813/</t>
+  </si>
+  <si>
+    <t>Lupe</t>
+  </si>
+  <si>
+    <t>loupe</t>
+  </si>
+  <si>
+    <t>lupe</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/kamera-cctv-sicherheit-cam-156730/</t>
+  </si>
+  <si>
+    <t>Kamera</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>kamera</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/yinyang-yin-und-yang-yang-yin-156414/</t>
+  </si>
+  <si>
+    <t>Yinyang</t>
+  </si>
+  <si>
+    <t>yinyang</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/handabdruck-finger-palm-anschlag-23837/</t>
+  </si>
+  <si>
+    <t>Handabdruck</t>
+  </si>
+  <si>
+    <t>handprint</t>
+  </si>
+  <si>
+    <t>handabdruck</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/gedanken-sprache-blasen-idee-24152/</t>
+  </si>
+  <si>
+    <t>Gedanken</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>gedanke</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/spirale-design-muster-wirbel-24981/</t>
+  </si>
+  <si>
+    <t>Spriale</t>
+  </si>
+  <si>
+    <t>spiral</t>
+  </si>
+  <si>
+    <t>spirale</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/europa-karte-l%C3%A4nder-silhouette-23571/</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>europa</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;diamant1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Diamant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;diamond&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/diamant-teuer-juwel-wertvolle-158431/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;diamant1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;herz&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Herz&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;hearth&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/valentine-herz-liebe-eingebettet-601705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;herz&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;geschlecht&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Geschlecht&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;gender&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%A4nnlich-weiblich-geschlecht-709687/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;geschlecht&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;frau&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Frau&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;female&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/weiblich-symbol-frau-menschen-709700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;frau&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;zahl&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;number&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/eine-1-zahl-design-sammlung-706897/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;regenbogen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenbogen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rainbow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenbogen-streifen-muster-298752/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenbogen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;blume2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Blume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blume-kontur-gelb-umrisse-668854/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;blume2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;noten&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Noten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;note&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/noten-notenblatt-musik-takt-668862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;noten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;musik&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Musik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;music&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/notenschl%C3%BCssel-musik-melodie-ton-296775/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;musik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;pfeile&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pfeile&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;arrows&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pfeile-farbverlauf-design-symbol-539917/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pfeile&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;buchstabe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Buchstabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;letter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/abc-alphabet-t-schreiben-schriften-725081/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;buchstabe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;schluessel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schlüssel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;key&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schl%C3%BCssel-sperre-gesperrt-575680/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schluessel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;tisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;table&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;spiegelei&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spiegelei&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;friedegg&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ei-sonnenseite-bis-gebraten-576086/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spiegelei&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;zaun&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zaun&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fence&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zaun-gartenzaun-geschlossen-156818/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zaun&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;lupe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lupe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;loupe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/linse-vergr%C3%B6%C3%9Fern-glas-lupen-lupe-156813/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lupe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;kamera&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kamera&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;camera&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kamera-cctv-sicherheit-cam-156730/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kamera&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;yinyang&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yinyang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yinyang&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yinyang-yin-und-yang-yang-yin-156414/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yinyang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;handabdruck&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Handabdruck&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;handprint&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/handabdruck-finger-palm-anschlag-23837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;handabdruck&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;gedanke&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gedanken&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;thought&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gedanken-sprache-blasen-idee-24152/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gedanke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;spirale&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spriale&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;spiral&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/spirale-design-muster-wirbel-24981/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spirale&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;europa&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Europa&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;europe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/europa-karte-l%C3%A4nder-silhouette-23571/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;europa&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
 </sst>
 </file>
@@ -2747,7 +3068,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2765,12 +3086,6 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2786,7 +3101,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2817,21 +3132,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2905,6 +3212,20 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3036,19 +3357,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:L147" totalsRowShown="0">
-  <autoFilter ref="A1:L147"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:M168" totalsRowShown="0">
+  <autoFilter ref="A1:M168"/>
   <sortState ref="A2:L147">
     <sortCondition ref="I1:I147"/>
   </sortState>
-  <tableColumns count="12">
-    <tableColumn id="2" name="Autor/Psyeudonym" dataDxfId="9"/>
-    <tableColumn id="3" name="ggf. Bildtitel" dataDxfId="8">
+  <tableColumns count="13">
+    <tableColumn id="2" name="Autor/Psyeudonym" dataDxfId="8"/>
+    <tableColumn id="3" name="ggf. Bildtitel" dataDxfId="7">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Dateiname]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Lizenzname" dataDxfId="7"/>
-    <tableColumn id="5" name="Quelle" dataDxfId="6" dataCellStyle="Link"/>
-    <tableColumn id="6" name="Modi" dataDxfId="5" dataCellStyle="Link"/>
+    <tableColumn id="4" name="Lizenzname" dataDxfId="6"/>
+    <tableColumn id="5" name="Quelle" dataDxfId="5" dataCellStyle="Link"/>
+    <tableColumn id="6" name="Modi" dataDxfId="4" dataCellStyle="Link"/>
     <tableColumn id="7" name="Kommentar"/>
     <tableColumn id="8" name="Lösung Deutsch"/>
     <tableColumn id="9" name="Englisch"/>
@@ -3056,6 +3377,7 @@
     <tableColumn id="20" name="Schwierigkeit"/>
     <tableColumn id="1" name="Preference"/>
     <tableColumn id="11" name="Dislike"/>
+    <tableColumn id="12" name="Kommentar2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3071,16 +3393,16 @@
     <tableColumn id="2" name="Imagename">
       <calculatedColumnFormula>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Solution" dataDxfId="4">
+    <tableColumn id="3" name="Solution" dataDxfId="3">
       <calculatedColumnFormula>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Author" dataDxfId="3">
+    <tableColumn id="4" name="Author" dataDxfId="2">
       <calculatedColumnFormula>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Preference" dataDxfId="2">
+    <tableColumn id="5" name="Preference" dataDxfId="1">
       <calculatedColumnFormula>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Dislike" dataDxfId="1">
+    <tableColumn id="6" name="Dislike" dataDxfId="0">
       <calculatedColumnFormula>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="Summary">
@@ -3354,11 +3676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N147"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3374,10 +3696,12 @@
     <col min="9" max="9" width="21.7109375"/>
     <col min="10" max="10" width="10.5703125"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="1015" width="10.5703125"/>
+    <col min="12" max="12" width="10.5703125"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="1015" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3409,16 +3733,16 @@
         <v>184</v>
       </c>
       <c r="K1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L1" t="s">
-        <v>398</v>
-      </c>
-      <c r="N1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="M1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -3443,7 +3767,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>85</v>
       </c>
@@ -3471,7 +3795,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>85</v>
       </c>
@@ -3493,13 +3817,13 @@
         <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>85</v>
       </c>
@@ -3511,20 +3835,20 @@
         <v>6</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E5" s="10"/>
       <c r="G5" t="s">
+        <v>360</v>
+      </c>
+      <c r="H5" t="s">
         <v>361</v>
       </c>
-      <c r="H5" t="s">
-        <v>362</v>
-      </c>
       <c r="I5" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>246</v>
       </c>
@@ -3546,13 +3870,13 @@
         <v>251</v>
       </c>
       <c r="I6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>85</v>
       </c>
@@ -3564,7 +3888,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E7" s="15"/>
       <c r="G7" t="s">
@@ -3574,10 +3898,10 @@
         <v>251</v>
       </c>
       <c r="I7" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>66</v>
       </c>
@@ -3589,23 +3913,23 @@
         <v>6</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G8" t="s">
+        <v>339</v>
+      </c>
+      <c r="H8" t="s">
         <v>340</v>
       </c>
-      <c r="H8" t="s">
-        <v>341</v>
-      </c>
       <c r="I8" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>85</v>
       </c>
@@ -3617,23 +3941,23 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G9" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9" t="s">
         <v>340</v>
       </c>
-      <c r="H9" t="s">
-        <v>341</v>
-      </c>
       <c r="I9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -3652,7 +3976,7 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I10" t="s">
         <v>136</v>
@@ -3661,10 +3985,10 @@
         <v>180</v>
       </c>
       <c r="L10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3692,10 +4016,10 @@
         <v>180</v>
       </c>
       <c r="L11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>85</v>
       </c>
@@ -3723,7 +4047,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>85</v>
       </c>
@@ -3745,10 +4069,10 @@
         <v>328</v>
       </c>
       <c r="I13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -3770,13 +4094,13 @@
         <v>121</v>
       </c>
       <c r="I14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
@@ -3792,10 +4116,10 @@
       </c>
       <c r="E15" s="1"/>
       <c r="G15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I15" t="s">
         <v>129</v>
@@ -3804,7 +4128,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>190</v>
       </c>
@@ -3826,7 +4150,7 @@
         <v>200</v>
       </c>
       <c r="I16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3879,7 +4203,7 @@
         <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J18" t="s">
         <v>180</v>
@@ -3897,17 +4221,17 @@
         <v>6</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E19" s="15"/>
       <c r="G19" t="s">
+        <v>497</v>
+      </c>
+      <c r="H19" t="s">
         <v>498</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>499</v>
-      </c>
-      <c r="I19" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3922,17 +4246,17 @@
         <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E20" s="15"/>
       <c r="G20" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H20" t="s">
+        <v>751</v>
+      </c>
+      <c r="I20" t="s">
         <v>752</v>
-      </c>
-      <c r="I20" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3957,7 +4281,7 @@
         <v>93</v>
       </c>
       <c r="I21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J21" t="s">
         <v>182</v>
@@ -4000,11 +4324,11 @@
         <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G23" t="s">
         <v>217</v>
@@ -4013,7 +4337,7 @@
         <v>218</v>
       </c>
       <c r="I23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4022,7 +4346,7 @@
       </c>
       <c r="B24" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>diamont1</v>
+        <v>diamant1</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
@@ -4032,7 +4356,7 @@
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G24" t="s">
         <v>217</v>
@@ -4041,7 +4365,7 @@
         <v>218</v>
       </c>
       <c r="I24" t="s">
-        <v>790</v>
+        <v>834</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4056,17 +4380,17 @@
         <v>6</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E25" s="10"/>
       <c r="G25" t="s">
+        <v>378</v>
+      </c>
+      <c r="H25" t="s">
         <v>379</v>
       </c>
-      <c r="H25" t="s">
-        <v>380</v>
-      </c>
       <c r="I25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -4085,10 +4409,10 @@
       </c>
       <c r="E26" s="1"/>
       <c r="G26" t="s">
+        <v>389</v>
+      </c>
+      <c r="H26" t="s">
         <v>390</v>
-      </c>
-      <c r="H26" t="s">
-        <v>391</v>
       </c>
       <c r="I26" t="s">
         <v>124</v>
@@ -4106,7 +4430,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E27" s="10"/>
       <c r="G27" t="s">
@@ -4116,7 +4440,7 @@
         <v>124</v>
       </c>
       <c r="I27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -4131,17 +4455,17 @@
         <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" t="s">
+        <v>667</v>
+      </c>
+      <c r="H28" t="s">
         <v>668</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>669</v>
-      </c>
-      <c r="I28" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4209,17 +4533,17 @@
         <v>6</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E31" s="10"/>
       <c r="G31" t="s">
+        <v>456</v>
+      </c>
+      <c r="H31" t="s">
         <v>457</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>458</v>
-      </c>
-      <c r="I31" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -4234,7 +4558,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E32" s="10"/>
       <c r="G32" t="s">
@@ -4244,7 +4568,7 @@
         <v>330</v>
       </c>
       <c r="I32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -4259,17 +4583,17 @@
         <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E33" s="10"/>
       <c r="G33" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -4288,13 +4612,13 @@
       </c>
       <c r="E34" s="10"/>
       <c r="G34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H34" t="s">
         <v>277</v>
       </c>
       <c r="I34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J34" t="s">
         <v>181</v>
@@ -4302,7 +4626,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B35" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -4310,17 +4634,17 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E35" s="15"/>
       <c r="G35" t="s">
+        <v>461</v>
+      </c>
+      <c r="H35" t="s">
         <v>462</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>463</v>
-      </c>
-      <c r="I35" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -4363,17 +4687,17 @@
         <v>6</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E37" s="10"/>
       <c r="G37" t="s">
+        <v>348</v>
+      </c>
+      <c r="H37" t="s">
         <v>349</v>
       </c>
-      <c r="H37" t="s">
-        <v>350</v>
-      </c>
       <c r="I37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J37" t="s">
         <v>181</v>
@@ -4401,7 +4725,7 @@
         <v>87</v>
       </c>
       <c r="I38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J38" t="s">
         <v>183</v>
@@ -4423,16 +4747,16 @@
       </c>
       <c r="E39" s="10"/>
       <c r="G39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H39" t="s">
         <v>257</v>
       </c>
       <c r="I39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -4447,17 +4771,17 @@
         <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E40" s="15"/>
       <c r="G40" t="s">
+        <v>648</v>
+      </c>
+      <c r="H40" t="s">
         <v>649</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>650</v>
-      </c>
-      <c r="I40" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -4482,10 +4806,10 @@
         <v>239</v>
       </c>
       <c r="I41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -4528,17 +4852,17 @@
         <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E43" s="15"/>
       <c r="G43" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H43" t="s">
+        <v>475</v>
+      </c>
+      <c r="I43" t="s">
         <v>476</v>
-      </c>
-      <c r="I43" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4553,17 +4877,17 @@
         <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E44" s="15"/>
       <c r="G44" t="s">
+        <v>732</v>
+      </c>
+      <c r="H44" t="s">
         <v>733</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>734</v>
-      </c>
-      <c r="I44" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -4578,17 +4902,17 @@
         <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E45" s="15"/>
       <c r="G45" t="s">
+        <v>725</v>
+      </c>
+      <c r="H45" t="s">
         <v>726</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>727</v>
-      </c>
-      <c r="I45" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4613,10 +4937,10 @@
         <v>196</v>
       </c>
       <c r="I46" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -4644,7 +4968,7 @@
         <v>323</v>
       </c>
       <c r="L47" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4663,13 +4987,13 @@
       </c>
       <c r="E48" s="10"/>
       <c r="G48" t="s">
+        <v>441</v>
+      </c>
+      <c r="H48" t="s">
         <v>442</v>
       </c>
-      <c r="H48" t="s">
-        <v>443</v>
-      </c>
       <c r="I48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -4688,19 +5012,19 @@
       </c>
       <c r="E49" s="1"/>
       <c r="G49" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H49" t="s">
         <v>110</v>
       </c>
       <c r="I49" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J49" t="s">
         <v>181</v>
       </c>
       <c r="L49" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -4715,17 +5039,17 @@
         <v>6</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E50" s="15"/>
       <c r="G50" t="s">
+        <v>373</v>
+      </c>
+      <c r="H50" t="s">
         <v>374</v>
       </c>
-      <c r="H50" t="s">
-        <v>375</v>
-      </c>
       <c r="I50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -4740,17 +5064,17 @@
         <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E51" s="10"/>
       <c r="G51" t="s">
+        <v>357</v>
+      </c>
+      <c r="H51" t="s">
         <v>358</v>
       </c>
-      <c r="H51" t="s">
-        <v>359</v>
-      </c>
       <c r="I51" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J51" t="s">
         <v>181</v>
@@ -4771,7 +5095,7 @@
         <v>133</v>
       </c>
       <c r="H52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I52" t="s">
         <v>132</v>
@@ -4785,7 +5109,7 @@
         <v>291</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>285</v>
@@ -4801,7 +5125,7 @@
         <v>293</v>
       </c>
       <c r="I53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -4826,10 +5150,10 @@
         <v>189</v>
       </c>
       <c r="I54" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -4854,7 +5178,7 @@
         <v>26</v>
       </c>
       <c r="I55" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J55" t="s">
         <v>180</v>
@@ -4865,7 +5189,7 @@
         <v>309</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>285</v>
@@ -4881,10 +5205,10 @@
         <v>311</v>
       </c>
       <c r="I56" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L56" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4927,17 +5251,17 @@
         <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E58" s="15"/>
       <c r="G58" t="s">
+        <v>656</v>
+      </c>
+      <c r="H58" t="s">
         <v>657</v>
       </c>
-      <c r="H58" t="s">
-        <v>658</v>
-      </c>
       <c r="I58" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4962,7 +5286,7 @@
         <v>75</v>
       </c>
       <c r="I59" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J59" t="s">
         <v>181</v>
@@ -4980,7 +5304,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E60" s="15"/>
       <c r="G60" t="s">
@@ -4990,7 +5314,7 @@
         <v>75</v>
       </c>
       <c r="I60" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -5005,17 +5329,17 @@
         <v>6</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E61" s="15"/>
       <c r="G61" t="s">
+        <v>644</v>
+      </c>
+      <c r="H61" t="s">
         <v>645</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>646</v>
-      </c>
-      <c r="I61" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -5030,17 +5354,17 @@
         <v>6</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E62" s="15"/>
       <c r="G62" t="s">
+        <v>501</v>
+      </c>
+      <c r="H62" t="s">
         <v>502</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>503</v>
-      </c>
-      <c r="I62" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -5055,17 +5379,17 @@
         <v>6</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E63" s="10"/>
       <c r="G63" t="s">
+        <v>354</v>
+      </c>
+      <c r="H63" t="s">
         <v>355</v>
       </c>
-      <c r="H63" t="s">
-        <v>356</v>
-      </c>
       <c r="I63" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -5090,7 +5414,7 @@
         <v>221</v>
       </c>
       <c r="I64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -5098,7 +5422,7 @@
         <v>286</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>285</v>
@@ -5114,7 +5438,7 @@
         <v>289</v>
       </c>
       <c r="I65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -5133,13 +5457,13 @@
       </c>
       <c r="E66" s="10"/>
       <c r="G66" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H66" t="s">
         <v>243</v>
       </c>
       <c r="I66" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -5158,7 +5482,7 @@
       </c>
       <c r="E67" s="10"/>
       <c r="G67" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H67" t="s">
         <v>274</v>
@@ -5167,7 +5491,7 @@
         <v>274</v>
       </c>
       <c r="L67" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -5195,7 +5519,7 @@
         <v>225</v>
       </c>
       <c r="L68" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -5245,7 +5569,7 @@
         <v>38</v>
       </c>
       <c r="I70" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J70" t="s">
         <v>180</v>
@@ -5263,17 +5587,17 @@
         <v>6</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E71" s="10"/>
       <c r="G71" t="s">
+        <v>345</v>
+      </c>
+      <c r="H71" t="s">
         <v>346</v>
       </c>
-      <c r="H71" t="s">
-        <v>347</v>
-      </c>
       <c r="I71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -5288,17 +5612,17 @@
         <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E72" s="15"/>
       <c r="G72" t="s">
+        <v>505</v>
+      </c>
+      <c r="H72" t="s">
         <v>506</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>507</v>
-      </c>
-      <c r="I72" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -5323,7 +5647,7 @@
         <v>54</v>
       </c>
       <c r="I73" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J73" t="s">
         <v>180</v>
@@ -5351,7 +5675,7 @@
         <v>42</v>
       </c>
       <c r="I74" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J74" t="s">
         <v>180</v>
@@ -5397,17 +5721,17 @@
         <v>6</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E76" s="15"/>
       <c r="G76" t="s">
+        <v>520</v>
+      </c>
+      <c r="H76" t="s">
         <v>521</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>522</v>
-      </c>
-      <c r="I76" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -5422,17 +5746,17 @@
         <v>6</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E77" s="15"/>
       <c r="G77" t="s">
+        <v>686</v>
+      </c>
+      <c r="H77" t="s">
         <v>687</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>688</v>
-      </c>
-      <c r="I77" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -5472,17 +5796,17 @@
         <v>6</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E79" s="10"/>
       <c r="G79" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H79" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I79" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -5501,13 +5825,13 @@
       </c>
       <c r="E80" s="1"/>
       <c r="G80" t="s">
+        <v>443</v>
+      </c>
+      <c r="H80" t="s">
         <v>444</v>
       </c>
-      <c r="H80" t="s">
-        <v>445</v>
-      </c>
       <c r="I80" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J80" t="s">
         <v>182</v>
@@ -5538,7 +5862,7 @@
         <v>300</v>
       </c>
       <c r="L81" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -5546,7 +5870,7 @@
         <v>302</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>285</v>
@@ -5556,7 +5880,7 @@
       </c>
       <c r="E82" s="10"/>
       <c r="F82" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G82" t="s">
         <v>299</v>
@@ -5580,17 +5904,17 @@
         <v>6</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E83" s="15"/>
       <c r="G83" t="s">
+        <v>721</v>
+      </c>
+      <c r="H83" t="s">
         <v>722</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>723</v>
-      </c>
-      <c r="I83" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -5605,17 +5929,17 @@
         <v>6</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E84" s="15"/>
       <c r="G84" t="s">
+        <v>478</v>
+      </c>
+      <c r="H84" t="s">
         <v>479</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>480</v>
-      </c>
-      <c r="I84" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5646,7 +5970,7 @@
         <v>181</v>
       </c>
       <c r="L85" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5661,17 +5985,17 @@
         <v>6</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E86" s="10"/>
       <c r="G86" t="s">
+        <v>351</v>
+      </c>
+      <c r="H86" t="s">
         <v>352</v>
       </c>
-      <c r="H86" t="s">
-        <v>353</v>
-      </c>
       <c r="I86" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5686,17 +6010,17 @@
         <v>6</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E87" s="10"/>
       <c r="G87" t="s">
+        <v>381</v>
+      </c>
+      <c r="H87" t="s">
         <v>382</v>
       </c>
-      <c r="H87" t="s">
-        <v>383</v>
-      </c>
       <c r="I87" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -5711,17 +6035,17 @@
         <v>6</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E88" s="15"/>
       <c r="G88" t="s">
+        <v>729</v>
+      </c>
+      <c r="H88" t="s">
         <v>730</v>
       </c>
-      <c r="H88" t="s">
-        <v>731</v>
-      </c>
       <c r="I88" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -5736,17 +6060,17 @@
         <v>6</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E89" s="15"/>
       <c r="G89" t="s">
+        <v>718</v>
+      </c>
+      <c r="H89" t="s">
         <v>719</v>
       </c>
-      <c r="H89" t="s">
-        <v>720</v>
-      </c>
       <c r="I89" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -5761,17 +6085,17 @@
         <v>6</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E90" s="15"/>
       <c r="G90" t="s">
+        <v>707</v>
+      </c>
+      <c r="H90" t="s">
         <v>708</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>709</v>
-      </c>
-      <c r="I90" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -5786,17 +6110,17 @@
         <v>6</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E91" s="15"/>
       <c r="G91" t="s">
+        <v>509</v>
+      </c>
+      <c r="H91" t="s">
         <v>510</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>511</v>
-      </c>
-      <c r="I91" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -5811,17 +6135,17 @@
         <v>6</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E92" s="15"/>
       <c r="G92" t="s">
+        <v>744</v>
+      </c>
+      <c r="H92" t="s">
         <v>745</v>
       </c>
-      <c r="H92" t="s">
-        <v>746</v>
-      </c>
       <c r="I92" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -5836,17 +6160,17 @@
         <v>6</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E93" s="15"/>
       <c r="G93" t="s">
+        <v>671</v>
+      </c>
+      <c r="H93" t="s">
         <v>672</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>673</v>
-      </c>
-      <c r="I93" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -5911,7 +6235,7 @@
         <v>180</v>
       </c>
       <c r="L95" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -5926,17 +6250,17 @@
         <v>6</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E96" s="10"/>
       <c r="G96" t="s">
+        <v>367</v>
+      </c>
+      <c r="H96" t="s">
         <v>368</v>
       </c>
-      <c r="H96" t="s">
-        <v>369</v>
-      </c>
       <c r="I96" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -5951,17 +6275,17 @@
         <v>6</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E97" s="10"/>
       <c r="G97" t="s">
+        <v>342</v>
+      </c>
+      <c r="H97" t="s">
         <v>343</v>
       </c>
-      <c r="H97" t="s">
-        <v>344</v>
-      </c>
       <c r="I97" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -6001,17 +6325,17 @@
         <v>6</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E99" s="15"/>
       <c r="G99" t="s">
+        <v>675</v>
+      </c>
+      <c r="H99" t="s">
         <v>676</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>677</v>
-      </c>
-      <c r="I99" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -6036,7 +6360,7 @@
         <v>253</v>
       </c>
       <c r="I100" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J100" t="s">
         <v>181</v>
@@ -6054,17 +6378,17 @@
         <v>6</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E101" s="15"/>
       <c r="G101" t="s">
+        <v>679</v>
+      </c>
+      <c r="H101" t="s">
         <v>680</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>681</v>
-      </c>
-      <c r="I101" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -6079,17 +6403,17 @@
         <v>6</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E102" s="15"/>
       <c r="G102" t="s">
+        <v>471</v>
+      </c>
+      <c r="H102" t="s">
         <v>472</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>473</v>
-      </c>
-      <c r="I102" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -6114,7 +6438,7 @@
         <v>203</v>
       </c>
       <c r="I103" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -6129,7 +6453,7 @@
         <v>6</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E104" s="15"/>
       <c r="G104" t="s">
@@ -6139,12 +6463,12 @@
         <v>203</v>
       </c>
       <c r="I104" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B105" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -6154,17 +6478,17 @@
         <v>6</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E105" s="15"/>
       <c r="G105" t="s">
+        <v>483</v>
+      </c>
+      <c r="H105" t="s">
         <v>484</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>485</v>
-      </c>
-      <c r="I105" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -6189,7 +6513,7 @@
         <v>72</v>
       </c>
       <c r="I106" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J106" t="s">
         <v>180</v>
@@ -6211,13 +6535,13 @@
       </c>
       <c r="E107" s="10"/>
       <c r="G107" t="s">
+        <v>543</v>
+      </c>
+      <c r="H107" t="s">
         <v>544</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>545</v>
-      </c>
-      <c r="I107" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -6236,7 +6560,7 @@
       </c>
       <c r="E108" s="10"/>
       <c r="G108" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H108" t="s">
         <v>314</v>
@@ -6260,17 +6584,17 @@
         <v>6</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E109" s="15"/>
       <c r="G109" t="s">
+        <v>465</v>
+      </c>
+      <c r="H109" t="s">
         <v>466</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>467</v>
-      </c>
-      <c r="I109" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -6285,17 +6609,17 @@
         <v>6</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E110" s="15"/>
       <c r="G110" t="s">
+        <v>663</v>
+      </c>
+      <c r="H110" t="s">
         <v>664</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>665</v>
-      </c>
-      <c r="I110" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -6310,17 +6634,17 @@
         <v>6</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E111" s="15"/>
       <c r="G111" t="s">
+        <v>747</v>
+      </c>
+      <c r="H111" t="s">
         <v>748</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>749</v>
-      </c>
-      <c r="I111" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -6328,7 +6652,7 @@
         <v>296</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>285</v>
@@ -6344,7 +6668,7 @@
         <v>297</v>
       </c>
       <c r="I112" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -6359,17 +6683,17 @@
         <v>6</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E113" s="15"/>
       <c r="G113" t="s">
+        <v>715</v>
+      </c>
+      <c r="H113" t="s">
         <v>716</v>
       </c>
-      <c r="H113" t="s">
-        <v>717</v>
-      </c>
       <c r="I113" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -6384,17 +6708,17 @@
         <v>6</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E114" s="10"/>
       <c r="G114" t="s">
+        <v>387</v>
+      </c>
+      <c r="H114" t="s">
         <v>388</v>
       </c>
-      <c r="H114" t="s">
-        <v>389</v>
-      </c>
       <c r="I114" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -6465,17 +6789,17 @@
         <v>6</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E117" s="15"/>
       <c r="G117" t="s">
+        <v>711</v>
+      </c>
+      <c r="H117" t="s">
         <v>712</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>713</v>
-      </c>
-      <c r="I117" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -6500,7 +6824,7 @@
         <v>34</v>
       </c>
       <c r="I118" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J118" t="s">
         <v>180</v>
@@ -6518,17 +6842,17 @@
         <v>6</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E119" s="15"/>
       <c r="G119" t="s">
+        <v>696</v>
+      </c>
+      <c r="H119" t="s">
         <v>697</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>698</v>
-      </c>
-      <c r="I119" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -6553,7 +6877,7 @@
         <v>127</v>
       </c>
       <c r="I120" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J120" t="s">
         <v>183</v>
@@ -6609,7 +6933,7 @@
         <v>256</v>
       </c>
       <c r="L122" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -6653,10 +6977,10 @@
       </c>
       <c r="E124" s="10"/>
       <c r="G124" t="s">
+        <v>446</v>
+      </c>
+      <c r="H124" t="s">
         <v>447</v>
-      </c>
-      <c r="H124" t="s">
-        <v>448</v>
       </c>
       <c r="I124" t="s">
         <v>280</v>
@@ -6674,17 +6998,17 @@
         <v>6</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E125" s="15"/>
       <c r="G125" t="s">
+        <v>652</v>
+      </c>
+      <c r="H125" t="s">
         <v>653</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>654</v>
-      </c>
-      <c r="I125" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -6737,13 +7061,13 @@
         <v>84</v>
       </c>
       <c r="I127" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J127" t="s">
         <v>182</v>
       </c>
       <c r="K127" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -6758,17 +7082,17 @@
         <v>6</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E128" s="15"/>
       <c r="G128" t="s">
+        <v>704</v>
+      </c>
+      <c r="H128" t="s">
         <v>705</v>
       </c>
-      <c r="H128" t="s">
-        <v>706</v>
-      </c>
       <c r="I128" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -6776,7 +7100,7 @@
         <v>304</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>285</v>
@@ -6792,7 +7116,7 @@
         <v>307</v>
       </c>
       <c r="I129" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -6839,13 +7163,13 @@
       </c>
       <c r="E131" s="10"/>
       <c r="G131" t="s">
+        <v>450</v>
+      </c>
+      <c r="H131" t="s">
         <v>451</v>
       </c>
-      <c r="H131" t="s">
-        <v>452</v>
-      </c>
       <c r="I131" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -6860,17 +7184,17 @@
         <v>6</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E132" s="10"/>
       <c r="G132" t="s">
+        <v>363</v>
+      </c>
+      <c r="H132" t="s">
         <v>364</v>
       </c>
-      <c r="H132" t="s">
-        <v>365</v>
-      </c>
       <c r="I132" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -6895,7 +7219,7 @@
         <v>117</v>
       </c>
       <c r="I133" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J133" t="s">
         <v>183</v>
@@ -6988,17 +7312,17 @@
         <v>6</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E137" s="15"/>
       <c r="G137" t="s">
+        <v>640</v>
+      </c>
+      <c r="H137" t="s">
+        <v>642</v>
+      </c>
+      <c r="I137" t="s">
         <v>641</v>
-      </c>
-      <c r="H137" t="s">
-        <v>643</v>
-      </c>
-      <c r="I137" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -7013,17 +7337,17 @@
         <v>6</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E138" s="15"/>
       <c r="G138" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H138" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I138" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -7038,17 +7362,17 @@
         <v>6</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E139" s="15"/>
       <c r="G139" t="s">
+        <v>700</v>
+      </c>
+      <c r="H139" t="s">
         <v>701</v>
       </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
         <v>702</v>
-      </c>
-      <c r="I139" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -7073,7 +7397,7 @@
         <v>268</v>
       </c>
       <c r="I140" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -7098,7 +7422,7 @@
         <v>9</v>
       </c>
       <c r="I141" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J141" t="s">
         <v>180</v>
@@ -7116,17 +7440,17 @@
         <v>6</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E142" s="15"/>
       <c r="G142" t="s">
         <v>8</v>
       </c>
       <c r="H142" t="s">
+        <v>683</v>
+      </c>
+      <c r="I142" t="s">
         <v>684</v>
-      </c>
-      <c r="I142" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -7151,7 +7475,7 @@
         <v>14</v>
       </c>
       <c r="I143" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J143" t="s">
         <v>180</v>
@@ -7169,20 +7493,20 @@
         <v>6</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E144" s="15"/>
       <c r="G144" t="s">
+        <v>513</v>
+      </c>
+      <c r="H144" t="s">
         <v>514</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>515</v>
       </c>
-      <c r="I144" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>11</v>
       </c>
@@ -7207,7 +7531,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>85</v>
       </c>
@@ -7219,20 +7543,20 @@
         <v>6</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E146" s="15"/>
       <c r="G146" t="s">
+        <v>736</v>
+      </c>
+      <c r="H146" t="s">
         <v>737</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>738</v>
       </c>
-      <c r="I146" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>85</v>
       </c>
@@ -7244,23 +7568,625 @@
         <v>6</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E147" s="15"/>
       <c r="G147" t="s">
+        <v>740</v>
+      </c>
+      <c r="H147" t="s">
         <v>741</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>742</v>
       </c>
-      <c r="I147" t="s">
-        <v>743</v>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="B148" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>herz</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="E148" s="10"/>
+      <c r="F148" t="s">
+        <v>814</v>
+      </c>
+      <c r="G148" t="s">
+        <v>795</v>
+      </c>
+      <c r="H148" t="s">
+        <v>796</v>
+      </c>
+      <c r="I148" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B149" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>geschlecht</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="E149" s="10"/>
+      <c r="F149" t="s">
+        <v>814</v>
+      </c>
+      <c r="G149" t="s">
+        <v>799</v>
+      </c>
+      <c r="H149" t="s">
+        <v>800</v>
+      </c>
+      <c r="I149" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B150" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>frau</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="E150" s="10"/>
+      <c r="F150" t="s">
+        <v>814</v>
+      </c>
+      <c r="G150" t="s">
+        <v>803</v>
+      </c>
+      <c r="H150" t="s">
+        <v>804</v>
+      </c>
+      <c r="I150" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B151" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>zahl</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="E151" s="10"/>
+      <c r="F151" t="s">
+        <v>814</v>
+      </c>
+      <c r="G151" t="s">
+        <v>807</v>
+      </c>
+      <c r="H151" t="s">
+        <v>808</v>
+      </c>
+      <c r="I151" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B152" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>regenbogen</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="E152" s="10"/>
+      <c r="F152" t="s">
+        <v>814</v>
+      </c>
+      <c r="G152" t="s">
+        <v>811</v>
+      </c>
+      <c r="H152" t="s">
+        <v>812</v>
+      </c>
+      <c r="I152" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B153" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>blume2</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="E153" s="10"/>
+      <c r="F153" t="s">
+        <v>814</v>
+      </c>
+      <c r="G153" t="s">
+        <v>68</v>
+      </c>
+      <c r="H153" t="s">
+        <v>69</v>
+      </c>
+      <c r="I153" t="s">
+        <v>818</v>
+      </c>
+      <c r="M153" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B154" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>noten</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="E154" s="10"/>
+      <c r="F154" t="s">
+        <v>814</v>
+      </c>
+      <c r="G154" t="s">
+        <v>820</v>
+      </c>
+      <c r="H154" t="s">
+        <v>864</v>
+      </c>
+      <c r="I154" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B155" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>musik</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="F155" t="s">
+        <v>814</v>
+      </c>
+      <c r="G155" t="s">
+        <v>823</v>
+      </c>
+      <c r="H155" t="s">
+        <v>824</v>
+      </c>
+      <c r="I155" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="B156" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>pfeile</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="E156" s="10"/>
+      <c r="F156" t="s">
+        <v>814</v>
+      </c>
+      <c r="G156" t="s">
+        <v>827</v>
+      </c>
+      <c r="H156" t="s">
+        <v>828</v>
+      </c>
+      <c r="I156" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="B157" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>buchstabe</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E157" s="10"/>
+      <c r="F157" t="s">
+        <v>814</v>
+      </c>
+      <c r="G157" t="s">
+        <v>831</v>
+      </c>
+      <c r="H157" t="s">
+        <v>832</v>
+      </c>
+      <c r="I157" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B158" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>schluessel</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="E158" s="10"/>
+      <c r="F158" t="s">
+        <v>814</v>
+      </c>
+      <c r="G158" t="s">
+        <v>836</v>
+      </c>
+      <c r="H158" t="s">
+        <v>837</v>
+      </c>
+      <c r="I158" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B159" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>tisch</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="E159" s="10"/>
+      <c r="F159" t="s">
+        <v>814</v>
+      </c>
+      <c r="G159" t="s">
+        <v>840</v>
+      </c>
+      <c r="H159" t="s">
+        <v>841</v>
+      </c>
+      <c r="I159" t="s">
+        <v>842</v>
+      </c>
+      <c r="M159" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B160" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>spiegelei</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="E160" s="10"/>
+      <c r="F160" t="s">
+        <v>814</v>
+      </c>
+      <c r="G160" t="s">
+        <v>845</v>
+      </c>
+      <c r="H160" t="s">
+        <v>846</v>
+      </c>
+      <c r="I160" t="s">
+        <v>847</v>
+      </c>
+      <c r="M160" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B161" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>zaun</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="E161" s="10"/>
+      <c r="F161" t="s">
+        <v>814</v>
+      </c>
+      <c r="G161" t="s">
+        <v>850</v>
+      </c>
+      <c r="H161" t="s">
+        <v>851</v>
+      </c>
+      <c r="I161" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B162" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>lupe</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="E162" s="10"/>
+      <c r="F162" t="s">
+        <v>814</v>
+      </c>
+      <c r="G162" t="s">
+        <v>854</v>
+      </c>
+      <c r="H162" t="s">
+        <v>855</v>
+      </c>
+      <c r="I162" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B163" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>kamera</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="E163" s="10"/>
+      <c r="F163" t="s">
+        <v>814</v>
+      </c>
+      <c r="G163" t="s">
+        <v>858</v>
+      </c>
+      <c r="H163" t="s">
+        <v>859</v>
+      </c>
+      <c r="I163" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B164" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>yinyang</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="E164" s="10"/>
+      <c r="F164" t="s">
+        <v>814</v>
+      </c>
+      <c r="G164" t="s">
+        <v>862</v>
+      </c>
+      <c r="H164" t="s">
+        <v>863</v>
+      </c>
+      <c r="I164" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B165" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>handabdruck</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="E165" s="10"/>
+      <c r="F165" t="s">
+        <v>814</v>
+      </c>
+      <c r="G165" t="s">
+        <v>866</v>
+      </c>
+      <c r="H165" t="s">
+        <v>867</v>
+      </c>
+      <c r="I165" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B166" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>gedanke</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="E166" s="10"/>
+      <c r="F166" t="s">
+        <v>814</v>
+      </c>
+      <c r="G166" t="s">
+        <v>870</v>
+      </c>
+      <c r="H166" t="s">
+        <v>871</v>
+      </c>
+      <c r="I166" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B167" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>spirale</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="E167" s="10"/>
+      <c r="F167" t="s">
+        <v>814</v>
+      </c>
+      <c r="G167" t="s">
+        <v>874</v>
+      </c>
+      <c r="H167" t="s">
+        <v>875</v>
+      </c>
+      <c r="I167" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B168" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>europa</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="E168" s="10"/>
+      <c r="F168" t="s">
+        <v>814</v>
+      </c>
+      <c r="G168" t="s">
+        <v>878</v>
+      </c>
+      <c r="H168" t="s">
+        <v>880</v>
+      </c>
+      <c r="I168" t="s">
+        <v>879</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="ß">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="ß">
       <formula>NOT(ISERROR(SEARCH("ß",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"NEU"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -7385,13 +8311,34 @@
     <hyperlink ref="D111" r:id="rId119"/>
     <hyperlink ref="D20" r:id="rId120"/>
     <hyperlink ref="D8" r:id="rId121"/>
+    <hyperlink ref="D148" r:id="rId122"/>
+    <hyperlink ref="D149" r:id="rId123"/>
+    <hyperlink ref="D150" r:id="rId124"/>
+    <hyperlink ref="D151" r:id="rId125"/>
+    <hyperlink ref="D152" r:id="rId126"/>
+    <hyperlink ref="D153" r:id="rId127"/>
+    <hyperlink ref="D154" r:id="rId128"/>
+    <hyperlink ref="D155" r:id="rId129"/>
+    <hyperlink ref="D156" r:id="rId130"/>
+    <hyperlink ref="D157" r:id="rId131"/>
+    <hyperlink ref="D158" r:id="rId132"/>
+    <hyperlink ref="D159" r:id="rId133"/>
+    <hyperlink ref="D160" r:id="rId134"/>
+    <hyperlink ref="D161" r:id="rId135"/>
+    <hyperlink ref="D162" r:id="rId136"/>
+    <hyperlink ref="D163" r:id="rId137"/>
+    <hyperlink ref="D164" r:id="rId138"/>
+    <hyperlink ref="D165" r:id="rId139"/>
+    <hyperlink ref="D166" r:id="rId140"/>
+    <hyperlink ref="D167" r:id="rId141"/>
+    <hyperlink ref="D168" r:id="rId142"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId122"/>
-  <drawing r:id="rId123"/>
-  <legacyDrawing r:id="rId124"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId143"/>
+  <drawing r:id="rId144"/>
+  <legacyDrawing r:id="rId145"/>
   <tableParts count="1">
-    <tablePart r:id="rId125"/>
+    <tablePart r:id="rId146"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7400,8 +8347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K260"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="J151" sqref="J151"/>
+    <sheetView windowProtection="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7417,28 +8364,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" t="s">
         <v>395</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>396</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1" t="s">
         <v>397</v>
       </c>
-      <c r="E1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>398</v>
       </c>
-      <c r="G1" t="s">
-        <v>399</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7471,7 +8418,7 @@
         <v>&lt;image&gt;&lt;resname&gt;adler&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Adler&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eagle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/adler-greifvogel-tier-695171/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;adler&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7504,7 +8451,7 @@
         <v>&lt;image&gt;&lt;resname&gt;alien&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Alien&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;alien&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/au%C3%9Ferirdischer-geste-des-friedens-308429/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;alien&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7537,7 +8484,7 @@
         <v>&lt;image&gt;&lt;resname&gt;amsel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Amsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;blackbird&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/amsel-stehen-silhouette-rosa-305542/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;amsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -7570,7 +8517,7 @@
         <v>&lt;image&gt;&lt;resname&gt;anker&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Anker&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;anchor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/anker-meer-yacht-marine-schiff-312599/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;anker&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7603,7 +8550,7 @@
         <v>&lt;image&gt;&lt;resname&gt;apfel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Apfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;apple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/apple-rot-obst-696445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;apfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -7636,7 +8583,7 @@
         <v>&lt;image&gt;&lt;resname&gt;apfel2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Apfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;apple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blau-apple-blatt-obst-ernte-309764/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;apfel2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -7669,7 +8616,7 @@
         <v>&lt;image&gt;&lt;resname&gt;auto1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auto&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;car&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auto-fahrzeug-edel-limousine-681338/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auto1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -7702,7 +8649,7 @@
         <v>&lt;image&gt;&lt;resname&gt;auto2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auto&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;car&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auto-spielzeugauto-spielzeug-spa%C3%9F-312461/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auto2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7735,7 +8682,7 @@
         <v>&lt;image&gt;&lt;resname&gt;background1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wiese&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;grassland&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/hintergrund-blau-sauber-klar-tag-21717/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;background1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7768,7 +8715,7 @@
         <v>&lt;image&gt;&lt;resname&gt;background2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gras&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;grass&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/hintergrund-nahaufnahme-flora-16051/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;background2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7801,7 +8748,7 @@
         <v>&lt;image&gt;&lt;resname&gt;balloons&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Luftballon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;balloons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/luftballons-aufgeblasen-luft-feier-312654/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;balloons&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7834,7 +8781,7 @@
         <v>&lt;image&gt;&lt;resname&gt;banane&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Banane&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;banana&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/banane-haufen-obst-lebensmittel-25339/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;banane&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7867,7 +8814,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bart&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnurrbart&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moustache&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;amandaelizabeth84&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schnurrbart-lenker-m%C3%A4nnlich-haar-473661/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bart&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7900,7 +8847,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Batman&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;batman&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fledermaus-schwarz-dracula-fl%C3%BCgel-151366/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7933,7 +8880,7 @@
         <v>&lt;image&gt;&lt;resname&gt;baumstamm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baumstamm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;log/trunk&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baumst%C3%A4mme-holz-anmelden-bauholz-690888/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;baumstamm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -7966,7 +8913,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bench&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bank&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bench&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;catherinemary&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bank-rot-himmel-blau-natur-185234/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bench&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -7999,7 +8946,7 @@
         <v>&lt;image&gt;&lt;resname&gt;blume&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Blume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blume-rose-kontur-umrisse-schwarz-681009/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;blume&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -8032,7 +8979,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bombe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bombe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bomb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bomb-explosive-detonation-fuze-154456&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bombe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -8065,7 +9012,7 @@
         <v>&lt;image&gt;&lt;resname&gt;brief&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Brief&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;envelope&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/umschlag-mail-bereitstellen-306781/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;brief&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -8098,7 +9045,7 @@
         <v>&lt;image&gt;&lt;resname&gt;brille&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Brille&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;glasses&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/brillen-schwarz-silhouette-310516/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;brille&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -8131,7 +9078,7 @@
         <v>&lt;image&gt;&lt;resname&gt;campfire&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lagerfeuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;campfire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-lager-holz-w%C3%A4rme-flammen-30231/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;campfire&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -8164,7 +9111,7 @@
         <v>&lt;image&gt;&lt;resname&gt;diamant2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Diamant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;diamond&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/diamant-schnitt-poliert-schmuck-311259/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;diamant2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -8174,7 +9121,7 @@
       </c>
       <c r="B24" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;diamont1&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;diamant1&lt;/resname&gt;</v>
       </c>
       <c r="C24" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
@@ -8182,7 +9129,7 @@
       </c>
       <c r="D24" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/diamant-teuer-juwel-wertvolle-158431/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;diamont1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/diamant-teuer-juwel-wertvolle-158431/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;diamant1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E24" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -8194,10 +9141,10 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;image&gt;&lt;resname&gt;diamont1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Diamant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;diamond&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/diamant-teuer-juwel-wertvolle-158431/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;diamont1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;diamant1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Diamant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;diamond&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/diamant-teuer-juwel-wertvolle-158431/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;diamant1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>794</v>
+        <v>881</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -8230,7 +9177,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dinosaurier&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Dinosaurier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dinosaur&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/brontosaurus-dinosaurier-dino-297003/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dinosaurier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -8263,7 +9210,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dragon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monster&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monster&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-eidechse-monster-chinesisch-149393/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dragon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -8296,7 +9243,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dragon2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Drache&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dragon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-rot-symbol-fantasie-312035/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dragon2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -8329,7 +9276,7 @@
         <v>&lt;image&gt;&lt;resname&gt;eisenbahn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Eisenbahn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;train&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zug-reisen-transport-eisenbahn-312227/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;eisenbahn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -8362,7 +9309,7 @@
         <v>&lt;image&gt;&lt;resname&gt;elephant&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Elefant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;elephant&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/elefant-profil-rot-gro%C3%9F-306223/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;elephant&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -8395,7 +9342,7 @@
         <v>&lt;image&gt;&lt;resname&gt;elephant2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Elefant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;elephant&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/elefant-wasserloch-%C3%BCbermut-694470/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;elephant2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -8428,7 +9375,7 @@
         <v>&lt;image&gt;&lt;resname&gt;esel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Esel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;donkey&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/donkey-animal-farm-gray-comic-310798/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;esel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -8461,7 +9408,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fahrrad&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fahrrad&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bicycle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fahrrad-zyklus-rad-pedal-311808/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fahrrad&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -8494,7 +9441,7 @@
         <v>&lt;image&gt;&lt;resname&gt;feet&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Füsse&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;feet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/f%C3%BC%C3%9Fe-zehen-abdruck-gliederung-311827/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;feet&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -8527,7 +9474,7 @@
         <v>&lt;image&gt;&lt;resname&gt;feuer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Feuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-kamin-flamme-hei%C3%9F-brennen-690944/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;feuer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -8560,7 +9507,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fish&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unknown&lt;/name&gt;&lt;source&gt;www.pngimg.com/download/1160&lt;/source&gt;&lt;license&gt;&lt;/license&gt;&lt;title&gt;fisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -8593,7 +9540,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fishingboat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Boot&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;boat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Suedelbien&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fischerboot-d%C3%A4nemark-strand-meer-49523/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fishingboat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -8626,7 +9573,7 @@
         <v>&lt;image&gt;&lt;resname&gt;flag&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flagge&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flag&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/flagge-rot-signal-aufmerksamkeit-312763/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flag&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -8659,7 +9606,7 @@
         <v>&lt;image&gt;&lt;resname&gt;flasche&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flasche&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bottle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/flasche-ketchup-leere-geschlossen-306549/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flasche&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -8692,7 +9639,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fliegenpilz&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fliegenpilz&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mushroom&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lichtwerk2&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fliegenpilze-roter-fliegenpilz-pilze-516281/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fliegenpilz&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -8725,7 +9672,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fluegel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flügel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;wings&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fl%C3%BCgel-wei%C3%9F-isoliert-symbol-feder-311429/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fluegel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -8758,7 +9705,7 @@
         <v>&lt;image&gt;&lt;resname&gt;flugzeug&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flugzeug&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;airplane&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Holgi&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/personenverkehr-fluggesellschaft-122999/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flugzeug&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -8791,7 +9738,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fox&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fuchs&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fox&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fox-blau-silhouette-kunst-tierwelt-310123/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fox&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -8824,7 +9771,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fussball&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fussball&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soccer&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/football-ball-sport-soccer-round-157930&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fussball&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -8857,7 +9804,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gehirn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gehirn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;brain&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gehirn-menschliche-wissenschaft-303186/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gehirn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -8890,7 +9837,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gespenst&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gespenst&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;ghost&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gespenst-halloween-gruselig-angst-303596/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gespenst&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -8923,7 +9870,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gewitter&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gewitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lightning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blitz-himmel-nacht-dunkel-690410/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gewitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -8956,7 +9903,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gummibears&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gummibär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;gummibear&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hans&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummib%C3%A4ren-fruchtgummis-b%C3%A4ren-8551/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gummibears&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -8989,7 +9936,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gummiente&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Ente&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;duck&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummi-ente-quietschende-schwimmen-156597/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gummiente&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -9022,7 +9969,7 @@
         <v>&lt;image&gt;&lt;resname&gt;haende&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hände&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;hands&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/h%C3%A4nde-zwei-offen-silhouette-296850/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;haende&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -9055,7 +10002,7 @@
         <v>&lt;image&gt;&lt;resname&gt;hase&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hase&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rabbit&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bunny-outline-easter-cutout-cookie-306263/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;hase&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -9088,7 +10035,7 @@
         <v>&lt;image&gt;&lt;resname&gt;haus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Haus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;house&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/h%C3%BCtte-haus-ferienhaus-urlaub-dach-312420/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;haus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -9121,7 +10068,7 @@
         <v>&lt;image&gt;&lt;resname&gt;heissluftballon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Heissluftballon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;aerostat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Fabian&lt;/name&gt;&lt;source&gt;&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;heissluftballon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -9154,7 +10101,7 @@
         <v>&lt;image&gt;&lt;resname&gt;himbeeren&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Himbeeren&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;raspberry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;donpolo&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/54811.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Ne Hand voll Himbeeren &lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -9187,7 +10134,7 @@
         <v>&lt;image&gt;&lt;resname&gt;juli&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;month&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/juli-jul-monat-jahr-neue-tag-706938/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;juli&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -9220,7 +10167,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kaefer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Marienkäfer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;ladybug&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;blickpixel&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/biologische-blatt-bl%C3%A4tter-181237/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kaefer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -9253,7 +10200,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kaffeebohne&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kaffeebohne&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;coffebean&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Karl Dichtler &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/136975.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;andere Sicht&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -9286,7 +10233,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kangaroo&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Känguru&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;kangaroo&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/k%C3%A4nguru-s%C3%A4ugetier-australien-295261/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kangaroo&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -9319,7 +10266,7 @@
         <v>&lt;image&gt;&lt;resname&gt;karate&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Karate&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;karate&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/karate-martial-kunst-verteidigung-312471/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;karate&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -9352,7 +10299,7 @@
         <v>&lt;image&gt;&lt;resname&gt;katze&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tier-katze-kontur-umrisse-675646/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;katze&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -9385,7 +10332,7 @@
         <v>&lt;image&gt;&lt;resname&gt;katze&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/animal-cat-contour-outlines-675646&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;katze&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -9418,7 +10365,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kleeblatt&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kleeblatt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shamrock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kleeblatt-vier-kleeblatt-irisch-311391/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kleeblatt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -9451,7 +10398,7 @@
         <v>&lt;image&gt;&lt;resname&gt;knochen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Knochen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bones-dog-chicken-comic-307870/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;knochen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -9484,7 +10431,7 @@
         <v>&lt;image&gt;&lt;resname&gt;korb&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Korb&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;basket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/korb-gr%C3%BCn-kunststoff-container-312684/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;korb&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -9517,7 +10464,7 @@
         <v>&lt;image&gt;&lt;resname&gt;krone&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Krone&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;crown&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/krone-royal-kreuz-edelsteine-308054/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;krone&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -9550,7 +10497,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kuerbis&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kürbis&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pumpkin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Klaus Maier&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/20758.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Kürbisse - Farben &lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -9583,7 +10530,7 @@
         <v>&lt;image&gt;&lt;resname&gt;landstrasse&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Strasse&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;street&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/chile-panamericana-stra%C3%9Fe-693053/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;landstrasse&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -9616,7 +10563,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lava&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lava&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lava&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lava-magma-vulkanausbruch-gl%C3%BChen-67574/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lava&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -9649,7 +10596,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lego&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lego&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lego&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;mwewering&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lego-legosteine-steine-spielzeug-615239/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lego&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -9682,7 +10629,7 @@
         <v>&lt;image&gt;&lt;resname&gt;leopard&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leopard&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;leopard&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leopard-raubkatze-savuti-botswana-694460/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leopard&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -9715,7 +10662,7 @@
         <v>&lt;image&gt;&lt;resname&gt;leuchtturm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leuchtturm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lighthouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;prosaica&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leuchtturm-bodie-island-186722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leuchtturm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -9748,7 +10695,7 @@
         <v>&lt;image&gt;&lt;resname&gt;magnet&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Magnet&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;magnet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/magnet-hufeisen-polen-norden-s%C3%BCden-312777/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;magnet&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -9781,7 +10728,7 @@
         <v>&lt;image&gt;&lt;resname&gt;maus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Maus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/mouse-rodent-animal-small-pet-311207/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;maus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -9814,7 +10761,7 @@
         <v>&lt;image&gt;&lt;resname&gt;meer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Meer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sea&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;rolypolys&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/d%C3%A4nemark-ostsee-k%C3%BCste-meer-wasser-239992/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;meer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -9847,7 +10794,7 @@
         <v>&lt;image&gt;&lt;resname&gt;mond&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Mond&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;jrperes&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mond-himmel-wolken-tag-v%C3%B6gel-323425/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;mond&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -9880,7 +10827,7 @@
         <v>&lt;image&gt;&lt;resname&gt;monitor&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bildschirm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monitor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/monitor-flatscreen-bildschirm-23269/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;monitor&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -9913,7 +10860,7 @@
         <v>&lt;image&gt;&lt;resname&gt;nikolaus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nikolaus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;santa&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/santa-claus-st-nicholas-funny-x-mas-153309/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;nikolaus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -9946,7 +10893,7 @@
         <v>&lt;image&gt;&lt;resname&gt;palme&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Palme&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;palm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kokospalme-baum-gebogen-verdreht-312154/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;palme&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -9979,7 +10926,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pebble&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kieselsteine&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pebble&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;SuXxLe&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kies-steine-desktop-hintergrund-618737/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pebble&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -10012,7 +10959,7 @@
         <v>&lt;image&gt;&lt;resname&gt;piano&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Klavier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;piano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/klavier-musical-instrument-tastatur-312543/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;piano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -10045,7 +10992,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pik&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;peak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/karte-umrissen-spielen-schwarz-157404/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -10078,7 +11025,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pills&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pillen-medizin-gesundheit-684989/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pills&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -10111,7 +11058,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pills2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Angie525A&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/16045.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Licht und Schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -10144,7 +11091,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pills3&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tablette&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pill&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pille-kapsel-rot-blau-medizin-311237/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pills3&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -10177,7 +11124,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pinguin&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinguin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;penguin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/penguin-aquatic-flightless-birds-41066/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinguin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -10210,7 +11157,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rose&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rose&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;MJO&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/rosa-rot-blume-geschenk-143445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rose&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -10243,7 +11190,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pinsel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;paintbrush&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pinsel-borsten-griff-holz-312711/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -10276,7 +11223,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pirate&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pirat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pirate&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pirat-hut-kappe-tod-warnung-311819/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pirate&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -10309,7 +11256,7 @@
         <v>&lt;image&gt;&lt;resname&gt;plus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Plus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;plus&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/button-hinzuf%C3%BCgen-icon-web-symbol-304224/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;plus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -10342,7 +11289,7 @@
         <v>&lt;image&gt;&lt;resname&gt;puzzle&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Puzzle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;puzzle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/puzzle-stichs%C3%A4ge-st%C3%BCck-wei%C3%9F-303502/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;puzzle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -10375,7 +11322,7 @@
         <v>&lt;image&gt;&lt;resname&gt;radioaktiv&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Radioaktiv&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;radioactive&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nukleare-atommasse-strahlung-303831/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;radioaktiv&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -10408,7 +11355,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rakete&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rakete&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rocket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/rocket-spaceship-space-shuttle-nasa-147466/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rakete&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -10441,7 +11388,7 @@
         <v>&lt;image&gt;&lt;resname&gt;recycle&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Recycle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;recycle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/recyceln-wiederverwendung-symbol-305031/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;recycle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -10474,7 +11421,7 @@
         <v>&lt;image&gt;&lt;resname&gt;regenschirm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenschirm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;umbrella&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenschirm-regen-wetter-schutz-312302/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenschirm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -10507,7 +11454,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rhino1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-afrika-tier-s%C3%BCdafrika-161569/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -10540,7 +11487,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rhino2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Maddox74&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-safaripark-d%C3%A4nemark-tier-433495/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -10573,7 +11520,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rings&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hochzeit&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;wedding&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ringe-hochzeit-bands-duo-mann-312341/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rings&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -10606,7 +11553,7 @@
         <v>&lt;image&gt;&lt;resname&gt;robot&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Roboter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;robot&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/roboter-maschine-technologie-312566/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;robot&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -10639,7 +11586,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sanfrancisco&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stadt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;city&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/san-francisco-geb%C3%A4ude-t%C3%BCrme-690243/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sanfrancisco&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -10672,7 +11619,7 @@
         <v>&lt;image&gt;&lt;resname&gt;satellit&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Satellit&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;satellite&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sender-gericht-sendung-%C3%BCbertragen-312354/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;satellit&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -10705,7 +11652,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schatten&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schatten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shadow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/licht-schatten-licht-und-schatten-685069/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -10734,11 +11681,11 @@
         <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" ref="G101:G120" si="3">B101&amp;C101&amp;D101&amp;E101&amp;F101</f>
+        <f t="shared" ref="G101:G115" si="3">B101&amp;C101&amp;D101&amp;E101&amp;F101</f>
         <v>&lt;image&gt;&lt;resname&gt;schaufel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schaufel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shovel&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schaufel-werkzeug-graben-sch%C3%B6pfen-312360/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schaufel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -10771,7 +11718,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schere&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scissor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/scissors-shears-cut-tool-equipment-24188/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schere&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -10804,7 +11751,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schildkroete1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schildkr%C3%B6te-unterwasser-wasser-691040/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -10837,7 +11784,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schildkroete2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/turtle-carapace-tortoise-green-303732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -10870,7 +11817,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schloss&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schloss&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;stux&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/castle-padlock-shut-off-to-378353&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schloss&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -10903,7 +11850,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schmetterling&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schmetterling&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;butterfly&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schmetterling-schwarz-weiss-konturen-658047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schmetterling&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -10936,7 +11883,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schnee&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnee&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;snow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/landschaft-berge-h%C3%BCgel-t%C3%A4ler-690244/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schnee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -10969,7 +11916,7 @@
         <v>&lt;image&gt;&lt;resname&gt;school&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stift&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pencil&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schule-bleistift-stift-schreiben-153561/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;school&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -11002,7 +11949,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schraubenzieher&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schraubenzieher&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;screwdriver&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/screwdriver-starhead-star-torx-33634&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schraubenzieher&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -11035,7 +11982,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schwert&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwert&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sword&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwert-mittelalter-waffe-metall-308836/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwert&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -11068,7 +12015,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schwimmer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwimmer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;swimmer&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwimmer-piktogramm-sport-wasser-305260/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwimmer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -11101,7 +12048,7 @@
         <v>&lt;image&gt;&lt;resname&gt;seifen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Seife&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soap&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lukas_reinhardt &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/103663.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Export&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -11134,7 +12081,7 @@
         <v>&lt;image&gt;&lt;resname&gt;signal&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Signal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;signal&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wlan-signal-schwarz-wireless-303722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;signal&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -11167,7 +12114,7 @@
         <v>&lt;image&gt;&lt;resname&gt;skull&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Totenkopf&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;skull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/totenkopf-sch%C3%A4del-gekreuzten-knochen-30325/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;skull&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -11200,7 +12147,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sky1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wolke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cloud&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hongmyeon&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-wolke-sonnenschein-sommer-383823/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sky1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -11233,7 +12180,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sky2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Himmel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sky&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;alexis&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-berg-wolke-berge-wolken-62732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sky2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -11266,7 +12213,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sonne&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sun&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sonne-gelb-spirale-sommer-design-303773/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonne&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -11299,7 +12246,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sonnenuntergang&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnenuntergang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sunset&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;JanneG&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gl%C3%BChend-gegenlicht-vogel-m%C3%B6we-253676/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonnenuntergang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -11332,7 +12279,7 @@
         <v>&lt;image&gt;&lt;resname&gt;stern&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stern&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;star&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stern-favorit-orange-gliederung-304120/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stern&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -11365,7 +12312,7 @@
         <v>&lt;image&gt;&lt;resname&gt;stier&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stier-buffalo-tier-s%C3%A4ugetier-155411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -11398,7 +12345,7 @@
         <v>&lt;image&gt;&lt;resname&gt;stone&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Balance&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;balance&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stein-balance-gleichgewicht-698354/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stone&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -11431,7 +12378,7 @@
         <v>&lt;image&gt;&lt;resname&gt;strawberry&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Erdbeere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;strawberry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/erdbeere-rot-makro-629180/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;strawberry&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -11464,7 +12411,7 @@
         <v>&lt;image&gt;&lt;resname&gt;structure&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Struktur&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;structure&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/struktur-herbst-weinlaub-698163/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;structure&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -11497,7 +12444,7 @@
         <v>&lt;image&gt;&lt;resname&gt;symbol&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Email&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;email&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/symbol-bei-computer-icon-design-684962/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;symbol&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -11530,7 +12477,7 @@
         <v>&lt;image&gt;&lt;resname&gt;tanzpaar&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Paar&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;couple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mann-frau-hand-h%C3%A4lt-m%C3%A4nnlich-312413/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tanzpaar&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -11563,7 +12510,7 @@
         <v>&lt;image&gt;&lt;resname&gt;teddybear&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Teddybär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;teddy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/teddyb%C3%A4r-b%C3%A4r-pl%C3%BCsch-gef%C3%BCllt-anial-303837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;teddybear&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -11596,7 +12543,7 @@
         <v>&lt;image&gt;&lt;resname&gt;telefon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Telefon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;phone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;traude&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/telefon-handy-telefonieren-558022/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;telefon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -11629,7 +12576,7 @@
         <v>&lt;image&gt;&lt;resname&gt;theater&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Theater&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;theater&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/theater-kom%C3%B6die-trag%C3%B6die-masken-311730/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;theater&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -11662,7 +12609,7 @@
         <v>&lt;image&gt;&lt;resname&gt;tomate&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tomate&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tomato&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;naliha&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/33783.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;rote Tomaten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -11695,7 +12642,7 @@
         <v>&lt;image&gt;&lt;resname&gt;tree&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baum&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tree&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baum-scherenschnitt-natur-657481/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tree&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -11728,7 +12675,7 @@
         <v>&lt;image&gt;&lt;resname&gt;trophaee&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pokal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;trophy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hrohmann&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vase-standvase-blau-wappen-700862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;trophaee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -11761,7 +12708,7 @@
         <v>&lt;image&gt;&lt;resname&gt;twitter&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Twitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;twitter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/twitter-tweet-twitter-vogel-312464/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;twitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -11794,7 +12741,7 @@
         <v>&lt;image&gt;&lt;resname&gt;uhr&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Uhr&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;clock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;KTEditor&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/uhr-zeit-stunden-559963/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;uhr&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -11827,7 +12774,7 @@
         <v>&lt;image&gt;&lt;resname&gt;vegetables&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gurke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cucumber&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gem%C3%BCse-gurke-lebensmittel-700047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vegetables&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -11860,7 +12807,7 @@
         <v>&lt;image&gt;&lt;resname&gt;volcano&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Vulkan&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;volcano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkan-eruption-ausbruch-lava-berg-310172/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;volcano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -11893,7 +12840,7 @@
         <v>&lt;image&gt;&lt;resname&gt;volcano2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Eruption&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eruption&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkanausbruch-eruption-vulkan-67668/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;volcano2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -11926,7 +12873,7 @@
         <v>&lt;image&gt;&lt;resname&gt;waage&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waage&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scales&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/waage-gleichgewicht-gewicht-311504/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waage&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -11959,7 +12906,7 @@
         <v>&lt;image&gt;&lt;resname&gt;waffen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waffen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;weapons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwerter-dolche-%C3%BCberschritten-312440/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waffen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -11992,7 +12939,7 @@
         <v>&lt;image&gt;&lt;resname&gt;warnung&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Warnung&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;warning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/warnung-anmelden-rot-dreieck-303898/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;warnung&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -12025,7 +12972,7 @@
         <v>&lt;image&gt;&lt;resname&gt;wassertropfen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wassertropfen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;waterdrop&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;roegger&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wassertropfen-spritzen-wasser-545377/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wassertropfen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -12058,7 +13005,7 @@
         <v>&lt;image&gt;&lt;resname&gt;wuerfel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cube&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;wilhei&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -12091,7 +13038,7 @@
         <v>&lt;image&gt;&lt;resname&gt;wuerfel2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dice&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-f%C3%BCnf-gl%C3%BCcksspiel-gl%C3%BCck-312622/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -12124,7 +13071,7 @@
         <v>&lt;image&gt;&lt;resname&gt;wueste&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wüste&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;desert&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gobi-w%C3%BCste-hei%C3%9F-sandd%C3%BCne-mongolei-692640/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wueste&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -12157,7 +13104,7 @@
         <v>&lt;image&gt;&lt;resname&gt;wurm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wurm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;worm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/worm-cartoon-character-cute-funny-309559/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wurm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -12190,7 +13137,7 @@
         <v>&lt;image&gt;&lt;resname&gt;yak&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yak&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yak-tier-tibet-grunzochse-642700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yak&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -12223,7 +13170,7 @@
         <v>&lt;image&gt;&lt;resname&gt;zahn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tooth&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/z%C3%A4hne-molaren-zahnmedizin-zahnarzt-310332/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -12256,714 +13203,713 @@
         <v>&lt;image&gt;&lt;resname&gt;zielscheibe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zielscheibe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;target&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bull-s-eye-ziel-pfeil-treffen-dart-297805/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zielscheibe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="16"/>
-      <c r="B148" s="16"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="16"/>
-      <c r="J148" s="16"/>
-      <c r="K148" s="16"/>
+      <c r="A148">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>148</v>
+      </c>
+      <c r="B148" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;herz&lt;/resname&gt;</v>
+      </c>
+      <c r="C148" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Herz&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;hearth&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D148" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/valentine-herz-liebe-eingebettet-601705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;herz&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E148" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F148" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" ref="G148" si="5">B148&amp;C148&amp;D148&amp;E148&amp;F148</f>
+        <v>&lt;image&gt;&lt;resname&gt;herz&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Herz&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;hearth&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/valentine-herz-liebe-eingebettet-601705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;herz&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B149" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C149" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D149" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E149" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F149" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G149" t="e">
+      <c r="A149">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>149</v>
+      </c>
+      <c r="B149" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;geschlecht&lt;/resname&gt;</v>
+      </c>
+      <c r="C149" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Geschlecht&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;gender&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D149" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%A4nnlich-weiblich-geschlecht-709687/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;geschlecht&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E149" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F149" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G149" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K149" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;geschlecht&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Geschlecht&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;gender&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%A4nnlich-weiblich-geschlecht-709687/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;geschlecht&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B150" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C150" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D150" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E150" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F150" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G150" t="e">
+      <c r="A150">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>150</v>
+      </c>
+      <c r="B150" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;frau&lt;/resname&gt;</v>
+      </c>
+      <c r="C150" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Frau&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;female&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D150" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/weiblich-symbol-frau-menschen-709700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;frau&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E150" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F150" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G150" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K150" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;frau&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Frau&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;female&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/weiblich-symbol-frau-menschen-709700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;frau&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B151" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C151" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D151" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E151" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F151" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G151" t="e">
+      <c r="A151">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>151</v>
+      </c>
+      <c r="B151" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;zahl&lt;/resname&gt;</v>
+      </c>
+      <c r="C151" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;number&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D151" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/eine-1-zahl-design-sammlung-706897/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E151" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F151" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G151" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K151" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;zahl&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;number&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/eine-1-zahl-design-sammlung-706897/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B152" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C152" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D152" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E152" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F152" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G152" t="e">
+      <c r="A152">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>152</v>
+      </c>
+      <c r="B152" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;regenbogen&lt;/resname&gt;</v>
+      </c>
+      <c r="C152" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenbogen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rainbow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D152" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenbogen-streifen-muster-298752/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenbogen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E152" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F152" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G152" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K152" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;regenbogen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenbogen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rainbow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenbogen-streifen-muster-298752/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenbogen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B153" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C153" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D153" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E153" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F153" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G153" t="e">
+      <c r="A153">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>153</v>
+      </c>
+      <c r="B153" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;blume2&lt;/resname&gt;</v>
+      </c>
+      <c r="C153" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Blume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D153" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blume-kontur-gelb-umrisse-668854/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;blume2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E153" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F153" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G153" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K153" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;blume2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Blume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blume-kontur-gelb-umrisse-668854/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;blume2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B154" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C154" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D154" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E154" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F154" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G154" t="e">
+      <c r="A154">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>154</v>
+      </c>
+      <c r="B154" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;noten&lt;/resname&gt;</v>
+      </c>
+      <c r="C154" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Noten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;note&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D154" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/noten-notenblatt-musik-takt-668862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;noten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E154" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F154" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G154" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K154" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;noten&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Noten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;note&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/noten-notenblatt-musik-takt-668862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;noten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B155" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C155" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D155" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E155" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F155" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G155" t="e">
+      <c r="A155">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>155</v>
+      </c>
+      <c r="B155" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;musik&lt;/resname&gt;</v>
+      </c>
+      <c r="C155" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Musik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;music&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D155" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/notenschl%C3%BCssel-musik-melodie-ton-296775/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;musik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E155" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F155" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G155" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K155" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;musik&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Musik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;music&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/notenschl%C3%BCssel-musik-melodie-ton-296775/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;musik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B156" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C156" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D156" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E156" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F156" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G156" t="e">
+      <c r="A156">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>156</v>
+      </c>
+      <c r="B156" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;pfeile&lt;/resname&gt;</v>
+      </c>
+      <c r="C156" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pfeile&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;arrows&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D156" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pfeile-farbverlauf-design-symbol-539917/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pfeile&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E156" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F156" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G156" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K156" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;pfeile&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pfeile&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;arrows&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pfeile-farbverlauf-design-symbol-539917/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pfeile&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B157" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C157" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D157" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E157" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F157" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G157" t="e">
+      <c r="A157">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>157</v>
+      </c>
+      <c r="B157" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;buchstabe&lt;/resname&gt;</v>
+      </c>
+      <c r="C157" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Buchstabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;letter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D157" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/abc-alphabet-t-schreiben-schriften-725081/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;buchstabe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E157" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F157" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G157" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K157" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;buchstabe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Buchstabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;letter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/abc-alphabet-t-schreiben-schriften-725081/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;buchstabe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B158" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C158" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D158" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E158" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F158" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G158" t="e">
+      <c r="A158">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>158</v>
+      </c>
+      <c r="B158" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;schluessel&lt;/resname&gt;</v>
+      </c>
+      <c r="C158" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schlüssel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;key&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D158" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schl%C3%BCssel-sperre-gesperrt-575680/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schluessel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E158" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F158" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G158" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K158" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;schluessel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schlüssel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;key&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schl%C3%BCssel-sperre-gesperrt-575680/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schluessel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B159" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C159" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D159" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E159" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F159" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G159" t="e">
+      <c r="A159">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>159</v>
+      </c>
+      <c r="B159" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;tisch&lt;/resname&gt;</v>
+      </c>
+      <c r="C159" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;table&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D159" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E159" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F159" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G159" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K159" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;tisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;table&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B160" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C160" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D160" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E160" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F160" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G160" t="e">
+      <c r="A160">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>160</v>
+      </c>
+      <c r="B160" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;spiegelei&lt;/resname&gt;</v>
+      </c>
+      <c r="C160" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spiegelei&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;friedegg&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D160" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ei-sonnenseite-bis-gebraten-576086/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spiegelei&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E160" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F160" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G160" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K160" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;spiegelei&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spiegelei&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;friedegg&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ei-sonnenseite-bis-gebraten-576086/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spiegelei&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B161" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C161" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D161" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E161" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F161" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G161" t="e">
+      <c r="A161">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>161</v>
+      </c>
+      <c r="B161" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;zaun&lt;/resname&gt;</v>
+      </c>
+      <c r="C161" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zaun&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fence&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D161" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zaun-gartenzaun-geschlossen-156818/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zaun&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E161" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F161" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G161" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K161" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;zaun&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zaun&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fence&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zaun-gartenzaun-geschlossen-156818/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zaun&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B162" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C162" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D162" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E162" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F162" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G162" t="e">
+      <c r="A162">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>162</v>
+      </c>
+      <c r="B162" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;lupe&lt;/resname&gt;</v>
+      </c>
+      <c r="C162" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lupe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;loupe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D162" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/linse-vergr%C3%B6%C3%9Fern-glas-lupen-lupe-156813/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lupe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E162" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F162" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G162" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K162" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;lupe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lupe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;loupe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/linse-vergr%C3%B6%C3%9Fern-glas-lupen-lupe-156813/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lupe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B163" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C163" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D163" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E163" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F163" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G163" t="e">
+      <c r="A163">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>163</v>
+      </c>
+      <c r="B163" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;kamera&lt;/resname&gt;</v>
+      </c>
+      <c r="C163" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kamera&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;camera&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D163" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kamera-cctv-sicherheit-cam-156730/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kamera&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E163" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F163" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G163" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K163" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;kamera&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kamera&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;camera&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kamera-cctv-sicherheit-cam-156730/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kamera&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B164" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C164" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D164" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E164" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F164" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G164" t="e">
+      <c r="A164">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>164</v>
+      </c>
+      <c r="B164" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;yinyang&lt;/resname&gt;</v>
+      </c>
+      <c r="C164" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yinyang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yinyang&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D164" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yinyang-yin-und-yang-yang-yin-156414/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yinyang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E164" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F164" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G164" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K164" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;yinyang&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yinyang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yinyang&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yinyang-yin-und-yang-yang-yin-156414/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yinyang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B165" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C165" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D165" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E165" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F165" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G165" t="e">
+      <c r="A165">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>165</v>
+      </c>
+      <c r="B165" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;handabdruck&lt;/resname&gt;</v>
+      </c>
+      <c r="C165" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Handabdruck&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;handprint&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D165" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/handabdruck-finger-palm-anschlag-23837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;handabdruck&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E165" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F165" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G165" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K165" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;handabdruck&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Handabdruck&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;handprint&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/handabdruck-finger-palm-anschlag-23837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;handabdruck&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B166" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C166" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D166" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E166" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F166" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G166" t="e">
+      <c r="A166">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>166</v>
+      </c>
+      <c r="B166" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;gedanke&lt;/resname&gt;</v>
+      </c>
+      <c r="C166" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gedanken&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;thought&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D166" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gedanken-sprache-blasen-idee-24152/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gedanke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E166" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F166" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G166" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K166" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;gedanke&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gedanken&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;thought&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gedanken-sprache-blasen-idee-24152/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gedanke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B167" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C167" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D167" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E167" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F167" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G167" t="e">
+      <c r="A167">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>167</v>
+      </c>
+      <c r="B167" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;spirale&lt;/resname&gt;</v>
+      </c>
+      <c r="C167" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spriale&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;spiral&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D167" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/spirale-design-muster-wirbel-24981/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spirale&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E167" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F167" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G167" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K167" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;spirale&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spriale&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;spiral&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/spirale-design-muster-wirbel-24981/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spirale&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B168" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C168" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D168" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E168" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F168" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G168" t="e">
+      <c r="A168">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>168</v>
+      </c>
+      <c r="B168" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;europa&lt;/resname&gt;</v>
+      </c>
+      <c r="C168" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Europa&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;europe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D168" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/europa-karte-l%C3%A4nder-silhouette-23571/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;europa&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E168" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F168" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G168" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K168" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;europa&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Europa&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;europe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/europa-karte-l%C3%A4nder-silhouette-23571/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;europa&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B169" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C169" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D169" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E169" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F169" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G169" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K169" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="e">
@@ -13321,7 +14267,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G180" t="e">
-        <f t="shared" ref="G180:G243" si="5">B180&amp;C180&amp;D180&amp;E180&amp;F180</f>
+        <f t="shared" ref="G180:G243" si="6">B180&amp;C180&amp;D180&amp;E180&amp;F180</f>
         <v>#VALUE!</v>
       </c>
       <c r="K180" s="3" t="e">
@@ -13354,7 +14300,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G181" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K181" s="3" t="e">
@@ -13387,7 +14333,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G182" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K182" s="3" t="e">
@@ -13420,7 +14366,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G183" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K183" s="3" t="e">
@@ -13453,7 +14399,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G184" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K184" s="3" t="e">
@@ -13486,7 +14432,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G185" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K185" s="3" t="e">
@@ -13519,7 +14465,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G186" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K186" s="3" t="e">
@@ -13552,7 +14498,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G187" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K187" s="3" t="e">
@@ -13585,7 +14531,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G188" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K188" s="3" t="e">
@@ -13618,7 +14564,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G189" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K189" s="3" t="e">
@@ -13651,7 +14597,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G190" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K190" s="3" t="e">
@@ -13684,7 +14630,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G191" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K191" s="3" t="e">
@@ -13717,7 +14663,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G192" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K192" s="3" t="e">
@@ -13750,7 +14696,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G193" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K193" s="3" t="e">
@@ -13783,7 +14729,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G194" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K194" s="3" t="e">
@@ -13816,7 +14762,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G195" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K195" s="3" t="e">
@@ -13849,7 +14795,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G196" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K196" s="3" t="e">
@@ -13882,7 +14828,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G197" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K197" s="3" t="e">
@@ -13915,7 +14861,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G198" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K198" s="3" t="e">
@@ -13948,7 +14894,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G199" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K199" s="3" t="e">
@@ -13981,7 +14927,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G200" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K200" s="3" t="e">
@@ -14014,7 +14960,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G201" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K201" s="3" t="e">
@@ -14047,7 +14993,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G202" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K202" s="3" t="e">
@@ -14080,7 +15026,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G203" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K203" s="3" t="e">
@@ -14113,7 +15059,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G204" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K204" s="3" t="e">
@@ -14146,7 +15092,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G205" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K205" s="3" t="e">
@@ -14179,7 +15125,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G206" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K206" s="3" t="e">
@@ -14212,7 +15158,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G207" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K207" s="3" t="e">
@@ -14245,7 +15191,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G208" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K208" s="3" t="e">
@@ -14278,7 +15224,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G209" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K209" s="3" t="e">
@@ -14311,7 +15257,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G210" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K210" s="3" t="e">
@@ -14344,7 +15290,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G211" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K211" s="3" t="e">
@@ -14377,7 +15323,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G212" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K212" s="3" t="e">
@@ -14410,7 +15356,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G213" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K213" s="3" t="e">
@@ -14443,7 +15389,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G214" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K214" s="3" t="e">
@@ -14476,7 +15422,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G215" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K215" s="3" t="e">
@@ -14509,7 +15455,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G216" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K216" s="3" t="e">
@@ -14542,7 +15488,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G217" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K217" s="3" t="e">
@@ -14575,7 +15521,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G218" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K218" s="3" t="e">
@@ -14608,7 +15554,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G219" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K219" s="3" t="e">
@@ -14641,7 +15587,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G220" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K220" s="3" t="e">
@@ -14674,7 +15620,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G221" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K221" s="3" t="e">
@@ -14707,7 +15653,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G222" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K222" s="3" t="e">
@@ -14740,7 +15686,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G223" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K223" s="3" t="e">
@@ -14773,7 +15719,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G224" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K224" s="3" t="e">
@@ -14806,7 +15752,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G225" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K225" s="3" t="e">
@@ -14839,7 +15785,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G226" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K226" s="3" t="e">
@@ -14872,7 +15818,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G227" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K227" s="3" t="e">
@@ -14905,7 +15851,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G228" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K228" s="3" t="e">
@@ -14938,7 +15884,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G229" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K229" s="3" t="e">
@@ -14971,7 +15917,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G230" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K230" s="3" t="e">
@@ -15004,7 +15950,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G231" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K231" s="3" t="e">
@@ -15037,7 +15983,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G232" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K232" s="3" t="e">
@@ -15070,7 +16016,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G233" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K233" s="3" t="e">
@@ -15103,7 +16049,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G234" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K234" s="3" t="e">
@@ -15136,7 +16082,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G235" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K235" s="3" t="e">
@@ -15169,7 +16115,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G236" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K236" s="3" t="e">
@@ -15202,7 +16148,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G237" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K237" s="3" t="e">
@@ -15235,7 +16181,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G238" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K238" s="3" t="e">
@@ -15268,7 +16214,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G239" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K239" s="3" t="e">
@@ -15301,7 +16247,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G240" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K240" s="3" t="e">
@@ -15334,7 +16280,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G241" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K241" s="3" t="e">
@@ -15367,7 +16313,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G242" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K242" s="3" t="e">
@@ -15400,7 +16346,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G243" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K243" s="3" t="e">
@@ -15433,7 +16379,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G244" t="e">
-        <f t="shared" ref="G244:G260" si="6">B244&amp;C244&amp;D244&amp;E244&amp;F244</f>
+        <f t="shared" ref="G244:G260" si="7">B244&amp;C244&amp;D244&amp;E244&amp;F244</f>
         <v>#VALUE!</v>
       </c>
       <c r="K244" s="3" t="e">
@@ -15466,7 +16412,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G245" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K245" s="3" t="e">
@@ -15499,7 +16445,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G246" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K246" s="3" t="e">
@@ -15532,7 +16478,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G247" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K247" s="3" t="e">
@@ -15565,7 +16511,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G248" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K248" s="3" t="e">
@@ -15598,7 +16544,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G249" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K249" s="3" t="e">
@@ -15631,7 +16577,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G250" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K250" s="3" t="e">
@@ -15664,7 +16610,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G251" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K251" s="3" t="e">
@@ -15697,7 +16643,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G252" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K252" s="3" t="e">
@@ -15730,7 +16676,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G253" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K253" s="3" t="e">
@@ -15763,7 +16709,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G254" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K254" s="3" t="e">
@@ -15796,7 +16742,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G255" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K255" s="3" t="e">
@@ -15829,7 +16775,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G256" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K256" s="3" t="e">
@@ -15862,7 +16808,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G257" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K257" s="3" t="e">
@@ -15895,7 +16841,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G258" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K258" s="3" t="e">
@@ -15928,7 +16874,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G259" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K259" s="3" t="e">
@@ -15961,7 +16907,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G260" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="K260" s="3" t="e">
@@ -16131,26 +17077,26 @@
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>635</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/app/App-Bilder.xlsx
+++ b/app/App-Bilder.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="810"/>
   </bookViews>
   <sheets>
     <sheet name="Bildersammlung" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H78" authorId="0" shapeId="0">
+    <comment ref="H77" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G85" authorId="0" shapeId="0">
+    <comment ref="G84" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G91" authorId="0" shapeId="0">
+    <comment ref="G90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G114" authorId="0" shapeId="0">
+    <comment ref="G113" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H150" authorId="0" shapeId="0">
+    <comment ref="H149" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I163" authorId="0" shapeId="0">
+    <comment ref="I162" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="948">
   <si>
     <t>Autor/Psyeudonym</t>
   </si>
@@ -1671,9 +1671,6 @@
     <t>amsel</t>
   </si>
   <si>
-    <t>http://pixabay.com/en/animal-cat-contour-outlines-675646</t>
-  </si>
-  <si>
     <t>katze</t>
   </si>
   <si>
@@ -3106,6 +3103,12 @@
   </si>
   <si>
     <t>&lt;image&gt;&lt;resname&gt;zeppelin&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zeppelin-hei%C3%9Fluftballon-luftschiff-311328/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zeppelin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>oder Richtung?</t>
+  </si>
+  <si>
+    <t>unschönes Bild</t>
   </si>
 </sst>
 </file>
@@ -3279,6 +3282,39 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3297,25 +3333,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -3359,20 +3376,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3504,19 +3507,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:M176" totalsRowShown="0">
-  <autoFilter ref="A1:M176"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:M175" totalsRowShown="0">
+  <autoFilter ref="A1:M175"/>
   <sortState ref="A2:M176">
     <sortCondition ref="I1:I176"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="2" name="Autor/Psyeudonym" dataDxfId="10"/>
-    <tableColumn id="3" name="ggf. Bildtitel" dataDxfId="9">
+    <tableColumn id="2" name="Autor/Psyeudonym" dataDxfId="12"/>
+    <tableColumn id="3" name="ggf. Bildtitel" dataDxfId="11">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Dateiname]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Lizenzname" dataDxfId="8"/>
-    <tableColumn id="5" name="Quelle" dataDxfId="7" dataCellStyle="Link"/>
-    <tableColumn id="6" name="Modi" dataDxfId="1" dataCellStyle="Link"/>
+    <tableColumn id="4" name="Lizenzname" dataDxfId="10"/>
+    <tableColumn id="5" name="Quelle" dataDxfId="9" dataCellStyle="Link"/>
+    <tableColumn id="6" name="Modi" dataDxfId="8" dataCellStyle="Link"/>
     <tableColumn id="7" name="Auflösung"/>
     <tableColumn id="8" name="Lösung Deutsch"/>
     <tableColumn id="9" name="Englisch"/>
@@ -3540,16 +3543,16 @@
     <tableColumn id="2" name="Imagename">
       <calculatedColumnFormula>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Solution" dataDxfId="6">
+    <tableColumn id="3" name="Solution" dataDxfId="7">
       <calculatedColumnFormula>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Author" dataDxfId="5">
+    <tableColumn id="4" name="Author" dataDxfId="6">
       <calculatedColumnFormula>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Preference" dataDxfId="4">
+    <tableColumn id="5" name="Preference" dataDxfId="5">
       <calculatedColumnFormula>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Dislike" dataDxfId="3">
+    <tableColumn id="6" name="Dislike" dataDxfId="4">
       <calculatedColumnFormula>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="Summary">
@@ -3823,11 +3826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M176"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H160" sqref="H160"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3885,7 +3888,7 @@
         <v>386</v>
       </c>
       <c r="M1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3926,6 +3929,9 @@
       <c r="D3" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="F3" t="s">
+        <v>861</v>
+      </c>
       <c r="G3" t="s">
         <v>101</v>
       </c>
@@ -3954,7 +3960,7 @@
         <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G4" t="s">
         <v>98</v>
@@ -3984,7 +3990,7 @@
         <v>350</v>
       </c>
       <c r="F5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G5" t="s">
         <v>351</v>
@@ -4035,10 +4041,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G7" t="s">
         <v>247</v>
@@ -4047,7 +4053,7 @@
         <v>248</v>
       </c>
       <c r="I7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -4062,11 +4068,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>657</v>
+      <c r="F8" t="s">
+        <v>861</v>
       </c>
       <c r="G8" t="s">
         <v>330</v>
@@ -4075,7 +4081,10 @@
         <v>331</v>
       </c>
       <c r="I8" t="s">
-        <v>756</v>
+        <v>755</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -4093,8 +4102,8 @@
         <v>329</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>658</v>
+      <c r="F9" t="s">
+        <v>861</v>
       </c>
       <c r="G9" t="s">
         <v>330</v>
@@ -4104,6 +4113,9 @@
       </c>
       <c r="I9" t="s">
         <v>428</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -4124,7 +4136,7 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I10" t="s">
         <v>133</v>
@@ -4204,6 +4216,9 @@
       <c r="D13" s="11" t="s">
         <v>308</v>
       </c>
+      <c r="F13" t="s">
+        <v>861</v>
+      </c>
       <c r="G13" t="s">
         <v>309</v>
       </c>
@@ -4232,7 +4247,7 @@
         <v>317</v>
       </c>
       <c r="F14" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G14" t="s">
         <v>318</v>
@@ -4265,7 +4280,7 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J15" t="s">
         <v>177</v>
@@ -4292,7 +4307,7 @@
         <v>121</v>
       </c>
       <c r="I16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J16" t="s">
         <v>179</v>
@@ -4313,7 +4328,7 @@
         <v>128</v>
       </c>
       <c r="F17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G17" t="s">
         <v>381</v>
@@ -4343,7 +4358,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
@@ -4352,7 +4367,7 @@
         <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J18" t="s">
         <v>178</v>
@@ -4379,7 +4394,7 @@
         <v>197</v>
       </c>
       <c r="I19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4394,16 +4409,16 @@
         <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="G20" t="s">
         <v>894</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>895</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>896</v>
-      </c>
-      <c r="I20" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4421,7 +4436,7 @@
         <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G21" t="s">
         <v>112</v>
@@ -4430,7 +4445,7 @@
         <v>113</v>
       </c>
       <c r="I21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J21" t="s">
         <v>180</v>
@@ -4450,6 +4465,9 @@
       <c r="D22" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="F22" t="s">
+        <v>861</v>
+      </c>
       <c r="G22" t="s">
         <v>68</v>
       </c>
@@ -4457,7 +4475,7 @@
         <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J22" t="s">
         <v>177</v>
@@ -4475,7 +4493,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G23" t="s">
         <v>68</v>
@@ -4484,10 +4502,10 @@
         <v>69</v>
       </c>
       <c r="I23" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M23" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4502,16 +4520,19 @@
         <v>6</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="F24" t="s">
+        <v>861</v>
+      </c>
+      <c r="G24" t="s">
         <v>470</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>471</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>472</v>
-      </c>
-      <c r="I24" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4528,6 +4549,9 @@
       <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F25" t="s">
+        <v>861</v>
+      </c>
       <c r="G25" t="s">
         <v>29</v>
       </c>
@@ -4535,7 +4559,7 @@
         <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J25" t="s">
         <v>177</v>
@@ -4553,16 +4577,19 @@
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="F26" t="s">
+        <v>861</v>
+      </c>
+      <c r="G26" t="s">
+        <v>719</v>
+      </c>
+      <c r="H26" t="s">
         <v>717</v>
       </c>
-      <c r="G26" t="s">
-        <v>720</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>718</v>
-      </c>
-      <c r="I26" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -4580,7 +4607,7 @@
         <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G27" t="s">
         <v>92</v>
@@ -4589,7 +4616,7 @@
         <v>93</v>
       </c>
       <c r="I27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J27" t="s">
         <v>179</v>
@@ -4597,7 +4624,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B28" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -4607,16 +4634,19 @@
         <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="F28" t="s">
+        <v>861</v>
+      </c>
+      <c r="G28" t="s">
         <v>791</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>792</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>793</v>
-      </c>
-      <c r="I28" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -4634,7 +4664,7 @@
         <v>213</v>
       </c>
       <c r="F29" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G29" t="s">
         <v>214</v>
@@ -4643,10 +4673,10 @@
         <v>215</v>
       </c>
       <c r="I29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4661,7 +4691,10 @@
         <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
+      </c>
+      <c r="F30" t="s">
+        <v>861</v>
       </c>
       <c r="G30" t="s">
         <v>214</v>
@@ -4670,10 +4703,10 @@
         <v>215</v>
       </c>
       <c r="I30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4690,6 +4723,9 @@
       <c r="D31" s="10" t="s">
         <v>366</v>
       </c>
+      <c r="F31" t="s">
+        <v>861</v>
+      </c>
       <c r="G31" t="s">
         <v>367</v>
       </c>
@@ -4712,19 +4748,19 @@
         <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="G32" t="s">
+        <v>910</v>
+      </c>
+      <c r="H32" t="s">
         <v>909</v>
       </c>
-      <c r="G32" t="s">
-        <v>911</v>
-      </c>
-      <c r="H32" t="s">
-        <v>910</v>
-      </c>
       <c r="I32" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="M32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -4742,7 +4778,7 @@
         <v>361</v>
       </c>
       <c r="F33" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G33" t="s">
         <v>123</v>
@@ -4751,7 +4787,7 @@
         <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -4766,16 +4802,19 @@
         <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="F34" t="s">
+        <v>861</v>
+      </c>
+      <c r="G34" t="s">
         <v>634</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>635</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>636</v>
-      </c>
-      <c r="I34" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -4792,6 +4831,9 @@
       <c r="D35" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="F35" t="s">
+        <v>861</v>
+      </c>
       <c r="G35" t="s">
         <v>89</v>
       </c>
@@ -4844,7 +4886,7 @@
         <v>307</v>
       </c>
       <c r="F37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G37" t="s">
         <v>415</v>
@@ -4853,7 +4895,7 @@
         <v>416</v>
       </c>
       <c r="I37" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -4877,7 +4919,7 @@
         <v>253</v>
       </c>
       <c r="I38" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="L38" t="s">
         <v>388</v>
@@ -4897,6 +4939,9 @@
       <c r="D39" s="13" t="s">
         <v>429</v>
       </c>
+      <c r="F39" t="s">
+        <v>861</v>
+      </c>
       <c r="G39" t="s">
         <v>430</v>
       </c>
@@ -4919,19 +4964,19 @@
         <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="F40" t="s">
+        <v>861</v>
+      </c>
+      <c r="G40" t="s">
         <v>837</v>
       </c>
-      <c r="F40" t="s">
-        <v>862</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
+        <v>839</v>
+      </c>
+      <c r="I40" t="s">
         <v>838</v>
-      </c>
-      <c r="H40" t="s">
-        <v>840</v>
-      </c>
-      <c r="I40" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -4948,6 +4993,9 @@
       <c r="D41" s="10" t="s">
         <v>372</v>
       </c>
+      <c r="F41" t="s">
+        <v>861</v>
+      </c>
       <c r="G41" t="s">
         <v>320</v>
       </c>
@@ -4973,10 +5021,10 @@
         <v>364</v>
       </c>
       <c r="F42" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H42" t="s">
         <v>365</v>
@@ -5006,7 +5054,7 @@
         <v>274</v>
       </c>
       <c r="I43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J43" t="s">
         <v>178</v>
@@ -5024,6 +5072,9 @@
       <c r="D44" s="11" t="s">
         <v>433</v>
       </c>
+      <c r="F44" t="s">
+        <v>861</v>
+      </c>
       <c r="G44" t="s">
         <v>435</v>
       </c>
@@ -5049,7 +5100,7 @@
         <v>338</v>
       </c>
       <c r="F45" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G45" t="s">
         <v>339</v>
@@ -5078,6 +5129,9 @@
       <c r="D46" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="F46" t="s">
+        <v>861</v>
+      </c>
       <c r="G46" t="s">
         <v>182</v>
       </c>
@@ -5085,7 +5139,7 @@
         <v>87</v>
       </c>
       <c r="I46" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J46" t="s">
         <v>180</v>
@@ -5130,16 +5184,19 @@
         <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F48" t="s">
+        <v>861</v>
+      </c>
+      <c r="G48" t="s">
         <v>615</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>616</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>617</v>
-      </c>
-      <c r="I48" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -5184,7 +5241,7 @@
         <v>106</v>
       </c>
       <c r="F50" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G50" t="s">
         <v>107</v>
@@ -5211,19 +5268,19 @@
         <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="F51" t="s">
+        <v>861</v>
+      </c>
+      <c r="G51" t="s">
+        <v>860</v>
+      </c>
+      <c r="H51" t="s">
         <v>765</v>
       </c>
-      <c r="F51" t="s">
-        <v>862</v>
-      </c>
-      <c r="G51" t="s">
-        <v>861</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>766</v>
-      </c>
-      <c r="I51" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -5241,10 +5298,10 @@
         <v>448</v>
       </c>
       <c r="F52" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G52" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H52" t="s">
         <v>449</v>
@@ -5265,19 +5322,19 @@
         <v>6</v>
       </c>
       <c r="D53" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="F53" t="s">
+        <v>861</v>
+      </c>
+      <c r="G53" t="s">
         <v>830</v>
       </c>
-      <c r="F53" t="s">
-        <v>862</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>831</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>832</v>
-      </c>
-      <c r="I53" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -5292,19 +5349,19 @@
         <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="F54" t="s">
+        <v>861</v>
+      </c>
+      <c r="G54" t="s">
         <v>698</v>
       </c>
-      <c r="F54" t="s">
-        <v>862</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>699</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>700</v>
-      </c>
-      <c r="I54" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -5319,16 +5376,16 @@
         <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="G55" t="s">
         <v>761</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>762</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>763</v>
-      </c>
-      <c r="I55" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -5343,19 +5400,19 @@
         <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="F56" t="s">
+        <v>861</v>
+      </c>
+      <c r="G56" t="s">
         <v>691</v>
       </c>
-      <c r="F56" t="s">
-        <v>862</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>692</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>693</v>
-      </c>
-      <c r="I56" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -5379,7 +5436,7 @@
         <v>193</v>
       </c>
       <c r="I57" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L57" t="s">
         <v>388</v>
@@ -5433,7 +5490,7 @@
         <v>245</v>
       </c>
       <c r="I59" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -5457,7 +5514,7 @@
         <v>110</v>
       </c>
       <c r="I60" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J60" t="s">
         <v>178</v>
@@ -5478,19 +5535,19 @@
         <v>6</v>
       </c>
       <c r="D61" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="F61" t="s">
+        <v>861</v>
+      </c>
+      <c r="G61" t="s">
         <v>826</v>
       </c>
-      <c r="F61" t="s">
-        <v>862</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>827</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>828</v>
-      </c>
-      <c r="I61" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -5508,7 +5565,7 @@
         <v>442</v>
       </c>
       <c r="F62" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G62" t="s">
         <v>362</v>
@@ -5541,7 +5598,7 @@
         <v>349</v>
       </c>
       <c r="I63" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J63" t="s">
         <v>178</v>
@@ -5573,7 +5630,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B65" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -5583,19 +5640,19 @@
         <v>6</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F65" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G65" t="s">
+        <v>866</v>
+      </c>
+      <c r="H65" t="s">
         <v>867</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>868</v>
-      </c>
-      <c r="I65" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -5642,7 +5699,7 @@
         <v>22</v>
       </c>
       <c r="I67" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J67" t="s">
         <v>177</v>
@@ -5669,7 +5726,7 @@
         <v>358</v>
       </c>
       <c r="I68" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -5693,7 +5750,7 @@
         <v>186</v>
       </c>
       <c r="I69" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L69" t="s">
         <v>388</v>
@@ -5720,7 +5777,7 @@
         <v>26</v>
       </c>
       <c r="I70" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J70" t="s">
         <v>177</v>
@@ -5764,16 +5821,19 @@
         <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="F72" t="s">
+        <v>861</v>
+      </c>
+      <c r="G72" t="s">
         <v>818</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>819</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>820</v>
-      </c>
-      <c r="I72" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -5790,6 +5850,9 @@
       <c r="D73" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="F73" t="s">
+        <v>861</v>
+      </c>
       <c r="G73" t="s">
         <v>95</v>
       </c>
@@ -5815,19 +5878,19 @@
         <v>6</v>
       </c>
       <c r="D74" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="F74" t="s">
+        <v>861</v>
+      </c>
+      <c r="G74" t="s">
         <v>623</v>
       </c>
-      <c r="F74" t="s">
-        <v>862</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>624</v>
       </c>
-      <c r="H74" t="s">
-        <v>625</v>
-      </c>
       <c r="I74" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -5842,16 +5905,16 @@
         <v>6</v>
       </c>
       <c r="D75" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="G75" t="s">
+        <v>904</v>
+      </c>
+      <c r="H75" t="s">
         <v>902</v>
       </c>
-      <c r="G75" t="s">
-        <v>905</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>903</v>
-      </c>
-      <c r="I75" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -5865,7 +5928,7 @@
       <c r="C76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="12" t="s">
         <v>73</v>
       </c>
       <c r="G76" t="s">
@@ -5875,58 +5938,61 @@
         <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J76" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>66</v>
+      <c r="A77" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="B77" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>katze</v>
+        <v>kieselsteine</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>468</v>
+        <v>210</v>
       </c>
       <c r="G77" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="H77" t="s">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="I77" t="s">
-        <v>469</v>
+        <v>876</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>209</v>
+      <c r="A78" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B78" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>kieselsteine</v>
+        <v>kleeblatt</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>210</v>
+        <v>610</v>
+      </c>
+      <c r="F78" t="s">
+        <v>861</v>
       </c>
       <c r="G78" t="s">
-        <v>212</v>
+        <v>611</v>
       </c>
       <c r="H78" t="s">
-        <v>211</v>
+        <v>612</v>
       </c>
       <c r="I78" t="s">
-        <v>877</v>
+        <v>613</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -5935,46 +6001,52 @@
       </c>
       <c r="B79" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>kleeblatt</v>
+        <v>knochen</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>611</v>
+      <c r="D79" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="F79" t="s">
+        <v>861</v>
       </c>
       <c r="G79" t="s">
-        <v>612</v>
+        <v>474</v>
       </c>
       <c r="H79" t="s">
-        <v>613</v>
+        <v>475</v>
       </c>
       <c r="I79" t="s">
-        <v>614</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B80" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>knochen</v>
+        <v>korb</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="13" t="s">
-        <v>474</v>
+      <c r="D80" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="F80" t="s">
+        <v>861</v>
       </c>
       <c r="G80" t="s">
-        <v>475</v>
+        <v>345</v>
       </c>
       <c r="H80" t="s">
-        <v>476</v>
+        <v>346</v>
       </c>
       <c r="I80" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -5983,147 +6055,150 @@
       </c>
       <c r="B81" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>korb</v>
+        <v>krone</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>344</v>
+      <c r="D81" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="F81" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G81" t="s">
-        <v>345</v>
+        <v>217</v>
       </c>
       <c r="H81" t="s">
-        <v>346</v>
+        <v>218</v>
       </c>
       <c r="I81" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G82" t="s">
+        <v>280</v>
+      </c>
+      <c r="H82" t="s">
+        <v>281</v>
+      </c>
+      <c r="I82" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>krone</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F82" t="s">
-        <v>862</v>
-      </c>
-      <c r="G82" t="s">
-        <v>217</v>
-      </c>
-      <c r="H82" t="s">
-        <v>218</v>
-      </c>
-      <c r="I82" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G83" t="s">
-        <v>280</v>
-      </c>
-      <c r="H83" t="s">
-        <v>281</v>
-      </c>
-      <c r="I83" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" t="str">
+      <c r="B83" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
         <v>lagerfeuer</v>
       </c>
+      <c r="C83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F83" t="s">
+        <v>861</v>
+      </c>
+      <c r="G83" t="s">
+        <v>203</v>
+      </c>
+      <c r="H83" t="s">
+        <v>204</v>
+      </c>
+      <c r="I83" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>landstrasse</v>
+      </c>
       <c r="C84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="12" t="s">
-        <v>205</v>
+      <c r="D84" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="G84" t="s">
-        <v>203</v>
+        <v>603</v>
       </c>
       <c r="H84" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="I84" t="s">
-        <v>872</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="B85" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>landstrasse</v>
+        <v>lava</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="G85" t="s">
-        <v>604</v>
+        <v>423</v>
       </c>
       <c r="H85" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="I85" t="s">
-        <v>503</v>
+        <v>271</v>
+      </c>
+      <c r="L85" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="B86" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>lava</v>
+        <v>lego</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="G86" t="s">
-        <v>423</v>
+        <v>221</v>
       </c>
       <c r="H86" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="I86" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="L86" t="s">
         <v>388</v>
@@ -6131,452 +6206,472 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="B87" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>lego</v>
+        <v>leopard</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="G87" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H87" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="I87" t="s">
-        <v>222</v>
-      </c>
-      <c r="L87" t="s">
-        <v>388</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="9" t="str">
+      <c r="A88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>leopard</v>
+        <v>leuchtturm</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>232</v>
+      <c r="D88" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="H88" t="s">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="I88" t="s">
-        <v>230</v>
+        <v>520</v>
+      </c>
+      <c r="J88" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>35</v>
-      </c>
-      <c r="B89" t="str">
+      <c r="A89" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>leuchtturm</v>
+        <v>lupe</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>36</v>
+      <c r="D89" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="F89" t="s">
+        <v>861</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>814</v>
       </c>
       <c r="H89" t="s">
-        <v>38</v>
+        <v>815</v>
       </c>
       <c r="I89" t="s">
-        <v>521</v>
-      </c>
-      <c r="J89" t="s">
-        <v>177</v>
+        <v>816</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B90" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>lupe</v>
+        <v>magnet</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>814</v>
+      <c r="D90" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F90" t="s">
+        <v>861</v>
       </c>
       <c r="G90" t="s">
-        <v>815</v>
+        <v>336</v>
       </c>
       <c r="H90" t="s">
-        <v>816</v>
+        <v>337</v>
       </c>
       <c r="I90" t="s">
-        <v>817</v>
+        <v>337</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B91" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>magnet</v>
+        <v>maus</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="F91" t="s">
-        <v>862</v>
+      <c r="D91" s="11" t="s">
+        <v>477</v>
       </c>
       <c r="G91" t="s">
-        <v>336</v>
+        <v>478</v>
       </c>
       <c r="H91" t="s">
-        <v>337</v>
+        <v>479</v>
       </c>
       <c r="I91" t="s">
-        <v>337</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B92" s="9" t="str">
+      <c r="A92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>maus</v>
+        <v>meer</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="11" t="s">
-        <v>478</v>
+      <c r="D92" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G92" t="s">
-        <v>479</v>
+        <v>53</v>
       </c>
       <c r="H92" t="s">
-        <v>480</v>
+        <v>54</v>
       </c>
       <c r="I92" t="s">
-        <v>481</v>
+        <v>506</v>
+      </c>
+      <c r="J92" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B93" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>meer</v>
+        <v>mond</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H93" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I93" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="J93" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>39</v>
+      <c r="A94" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B94" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>mond</v>
+        <v>monster</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>40</v>
+        <v>122</v>
+      </c>
+      <c r="F94" t="s">
+        <v>861</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>378</v>
       </c>
       <c r="H94" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="I94" t="s">
-        <v>524</v>
-      </c>
-      <c r="J94" t="s">
-        <v>177</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B95" t="str">
+      <c r="A95" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>monster</v>
+        <v>musik</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>122</v>
+      <c r="D95" s="11" t="s">
+        <v>782</v>
       </c>
       <c r="F95" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G95" t="s">
-        <v>378</v>
+        <v>783</v>
       </c>
       <c r="H95" t="s">
-        <v>379</v>
+        <v>784</v>
       </c>
       <c r="I95" t="s">
-        <v>379</v>
+        <v>785</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>85</v>
+      <c r="A96" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="B96" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>musik</v>
+        <v>nikolaus</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>783</v>
+        <v>492</v>
+      </c>
+      <c r="F96" t="s">
+        <v>861</v>
       </c>
       <c r="G96" t="s">
-        <v>784</v>
+        <v>493</v>
       </c>
       <c r="H96" t="s">
-        <v>785</v>
+        <v>494</v>
       </c>
       <c r="I96" t="s">
-        <v>786</v>
+        <v>495</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
-        <v>79</v>
+      <c r="A97" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="B97" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>nikolaus</v>
+        <v>noten</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>493</v>
+        <v>779</v>
       </c>
       <c r="F97" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G97" t="s">
-        <v>494</v>
+        <v>780</v>
       </c>
       <c r="H97" t="s">
-        <v>495</v>
+        <v>824</v>
       </c>
       <c r="I97" t="s">
-        <v>496</v>
+        <v>781</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>66</v>
+      <c r="A98" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B98" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>noten</v>
+        <v>palme</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>780</v>
+        <v>652</v>
+      </c>
+      <c r="F98" t="s">
+        <v>861</v>
       </c>
       <c r="G98" t="s">
-        <v>781</v>
+        <v>653</v>
       </c>
       <c r="H98" t="s">
-        <v>825</v>
+        <v>654</v>
       </c>
       <c r="I98" t="s">
-        <v>782</v>
+        <v>655</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B99" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>palme</v>
+        <v>panda</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>653</v>
+        <v>905</v>
       </c>
       <c r="G99" t="s">
-        <v>654</v>
+        <v>906</v>
       </c>
       <c r="H99" t="s">
-        <v>655</v>
+        <v>907</v>
       </c>
       <c r="I99" t="s">
-        <v>656</v>
+        <v>907</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>85</v>
+        <v>758</v>
       </c>
       <c r="B100" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>panda</v>
+        <v>pfeile</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>906</v>
+        <v>786</v>
+      </c>
+      <c r="F100" t="s">
+        <v>861</v>
       </c>
       <c r="G100" t="s">
-        <v>907</v>
+        <v>787</v>
       </c>
       <c r="H100" t="s">
-        <v>908</v>
+        <v>788</v>
       </c>
       <c r="I100" t="s">
-        <v>908</v>
+        <v>789</v>
+      </c>
+      <c r="M100" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>759</v>
+        <v>85</v>
       </c>
       <c r="B101" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>pfeile</v>
+        <v>piano</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="11" t="s">
-        <v>787</v>
+      <c r="D101" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F101" t="s">
+        <v>861</v>
       </c>
       <c r="G101" t="s">
-        <v>788</v>
+        <v>414</v>
       </c>
       <c r="H101" t="s">
-        <v>789</v>
+        <v>360</v>
       </c>
       <c r="I101" t="s">
-        <v>790</v>
+        <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B102" s="9" t="str">
+      <c r="A102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>piano</v>
+        <v>pik</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="10" t="s">
-        <v>359</v>
+      <c r="D102" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F102" t="s">
+        <v>861</v>
       </c>
       <c r="G102" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H102" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="I102" t="s">
-        <v>360</v>
+        <v>501</v>
+      </c>
+      <c r="J102" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>79</v>
-      </c>
-      <c r="B103" t="str">
+      <c r="A103" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B103" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>pik</v>
+        <v>pills</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F103" t="s">
-        <v>862</v>
+      <c r="D103" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="G103" t="s">
-        <v>417</v>
+        <v>291</v>
       </c>
       <c r="H103" t="s">
-        <v>418</v>
+        <v>292</v>
       </c>
       <c r="I103" t="s">
-        <v>502</v>
-      </c>
-      <c r="J103" t="s">
-        <v>179</v>
+        <v>292</v>
+      </c>
+      <c r="L103" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B104" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>pills</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>6</v>
+        <v>294</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G104" t="s">
         <v>291</v>
@@ -6585,36 +6680,34 @@
         <v>292</v>
       </c>
       <c r="I104" t="s">
-        <v>292</v>
-      </c>
-      <c r="L104" t="s">
-        <v>388</v>
+        <v>295</v>
+      </c>
+      <c r="M104" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>277</v>
+      <c r="A105" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B105" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>pills3</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>293</v>
+        <v>686</v>
       </c>
       <c r="G105" t="s">
-        <v>291</v>
+        <v>687</v>
       </c>
       <c r="H105" t="s">
-        <v>292</v>
+        <v>688</v>
       </c>
       <c r="I105" t="s">
-        <v>295</v>
-      </c>
-      <c r="M105" t="s">
-        <v>460</v>
+        <v>689</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -6623,49 +6716,52 @@
       </c>
       <c r="B106" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>pills3</v>
+        <v>pinguin</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>687</v>
+        <v>451</v>
+      </c>
+      <c r="F106" t="s">
+        <v>861</v>
       </c>
       <c r="G106" t="s">
-        <v>688</v>
+        <v>452</v>
       </c>
       <c r="H106" t="s">
-        <v>689</v>
+        <v>453</v>
       </c>
       <c r="I106" t="s">
-        <v>690</v>
+        <v>454</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B107" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>pinguin</v>
+        <v>pinsel</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D107" s="11" t="s">
-        <v>451</v>
+      <c r="D107" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="F107" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G107" t="s">
-        <v>452</v>
+        <v>342</v>
       </c>
       <c r="H107" t="s">
-        <v>453</v>
+        <v>343</v>
       </c>
       <c r="I107" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -6674,46 +6770,52 @@
       </c>
       <c r="B108" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>pinsel</v>
+        <v>pirat</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>341</v>
+        <v>369</v>
+      </c>
+      <c r="F108" t="s">
+        <v>861</v>
       </c>
       <c r="G108" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="H108" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="I108" t="s">
-        <v>497</v>
+        <v>875</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B109" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>pirat</v>
+        <v>plus</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>369</v>
+      <c r="D109" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="F109" t="s">
+        <v>861</v>
       </c>
       <c r="G109" t="s">
-        <v>370</v>
+        <v>695</v>
       </c>
       <c r="H109" t="s">
-        <v>371</v>
+        <v>696</v>
       </c>
       <c r="I109" t="s">
-        <v>876</v>
+        <v>696</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -6722,22 +6824,25 @@
       </c>
       <c r="B110" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>plus</v>
+        <v>puzzle</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>695</v>
+        <v>683</v>
+      </c>
+      <c r="F110" t="s">
+        <v>861</v>
       </c>
       <c r="G110" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="H110" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="I110" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -6746,166 +6851,175 @@
       </c>
       <c r="B111" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>puzzle</v>
+        <v>radioaktiv</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="F111" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G111" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="H111" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="I111" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B112" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>radioaktiv</v>
+        <v>rakete</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>674</v>
+        <v>481</v>
+      </c>
+      <c r="F112" t="s">
+        <v>861</v>
       </c>
       <c r="G112" t="s">
-        <v>675</v>
+        <v>482</v>
       </c>
       <c r="H112" t="s">
-        <v>676</v>
+        <v>483</v>
       </c>
       <c r="I112" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B113" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>rakete</v>
+        <v>recycle</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>482</v>
+        <v>709</v>
+      </c>
+      <c r="F113" t="s">
+        <v>861</v>
       </c>
       <c r="G113" t="s">
-        <v>483</v>
+        <v>710</v>
       </c>
       <c r="H113" t="s">
-        <v>484</v>
+        <v>711</v>
       </c>
       <c r="I113" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
-        <v>85</v>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="B114" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>recycle</v>
+        <v>regenbogen</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="F114" t="s">
-        <v>862</v>
+        <v>771</v>
       </c>
       <c r="G114" t="s">
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="H114" t="s">
-        <v>712</v>
+        <v>773</v>
       </c>
       <c r="I114" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>183</v>
+        <v>774</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B115" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>regenbogen</v>
+        <v>regenschirm</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>772</v>
+        <v>637</v>
       </c>
       <c r="G115" t="s">
-        <v>773</v>
+        <v>638</v>
       </c>
       <c r="H115" t="s">
-        <v>774</v>
+        <v>639</v>
       </c>
       <c r="I115" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B116" s="9" t="str">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>regenschirm</v>
+        <v>rhino1</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="11" t="s">
-        <v>638</v>
+      <c r="D116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F116" t="s">
+        <v>861</v>
       </c>
       <c r="G116" t="s">
-        <v>639</v>
+        <v>63</v>
       </c>
       <c r="H116" t="s">
-        <v>640</v>
+        <v>64</v>
       </c>
       <c r="I116" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
+      </c>
+      <c r="J116" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>61</v>
       </c>
       <c r="B117" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>rhino1</v>
+        <v>rhino2</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F117" t="s">
-        <v>862</v>
+        <v>137</v>
       </c>
       <c r="G117" t="s">
         <v>63</v>
@@ -6914,217 +7028,220 @@
         <v>64</v>
       </c>
       <c r="I117" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J117" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>61</v>
-      </c>
-      <c r="B118" t="str">
+        <v>177</v>
+      </c>
+      <c r="L117" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B118" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>rhino2</v>
+        <v>robot</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>62</v>
+      <c r="D118" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="F118" t="s">
-        <v>137</v>
+        <v>861</v>
       </c>
       <c r="G118" t="s">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="H118" t="s">
-        <v>64</v>
+        <v>334</v>
       </c>
       <c r="I118" t="s">
-        <v>136</v>
-      </c>
-      <c r="J118" t="s">
-        <v>177</v>
-      </c>
-      <c r="L118" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B119" s="9" t="str">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>47</v>
+      </c>
+      <c r="B119" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>robot</v>
+        <v>rose</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="F119" t="s">
-        <v>862</v>
+      <c r="D119" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G119" t="s">
-        <v>333</v>
+        <v>49</v>
       </c>
       <c r="H119" t="s">
-        <v>334</v>
+        <v>50</v>
       </c>
       <c r="I119" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>47</v>
-      </c>
-      <c r="B120" t="str">
+        <v>50</v>
+      </c>
+      <c r="J119" t="s">
+        <v>178</v>
+      </c>
+      <c r="L119" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B120" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>rose</v>
+        <v>satellit</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>48</v>
+      <c r="D120" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="F120" t="s">
+        <v>861</v>
       </c>
       <c r="G120" t="s">
-        <v>49</v>
+        <v>642</v>
       </c>
       <c r="H120" t="s">
-        <v>50</v>
+        <v>643</v>
       </c>
       <c r="I120" t="s">
-        <v>50</v>
-      </c>
-      <c r="J120" t="s">
-        <v>178</v>
-      </c>
-      <c r="L120" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
-        <v>85</v>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="B121" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>satellit</v>
+        <v>schatten</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>642</v>
-      </c>
-      <c r="F121" t="s">
-        <v>862</v>
+        <v>249</v>
       </c>
       <c r="G121" t="s">
-        <v>643</v>
+        <v>130</v>
       </c>
       <c r="H121" t="s">
-        <v>644</v>
+        <v>250</v>
       </c>
       <c r="I121" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
-        <v>243</v>
+        <v>519</v>
+      </c>
+      <c r="J121" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B122" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>schatten</v>
+        <v>schaufel</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>249</v>
+        <v>645</v>
+      </c>
+      <c r="F122" t="s">
+        <v>861</v>
       </c>
       <c r="G122" t="s">
-        <v>130</v>
+        <v>646</v>
       </c>
       <c r="H122" t="s">
-        <v>250</v>
+        <v>647</v>
       </c>
       <c r="I122" t="s">
-        <v>520</v>
-      </c>
-      <c r="J122" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+      <c r="M122" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B123" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>schaufel</v>
+        <v>schere</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="11" t="s">
-        <v>646</v>
+      <c r="D123" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="F123" t="s">
+        <v>861</v>
       </c>
       <c r="G123" t="s">
-        <v>647</v>
+        <v>445</v>
       </c>
       <c r="H123" t="s">
-        <v>648</v>
+        <v>446</v>
       </c>
       <c r="I123" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
-        <v>85</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="B124" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>schere</v>
+        <v>schildkroete1</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D124" s="13" t="s">
-        <v>444</v>
+      <c r="D124" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="G124" t="s">
-        <v>445</v>
+        <v>199</v>
       </c>
       <c r="H124" t="s">
-        <v>446</v>
+        <v>200</v>
       </c>
       <c r="I124" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
-        <v>187</v>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B125" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>schildkroete1</v>
+        <v>schildkroete2</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>198</v>
+        <v>489</v>
       </c>
       <c r="G125" t="s">
         <v>199</v>
@@ -7133,160 +7250,172 @@
         <v>200</v>
       </c>
       <c r="I125" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>85</v>
+        <v>455</v>
       </c>
       <c r="B126" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>schildkroete2</v>
+        <v>schloss</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>490</v>
+        <v>456</v>
+      </c>
+      <c r="F126" t="s">
+        <v>861</v>
       </c>
       <c r="G126" t="s">
-        <v>199</v>
+        <v>457</v>
       </c>
       <c r="H126" t="s">
-        <v>200</v>
+        <v>458</v>
       </c>
       <c r="I126" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
-        <v>455</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="B127" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>schloss</v>
+        <v>schluessel</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>456</v>
+        <v>795</v>
+      </c>
+      <c r="F127" t="s">
+        <v>861</v>
       </c>
       <c r="G127" t="s">
-        <v>457</v>
+        <v>796</v>
       </c>
       <c r="H127" t="s">
-        <v>458</v>
+        <v>797</v>
       </c>
       <c r="I127" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B128" s="9" t="str">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B128" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>schluessel</v>
+        <v>schmetterling</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D128" s="11" t="s">
-        <v>796</v>
+      <c r="D128" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F128" t="s">
+        <v>861</v>
       </c>
       <c r="G128" t="s">
-        <v>797</v>
+        <v>71</v>
       </c>
       <c r="H128" t="s">
-        <v>798</v>
+        <v>72</v>
       </c>
       <c r="I128" t="s">
-        <v>799</v>
+        <v>500</v>
+      </c>
+      <c r="J128" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B129" t="str">
+      <c r="A129" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B129" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>schmetterling</v>
+        <v>schnee</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>70</v>
+      <c r="D129" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="G129" t="s">
-        <v>71</v>
+        <v>516</v>
       </c>
       <c r="H129" t="s">
-        <v>72</v>
+        <v>517</v>
       </c>
       <c r="I129" t="s">
-        <v>501</v>
-      </c>
-      <c r="J129" t="s">
-        <v>177</v>
+        <v>518</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="B130" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>schnee</v>
+        <v>school</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D130" s="11" t="s">
-        <v>191</v>
+      <c r="D130" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F130" t="s">
+        <v>861</v>
       </c>
       <c r="G130" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="H130" t="s">
-        <v>518</v>
+        <v>306</v>
       </c>
       <c r="I130" t="s">
-        <v>519</v>
+        <v>305</v>
+      </c>
+      <c r="J130" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
-        <v>79</v>
+      <c r="A131" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B131" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>school</v>
+        <v>schraubenzieher</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D131" s="10" t="s">
-        <v>304</v>
+      <c r="D131" s="13" t="s">
+        <v>438</v>
       </c>
       <c r="F131" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G131" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="H131" t="s">
-        <v>306</v>
+        <v>440</v>
       </c>
       <c r="I131" t="s">
-        <v>305</v>
-      </c>
-      <c r="J131" t="s">
-        <v>178</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -7295,25 +7424,25 @@
       </c>
       <c r="B132" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>schraubenzieher</v>
+        <v>schwert</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D132" s="13" t="s">
-        <v>438</v>
+      <c r="D132" s="11" t="s">
+        <v>628</v>
       </c>
       <c r="F132" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G132" t="s">
-        <v>439</v>
+        <v>630</v>
       </c>
       <c r="H132" t="s">
-        <v>440</v>
+        <v>631</v>
       </c>
       <c r="I132" t="s">
-        <v>441</v>
+        <v>632</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -7322,683 +7451,692 @@
       </c>
       <c r="B133" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>schwert</v>
+        <v>schwimmer</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>629</v>
+        <v>712</v>
+      </c>
+      <c r="F133" t="s">
+        <v>861</v>
       </c>
       <c r="G133" t="s">
-        <v>631</v>
+        <v>713</v>
       </c>
       <c r="H133" t="s">
-        <v>632</v>
+        <v>714</v>
       </c>
       <c r="I133" t="s">
-        <v>633</v>
+        <v>715</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G134" t="s">
+        <v>287</v>
+      </c>
+      <c r="H134" t="s">
+        <v>289</v>
+      </c>
+      <c r="I134" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B134" s="9" t="str">
+      <c r="B135" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>schwimmer</v>
-      </c>
-      <c r="C134" s="2" t="s">
+        <v>signal</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D134" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="F134" t="s">
-        <v>862</v>
-      </c>
-      <c r="G134" t="s">
-        <v>714</v>
-      </c>
-      <c r="H134" t="s">
-        <v>715</v>
-      </c>
-      <c r="I134" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>277</v>
-      </c>
       <c r="D135" s="11" t="s">
-        <v>286</v>
+        <v>680</v>
+      </c>
+      <c r="F135" t="s">
+        <v>861</v>
       </c>
       <c r="G135" t="s">
-        <v>287</v>
+        <v>681</v>
       </c>
       <c r="H135" t="s">
-        <v>289</v>
+        <v>682</v>
       </c>
       <c r="I135" t="s">
-        <v>413</v>
+        <v>682</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B136" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>signal</v>
+        <v>skull</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D136" s="11" t="s">
-        <v>681</v>
+      <c r="D136" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="F136" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G136" t="s">
-        <v>682</v>
+        <v>376</v>
       </c>
       <c r="H136" t="s">
-        <v>683</v>
+        <v>377</v>
       </c>
       <c r="I136" t="s">
-        <v>683</v>
+        <v>377</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B137" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>skull</v>
+        <v>sonne</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D137" s="10" t="s">
-        <v>375</v>
+      <c r="D137" s="11" t="s">
+        <v>677</v>
       </c>
       <c r="F137" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G137" t="s">
-        <v>376</v>
+        <v>864</v>
       </c>
       <c r="H137" t="s">
-        <v>377</v>
+        <v>678</v>
       </c>
       <c r="I137" t="s">
-        <v>377</v>
+        <v>679</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B138" s="9" t="str">
+      <c r="A138" t="s">
+        <v>31</v>
+      </c>
+      <c r="B138" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>sonne</v>
+        <v>sonnenuntergang</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="F138" t="s">
-        <v>862</v>
+      <c r="D138" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>865</v>
+        <v>33</v>
       </c>
       <c r="H138" t="s">
-        <v>679</v>
+        <v>34</v>
       </c>
       <c r="I138" t="s">
-        <v>680</v>
+        <v>510</v>
+      </c>
+      <c r="J138" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>31</v>
-      </c>
-      <c r="B139" t="str">
+      <c r="A139" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B139" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>sonnenuntergang</v>
+        <v>spiegelei</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>32</v>
+      <c r="D139" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="F139" t="s">
+        <v>861</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>805</v>
       </c>
       <c r="H139" t="s">
-        <v>34</v>
+        <v>806</v>
       </c>
       <c r="I139" t="s">
-        <v>511</v>
-      </c>
-      <c r="J139" t="s">
-        <v>177</v>
+        <v>807</v>
+      </c>
+      <c r="M139" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B140" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>spiegelei</v>
+        <v>spirale</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>805</v>
+        <v>833</v>
+      </c>
+      <c r="F140" t="s">
+        <v>861</v>
       </c>
       <c r="G140" t="s">
-        <v>806</v>
+        <v>859</v>
       </c>
       <c r="H140" t="s">
-        <v>807</v>
+        <v>834</v>
       </c>
       <c r="I140" t="s">
-        <v>808</v>
-      </c>
-      <c r="M140" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="B141" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>spirale</v>
+        <v>stadt</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="F141" t="s">
-        <v>862</v>
+        <v>188</v>
       </c>
       <c r="G141" t="s">
-        <v>860</v>
+        <v>189</v>
       </c>
       <c r="H141" t="s">
-        <v>835</v>
+        <v>190</v>
       </c>
       <c r="I141" t="s">
-        <v>836</v>
+        <v>878</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>187</v>
+      <c r="A142" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B142" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>stadt</v>
+        <v>stern</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>188</v>
+        <v>662</v>
+      </c>
+      <c r="F142" t="s">
+        <v>861</v>
       </c>
       <c r="G142" t="s">
-        <v>189</v>
+        <v>663</v>
       </c>
       <c r="H142" t="s">
-        <v>190</v>
+        <v>664</v>
       </c>
       <c r="I142" t="s">
-        <v>879</v>
+        <v>665</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B143" s="9" t="str">
+      <c r="A143" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B143" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>stern</v>
+        <v>stier</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D143" s="11" t="s">
-        <v>663</v>
+      <c r="D143" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F143" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G143" t="s">
-        <v>664</v>
+        <v>126</v>
       </c>
       <c r="H143" t="s">
-        <v>665</v>
+        <v>127</v>
       </c>
       <c r="I143" t="s">
-        <v>666</v>
+        <v>499</v>
+      </c>
+      <c r="J143" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B144" t="str">
+      <c r="A144" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>stier</v>
+        <v>struktur</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F144" t="s">
-        <v>862</v>
+      <c r="D144" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="G144" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="H144" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="I144" t="s">
-        <v>500</v>
-      </c>
-      <c r="J144" t="s">
-        <v>180</v>
+        <v>879</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="B145" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>struktur</v>
+        <v>symbol</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="G145" t="s">
-        <v>224</v>
+        <v>420</v>
       </c>
       <c r="H145" t="s">
-        <v>225</v>
+        <v>421</v>
       </c>
       <c r="I145" t="s">
-        <v>880</v>
+        <v>275</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>183</v>
+      <c r="A146" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B146" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>symbol</v>
+        <v>tanzpaar</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>201</v>
+        <v>618</v>
+      </c>
+      <c r="F146" t="s">
+        <v>861</v>
       </c>
       <c r="G146" t="s">
-        <v>420</v>
+        <v>619</v>
       </c>
       <c r="H146" t="s">
-        <v>421</v>
+        <v>620</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>621</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B147" s="9" t="str">
+      <c r="B147" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>tanzpaar</v>
+        <v>teddybear</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D147" s="11" t="s">
-        <v>619</v>
+      <c r="D147" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F147" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G147" t="s">
-        <v>620</v>
+        <v>104</v>
       </c>
       <c r="H147" t="s">
-        <v>621</v>
+        <v>105</v>
       </c>
       <c r="I147" t="s">
-        <v>622</v>
+        <v>276</v>
+      </c>
+      <c r="J147" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
-        <v>85</v>
+      <c r="A148" t="s">
+        <v>81</v>
       </c>
       <c r="B148" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>teddybear</v>
+        <v>telefon</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F148" t="s">
-        <v>862</v>
+        <v>82</v>
       </c>
       <c r="G148" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="H148" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="I148" t="s">
-        <v>276</v>
+        <v>525</v>
       </c>
       <c r="J148" t="s">
         <v>179</v>
       </c>
+      <c r="K148" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>81</v>
-      </c>
-      <c r="B149" t="str">
+      <c r="A149" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B149" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>telefon</v>
+        <v>theater</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>82</v>
+      <c r="D149" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="F149" t="s">
+        <v>861</v>
       </c>
       <c r="G149" t="s">
-        <v>83</v>
+        <v>671</v>
       </c>
       <c r="H149" t="s">
-        <v>84</v>
+        <v>672</v>
       </c>
       <c r="I149" t="s">
-        <v>526</v>
-      </c>
-      <c r="J149" t="s">
-        <v>179</v>
-      </c>
-      <c r="K149" t="s">
-        <v>388</v>
+        <v>672</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="14" t="s">
-        <v>85</v>
+      <c r="A150" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="B150" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>theater</v>
+        <v>tisch</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>671</v>
+        <v>799</v>
+      </c>
+      <c r="F150" t="s">
+        <v>861</v>
       </c>
       <c r="G150" t="s">
-        <v>672</v>
+        <v>800</v>
       </c>
       <c r="H150" t="s">
-        <v>673</v>
+        <v>801</v>
       </c>
       <c r="I150" t="s">
-        <v>673</v>
+        <v>802</v>
+      </c>
+      <c r="M150" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B151" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>tisch</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>6</v>
+        <v>296</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="F151" t="s">
-        <v>862</v>
+        <v>297</v>
       </c>
       <c r="G151" t="s">
-        <v>801</v>
+        <v>298</v>
       </c>
       <c r="H151" t="s">
-        <v>802</v>
+        <v>299</v>
       </c>
       <c r="I151" t="s">
-        <v>803</v>
-      </c>
-      <c r="M151" t="s">
-        <v>804</v>
+        <v>326</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>297</v>
+        <v>257</v>
+      </c>
+      <c r="B152" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>trophaee</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="G152" t="s">
-        <v>298</v>
+        <v>424</v>
       </c>
       <c r="H152" t="s">
-        <v>299</v>
+        <v>425</v>
       </c>
       <c r="I152" t="s">
-        <v>326</v>
+        <v>526</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="B153" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>trophaee</v>
+        <v>twitter</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>258</v>
+        <v>353</v>
       </c>
       <c r="G153" t="s">
-        <v>424</v>
+        <v>354</v>
       </c>
       <c r="H153" t="s">
-        <v>425</v>
+        <v>355</v>
       </c>
       <c r="I153" t="s">
-        <v>527</v>
+        <v>355</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B154" s="9" t="str">
+      <c r="A154" t="s">
+        <v>114</v>
+      </c>
+      <c r="B154" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>twitter</v>
+        <v>uhr</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D154" s="10" t="s">
-        <v>353</v>
+      <c r="D154" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F154" t="s">
+        <v>861</v>
       </c>
       <c r="G154" t="s">
-        <v>354</v>
+        <v>116</v>
       </c>
       <c r="H154" t="s">
-        <v>355</v>
+        <v>117</v>
       </c>
       <c r="I154" t="s">
-        <v>355</v>
+        <v>503</v>
+      </c>
+      <c r="J154" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>114</v>
-      </c>
-      <c r="B155" t="str">
+      <c r="A155" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B155" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>uhr</v>
+        <v>vulkan</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>115</v>
+      <c r="D155" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="F155" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G155" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="H155" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="I155" t="s">
-        <v>504</v>
-      </c>
-      <c r="J155" t="s">
-        <v>180</v>
+        <v>882</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>85</v>
+        <v>266</v>
       </c>
       <c r="B156" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>vulkan</v>
+        <v>vulkan2</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F156" t="s">
-        <v>862</v>
+        <v>267</v>
       </c>
       <c r="G156" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H156" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="I156" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
-        <v>266</v>
+      <c r="A157" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B157" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>vulkan2</v>
+        <v>waage</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>267</v>
+        <v>606</v>
+      </c>
+      <c r="F157" t="s">
+        <v>861</v>
       </c>
       <c r="G157" t="s">
-        <v>268</v>
+        <v>607</v>
       </c>
       <c r="H157" t="s">
-        <v>269</v>
+        <v>609</v>
       </c>
       <c r="I157" t="s">
-        <v>884</v>
+        <v>608</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B158" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>waage</v>
+        <v>wabe1</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="F158" t="s">
-        <v>862</v>
+        <v>884</v>
       </c>
       <c r="G158" t="s">
-        <v>608</v>
+        <v>885</v>
       </c>
       <c r="H158" t="s">
-        <v>610</v>
-      </c>
-      <c r="I158" t="s">
-        <v>609</v>
+        <v>886</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="M158" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -8007,55 +8145,55 @@
       </c>
       <c r="B159" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wabe1</v>
+        <v>wabe2</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D159" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="E159" t="s">
+        <v>913</v>
+      </c>
+      <c r="G159" t="s">
         <v>885</v>
       </c>
-      <c r="G159" t="s">
+      <c r="H159" t="s">
         <v>886</v>
-      </c>
-      <c r="H159" t="s">
-        <v>887</v>
       </c>
       <c r="I159" s="3" t="s">
         <v>912</v>
       </c>
       <c r="M159" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B160" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wabe2</v>
+        <v>waffen</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>888</v>
-      </c>
-      <c r="E160" t="s">
-        <v>914</v>
+        <v>625</v>
+      </c>
+      <c r="F160" t="s">
+        <v>861</v>
       </c>
       <c r="G160" t="s">
-        <v>886</v>
+        <v>629</v>
       </c>
       <c r="H160" t="s">
-        <v>887</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="M160" t="s">
-        <v>889</v>
+        <v>627</v>
+      </c>
+      <c r="I160" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -8064,331 +8202,337 @@
       </c>
       <c r="B161" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>waffen</v>
+        <v>warnung</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="F161" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G161" t="s">
-        <v>630</v>
+        <v>667</v>
       </c>
       <c r="H161" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="I161" t="s">
-        <v>627</v>
+        <v>669</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" s="14" t="s">
-        <v>85</v>
+      <c r="A162" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="B162" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>warnung</v>
+        <v>wassertropfen</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>667</v>
-      </c>
-      <c r="F162" t="s">
-        <v>862</v>
+        <v>263</v>
       </c>
       <c r="G162" t="s">
-        <v>668</v>
+        <v>264</v>
       </c>
       <c r="H162" t="s">
-        <v>669</v>
+        <v>265</v>
       </c>
       <c r="I162" t="s">
-        <v>670</v>
+        <v>527</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B163" s="9" t="str">
+      <c r="A163" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wassertropfen</v>
+        <v>wolke</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D163" s="11" t="s">
-        <v>263</v>
+      <c r="D163" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G163" t="s">
-        <v>264</v>
+        <v>17</v>
       </c>
       <c r="H163" t="s">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="I163" t="s">
-        <v>528</v>
+        <v>869</v>
+      </c>
+      <c r="J163" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B164" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wolke</v>
+        <v>wuerfel</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G164" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H164" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I164" t="s">
-        <v>870</v>
+        <v>505</v>
       </c>
       <c r="J164" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" t="str">
+      <c r="A165" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B165" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wuerfel</v>
+        <v>wuerfel2</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>7</v>
+      <c r="D165" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="F165" t="s">
+        <v>861</v>
       </c>
       <c r="G165" t="s">
         <v>8</v>
       </c>
       <c r="H165" t="s">
-        <v>9</v>
+        <v>650</v>
       </c>
       <c r="I165" t="s">
-        <v>506</v>
-      </c>
-      <c r="J165" t="s">
-        <v>177</v>
+        <v>651</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B166" s="9" t="str">
+      <c r="A166" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wuerfel2</v>
+        <v>wueste</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D166" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="F166" t="s">
-        <v>862</v>
+      <c r="D166" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G166" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H166" t="s">
-        <v>651</v>
+        <v>14</v>
       </c>
       <c r="I166" t="s">
-        <v>652</v>
+        <v>511</v>
+      </c>
+      <c r="J166" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>11</v>
-      </c>
-      <c r="B167" t="str">
+      <c r="A167" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B167" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wueste</v>
+        <v>wurm</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>12</v>
+      <c r="D167" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="F167" t="s">
+        <v>861</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>486</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>487</v>
       </c>
       <c r="I167" t="s">
-        <v>512</v>
-      </c>
-      <c r="J167" t="s">
-        <v>177</v>
+        <v>488</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="14" t="s">
-        <v>85</v>
+      <c r="A168" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B168" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wurm</v>
+        <v>yak</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D168" s="13" t="s">
-        <v>486</v>
+      <c r="D168" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="G168" t="s">
-        <v>487</v>
+        <v>238</v>
       </c>
       <c r="H168" t="s">
-        <v>488</v>
+        <v>239</v>
       </c>
       <c r="I168" t="s">
-        <v>489</v>
+        <v>239</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B169" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>yak</v>
+        <v>yinyang</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D169" s="10" t="s">
-        <v>237</v>
+      <c r="D169" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="F169" t="s">
+        <v>861</v>
       </c>
       <c r="G169" t="s">
-        <v>238</v>
+        <v>822</v>
       </c>
       <c r="H169" t="s">
-        <v>239</v>
+        <v>823</v>
       </c>
       <c r="I169" t="s">
-        <v>239</v>
+        <v>823</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="B170" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>yinyang</v>
+        <v>zahl</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>822</v>
-      </c>
-      <c r="F170" t="s">
-        <v>862</v>
+        <v>767</v>
       </c>
       <c r="G170" t="s">
-        <v>823</v>
+        <v>768</v>
       </c>
       <c r="H170" t="s">
-        <v>824</v>
+        <v>769</v>
       </c>
       <c r="I170" t="s">
-        <v>824</v>
+        <v>770</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="8" t="s">
-        <v>183</v>
+      <c r="A171" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B171" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>zahl</v>
+        <v>zahn</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>768</v>
+        <v>701</v>
+      </c>
+      <c r="F171" t="s">
+        <v>861</v>
       </c>
       <c r="G171" t="s">
-        <v>769</v>
+        <v>702</v>
       </c>
       <c r="H171" t="s">
-        <v>770</v>
+        <v>703</v>
       </c>
       <c r="I171" t="s">
-        <v>771</v>
+        <v>704</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="14" t="s">
-        <v>85</v>
+      <c r="A172" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="B172" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>zahn</v>
+        <v>zaun</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>702</v>
+        <v>809</v>
       </c>
       <c r="G172" t="s">
-        <v>703</v>
+        <v>810</v>
       </c>
       <c r="H172" t="s">
-        <v>704</v>
+        <v>811</v>
       </c>
       <c r="I172" t="s">
-        <v>705</v>
+        <v>812</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B173" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>zaun</v>
+        <v>zelt</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>810</v>
+        <v>897</v>
       </c>
       <c r="G173" t="s">
-        <v>811</v>
+        <v>898</v>
       </c>
       <c r="H173" t="s">
-        <v>812</v>
+        <v>899</v>
       </c>
       <c r="I173" t="s">
-        <v>813</v>
+        <v>900</v>
+      </c>
+      <c r="M173" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -8397,167 +8541,140 @@
       </c>
       <c r="B174" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>zelt</v>
+        <v>zeppelin</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="G174" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="H174" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="I174" t="s">
-        <v>901</v>
-      </c>
-      <c r="M174" t="s">
-        <v>809</v>
+        <v>892</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="s">
+      <c r="A175" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B175" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>zeppelin</v>
+        <v>zielscheibe</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>891</v>
+        <v>705</v>
+      </c>
+      <c r="F175" t="s">
+        <v>861</v>
       </c>
       <c r="G175" t="s">
-        <v>892</v>
+        <v>706</v>
       </c>
       <c r="H175" t="s">
-        <v>893</v>
+        <v>707</v>
       </c>
       <c r="I175" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B176" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>zielscheibe</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>706</v>
-      </c>
-      <c r="F176" t="s">
-        <v>862</v>
-      </c>
-      <c r="G176" t="s">
-        <v>707</v>
-      </c>
-      <c r="H176" t="s">
         <v>708</v>
-      </c>
-      <c r="I176" t="s">
-        <v>709</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="ß">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="ß">
       <formula>NOT(ISERROR(SEARCH("ß",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:F1048576 M82 F1:F81">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="F82:F1048576 M81 F1:F7 M8:M9 F10:F80 E1:E80">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"NEU"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:M24">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"NEU"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E1048576 E1:E81">
+  <conditionalFormatting sqref="E82:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"NEU"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D167" r:id="rId1"/>
-    <hyperlink ref="D164" r:id="rId2"/>
+    <hyperlink ref="D166" r:id="rId1"/>
+    <hyperlink ref="D163" r:id="rId2"/>
     <hyperlink ref="D67" r:id="rId3"/>
     <hyperlink ref="D70" r:id="rId4"/>
     <hyperlink ref="D25" r:id="rId5"/>
-    <hyperlink ref="D139" r:id="rId6"/>
-    <hyperlink ref="D89" r:id="rId7"/>
-    <hyperlink ref="D94" r:id="rId8"/>
+    <hyperlink ref="D138" r:id="rId6"/>
+    <hyperlink ref="D88" r:id="rId7"/>
+    <hyperlink ref="D93" r:id="rId8"/>
     <hyperlink ref="D15" r:id="rId9"/>
-    <hyperlink ref="D120" r:id="rId10"/>
-    <hyperlink ref="D93" r:id="rId11"/>
+    <hyperlink ref="D119" r:id="rId10"/>
+    <hyperlink ref="D92" r:id="rId11"/>
     <hyperlink ref="D10" r:id="rId12"/>
     <hyperlink ref="D11" r:id="rId13"/>
-    <hyperlink ref="D118" r:id="rId14"/>
-    <hyperlink ref="D117" r:id="rId15"/>
+    <hyperlink ref="D117" r:id="rId14"/>
+    <hyperlink ref="D116" r:id="rId15"/>
     <hyperlink ref="D22" r:id="rId16"/>
-    <hyperlink ref="D103" r:id="rId17"/>
-    <hyperlink ref="D149" r:id="rId18"/>
+    <hyperlink ref="D102" r:id="rId17"/>
+    <hyperlink ref="D148" r:id="rId18"/>
     <hyperlink ref="D46" r:id="rId19"/>
     <hyperlink ref="D35" r:id="rId20"/>
     <hyperlink ref="D4" r:id="rId21"/>
-    <hyperlink ref="D148" r:id="rId22"/>
-    <hyperlink ref="D155" r:id="rId23"/>
+    <hyperlink ref="D147" r:id="rId22"/>
+    <hyperlink ref="D154" r:id="rId23"/>
     <hyperlink ref="D16" r:id="rId24"/>
-    <hyperlink ref="D95" r:id="rId25"/>
-    <hyperlink ref="D144" r:id="rId26"/>
+    <hyperlink ref="D94" r:id="rId25"/>
+    <hyperlink ref="D143" r:id="rId26"/>
     <hyperlink ref="D17" r:id="rId27"/>
-    <hyperlink ref="D165" r:id="rId28" display="http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/ "/>
+    <hyperlink ref="D164" r:id="rId28" display="http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/ "/>
     <hyperlink ref="D69" r:id="rId29"/>
-    <hyperlink ref="D142" r:id="rId30"/>
-    <hyperlink ref="D130" r:id="rId31"/>
+    <hyperlink ref="D141" r:id="rId30"/>
+    <hyperlink ref="D129" r:id="rId31"/>
     <hyperlink ref="D57" r:id="rId32"/>
     <hyperlink ref="D19" r:id="rId33"/>
-    <hyperlink ref="D125" r:id="rId34"/>
-    <hyperlink ref="D146" r:id="rId35"/>
+    <hyperlink ref="D124" r:id="rId34"/>
+    <hyperlink ref="D145" r:id="rId35"/>
     <hyperlink ref="D43" r:id="rId36"/>
-    <hyperlink ref="D84" r:id="rId37"/>
-    <hyperlink ref="D78" r:id="rId38"/>
+    <hyperlink ref="D83" r:id="rId37"/>
+    <hyperlink ref="D77" r:id="rId38"/>
     <hyperlink ref="D29" r:id="rId39"/>
-    <hyperlink ref="D82" r:id="rId40"/>
-    <hyperlink ref="D87" r:id="rId41"/>
-    <hyperlink ref="D145" r:id="rId42"/>
+    <hyperlink ref="D81" r:id="rId40"/>
+    <hyperlink ref="D86" r:id="rId41"/>
+    <hyperlink ref="D144" r:id="rId42"/>
     <hyperlink ref="D2" r:id="rId43"/>
     <hyperlink ref="D36" r:id="rId44"/>
-    <hyperlink ref="D88" r:id="rId45"/>
-    <hyperlink ref="D85" r:id="rId46"/>
+    <hyperlink ref="D87" r:id="rId45"/>
+    <hyperlink ref="D84" r:id="rId46"/>
     <hyperlink ref="D59" r:id="rId47"/>
-    <hyperlink ref="D122" r:id="rId48"/>
+    <hyperlink ref="D121" r:id="rId48"/>
     <hyperlink ref="D38" r:id="rId49"/>
-    <hyperlink ref="D156" r:id="rId50"/>
-    <hyperlink ref="D163" r:id="rId51"/>
-    <hyperlink ref="D157" r:id="rId52"/>
-    <hyperlink ref="D86" r:id="rId53"/>
-    <hyperlink ref="C83" r:id="rId54"/>
-    <hyperlink ref="D83" r:id="rId55"/>
-    <hyperlink ref="C135" r:id="rId56"/>
+    <hyperlink ref="D155" r:id="rId50"/>
+    <hyperlink ref="D162" r:id="rId51"/>
+    <hyperlink ref="D156" r:id="rId52"/>
+    <hyperlink ref="D85" r:id="rId53"/>
+    <hyperlink ref="C82" r:id="rId54"/>
+    <hyperlink ref="D82" r:id="rId55"/>
+    <hyperlink ref="C134" r:id="rId56"/>
     <hyperlink ref="D66" r:id="rId57"/>
-    <hyperlink ref="D104" r:id="rId58"/>
-    <hyperlink ref="D105" r:id="rId59"/>
-    <hyperlink ref="C105" r:id="rId60"/>
-    <hyperlink ref="C152" r:id="rId61"/>
+    <hyperlink ref="D103" r:id="rId58"/>
+    <hyperlink ref="D104" r:id="rId59"/>
+    <hyperlink ref="C104" r:id="rId60"/>
+    <hyperlink ref="C151" r:id="rId61"/>
     <hyperlink ref="D71" r:id="rId62"/>
     <hyperlink ref="C71" r:id="rId63"/>
     <hyperlink ref="D37" r:id="rId64"/>
     <hyperlink ref="C66" r:id="rId65"/>
-    <hyperlink ref="D135" r:id="rId66"/>
-    <hyperlink ref="D152" r:id="rId67"/>
+    <hyperlink ref="D134" r:id="rId66"/>
+    <hyperlink ref="D151" r:id="rId67"/>
     <hyperlink ref="D13" r:id="rId68"/>
     <hyperlink ref="D9" r:id="rId69"/>
     <hyperlink ref="D5" r:id="rId70"/>
@@ -8567,80 +8684,80 @@
     <hyperlink ref="D63" r:id="rId74"/>
     <hyperlink ref="D39" r:id="rId75"/>
     <hyperlink ref="D44" r:id="rId76"/>
-    <hyperlink ref="D132" r:id="rId77"/>
-    <hyperlink ref="D124" r:id="rId78"/>
+    <hyperlink ref="D131" r:id="rId77"/>
+    <hyperlink ref="D123" r:id="rId78"/>
     <hyperlink ref="D52" r:id="rId79"/>
-    <hyperlink ref="D107" r:id="rId80"/>
-    <hyperlink ref="D127" r:id="rId81"/>
-    <hyperlink ref="D77" r:id="rId82"/>
-    <hyperlink ref="D24" r:id="rId83"/>
-    <hyperlink ref="D80" r:id="rId84"/>
-    <hyperlink ref="D92" r:id="rId85"/>
-    <hyperlink ref="D113" r:id="rId86"/>
-    <hyperlink ref="D168" r:id="rId87"/>
-    <hyperlink ref="D126" r:id="rId88"/>
-    <hyperlink ref="D97" r:id="rId89"/>
-    <hyperlink ref="D158" r:id="rId90"/>
-    <hyperlink ref="D79" r:id="rId91"/>
-    <hyperlink ref="D48" r:id="rId92"/>
-    <hyperlink ref="D147" r:id="rId93"/>
-    <hyperlink ref="D74" r:id="rId94"/>
-    <hyperlink ref="D161" r:id="rId95"/>
-    <hyperlink ref="D133" r:id="rId96"/>
-    <hyperlink ref="D34" r:id="rId97"/>
-    <hyperlink ref="D116" r:id="rId98"/>
-    <hyperlink ref="D121" r:id="rId99"/>
-    <hyperlink ref="D123" r:id="rId100"/>
-    <hyperlink ref="D166" r:id="rId101"/>
-    <hyperlink ref="D99" r:id="rId102"/>
-    <hyperlink ref="D30" r:id="rId103"/>
-    <hyperlink ref="D7" r:id="rId104"/>
-    <hyperlink ref="D143" r:id="rId105"/>
-    <hyperlink ref="D162" r:id="rId106"/>
-    <hyperlink ref="D150" r:id="rId107"/>
-    <hyperlink ref="D112" r:id="rId108"/>
-    <hyperlink ref="D138" r:id="rId109"/>
-    <hyperlink ref="D136" r:id="rId110"/>
-    <hyperlink ref="D111" r:id="rId111"/>
-    <hyperlink ref="D106" r:id="rId112"/>
-    <hyperlink ref="D56" r:id="rId113"/>
-    <hyperlink ref="D110" r:id="rId114"/>
-    <hyperlink ref="D54" r:id="rId115"/>
-    <hyperlink ref="D172" r:id="rId116"/>
-    <hyperlink ref="D176" r:id="rId117"/>
-    <hyperlink ref="D114" r:id="rId118"/>
-    <hyperlink ref="D134" r:id="rId119"/>
-    <hyperlink ref="D26" r:id="rId120"/>
-    <hyperlink ref="D8" r:id="rId121"/>
-    <hyperlink ref="D65" r:id="rId122"/>
-    <hyperlink ref="D55" r:id="rId123"/>
-    <hyperlink ref="D51" r:id="rId124"/>
-    <hyperlink ref="D171" r:id="rId125"/>
-    <hyperlink ref="D115" r:id="rId126"/>
-    <hyperlink ref="D23" r:id="rId127"/>
-    <hyperlink ref="D98" r:id="rId128"/>
-    <hyperlink ref="D96" r:id="rId129"/>
-    <hyperlink ref="D101" r:id="rId130"/>
-    <hyperlink ref="D28" r:id="rId131"/>
-    <hyperlink ref="D128" r:id="rId132"/>
-    <hyperlink ref="D151" r:id="rId133"/>
-    <hyperlink ref="D140" r:id="rId134"/>
-    <hyperlink ref="D173" r:id="rId135"/>
-    <hyperlink ref="D90" r:id="rId136"/>
-    <hyperlink ref="D72" r:id="rId137"/>
-    <hyperlink ref="D170" r:id="rId138"/>
-    <hyperlink ref="D61" r:id="rId139"/>
-    <hyperlink ref="D53" r:id="rId140"/>
-    <hyperlink ref="D141" r:id="rId141"/>
-    <hyperlink ref="D40" r:id="rId142"/>
+    <hyperlink ref="D106" r:id="rId80"/>
+    <hyperlink ref="D126" r:id="rId81"/>
+    <hyperlink ref="D24" r:id="rId82"/>
+    <hyperlink ref="D79" r:id="rId83"/>
+    <hyperlink ref="D91" r:id="rId84"/>
+    <hyperlink ref="D112" r:id="rId85"/>
+    <hyperlink ref="D167" r:id="rId86"/>
+    <hyperlink ref="D125" r:id="rId87"/>
+    <hyperlink ref="D96" r:id="rId88"/>
+    <hyperlink ref="D157" r:id="rId89"/>
+    <hyperlink ref="D78" r:id="rId90"/>
+    <hyperlink ref="D48" r:id="rId91"/>
+    <hyperlink ref="D146" r:id="rId92"/>
+    <hyperlink ref="D74" r:id="rId93"/>
+    <hyperlink ref="D160" r:id="rId94"/>
+    <hyperlink ref="D132" r:id="rId95"/>
+    <hyperlink ref="D34" r:id="rId96"/>
+    <hyperlink ref="D115" r:id="rId97"/>
+    <hyperlink ref="D120" r:id="rId98"/>
+    <hyperlink ref="D122" r:id="rId99"/>
+    <hyperlink ref="D165" r:id="rId100"/>
+    <hyperlink ref="D98" r:id="rId101"/>
+    <hyperlink ref="D30" r:id="rId102"/>
+    <hyperlink ref="D7" r:id="rId103"/>
+    <hyperlink ref="D142" r:id="rId104"/>
+    <hyperlink ref="D161" r:id="rId105"/>
+    <hyperlink ref="D149" r:id="rId106"/>
+    <hyperlink ref="D111" r:id="rId107"/>
+    <hyperlink ref="D137" r:id="rId108"/>
+    <hyperlink ref="D135" r:id="rId109"/>
+    <hyperlink ref="D110" r:id="rId110"/>
+    <hyperlink ref="D105" r:id="rId111"/>
+    <hyperlink ref="D56" r:id="rId112"/>
+    <hyperlink ref="D109" r:id="rId113"/>
+    <hyperlink ref="D54" r:id="rId114"/>
+    <hyperlink ref="D171" r:id="rId115"/>
+    <hyperlink ref="D175" r:id="rId116"/>
+    <hyperlink ref="D113" r:id="rId117"/>
+    <hyperlink ref="D133" r:id="rId118"/>
+    <hyperlink ref="D26" r:id="rId119"/>
+    <hyperlink ref="D8" r:id="rId120"/>
+    <hyperlink ref="D65" r:id="rId121"/>
+    <hyperlink ref="D55" r:id="rId122"/>
+    <hyperlink ref="D51" r:id="rId123"/>
+    <hyperlink ref="D170" r:id="rId124"/>
+    <hyperlink ref="D114" r:id="rId125"/>
+    <hyperlink ref="D23" r:id="rId126"/>
+    <hyperlink ref="D97" r:id="rId127"/>
+    <hyperlink ref="D95" r:id="rId128"/>
+    <hyperlink ref="D100" r:id="rId129"/>
+    <hyperlink ref="D28" r:id="rId130"/>
+    <hyperlink ref="D127" r:id="rId131"/>
+    <hyperlink ref="D150" r:id="rId132"/>
+    <hyperlink ref="D139" r:id="rId133"/>
+    <hyperlink ref="D172" r:id="rId134"/>
+    <hyperlink ref="D89" r:id="rId135"/>
+    <hyperlink ref="D72" r:id="rId136"/>
+    <hyperlink ref="D169" r:id="rId137"/>
+    <hyperlink ref="D61" r:id="rId138"/>
+    <hyperlink ref="D53" r:id="rId139"/>
+    <hyperlink ref="D140" r:id="rId140"/>
+    <hyperlink ref="D40" r:id="rId141"/>
+    <hyperlink ref="D158" r:id="rId142"/>
     <hyperlink ref="D159" r:id="rId143"/>
-    <hyperlink ref="D160" r:id="rId144"/>
-    <hyperlink ref="D175" r:id="rId145"/>
-    <hyperlink ref="D20" r:id="rId146"/>
-    <hyperlink ref="D174" r:id="rId147"/>
-    <hyperlink ref="D75" r:id="rId148"/>
-    <hyperlink ref="D100" r:id="rId149"/>
-    <hyperlink ref="D32" r:id="rId150"/>
+    <hyperlink ref="D174" r:id="rId144"/>
+    <hyperlink ref="D20" r:id="rId145"/>
+    <hyperlink ref="D173" r:id="rId146"/>
+    <hyperlink ref="D75" r:id="rId147"/>
+    <hyperlink ref="D99" r:id="rId148"/>
+    <hyperlink ref="D32" r:id="rId149"/>
+    <hyperlink ref="D76" r:id="rId150"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId151"/>
@@ -8656,7 +8773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K260"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J176" sqref="J176"/>
     </sheetView>
   </sheetViews>
@@ -8673,7 +8790,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B1" t="s">
         <v>383</v>
@@ -8793,7 +8910,7 @@
         <v>&lt;image&gt;&lt;resname&gt;amsel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Amsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;blackbird&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/amsel-stehen-silhouette-rosa-305542/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;amsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8826,7 +8943,7 @@
         <v>&lt;image&gt;&lt;resname&gt;anker&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Anker&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;anchor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/anker-meer-yacht-marine-schiff-312599/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;anker&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8859,7 +8976,7 @@
         <v>&lt;image&gt;&lt;resname&gt;apfel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Apfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;apple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/apple-rot-obst-696445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;apfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8892,7 +9009,7 @@
         <v>&lt;image&gt;&lt;resname&gt;apfel2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Apfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;apple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blau-apple-blatt-obst-ernte-309764/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;apfel2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8925,7 +9042,7 @@
         <v>&lt;image&gt;&lt;resname&gt;auto1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auto&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;car&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auto-fahrzeug-edel-limousine-681338/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auto1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8958,7 +9075,7 @@
         <v>&lt;image&gt;&lt;resname&gt;auto2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auto&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;car&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auto-spielzeugauto-spielzeug-spa%C3%9F-312461/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auto2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8991,7 +9108,7 @@
         <v>&lt;image&gt;&lt;resname&gt;background1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wiese&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;grassland&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/hintergrund-blau-sauber-klar-tag-21717/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;background1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -9057,7 +9174,7 @@
         <v>&lt;image&gt;&lt;resname&gt;balance&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Balance&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;balance&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stein-balance-gleichgewicht-698354/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;balance&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -9090,7 +9207,7 @@
         <v>&lt;image&gt;&lt;resname&gt;balloons&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Luftballon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;balloons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/luftballons-aufgeblasen-luft-feier-312654/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;balloons&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -9123,7 +9240,7 @@
         <v>&lt;image&gt;&lt;resname&gt;banane&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Banane&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;banana&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/banane-haufen-obst-lebensmittel-25339/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;banane&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -9156,7 +9273,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bank&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bank&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bench&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;catherinemary&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bank-rot-himmel-blau-natur-185234/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bank&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9189,7 +9306,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bart&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnurrbart&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moustache&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;amandaelizabeth84&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schnurrbart-lenker-m%C3%A4nnlich-haar-473661/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bart&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9255,7 +9372,7 @@
         <v>&lt;image&gt;&lt;resname&gt;baum&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baum&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tree&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baum-scherenschnitt-natur-657481/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;baum&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9288,7 +9405,7 @@
         <v>&lt;image&gt;&lt;resname&gt;baumstamm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baumstamm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;log/trunk&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baumst%C3%A4mme-holz-anmelden-bauholz-690888/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;baumstamm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -9321,7 +9438,7 @@
         <v>&lt;image&gt;&lt;resname&gt;biene&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Biene&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bee&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/biene-honigbiene-stachel-fl%C3%BCgel-312770/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;biene&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -9354,7 +9471,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bildschirm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bildschirm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monitor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/monitor-flatscreen-bildschirm-23269/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bildschirm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9387,7 +9504,7 @@
         <v>&lt;image&gt;&lt;resname&gt;blume&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Blume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blume-rose-kontur-umrisse-schwarz-681009/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;blume&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -9420,7 +9537,7 @@
         <v>&lt;image&gt;&lt;resname&gt;blume2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Blume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blume-kontur-gelb-umrisse-668854/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;blume2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -9453,7 +9570,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bombe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bombe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bomb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bomb-explosive-detonation-fuze-154456&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bombe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -9486,7 +9603,7 @@
         <v>&lt;image&gt;&lt;resname&gt;boot&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Boot&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;boat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Suedelbien&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fischerboot-d%C3%A4nemark-strand-meer-49523/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;boot&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -9519,7 +9636,7 @@
         <v>&lt;image&gt;&lt;resname&gt;brief&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Brief&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;envelope&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/umschlag-mail-bereitstellen-306781/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;brief&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -9552,7 +9669,7 @@
         <v>&lt;image&gt;&lt;resname&gt;brille&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Brille&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;glasses&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/brillen-schwarz-silhouette-310516/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;brille&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -9585,7 +9702,7 @@
         <v>&lt;image&gt;&lt;resname&gt;buchstabe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Buchstabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;letter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/abc-alphabet-t-schreiben-schriften-725081/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;buchstabe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -9618,7 +9735,7 @@
         <v>&lt;image&gt;&lt;resname&gt;diamant1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Diamant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;diamond&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/diamant-teuer-juwel-wertvolle-158431/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;diamant1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -9651,7 +9768,7 @@
         <v>&lt;image&gt;&lt;resname&gt;diamant2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Diamant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;diamond&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/diamant-schnitt-poliert-schmuck-311259/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;diamant2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -9717,7 +9834,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dna&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Dna&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dna&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/dna-doppelhelix-helix-wissenschaft-312438/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dna&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -9750,7 +9867,7 @@
         <v>&lt;image&gt;&lt;resname&gt;drache&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Drache&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dragon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-rot-symbol-fantasie-312035/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;drache&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -9783,7 +9900,7 @@
         <v>&lt;image&gt;&lt;resname&gt;eisenbahn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Eisenbahn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;train&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zug-reisen-transport-eisenbahn-312227/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;eisenbahn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -9882,7 +9999,7 @@
         <v>&lt;image&gt;&lt;resname&gt;ente&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Ente&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;duck&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummi-ente-quietschende-schwimmen-156597/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;ente&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -9915,7 +10032,7 @@
         <v>&lt;image&gt;&lt;resname&gt;erdbeere&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Erdbeere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;strawberry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/erdbeere-rot-makro-629180/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;erdbeere&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -9948,7 +10065,7 @@
         <v>&lt;image&gt;&lt;resname&gt;esel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Esel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;donkey&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/donkey-animal-farm-gray-comic-310798/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;esel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -9981,7 +10098,7 @@
         <v>&lt;image&gt;&lt;resname&gt;europa&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Europa&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;europe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/europa-karte-l%C3%A4nder-silhouette-23571/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;europa&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -10014,7 +10131,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fahrrad&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fahrrad&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bicycle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fahrrad-zyklus-rad-pedal-311808/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fahrrad&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -10047,7 +10164,7 @@
         <v>&lt;image&gt;&lt;resname&gt;feet&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Füsse&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;feet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/f%C3%BC%C3%9Fe-zehen-abdruck-gliederung-311827/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;feet&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -10080,7 +10197,7 @@
         <v>&lt;image&gt;&lt;resname&gt;feuer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Feuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-kamin-flamme-hei%C3%9F-brennen-690944/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;feuer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -10113,7 +10230,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fish&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unknown&lt;/name&gt;&lt;source&gt;www.pngimg.com/download/1160&lt;/source&gt;&lt;license&gt;&lt;/license&gt;&lt;title&gt;fisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -10179,7 +10296,7 @@
         <v>&lt;image&gt;&lt;resname&gt;flasche&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flasche&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bottle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/flasche-ketchup-leere-geschlossen-306549/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flasche&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -10212,7 +10329,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fliegenpilz&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fliegenpilz&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mushroom&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lichtwerk2&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fliegenpilze-roter-fliegenpilz-pilze-516281/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fliegenpilz&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -10245,7 +10362,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fluegel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flügel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;wings&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fl%C3%BCgel-wei%C3%9F-isoliert-symbol-feder-311429/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fluegel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -10278,7 +10395,7 @@
         <v>&lt;image&gt;&lt;resname&gt;flugzeug&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flugzeug&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;airplane&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Holgi&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/personenverkehr-fluggesellschaft-122999/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flugzeug&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -10344,7 +10461,7 @@
         <v>&lt;image&gt;&lt;resname&gt;frau&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Weiblich&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;female&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/weiblich-symbol-frau-menschen-709700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;frau&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -10377,7 +10494,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fussball&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fussball&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soccer&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/football-ball-sport-soccer-round-157930&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fussball&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -10410,7 +10527,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gedanke&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gedanken&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;thought&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gedanken-sprache-blasen-idee-24152/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gedanke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -10443,7 +10560,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gehirn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gehirn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;brain&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gehirn-menschliche-wissenschaft-303186/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gehirn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -10476,7 +10593,7 @@
         <v>&lt;image&gt;&lt;resname&gt;geschlecht&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Geschlecht&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;gender&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%A4nnlich-weiblich-geschlecht-709687/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;geschlecht&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -10509,7 +10626,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gespenst&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gespenst&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;ghost&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gespenst-halloween-gruselig-angst-303596/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gespenst&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -10542,7 +10659,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gewitter&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gewitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lightning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blitz-himmel-nacht-dunkel-690410/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gewitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -10575,7 +10692,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gummibears&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gummibär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;gummibear&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hans&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummib%C3%A4ren-fruchtgummis-b%C3%A4ren-8551/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gummibears&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -10608,7 +10725,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gurke&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gurke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cucumber&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gem%C3%BCse-gurke-lebensmittel-700047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gurke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -10641,7 +10758,7 @@
         <v>&lt;image&gt;&lt;resname&gt;haende&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hände&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;hands&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/h%C3%A4nde-zwei-offen-silhouette-296850/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;haende&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -10674,7 +10791,7 @@
         <v>&lt;image&gt;&lt;resname&gt;handabdruck&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Handabdruck&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;handprint&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/handabdruck-finger-palm-anschlag-23837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;handabdruck&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -10707,7 +10824,7 @@
         <v>&lt;image&gt;&lt;resname&gt;hase&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hase&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rabbit&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bunny-outline-easter-cutout-cookie-306263/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;hase&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -10740,7 +10857,7 @@
         <v>&lt;image&gt;&lt;resname&gt;haus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Haus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;house&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/h%C3%BCtte-haus-ferienhaus-urlaub-dach-312420/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;haus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -10806,7 +10923,7 @@
         <v>&lt;image&gt;&lt;resname&gt;herzen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Herzen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;hearths&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/valentine-herz-liebe-eingebettet-601705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;herzen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -10872,7 +10989,7 @@
         <v>&lt;image&gt;&lt;resname&gt;himmel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Himmel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sky&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;alexis&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-berg-wolke-berge-wolken-62732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;himmel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -10905,7 +11022,7 @@
         <v>&lt;image&gt;&lt;resname&gt;hochzeit&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hochzeit&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;wedding&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ringe-hochzeit-bands-duo-mann-312341/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;hochzeit&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -10938,7 +11055,7 @@
         <v>&lt;image&gt;&lt;resname&gt;juli&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;month&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/juli-jul-monat-jahr-neue-tag-706938/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;juli&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -10971,7 +11088,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kaefer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Marienkäfer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;ladybug&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;blickpixel&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/biologische-blatt-bl%C3%A4tter-181237/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kaefer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -11004,7 +11121,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kaffeebohne&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kaffeebohne&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;coffebean&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Karl Dichtler &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/136975.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;andere Sicht&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -11037,7 +11154,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kamera&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kamera&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;camera&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kamera-cctv-sicherheit-cam-156730/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kamera&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -11103,7 +11220,7 @@
         <v>&lt;image&gt;&lt;resname&gt;karate&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Karate&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;karate&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/karate-martial-kunst-verteidigung-312471/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;karate&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -11136,7 +11253,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kassette&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kassette&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cassette&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kassette-band-audio-musik-ton-312681/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kassette&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -11169,7 +11286,7 @@
         <v>&lt;image&gt;&lt;resname&gt;katze&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tier-katze-kontur-umrisse-675646/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;katze&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -11179,15 +11296,15 @@
       </c>
       <c r="B77" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;katze&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;kieselsteine&lt;/resname&gt;</v>
       </c>
       <c r="C77" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kieselsteine&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pebble&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D77" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/animal-cat-contour-outlines-675646&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;katze&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;SuXxLe&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kies-steine-desktop-hintergrund-618737/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kieselsteine&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E77" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11199,10 +11316,10 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;katze&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/animal-cat-contour-outlines-675646&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;katze&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;kieselsteine&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kieselsteine&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pebble&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;SuXxLe&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kies-steine-desktop-hintergrund-618737/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kieselsteine&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -11212,15 +11329,15 @@
       </c>
       <c r="B78" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;kieselsteine&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;kleeblatt&lt;/resname&gt;</v>
       </c>
       <c r="C78" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kieselsteine&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pebble&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kleeblatt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shamrock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D78" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;SuXxLe&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kies-steine-desktop-hintergrund-618737/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kieselsteine&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kleeblatt-vier-kleeblatt-irisch-311391/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kleeblatt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E78" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11232,10 +11349,10 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;kieselsteine&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kieselsteine&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pebble&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;SuXxLe&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kies-steine-desktop-hintergrund-618737/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kieselsteine&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;kleeblatt&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kleeblatt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shamrock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kleeblatt-vier-kleeblatt-irisch-311391/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kleeblatt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -11245,15 +11362,15 @@
       </c>
       <c r="B79" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;kleeblatt&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;knochen&lt;/resname&gt;</v>
       </c>
       <c r="C79" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kleeblatt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shamrock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Knochen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D79" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kleeblatt-vier-kleeblatt-irisch-311391/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kleeblatt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bones-dog-chicken-comic-307870/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;knochen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E79" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11265,10 +11382,10 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;kleeblatt&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kleeblatt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shamrock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kleeblatt-vier-kleeblatt-irisch-311391/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kleeblatt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;knochen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Knochen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bones-dog-chicken-comic-307870/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;knochen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -11278,15 +11395,15 @@
       </c>
       <c r="B80" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;knochen&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;korb&lt;/resname&gt;</v>
       </c>
       <c r="C80" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Knochen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Korb&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;basket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D80" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bones-dog-chicken-comic-307870/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;knochen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/korb-gr%C3%BCn-kunststoff-container-312684/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;korb&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E80" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11298,10 +11415,10 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;knochen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Knochen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bones-dog-chicken-comic-307870/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;knochen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;korb&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Korb&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;basket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/korb-gr%C3%BCn-kunststoff-container-312684/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;korb&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -11311,15 +11428,15 @@
       </c>
       <c r="B81" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;korb&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;krone&lt;/resname&gt;</v>
       </c>
       <c r="C81" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Korb&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;basket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Krone&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;crown&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D81" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/korb-gr%C3%BCn-kunststoff-container-312684/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;korb&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/krone-royal-kreuz-edelsteine-308054/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;krone&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E81" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11331,10 +11448,10 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;korb&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Korb&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;basket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/korb-gr%C3%BCn-kunststoff-container-312684/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;korb&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;krone&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Krone&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;crown&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/krone-royal-kreuz-edelsteine-308054/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;krone&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -11344,15 +11461,15 @@
       </c>
       <c r="B82" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;krone&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;kuerbis&lt;/resname&gt;</v>
       </c>
       <c r="C82" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Krone&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;crown&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kürbis&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pumpkin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D82" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/krone-royal-kreuz-edelsteine-308054/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;krone&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Klaus Maier&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/20758.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Kürbisse - Farben &lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E82" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11364,10 +11481,10 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;krone&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Krone&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;crown&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/krone-royal-kreuz-edelsteine-308054/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;krone&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;kuerbis&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kürbis&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pumpkin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Klaus Maier&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/20758.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Kürbisse - Farben &lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -11377,15 +11494,15 @@
       </c>
       <c r="B83" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;kuerbis&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;lagerfeuer&lt;/resname&gt;</v>
       </c>
       <c r="C83" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kürbis&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pumpkin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lagerfeuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;campfire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D83" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Klaus Maier&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/20758.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Kürbisse - Farben &lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-lager-holz-w%C3%A4rme-flammen-30231/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lagerfeuer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E83" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11397,7 +11514,7 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;kuerbis&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kürbis&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pumpkin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Klaus Maier&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/20758.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Kürbisse - Farben &lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;lagerfeuer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lagerfeuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;campfire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-lager-holz-w%C3%A4rme-flammen-30231/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lagerfeuer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>400</v>
@@ -11410,15 +11527,15 @@
       </c>
       <c r="B84" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;lagerfeuer&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;landstrasse&lt;/resname&gt;</v>
       </c>
       <c r="C84" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lagerfeuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;campfire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Strasse&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;street&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D84" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-lager-holz-w%C3%A4rme-flammen-30231/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lagerfeuer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/chile-panamericana-stra%C3%9Fe-693053/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;landstrasse&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E84" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11430,10 +11547,10 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;lagerfeuer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lagerfeuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;campfire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-lager-holz-w%C3%A4rme-flammen-30231/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lagerfeuer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;landstrasse&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Strasse&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;street&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/chile-panamericana-stra%C3%9Fe-693053/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;landstrasse&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -11443,15 +11560,15 @@
       </c>
       <c r="B85" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;landstrasse&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;lava&lt;/resname&gt;</v>
       </c>
       <c r="C85" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Strasse&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;street&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lava&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lava&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D85" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/chile-panamericana-stra%C3%9Fe-693053/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;landstrasse&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lava-magma-vulkanausbruch-gl%C3%BChen-67574/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lava&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E85" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11459,14 +11576,14 @@
       </c>
       <c r="F85" t="str">
         <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;landstrasse&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Strasse&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;street&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/chile-panamericana-stra%C3%9Fe-693053/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;landstrasse&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;lava&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lava&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lava&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lava-magma-vulkanausbruch-gl%C3%BChen-67574/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lava&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -11476,15 +11593,15 @@
       </c>
       <c r="B86" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;lava&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;lego&lt;/resname&gt;</v>
       </c>
       <c r="C86" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lava&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lava&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lego&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lego&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D86" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lava-magma-vulkanausbruch-gl%C3%BChen-67574/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lava&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;mwewering&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lego-legosteine-steine-spielzeug-615239/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lego&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E86" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11496,10 +11613,10 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;lava&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lava&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lava&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lava-magma-vulkanausbruch-gl%C3%BChen-67574/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lava&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;lego&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lego&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lego&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;mwewering&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lego-legosteine-steine-spielzeug-615239/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lego&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -11509,15 +11626,15 @@
       </c>
       <c r="B87" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;lego&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;leopard&lt;/resname&gt;</v>
       </c>
       <c r="C87" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lego&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lego&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leopard&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;leopard&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D87" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;mwewering&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lego-legosteine-steine-spielzeug-615239/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lego&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leopard-raubkatze-savuti-botswana-694460/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leopard&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E87" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11525,14 +11642,14 @@
       </c>
       <c r="F87" t="str">
         <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;lego&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lego&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lego&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;mwewering&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lego-legosteine-steine-spielzeug-615239/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lego&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;leopard&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leopard&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;leopard&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leopard-raubkatze-savuti-botswana-694460/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leopard&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -11542,15 +11659,15 @@
       </c>
       <c r="B88" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;leopard&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;leuchtturm&lt;/resname&gt;</v>
       </c>
       <c r="C88" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leopard&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;leopard&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leuchtturm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lighthouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D88" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leopard-raubkatze-savuti-botswana-694460/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leopard&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;prosaica&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leuchtturm-bodie-island-186722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leuchtturm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E88" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11562,7 +11679,7 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;leopard&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leopard&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;leopard&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leopard-raubkatze-savuti-botswana-694460/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leopard&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;leuchtturm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leuchtturm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lighthouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;prosaica&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leuchtturm-bodie-island-186722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leuchtturm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>398</v>
@@ -11575,15 +11692,15 @@
       </c>
       <c r="B89" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;leuchtturm&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;lupe&lt;/resname&gt;</v>
       </c>
       <c r="C89" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leuchtturm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lighthouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lupe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;loupe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D89" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;prosaica&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leuchtturm-bodie-island-186722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leuchtturm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/linse-vergr%C3%B6%C3%9Fern-glas-lupen-lupe-156813/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lupe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E89" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11595,10 +11712,10 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;leuchtturm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leuchtturm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lighthouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;prosaica&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leuchtturm-bodie-island-186722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leuchtturm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;lupe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lupe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;loupe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/linse-vergr%C3%B6%C3%9Fern-glas-lupen-lupe-156813/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lupe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -11608,15 +11725,15 @@
       </c>
       <c r="B90" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;lupe&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;magnet&lt;/resname&gt;</v>
       </c>
       <c r="C90" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lupe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;loupe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Magnet&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;magnet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D90" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/linse-vergr%C3%B6%C3%9Fern-glas-lupen-lupe-156813/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lupe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/magnet-hufeisen-polen-norden-s%C3%BCden-312777/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;magnet&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E90" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11628,10 +11745,10 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;lupe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lupe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;loupe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/linse-vergr%C3%B6%C3%9Fern-glas-lupen-lupe-156813/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lupe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;magnet&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Magnet&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;magnet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/magnet-hufeisen-polen-norden-s%C3%BCden-312777/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;magnet&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -11641,15 +11758,15 @@
       </c>
       <c r="B91" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;magnet&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;maus&lt;/resname&gt;</v>
       </c>
       <c r="C91" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Magnet&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;magnet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Maus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D91" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/magnet-hufeisen-polen-norden-s%C3%BCden-312777/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;magnet&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/mouse-rodent-animal-small-pet-311207/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;maus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E91" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11661,7 +11778,7 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;magnet&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Magnet&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;magnet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/magnet-hufeisen-polen-norden-s%C3%BCden-312777/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;magnet&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;maus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Maus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/mouse-rodent-animal-small-pet-311207/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;maus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>408</v>
@@ -11674,15 +11791,15 @@
       </c>
       <c r="B92" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;maus&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;meer&lt;/resname&gt;</v>
       </c>
       <c r="C92" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Maus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Meer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sea&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D92" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/mouse-rodent-animal-small-pet-311207/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;maus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;rolypolys&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/d%C3%A4nemark-ostsee-k%C3%BCste-meer-wasser-239992/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;meer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E92" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11694,10 +11811,10 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;maus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Maus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/mouse-rodent-animal-small-pet-311207/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;maus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;meer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Meer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sea&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;rolypolys&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/d%C3%A4nemark-ostsee-k%C3%BCste-meer-wasser-239992/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;meer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -11707,15 +11824,15 @@
       </c>
       <c r="B93" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;meer&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;mond&lt;/resname&gt;</v>
       </c>
       <c r="C93" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Meer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sea&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Mond&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D93" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;rolypolys&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/d%C3%A4nemark-ostsee-k%C3%BCste-meer-wasser-239992/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;meer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;jrperes&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mond-himmel-wolken-tag-v%C3%B6gel-323425/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;mond&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E93" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11727,10 +11844,10 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;meer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Meer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sea&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;rolypolys&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/d%C3%A4nemark-ostsee-k%C3%BCste-meer-wasser-239992/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;meer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;mond&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Mond&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;jrperes&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mond-himmel-wolken-tag-v%C3%B6gel-323425/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;mond&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -11740,15 +11857,15 @@
       </c>
       <c r="B94" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;mond&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;monster&lt;/resname&gt;</v>
       </c>
       <c r="C94" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Mond&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monster&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monster&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D94" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;jrperes&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mond-himmel-wolken-tag-v%C3%B6gel-323425/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;mond&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-eidechse-monster-chinesisch-149393/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;monster&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E94" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11760,10 +11877,10 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;mond&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Mond&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;jrperes&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mond-himmel-wolken-tag-v%C3%B6gel-323425/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;mond&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;monster&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monster&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monster&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-eidechse-monster-chinesisch-149393/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;monster&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -11773,15 +11890,15 @@
       </c>
       <c r="B95" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;monster&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;musik&lt;/resname&gt;</v>
       </c>
       <c r="C95" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monster&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monster&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Musik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;music&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D95" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-eidechse-monster-chinesisch-149393/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;monster&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/notenschl%C3%BCssel-musik-melodie-ton-296775/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;musik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E95" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11793,10 +11910,10 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;monster&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monster&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monster&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-eidechse-monster-chinesisch-149393/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;monster&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;musik&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Musik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;music&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/notenschl%C3%BCssel-musik-melodie-ton-296775/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;musik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -11806,15 +11923,15 @@
       </c>
       <c r="B96" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;musik&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;nikolaus&lt;/resname&gt;</v>
       </c>
       <c r="C96" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Musik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;music&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nikolaus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;santa&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D96" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/notenschl%C3%BCssel-musik-melodie-ton-296775/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;musik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/santa-claus-st-nicholas-funny-x-mas-153309/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;nikolaus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E96" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11826,10 +11943,10 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;image&gt;&lt;resname&gt;musik&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Musik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;music&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/notenschl%C3%BCssel-musik-melodie-ton-296775/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;musik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;nikolaus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nikolaus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;santa&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/santa-claus-st-nicholas-funny-x-mas-153309/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;nikolaus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -11839,15 +11956,15 @@
       </c>
       <c r="B97" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;nikolaus&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;noten&lt;/resname&gt;</v>
       </c>
       <c r="C97" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nikolaus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;santa&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Noten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;note&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D97" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/santa-claus-st-nicholas-funny-x-mas-153309/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;nikolaus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/noten-notenblatt-musik-takt-668862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;noten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E97" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11859,10 +11976,10 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" ref="G97:G100" si="2">B97&amp;C97&amp;D97&amp;E97&amp;F97</f>
-        <v>&lt;image&gt;&lt;resname&gt;nikolaus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nikolaus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;santa&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/santa-claus-st-nicholas-funny-x-mas-153309/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;nikolaus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;noten&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Noten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;note&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/noten-notenblatt-musik-takt-668862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;noten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -11872,15 +11989,15 @@
       </c>
       <c r="B98" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;noten&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;palme&lt;/resname&gt;</v>
       </c>
       <c r="C98" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Noten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;note&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Palme&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;palm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D98" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/noten-notenblatt-musik-takt-668862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;noten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kokospalme-baum-gebogen-verdreht-312154/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;palme&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E98" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11892,10 +12009,10 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;image&gt;&lt;resname&gt;noten&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Noten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;note&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/noten-notenblatt-musik-takt-668862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;noten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;palme&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Palme&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;palm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kokospalme-baum-gebogen-verdreht-312154/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;palme&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -11905,15 +12022,15 @@
       </c>
       <c r="B99" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;palme&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;panda&lt;/resname&gt;</v>
       </c>
       <c r="C99" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Palme&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;palm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Panda&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;panda&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D99" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kokospalme-baum-gebogen-verdreht-312154/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;palme&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/panda-riese-b%C3%A4r-china-tier-312682/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;panda&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E99" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11925,10 +12042,10 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;image&gt;&lt;resname&gt;palme&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Palme&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;palm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kokospalme-baum-gebogen-verdreht-312154/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;palme&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;panda&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Panda&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;panda&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/panda-riese-b%C3%A4r-china-tier-312682/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;panda&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -11938,15 +12055,15 @@
       </c>
       <c r="B100" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;panda&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pfeile&lt;/resname&gt;</v>
       </c>
       <c r="C100" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Panda&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;panda&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pfeile&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;arrows&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D100" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/panda-riese-b%C3%A4r-china-tier-312682/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;panda&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pfeile-farbverlauf-design-symbol-539917/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pfeile&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E100" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11958,10 +12075,10 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;image&gt;&lt;resname&gt;panda&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Panda&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;panda&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/panda-riese-b%C3%A4r-china-tier-312682/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;panda&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pfeile&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pfeile&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;arrows&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pfeile-farbverlauf-design-symbol-539917/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pfeile&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -11971,15 +12088,15 @@
       </c>
       <c r="B101" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;pfeile&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;piano&lt;/resname&gt;</v>
       </c>
       <c r="C101" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pfeile&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;arrows&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Klavier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;piano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D101" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pfeile-farbverlauf-design-symbol-539917/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pfeile&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/klavier-musical-instrument-tastatur-312543/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;piano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E101" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -11991,10 +12108,10 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" ref="G101:G115" si="3">B101&amp;C101&amp;D101&amp;E101&amp;F101</f>
-        <v>&lt;image&gt;&lt;resname&gt;pfeile&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pfeile&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;arrows&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pfeile-farbverlauf-design-symbol-539917/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pfeile&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;piano&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Klavier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;piano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/klavier-musical-instrument-tastatur-312543/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;piano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -12004,15 +12121,15 @@
       </c>
       <c r="B102" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;piano&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pik&lt;/resname&gt;</v>
       </c>
       <c r="C102" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Klavier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;piano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;peak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D102" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/klavier-musical-instrument-tastatur-312543/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;piano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/karte-umrissen-spielen-schwarz-157404/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E102" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12024,10 +12141,10 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;image&gt;&lt;resname&gt;piano&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Klavier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;piano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/klavier-musical-instrument-tastatur-312543/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;piano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pik&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;peak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/karte-umrissen-spielen-schwarz-157404/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -12037,15 +12154,15 @@
       </c>
       <c r="B103" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;pik&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pills&lt;/resname&gt;</v>
       </c>
       <c r="C103" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;peak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D103" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/karte-umrissen-spielen-schwarz-157404/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pillen-medizin-gesundheit-684989/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pills&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E103" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12053,14 +12170,14 @@
       </c>
       <c r="F103" t="str">
         <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;image&gt;&lt;resname&gt;pik&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;peak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/karte-umrissen-spielen-schwarz-157404/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pills&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pillen-medizin-gesundheit-684989/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pills&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -12070,7 +12187,7 @@
       </c>
       <c r="B104" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;pills&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pills2&lt;/resname&gt;</v>
       </c>
       <c r="C104" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
@@ -12078,7 +12195,7 @@
       </c>
       <c r="D104" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pillen-medizin-gesundheit-684989/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pills&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Angie525A&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/16045.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Licht und Schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E104" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12086,14 +12203,14 @@
       </c>
       <c r="F104" t="str">
         <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;image&gt;&lt;resname&gt;pills&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pillen-medizin-gesundheit-684989/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pills&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pills2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Angie525A&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/16045.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Licht und Schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -12103,15 +12220,15 @@
       </c>
       <c r="B105" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;pills2&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pills3&lt;/resname&gt;</v>
       </c>
       <c r="C105" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tablette&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pill&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D105" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Angie525A&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/16045.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Licht und Schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pille-kapsel-rot-blau-medizin-311237/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pills3&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E105" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12123,7 +12240,7 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;image&gt;&lt;resname&gt;pills2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Angie525A&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/16045.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Licht und Schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pills3&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tablette&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pill&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pille-kapsel-rot-blau-medizin-311237/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pills3&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>393</v>
@@ -12136,15 +12253,15 @@
       </c>
       <c r="B106" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;pills3&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pinguin&lt;/resname&gt;</v>
       </c>
       <c r="C106" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tablette&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pill&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinguin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;penguin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D106" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pille-kapsel-rot-blau-medizin-311237/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pills3&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/penguin-aquatic-flightless-birds-41066/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinguin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E106" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12156,10 +12273,10 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;image&gt;&lt;resname&gt;pills3&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tablette&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pill&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pille-kapsel-rot-blau-medizin-311237/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pills3&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pinguin&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinguin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;penguin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/penguin-aquatic-flightless-birds-41066/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinguin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -12169,15 +12286,15 @@
       </c>
       <c r="B107" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;pinguin&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pinsel&lt;/resname&gt;</v>
       </c>
       <c r="C107" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinguin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;penguin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;paintbrush&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D107" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/penguin-aquatic-flightless-birds-41066/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinguin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pinsel-borsten-griff-holz-312711/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E107" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12189,10 +12306,10 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;image&gt;&lt;resname&gt;pinguin&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinguin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;penguin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/penguin-aquatic-flightless-birds-41066/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinguin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pinsel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;paintbrush&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pinsel-borsten-griff-holz-312711/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -12202,15 +12319,15 @@
       </c>
       <c r="B108" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;pinsel&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pirat&lt;/resname&gt;</v>
       </c>
       <c r="C108" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;paintbrush&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pirat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pirate&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D108" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pinsel-borsten-griff-holz-312711/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pirat-hut-kappe-tod-warnung-311819/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pirat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E108" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12222,10 +12339,10 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;image&gt;&lt;resname&gt;pinsel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;paintbrush&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pinsel-borsten-griff-holz-312711/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;pirat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pirat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pirate&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pirat-hut-kappe-tod-warnung-311819/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pirat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -12235,15 +12352,15 @@
       </c>
       <c r="B109" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;pirat&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;plus&lt;/resname&gt;</v>
       </c>
       <c r="C109" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pirat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pirate&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Plus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;plus&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D109" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pirat-hut-kappe-tod-warnung-311819/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pirat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/button-hinzuf%C3%BCgen-icon-web-symbol-304224/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;plus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E109" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12255,10 +12372,10 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;image&gt;&lt;resname&gt;pirat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pirat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pirate&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pirat-hut-kappe-tod-warnung-311819/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pirat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;plus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Plus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;plus&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/button-hinzuf%C3%BCgen-icon-web-symbol-304224/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;plus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -12268,15 +12385,15 @@
       </c>
       <c r="B110" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;plus&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;puzzle&lt;/resname&gt;</v>
       </c>
       <c r="C110" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Plus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;plus&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Puzzle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;puzzle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D110" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/button-hinzuf%C3%BCgen-icon-web-symbol-304224/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;plus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/puzzle-stichs%C3%A4ge-st%C3%BCck-wei%C3%9F-303502/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;puzzle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E110" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12288,10 +12405,10 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;image&gt;&lt;resname&gt;plus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Plus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;plus&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/button-hinzuf%C3%BCgen-icon-web-symbol-304224/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;plus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;puzzle&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Puzzle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;puzzle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/puzzle-stichs%C3%A4ge-st%C3%BCck-wei%C3%9F-303502/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;puzzle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -12301,15 +12418,15 @@
       </c>
       <c r="B111" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;puzzle&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;radioaktiv&lt;/resname&gt;</v>
       </c>
       <c r="C111" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Puzzle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;puzzle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Radioaktiv&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;radioactive&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D111" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/puzzle-stichs%C3%A4ge-st%C3%BCck-wei%C3%9F-303502/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;puzzle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nukleare-atommasse-strahlung-303831/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;radioaktiv&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E111" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12321,10 +12438,10 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;image&gt;&lt;resname&gt;puzzle&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Puzzle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;puzzle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/puzzle-stichs%C3%A4ge-st%C3%BCck-wei%C3%9F-303502/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;puzzle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;radioaktiv&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Radioaktiv&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;radioactive&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nukleare-atommasse-strahlung-303831/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;radioaktiv&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -12334,15 +12451,15 @@
       </c>
       <c r="B112" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;radioaktiv&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;rakete&lt;/resname&gt;</v>
       </c>
       <c r="C112" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Radioaktiv&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;radioactive&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rakete&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rocket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D112" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nukleare-atommasse-strahlung-303831/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;radioaktiv&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/rocket-spaceship-space-shuttle-nasa-147466/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rakete&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E112" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12354,10 +12471,10 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;image&gt;&lt;resname&gt;radioaktiv&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Radioaktiv&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;radioactive&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nukleare-atommasse-strahlung-303831/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;radioaktiv&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;rakete&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rakete&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rocket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/rocket-spaceship-space-shuttle-nasa-147466/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rakete&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -12367,15 +12484,15 @@
       </c>
       <c r="B113" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;rakete&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;recycle&lt;/resname&gt;</v>
       </c>
       <c r="C113" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rakete&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rocket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Recycle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;recycle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D113" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/rocket-spaceship-space-shuttle-nasa-147466/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rakete&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/recyceln-wiederverwendung-symbol-305031/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;recycle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E113" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12387,10 +12504,10 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;image&gt;&lt;resname&gt;rakete&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rakete&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rocket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/rocket-spaceship-space-shuttle-nasa-147466/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rakete&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;recycle&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Recycle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;recycle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/recyceln-wiederverwendung-symbol-305031/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;recycle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -12400,15 +12517,15 @@
       </c>
       <c r="B114" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;recycle&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;regenbogen&lt;/resname&gt;</v>
       </c>
       <c r="C114" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Recycle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;recycle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenbogen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rainbow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D114" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/recyceln-wiederverwendung-symbol-305031/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;recycle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenbogen-streifen-muster-298752/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenbogen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E114" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12420,10 +12537,10 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;image&gt;&lt;resname&gt;recycle&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Recycle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;recycle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/recyceln-wiederverwendung-symbol-305031/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;recycle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;regenbogen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenbogen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rainbow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenbogen-streifen-muster-298752/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenbogen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -12433,15 +12550,15 @@
       </c>
       <c r="B115" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;regenbogen&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;regenschirm&lt;/resname&gt;</v>
       </c>
       <c r="C115" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenbogen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rainbow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenschirm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;umbrella&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D115" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenbogen-streifen-muster-298752/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenbogen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenschirm-regen-wetter-schutz-312302/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenschirm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E115" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12453,10 +12570,10 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;image&gt;&lt;resname&gt;regenbogen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenbogen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rainbow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenbogen-streifen-muster-298752/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenbogen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;regenschirm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenschirm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;umbrella&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenschirm-regen-wetter-schutz-312302/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenschirm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -12466,15 +12583,15 @@
       </c>
       <c r="B116" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;regenschirm&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;rhino1&lt;/resname&gt;</v>
       </c>
       <c r="C116" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenschirm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;umbrella&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D116" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenschirm-regen-wetter-schutz-312302/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenschirm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-afrika-tier-s%C3%BCdafrika-161569/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E116" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12486,10 +12603,10 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" ref="G116:G179" si="4">B116&amp;C116&amp;D116&amp;E116&amp;F116</f>
-        <v>&lt;image&gt;&lt;resname&gt;regenschirm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenschirm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;umbrella&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenschirm-regen-wetter-schutz-312302/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenschirm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;rhino1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-afrika-tier-s%C3%BCdafrika-161569/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -12499,7 +12616,7 @@
       </c>
       <c r="B117" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;rhino1&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;rhino2&lt;/resname&gt;</v>
       </c>
       <c r="C117" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
@@ -12507,7 +12624,7 @@
       </c>
       <c r="D117" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-afrika-tier-s%C3%BCdafrika-161569/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Maddox74&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-safaripark-d%C3%A4nemark-tier-433495/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E117" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12515,11 +12632,11 @@
       </c>
       <c r="F117" t="str">
         <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;rhino1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-afrika-tier-s%C3%BCdafrika-161569/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;rhino2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Maddox74&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-safaripark-d%C3%A4nemark-tier-433495/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K117" s="3" t="s">
         <v>411</v>
@@ -12532,15 +12649,15 @@
       </c>
       <c r="B118" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;rhino2&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;robot&lt;/resname&gt;</v>
       </c>
       <c r="C118" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Roboter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;robot&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D118" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Maddox74&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-safaripark-d%C3%A4nemark-tier-433495/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/roboter-maschine-technologie-312566/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;robot&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E118" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12548,11 +12665,11 @@
       </c>
       <c r="F118" t="str">
         <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;rhino2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Maddox74&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-safaripark-d%C3%A4nemark-tier-433495/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rhino2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;robot&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Roboter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;robot&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/roboter-maschine-technologie-312566/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;robot&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>401</v>
@@ -12565,15 +12682,15 @@
       </c>
       <c r="B119" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;robot&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;rose&lt;/resname&gt;</v>
       </c>
       <c r="C119" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Roboter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;robot&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rose&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D119" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/roboter-maschine-technologie-312566/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;robot&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;MJO&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/rosa-rot-blume-geschenk-143445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rose&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E119" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12581,11 +12698,11 @@
       </c>
       <c r="F119" t="str">
         <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;robot&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Roboter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;robot&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/roboter-maschine-technologie-312566/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;robot&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;rose&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rose&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;MJO&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/rosa-rot-blume-geschenk-143445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rose&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K119" s="3" t="s">
         <v>409</v>
@@ -12598,15 +12715,15 @@
       </c>
       <c r="B120" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;rose&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;satellit&lt;/resname&gt;</v>
       </c>
       <c r="C120" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rose&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Satellit&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;satellite&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D120" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;MJO&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/rosa-rot-blume-geschenk-143445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rose&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sender-gericht-sendung-%C3%BCbertragen-312354/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;satellit&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E120" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12614,14 +12731,14 @@
       </c>
       <c r="F120" t="str">
         <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;rose&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rose&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;MJO&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/rosa-rot-blume-geschenk-143445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rose&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;satellit&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Satellit&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;satellite&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sender-gericht-sendung-%C3%BCbertragen-312354/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;satellit&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -12631,15 +12748,15 @@
       </c>
       <c r="B121" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;satellit&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schatten&lt;/resname&gt;</v>
       </c>
       <c r="C121" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Satellit&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;satellite&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schatten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shadow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D121" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sender-gericht-sendung-%C3%BCbertragen-312354/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;satellit&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/licht-schatten-licht-und-schatten-685069/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E121" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12651,10 +12768,10 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;satellit&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Satellit&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;satellite&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sender-gericht-sendung-%C3%BCbertragen-312354/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;satellit&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schatten&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schatten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shadow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/licht-schatten-licht-und-schatten-685069/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -12664,15 +12781,15 @@
       </c>
       <c r="B122" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;schatten&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schaufel&lt;/resname&gt;</v>
       </c>
       <c r="C122" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schatten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shadow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schaufel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shovel&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D122" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/licht-schatten-licht-und-schatten-685069/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schaufel-werkzeug-graben-sch%C3%B6pfen-312360/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schaufel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E122" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12684,10 +12801,10 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;schatten&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schatten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shadow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/licht-schatten-licht-und-schatten-685069/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schaufel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schaufel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shovel&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schaufel-werkzeug-graben-sch%C3%B6pfen-312360/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schaufel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -12697,15 +12814,15 @@
       </c>
       <c r="B123" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;schaufel&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schere&lt;/resname&gt;</v>
       </c>
       <c r="C123" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schaufel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shovel&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scissor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D123" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schaufel-werkzeug-graben-sch%C3%B6pfen-312360/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schaufel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/scissors-shears-cut-tool-equipment-24188/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schere&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E123" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12717,10 +12834,10 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;schaufel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schaufel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shovel&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schaufel-werkzeug-graben-sch%C3%B6pfen-312360/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schaufel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schere&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scissor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/scissors-shears-cut-tool-equipment-24188/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schere&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -12730,15 +12847,15 @@
       </c>
       <c r="B124" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;schere&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schildkroete1&lt;/resname&gt;</v>
       </c>
       <c r="C124" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scissor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D124" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/scissors-shears-cut-tool-equipment-24188/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schere&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schildkr%C3%B6te-unterwasser-wasser-691040/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E124" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12750,10 +12867,10 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;schere&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scissor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/scissors-shears-cut-tool-equipment-24188/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schere&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schildkroete1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schildkr%C3%B6te-unterwasser-wasser-691040/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -12763,7 +12880,7 @@
       </c>
       <c r="B125" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;schildkroete1&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schildkroete2&lt;/resname&gt;</v>
       </c>
       <c r="C125" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
@@ -12771,7 +12888,7 @@
       </c>
       <c r="D125" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schildkr%C3%B6te-unterwasser-wasser-691040/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/turtle-carapace-tortoise-green-303732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E125" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12783,10 +12900,10 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;schildkroete1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schildkr%C3%B6te-unterwasser-wasser-691040/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schildkroete2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/turtle-carapace-tortoise-green-303732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -12796,15 +12913,15 @@
       </c>
       <c r="B126" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;schildkroete2&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schloss&lt;/resname&gt;</v>
       </c>
       <c r="C126" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schloss&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D126" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/turtle-carapace-tortoise-green-303732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;stux&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/castle-padlock-shut-off-to-378353&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schloss&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E126" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12816,10 +12933,10 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;schildkroete2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/turtle-carapace-tortoise-green-303732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schloss&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schloss&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;stux&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/castle-padlock-shut-off-to-378353&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schloss&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -12829,15 +12946,15 @@
       </c>
       <c r="B127" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;schloss&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schluessel&lt;/resname&gt;</v>
       </c>
       <c r="C127" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schloss&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schlüssel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;key&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D127" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;stux&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/castle-padlock-shut-off-to-378353&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schloss&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schl%C3%BCssel-sperre-gesperrt-575680/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schluessel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E127" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12849,10 +12966,10 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;schloss&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schloss&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;stux&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/castle-padlock-shut-off-to-378353&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schloss&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schluessel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schlüssel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;key&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schl%C3%BCssel-sperre-gesperrt-575680/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schluessel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -12862,15 +12979,15 @@
       </c>
       <c r="B128" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;schluessel&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schmetterling&lt;/resname&gt;</v>
       </c>
       <c r="C128" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schlüssel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;key&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schmetterling&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;butterfly&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D128" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schl%C3%BCssel-sperre-gesperrt-575680/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schluessel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schmetterling-schwarz-weiss-konturen-658047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schmetterling&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E128" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12882,10 +12999,10 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;schluessel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schlüssel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;key&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schl%C3%BCssel-sperre-gesperrt-575680/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schluessel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schmetterling&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schmetterling&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;butterfly&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schmetterling-schwarz-weiss-konturen-658047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schmetterling&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -12895,15 +13012,15 @@
       </c>
       <c r="B129" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;schmetterling&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schnee&lt;/resname&gt;</v>
       </c>
       <c r="C129" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schmetterling&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;butterfly&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnee&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;snow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D129" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schmetterling-schwarz-weiss-konturen-658047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schmetterling&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/landschaft-berge-h%C3%BCgel-t%C3%A4ler-690244/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schnee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E129" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12915,10 +13032,10 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;schmetterling&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schmetterling&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;butterfly&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schmetterling-schwarz-weiss-konturen-658047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schmetterling&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schnee&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnee&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;snow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/landschaft-berge-h%C3%BCgel-t%C3%A4ler-690244/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schnee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -12928,15 +13045,15 @@
       </c>
       <c r="B130" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;schnee&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;school&lt;/resname&gt;</v>
       </c>
       <c r="C130" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnee&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;snow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stift&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pencil&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D130" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/landschaft-berge-h%C3%BCgel-t%C3%A4ler-690244/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schnee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schule-bleistift-stift-schreiben-153561/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;school&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E130" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12948,10 +13065,10 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;schnee&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnee&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;snow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/landschaft-berge-h%C3%BCgel-t%C3%A4ler-690244/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schnee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;school&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stift&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pencil&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schule-bleistift-stift-schreiben-153561/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;school&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -12961,15 +13078,15 @@
       </c>
       <c r="B131" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;school&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schraubenzieher&lt;/resname&gt;</v>
       </c>
       <c r="C131" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stift&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pencil&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schraubenzieher&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;screwdriver&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D131" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schule-bleistift-stift-schreiben-153561/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;school&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/screwdriver-starhead-star-torx-33634&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schraubenzieher&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E131" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -12981,10 +13098,10 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;school&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stift&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pencil&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schule-bleistift-stift-schreiben-153561/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;school&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schraubenzieher&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schraubenzieher&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;screwdriver&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/screwdriver-starhead-star-torx-33634&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schraubenzieher&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -12994,15 +13111,15 @@
       </c>
       <c r="B132" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;schraubenzieher&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schwert&lt;/resname&gt;</v>
       </c>
       <c r="C132" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schraubenzieher&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;screwdriver&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwert&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sword&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D132" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/screwdriver-starhead-star-torx-33634&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schraubenzieher&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwert-mittelalter-waffe-metall-308836/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwert&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E132" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13014,10 +13131,10 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;schraubenzieher&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schraubenzieher&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;screwdriver&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/screwdriver-starhead-star-torx-33634&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schraubenzieher&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schwert&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwert&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sword&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwert-mittelalter-waffe-metall-308836/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwert&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -13027,15 +13144,15 @@
       </c>
       <c r="B133" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;schwert&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schwimmer&lt;/resname&gt;</v>
       </c>
       <c r="C133" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwert&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sword&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwimmer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;swimmer&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D133" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwert-mittelalter-waffe-metall-308836/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwert&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwimmer-piktogramm-sport-wasser-305260/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwimmer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E133" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13047,10 +13164,10 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;schwert&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwert&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sword&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwert-mittelalter-waffe-metall-308836/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwert&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schwimmer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwimmer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;swimmer&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwimmer-piktogramm-sport-wasser-305260/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwimmer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -13060,15 +13177,15 @@
       </c>
       <c r="B134" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;schwimmer&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;seifen&lt;/resname&gt;</v>
       </c>
       <c r="C134" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwimmer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;swimmer&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Seife&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soap&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D134" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwimmer-piktogramm-sport-wasser-305260/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwimmer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;lukas_reinhardt &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/103663.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Export&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E134" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13080,10 +13197,10 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;schwimmer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwimmer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;swimmer&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwimmer-piktogramm-sport-wasser-305260/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwimmer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;seifen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Seife&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soap&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lukas_reinhardt &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/103663.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Export&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -13093,15 +13210,15 @@
       </c>
       <c r="B135" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;seifen&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;signal&lt;/resname&gt;</v>
       </c>
       <c r="C135" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Seife&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soap&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Signal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;signal&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D135" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;lukas_reinhardt &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/103663.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Export&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wlan-signal-schwarz-wireless-303722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;signal&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E135" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13113,10 +13230,10 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;seifen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Seife&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soap&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lukas_reinhardt &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/103663.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Export&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;signal&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Signal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;signal&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wlan-signal-schwarz-wireless-303722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;signal&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -13126,15 +13243,15 @@
       </c>
       <c r="B136" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;signal&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;skull&lt;/resname&gt;</v>
       </c>
       <c r="C136" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Signal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;signal&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Totenkopf&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;skull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D136" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wlan-signal-schwarz-wireless-303722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;signal&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/totenkopf-sch%C3%A4del-gekreuzten-knochen-30325/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;skull&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E136" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13146,10 +13263,10 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;signal&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Signal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;signal&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wlan-signal-schwarz-wireless-303722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;signal&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;skull&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Totenkopf&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;skull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/totenkopf-sch%C3%A4del-gekreuzten-knochen-30325/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;skull&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -13159,15 +13276,15 @@
       </c>
       <c r="B137" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;skull&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;sonne&lt;/resname&gt;</v>
       </c>
       <c r="C137" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Totenkopf&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;skull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonne&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sun&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D137" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/totenkopf-sch%C3%A4del-gekreuzten-knochen-30325/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;skull&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sonne-gelb-spirale-sommer-design-303773/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonne&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E137" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13179,7 +13296,7 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;skull&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Totenkopf&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;skull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/totenkopf-sch%C3%A4del-gekreuzten-knochen-30325/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;skull&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;sonne&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonne&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sun&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sonne-gelb-spirale-sommer-design-303773/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonne&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K137" s="3" t="s">
         <v>410</v>
@@ -13192,15 +13309,15 @@
       </c>
       <c r="B138" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;sonne&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;sonnenuntergang&lt;/resname&gt;</v>
       </c>
       <c r="C138" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonne&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sun&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnenuntergang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sunset&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D138" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sonne-gelb-spirale-sommer-design-303773/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonne&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;JanneG&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gl%C3%BChend-gegenlicht-vogel-m%C3%B6we-253676/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonnenuntergang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E138" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13212,10 +13329,10 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;sonne&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonne&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sun&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sonne-gelb-spirale-sommer-design-303773/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonne&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;sonnenuntergang&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnenuntergang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sunset&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;JanneG&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gl%C3%BChend-gegenlicht-vogel-m%C3%B6we-253676/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonnenuntergang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -13225,15 +13342,15 @@
       </c>
       <c r="B139" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;sonnenuntergang&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;spiegelei&lt;/resname&gt;</v>
       </c>
       <c r="C139" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnenuntergang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sunset&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spiegelei&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;friedegg&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D139" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;JanneG&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gl%C3%BChend-gegenlicht-vogel-m%C3%B6we-253676/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonnenuntergang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ei-sonnenseite-bis-gebraten-576086/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spiegelei&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E139" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13245,10 +13362,10 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;sonnenuntergang&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnenuntergang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sunset&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;JanneG&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gl%C3%BChend-gegenlicht-vogel-m%C3%B6we-253676/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonnenuntergang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;spiegelei&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spiegelei&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;friedegg&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ei-sonnenseite-bis-gebraten-576086/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spiegelei&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -13258,15 +13375,15 @@
       </c>
       <c r="B140" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;spiegelei&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;spirale&lt;/resname&gt;</v>
       </c>
       <c r="C140" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spiegelei&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;friedegg&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spirale&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;spiral&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D140" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ei-sonnenseite-bis-gebraten-576086/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spiegelei&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/spirale-design-muster-wirbel-24981/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spirale&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E140" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13278,10 +13395,10 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;spiegelei&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spiegelei&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;friedegg&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ei-sonnenseite-bis-gebraten-576086/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spiegelei&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;spirale&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spirale&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;spiral&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/spirale-design-muster-wirbel-24981/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spirale&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -13291,15 +13408,15 @@
       </c>
       <c r="B141" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;spirale&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;stadt&lt;/resname&gt;</v>
       </c>
       <c r="C141" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spirale&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;spiral&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stadt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;city&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D141" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/spirale-design-muster-wirbel-24981/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spirale&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/san-francisco-geb%C3%A4ude-t%C3%BCrme-690243/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stadt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E141" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13311,10 +13428,10 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;spirale&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spirale&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;spiral&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/spirale-design-muster-wirbel-24981/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spirale&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;stadt&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stadt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;city&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/san-francisco-geb%C3%A4ude-t%C3%BCrme-690243/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stadt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -13324,15 +13441,15 @@
       </c>
       <c r="B142" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;stadt&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;stern&lt;/resname&gt;</v>
       </c>
       <c r="C142" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stadt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;city&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stern&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;star&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D142" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/san-francisco-geb%C3%A4ude-t%C3%BCrme-690243/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stadt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stern-favorit-orange-gliederung-304120/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stern&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E142" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13344,10 +13461,10 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;stadt&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stadt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;city&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/san-francisco-geb%C3%A4ude-t%C3%BCrme-690243/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stadt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;stern&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stern&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;star&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stern-favorit-orange-gliederung-304120/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stern&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -13357,15 +13474,15 @@
       </c>
       <c r="B143" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;stern&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;stier&lt;/resname&gt;</v>
       </c>
       <c r="C143" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stern&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;star&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D143" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stern-favorit-orange-gliederung-304120/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stern&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stier-buffalo-tier-s%C3%A4ugetier-155411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E143" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13377,10 +13494,10 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;stern&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stern&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;star&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stern-favorit-orange-gliederung-304120/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stern&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;stier&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stier-buffalo-tier-s%C3%A4ugetier-155411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -13390,15 +13507,15 @@
       </c>
       <c r="B144" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;stier&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;struktur&lt;/resname&gt;</v>
       </c>
       <c r="C144" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Struktur&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;structure&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D144" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stier-buffalo-tier-s%C3%A4ugetier-155411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/struktur-herbst-weinlaub-698163/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;struktur&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E144" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13410,10 +13527,10 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;stier&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stier-buffalo-tier-s%C3%A4ugetier-155411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;struktur&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Struktur&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;structure&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/struktur-herbst-weinlaub-698163/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;struktur&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -13423,15 +13540,15 @@
       </c>
       <c r="B145" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;struktur&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;symbol&lt;/resname&gt;</v>
       </c>
       <c r="C145" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Struktur&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;structure&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Email&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;email&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D145" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/struktur-herbst-weinlaub-698163/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;struktur&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/symbol-bei-computer-icon-design-684962/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;symbol&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E145" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13443,10 +13560,10 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;struktur&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Struktur&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;structure&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/struktur-herbst-weinlaub-698163/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;struktur&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;symbol&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Email&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;email&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/symbol-bei-computer-icon-design-684962/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;symbol&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -13456,15 +13573,15 @@
       </c>
       <c r="B146" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;symbol&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;tanzpaar&lt;/resname&gt;</v>
       </c>
       <c r="C146" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Email&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;email&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Paar&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;couple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D146" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/symbol-bei-computer-icon-design-684962/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;symbol&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mann-frau-hand-h%C3%A4lt-m%C3%A4nnlich-312413/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tanzpaar&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E146" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13476,10 +13593,10 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;symbol&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Email&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;email&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/symbol-bei-computer-icon-design-684962/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;symbol&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;tanzpaar&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Paar&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;couple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mann-frau-hand-h%C3%A4lt-m%C3%A4nnlich-312413/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tanzpaar&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -13489,15 +13606,15 @@
       </c>
       <c r="B147" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;tanzpaar&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;teddybear&lt;/resname&gt;</v>
       </c>
       <c r="C147" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Paar&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;couple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Teddybär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;teddy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D147" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mann-frau-hand-h%C3%A4lt-m%C3%A4nnlich-312413/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tanzpaar&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/teddyb%C3%A4r-b%C3%A4r-pl%C3%BCsch-gef%C3%BCllt-anial-303837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;teddybear&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E147" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13509,10 +13626,10 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;tanzpaar&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Paar&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;couple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mann-frau-hand-h%C3%A4lt-m%C3%A4nnlich-312413/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tanzpaar&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;teddybear&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Teddybär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;teddy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/teddyb%C3%A4r-b%C3%A4r-pl%C3%BCsch-gef%C3%BCllt-anial-303837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;teddybear&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -13522,19 +13639,19 @@
       </c>
       <c r="B148" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;teddybear&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;telefon&lt;/resname&gt;</v>
       </c>
       <c r="C148" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Teddybär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;teddy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Telefon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;phone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D148" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/teddyb%C3%A4r-b%C3%A4r-pl%C3%BCsch-gef%C3%BCllt-anial-303837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;teddybear&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;traude&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/telefon-handy-telefonieren-558022/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;telefon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E148" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;</v>
       </c>
       <c r="F148" t="str">
         <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
@@ -13542,10 +13659,10 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" ref="G148" si="5">B148&amp;C148&amp;D148&amp;E148&amp;F148</f>
-        <v>&lt;image&gt;&lt;resname&gt;teddybear&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Teddybär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;teddy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/teddyb%C3%A4r-b%C3%A4r-pl%C3%BCsch-gef%C3%BCllt-anial-303837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;teddybear&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;telefon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Telefon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;phone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;traude&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/telefon-handy-telefonieren-558022/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;telefon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -13555,19 +13672,19 @@
       </c>
       <c r="B149" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;telefon&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;theater&lt;/resname&gt;</v>
       </c>
       <c r="C149" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Telefon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;phone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Theater&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;theater&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D149" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;traude&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/telefon-handy-telefonieren-558022/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;telefon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/theater-kom%C3%B6die-trag%C3%B6die-masken-311730/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;theater&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E149" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
       </c>
       <c r="F149" t="str">
         <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
@@ -13575,10 +13692,10 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;telefon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Telefon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;phone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;traude&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/telefon-handy-telefonieren-558022/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;telefon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;theater&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Theater&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;theater&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/theater-kom%C3%B6die-trag%C3%B6die-masken-311730/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;theater&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -13588,15 +13705,15 @@
       </c>
       <c r="B150" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;theater&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;tisch&lt;/resname&gt;</v>
       </c>
       <c r="C150" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Theater&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;theater&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;table&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D150" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/theater-kom%C3%B6die-trag%C3%B6die-masken-311730/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;theater&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E150" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13608,10 +13725,10 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;theater&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Theater&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;theater&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/theater-kom%C3%B6die-trag%C3%B6die-masken-311730/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;theater&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;tisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;table&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -13621,15 +13738,15 @@
       </c>
       <c r="B151" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;tisch&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;tomate&lt;/resname&gt;</v>
       </c>
       <c r="C151" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;table&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tomate&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tomato&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D151" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;naliha&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/33783.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;rote Tomaten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E151" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13641,10 +13758,10 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;tisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;table&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;tomate&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tomate&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tomato&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;naliha&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/33783.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;rote Tomaten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -13654,15 +13771,15 @@
       </c>
       <c r="B152" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;tomate&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;trophaee&lt;/resname&gt;</v>
       </c>
       <c r="C152" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tomate&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tomato&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pokal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;trophy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D152" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;naliha&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/33783.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;rote Tomaten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;hrohmann&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vase-standvase-blau-wappen-700862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;trophaee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E152" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13674,10 +13791,10 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;tomate&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tomate&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tomato&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;naliha&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/33783.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;rote Tomaten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;trophaee&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pokal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;trophy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hrohmann&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vase-standvase-blau-wappen-700862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;trophaee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -13687,15 +13804,15 @@
       </c>
       <c r="B153" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;trophaee&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;twitter&lt;/resname&gt;</v>
       </c>
       <c r="C153" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pokal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;trophy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Twitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;twitter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D153" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;hrohmann&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vase-standvase-blau-wappen-700862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;trophaee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/twitter-tweet-twitter-vogel-312464/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;twitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E153" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13707,10 +13824,10 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;trophaee&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pokal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;trophy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hrohmann&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vase-standvase-blau-wappen-700862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;trophaee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;twitter&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Twitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;twitter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/twitter-tweet-twitter-vogel-312464/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;twitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -13720,15 +13837,15 @@
       </c>
       <c r="B154" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;twitter&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;uhr&lt;/resname&gt;</v>
       </c>
       <c r="C154" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Twitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;twitter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Uhr&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;clock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D154" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/twitter-tweet-twitter-vogel-312464/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;twitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;KTEditor&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/uhr-zeit-stunden-559963/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;uhr&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E154" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13740,10 +13857,10 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;twitter&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Twitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;twitter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/twitter-tweet-twitter-vogel-312464/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;twitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;uhr&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Uhr&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;clock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;KTEditor&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/uhr-zeit-stunden-559963/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;uhr&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -13753,15 +13870,15 @@
       </c>
       <c r="B155" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;uhr&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;vulkan&lt;/resname&gt;</v>
       </c>
       <c r="C155" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Uhr&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;clock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Vulkan&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;volcano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D155" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;KTEditor&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/uhr-zeit-stunden-559963/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;uhr&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkan-eruption-ausbruch-lava-berg-310172/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vulkan&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E155" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13773,10 +13890,10 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;uhr&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Uhr&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;clock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;KTEditor&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/uhr-zeit-stunden-559963/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;uhr&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;vulkan&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Vulkan&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;volcano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkan-eruption-ausbruch-lava-berg-310172/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vulkan&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -13786,15 +13903,15 @@
       </c>
       <c r="B156" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;vulkan&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;vulkan2&lt;/resname&gt;</v>
       </c>
       <c r="C156" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Vulkan&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;volcano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Eruption&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eruption&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D156" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkan-eruption-ausbruch-lava-berg-310172/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vulkan&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkanausbruch-eruption-vulkan-67668/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vulkan2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E156" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13806,10 +13923,10 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;vulkan&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Vulkan&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;volcano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkan-eruption-ausbruch-lava-berg-310172/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vulkan&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;vulkan2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Eruption&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eruption&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkanausbruch-eruption-vulkan-67668/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vulkan2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -13819,15 +13936,15 @@
       </c>
       <c r="B157" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;vulkan2&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;waage&lt;/resname&gt;</v>
       </c>
       <c r="C157" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Eruption&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eruption&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waage&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scales&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D157" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkanausbruch-eruption-vulkan-67668/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vulkan2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/waage-gleichgewicht-gewicht-311504/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waage&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E157" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13839,10 +13956,10 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;vulkan2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Eruption&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eruption&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkanausbruch-eruption-vulkan-67668/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vulkan2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;waage&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waage&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scales&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/waage-gleichgewicht-gewicht-311504/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waage&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -13852,15 +13969,15 @@
       </c>
       <c r="B158" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;waage&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wabe1&lt;/resname&gt;</v>
       </c>
       <c r="C158" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waage&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scales&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;comb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D158" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/waage-gleichgewicht-gewicht-311504/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waage&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sechskant-muster-biene-bienenkorb-37436/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E158" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13872,10 +13989,10 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;waage&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waage&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scales&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/waage-gleichgewicht-gewicht-311504/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waage&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wabe1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;comb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sechskant-muster-biene-bienenkorb-37436/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -13885,7 +14002,7 @@
       </c>
       <c r="B159" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wabe1&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wabe2&lt;/resname&gt;</v>
       </c>
       <c r="C159" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
@@ -13893,7 +14010,7 @@
       </c>
       <c r="D159" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sechskant-muster-biene-bienenkorb-37436/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wabe-gelb-design-zelle-sechskant-312095/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe2&lt;/title&gt;&lt;extras&gt;g added top right&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E159" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13905,10 +14022,10 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;wabe1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;comb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sechskant-muster-biene-bienenkorb-37436/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wabe2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;comb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wabe-gelb-design-zelle-sechskant-312095/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe2&lt;/title&gt;&lt;extras&gt;g added top right&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -13918,15 +14035,15 @@
       </c>
       <c r="B160" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wabe2&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;waffen&lt;/resname&gt;</v>
       </c>
       <c r="C160" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;comb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waffen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;weapons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D160" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wabe-gelb-design-zelle-sechskant-312095/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe2&lt;/title&gt;&lt;extras&gt;g added top right&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwerter-dolche-%C3%BCberschritten-312440/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waffen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E160" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13938,10 +14055,10 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;wabe2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;comb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wabe-gelb-design-zelle-sechskant-312095/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe2&lt;/title&gt;&lt;extras&gt;g added top right&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;waffen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waffen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;weapons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwerter-dolche-%C3%BCberschritten-312440/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waffen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -13951,15 +14068,15 @@
       </c>
       <c r="B161" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;waffen&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;warnung&lt;/resname&gt;</v>
       </c>
       <c r="C161" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waffen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;weapons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Warnung&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;warning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D161" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwerter-dolche-%C3%BCberschritten-312440/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waffen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/warnung-anmelden-rot-dreieck-303898/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;warnung&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E161" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -13971,10 +14088,10 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;waffen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waffen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;weapons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwerter-dolche-%C3%BCberschritten-312440/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waffen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;warnung&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Warnung&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;warning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/warnung-anmelden-rot-dreieck-303898/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;warnung&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -13984,15 +14101,15 @@
       </c>
       <c r="B162" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;warnung&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wassertropfen&lt;/resname&gt;</v>
       </c>
       <c r="C162" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Warnung&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;warning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wassertropfen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;waterdrop&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D162" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/warnung-anmelden-rot-dreieck-303898/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;warnung&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;roegger&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wassertropfen-spritzen-wasser-545377/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wassertropfen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E162" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14004,10 +14121,10 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;warnung&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Warnung&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;warning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/warnung-anmelden-rot-dreieck-303898/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;warnung&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wassertropfen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wassertropfen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;waterdrop&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;roegger&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wassertropfen-spritzen-wasser-545377/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wassertropfen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -14017,15 +14134,15 @@
       </c>
       <c r="B163" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wassertropfen&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wolke&lt;/resname&gt;</v>
       </c>
       <c r="C163" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wassertropfen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;waterdrop&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wolke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cloud&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D163" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;roegger&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wassertropfen-spritzen-wasser-545377/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wassertropfen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;hongmyeon&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-wolke-sonnenschein-sommer-383823/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wolke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E163" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14037,10 +14154,10 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;wassertropfen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wassertropfen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;waterdrop&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;roegger&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wassertropfen-spritzen-wasser-545377/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wassertropfen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wolke&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wolke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cloud&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hongmyeon&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-wolke-sonnenschein-sommer-383823/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wolke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -14050,15 +14167,15 @@
       </c>
       <c r="B164" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wolke&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wuerfel&lt;/resname&gt;</v>
       </c>
       <c r="C164" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wolke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cloud&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cube&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D164" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;hongmyeon&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-wolke-sonnenschein-sommer-383823/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wolke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;wilhei&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E164" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14070,10 +14187,10 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;wolke&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wolke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cloud&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hongmyeon&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-wolke-sonnenschein-sommer-383823/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wolke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wuerfel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cube&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;wilhei&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -14083,15 +14200,15 @@
       </c>
       <c r="B165" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wuerfel&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wuerfel2&lt;/resname&gt;</v>
       </c>
       <c r="C165" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cube&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dice&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D165" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;wilhei&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-f%C3%BCnf-gl%C3%BCcksspiel-gl%C3%BCck-312622/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E165" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14103,10 +14220,10 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;wuerfel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cube&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;wilhei&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wuerfel2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dice&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-f%C3%BCnf-gl%C3%BCcksspiel-gl%C3%BCck-312622/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -14116,15 +14233,15 @@
       </c>
       <c r="B166" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wuerfel2&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wueste&lt;/resname&gt;</v>
       </c>
       <c r="C166" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dice&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wüste&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;desert&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D166" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-f%C3%BCnf-gl%C3%BCcksspiel-gl%C3%BCck-312622/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gobi-w%C3%BCste-hei%C3%9F-sandd%C3%BCne-mongolei-692640/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wueste&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E166" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14136,10 +14253,10 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;wuerfel2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dice&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-f%C3%BCnf-gl%C3%BCcksspiel-gl%C3%BCck-312622/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wueste&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wüste&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;desert&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gobi-w%C3%BCste-hei%C3%9F-sandd%C3%BCne-mongolei-692640/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wueste&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -14149,15 +14266,15 @@
       </c>
       <c r="B167" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wueste&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wurm&lt;/resname&gt;</v>
       </c>
       <c r="C167" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wüste&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;desert&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wurm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;worm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D167" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gobi-w%C3%BCste-hei%C3%9F-sandd%C3%BCne-mongolei-692640/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wueste&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/worm-cartoon-character-cute-funny-309559/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wurm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E167" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14169,10 +14286,10 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;wueste&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wüste&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;desert&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gobi-w%C3%BCste-hei%C3%9F-sandd%C3%BCne-mongolei-692640/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wueste&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wurm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wurm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;worm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/worm-cartoon-character-cute-funny-309559/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wurm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -14182,15 +14299,15 @@
       </c>
       <c r="B168" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wurm&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;yak&lt;/resname&gt;</v>
       </c>
       <c r="C168" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wurm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;worm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yak&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D168" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/worm-cartoon-character-cute-funny-309559/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wurm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yak-tier-tibet-grunzochse-642700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yak&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E168" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14202,10 +14319,10 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;wurm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wurm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;worm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/worm-cartoon-character-cute-funny-309559/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wurm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;yak&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yak&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yak-tier-tibet-grunzochse-642700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yak&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -14215,15 +14332,15 @@
       </c>
       <c r="B169" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;yak&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;yinyang&lt;/resname&gt;</v>
       </c>
       <c r="C169" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yak&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yinyang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yinyang&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D169" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yak-tier-tibet-grunzochse-642700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yak&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yinyang-yin-und-yang-yang-yin-156414/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yinyang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E169" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14235,10 +14352,10 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" ref="G169:G177" si="6">B169&amp;C169&amp;D169&amp;E169&amp;F169</f>
-        <v>&lt;image&gt;&lt;resname&gt;yak&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yak&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yak-tier-tibet-grunzochse-642700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yak&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;yinyang&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yinyang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yinyang&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yinyang-yin-und-yang-yang-yin-156414/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yinyang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -14248,15 +14365,15 @@
       </c>
       <c r="B170" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;yinyang&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zahl&lt;/resname&gt;</v>
       </c>
       <c r="C170" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yinyang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yinyang&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;number&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D170" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yinyang-yin-und-yang-yang-yin-156414/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yinyang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/eine-1-zahl-design-sammlung-706897/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E170" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14268,10 +14385,10 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;image&gt;&lt;resname&gt;yinyang&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yinyang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yinyang&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yinyang-yin-und-yang-yang-yin-156414/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yinyang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zahl&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;number&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/eine-1-zahl-design-sammlung-706897/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -14281,15 +14398,15 @@
       </c>
       <c r="B171" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;zahl&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zahn&lt;/resname&gt;</v>
       </c>
       <c r="C171" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;number&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tooth&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D171" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/eine-1-zahl-design-sammlung-706897/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/z%C3%A4hne-molaren-zahnmedizin-zahnarzt-310332/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E171" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14301,10 +14418,10 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;image&gt;&lt;resname&gt;zahl&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;number&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/eine-1-zahl-design-sammlung-706897/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zahn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tooth&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/z%C3%A4hne-molaren-zahnmedizin-zahnarzt-310332/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -14314,15 +14431,15 @@
       </c>
       <c r="B172" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;zahn&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zaun&lt;/resname&gt;</v>
       </c>
       <c r="C172" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tooth&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zaun&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fence&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D172" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/z%C3%A4hne-molaren-zahnmedizin-zahnarzt-310332/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zaun-gartenzaun-geschlossen-156818/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zaun&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E172" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14334,10 +14451,10 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;image&gt;&lt;resname&gt;zahn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tooth&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/z%C3%A4hne-molaren-zahnmedizin-zahnarzt-310332/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zaun&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zaun&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fence&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zaun-gartenzaun-geschlossen-156818/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zaun&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -14347,15 +14464,15 @@
       </c>
       <c r="B173" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;zaun&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zelt&lt;/resname&gt;</v>
       </c>
       <c r="C173" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zaun&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fence&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zelt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tent&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D173" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zaun-gartenzaun-geschlossen-156818/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zaun&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zelt-aufgeschlagen-natur-freizeit-312554/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zelt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E173" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14367,10 +14484,10 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;image&gt;&lt;resname&gt;zaun&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zaun&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fence&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zaun-gartenzaun-geschlossen-156818/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zaun&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zelt&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zelt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tent&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zelt-aufgeschlagen-natur-freizeit-312554/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zelt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -14380,15 +14497,15 @@
       </c>
       <c r="B174" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;zelt&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zeppelin&lt;/resname&gt;</v>
       </c>
       <c r="C174" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zelt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tent&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D174" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zelt-aufgeschlagen-natur-freizeit-312554/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zelt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zeppelin-hei%C3%9Fluftballon-luftschiff-311328/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zeppelin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E174" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14400,10 +14517,10 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;image&gt;&lt;resname&gt;zelt&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zelt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tent&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zelt-aufgeschlagen-natur-freizeit-312554/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zelt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zeppelin&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zeppelin-hei%C3%9Fluftballon-luftschiff-311328/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zeppelin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -14413,15 +14530,15 @@
       </c>
       <c r="B175" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;zeppelin&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zielscheibe&lt;/resname&gt;</v>
       </c>
       <c r="C175" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zielscheibe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;target&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D175" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zeppelin-hei%C3%9Fluftballon-luftschiff-311328/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zeppelin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bull-s-eye-ziel-pfeil-treffen-dart-297805/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zielscheibe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E175" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14433,43 +14550,43 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;image&gt;&lt;resname&gt;zeppelin&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zeppelin-hei%C3%9Fluftballon-luftschiff-311328/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zeppelin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zielscheibe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zielscheibe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;target&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bull-s-eye-ziel-pfeil-treffen-dart-297805/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zielscheibe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>176</v>
-      </c>
-      <c r="B176" t="str">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;zielscheibe&lt;/resname&gt;</v>
-      </c>
-      <c r="C176" t="str">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zielscheibe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;target&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
-      </c>
-      <c r="D176" t="str">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bull-s-eye-ziel-pfeil-treffen-dart-297805/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zielscheibe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
-      </c>
-      <c r="E176" t="str">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
-      </c>
-      <c r="F176" t="str">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
-      </c>
-      <c r="G176" t="str">
+      <c r="A176" t="e">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B176" t="e">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C176" t="e">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D176" t="e">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E176" t="e">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F176" t="e">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G176" t="e">
         <f t="shared" si="6"/>
-        <v>&lt;image&gt;&lt;resname&gt;zielscheibe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zielscheibe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;target&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bull-s-eye-ziel-pfeil-treffen-dart-297805/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zielscheibe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -17408,26 +17525,26 @@
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/app/App-Bilder.xlsx
+++ b/app/App-Bilder.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="810"/>
   </bookViews>
   <sheets>
     <sheet name="Bildersammlung" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I169" authorId="0" shapeId="0">
+    <comment ref="I168" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="1074">
   <si>
     <t>Autor/Psyeudonym</t>
   </si>
@@ -2484,9 +2484,6 @@
     <t>&lt;image&gt;&lt;resname&gt;satellit&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Satellit&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;satellite&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sender-gericht-sendung-%C3%BCbertragen-312354/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;satellit&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;schaufel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schaufel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shovel&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schaufel-werkzeug-graben-sch%C3%B6pfen-312360/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schaufel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;schwert&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwert&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sword&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwert-mittelalter-waffe-metall-308836/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwert&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
@@ -2592,9 +2589,6 @@
     <t>http://pixabay.com/de/blume-kontur-gelb-umrisse-668854/</t>
   </si>
   <si>
-    <t>Kommentar2</t>
-  </si>
-  <si>
     <t>Wort vorhanden</t>
   </si>
   <si>
@@ -2634,9 +2628,6 @@
     <t>pfeile</t>
   </si>
   <si>
-    <t>http://pixabay.com/de/abc-alphabet-t-schreiben-schriften-725081/</t>
-  </si>
-  <si>
     <t>Buchstabe</t>
   </si>
   <si>
@@ -2673,9 +2664,6 @@
     <t>tisch</t>
   </si>
   <si>
-    <t>Schatten! Testen!</t>
-  </si>
-  <si>
     <t>http://pixabay.com/de/ei-sonnenseite-bis-gebraten-576086/</t>
   </si>
   <si>
@@ -2808,15 +2796,9 @@
     <t>&lt;image&gt;&lt;resname&gt;pfeile&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pfeile&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;arrows&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pfeile-farbverlauf-design-symbol-539917/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pfeile&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;buchstabe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Buchstabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;letter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/abc-alphabet-t-schreiben-schriften-725081/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;buchstabe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;schluessel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schlüssel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;key&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schl%C3%BCssel-sperre-gesperrt-575680/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schluessel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;tisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;table&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;spiegelei&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spiegelei&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;friedegg&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ei-sonnenseite-bis-gebraten-576086/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spiegelei&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
@@ -2916,9 +2898,6 @@
     <t>vulkan2</t>
   </si>
   <si>
-    <t>http://pixabay.com/de/sechskant-muster-biene-bienenkorb-37436/</t>
-  </si>
-  <si>
     <t>Wabe</t>
   </si>
   <si>
@@ -2928,12 +2907,6 @@
     <t>http://pixabay.com/de/wabe-gelb-design-zelle-sechskant-312095/</t>
   </si>
   <si>
-    <t>bunt</t>
-  </si>
-  <si>
-    <t>weiß</t>
-  </si>
-  <si>
     <t>http://pixabay.com/de/zeppelin-hei%C3%9Fluftballon-luftschiff-311328/</t>
   </si>
   <si>
@@ -2997,15 +2970,6 @@
     <t>Dna</t>
   </si>
   <si>
-    <t>wabe1</t>
-  </si>
-  <si>
-    <t>wabe2</t>
-  </si>
-  <si>
-    <t>g added top right</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;balance&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Balance&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;balance&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stein-balance-gleichgewicht-698354/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;balance&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
@@ -3087,12 +3051,6 @@
     <t>&lt;image&gt;&lt;resname&gt;vulkan2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Eruption&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eruption&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkanausbruch-eruption-vulkan-67668/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vulkan2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
-    <t>&lt;image&gt;&lt;resname&gt;wabe1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;comb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sechskant-muster-biene-bienenkorb-37436/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
-    <t>&lt;image&gt;&lt;resname&gt;wabe2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;comb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wabe-gelb-design-zelle-sechskant-312095/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe2&lt;/title&gt;&lt;extras&gt;g added top right&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
-  </si>
-  <si>
     <t>&lt;image&gt;&lt;resname&gt;wolke&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wolke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cloud&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hongmyeon&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-wolke-sonnenschein-sommer-383823/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wolke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
   <si>
@@ -3156,9 +3114,6 @@
     <t>lorbeeren</t>
   </si>
   <si>
-    <t>Alternativ http://pixabay.com/de/lorbeerkranz-lorbeeren-bl%C3%A4tter-297675/ oder http://pixabay.com/de/kranz-gewinner-auszeichnung-306711/</t>
-  </si>
-  <si>
     <t>http://pixabay.com/de/lebensretter-lebensring-24968/</t>
   </si>
   <si>
@@ -3217,6 +3172,321 @@
   </si>
   <si>
     <t>&lt;image&gt;&lt;resname&gt;schild&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schild&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shield&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schild-blau-sicherheit-schutz-303392/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schild&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/abc-alphabet-m-stoff-streifen-732849/</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/st%C3%BChle-holz-m%C3%B6bel-brown-gelb-575873/</t>
+  </si>
+  <si>
+    <t>Stuhl</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>stuhl</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/kirschen-lebensmittel-produkte-di%C3%A4t-36904/</t>
+  </si>
+  <si>
+    <t>Kirsche</t>
+  </si>
+  <si>
+    <t>cherry</t>
+  </si>
+  <si>
+    <t>kirsche</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/dreieck-verkehr-flughafen-kontrolle-38204/</t>
+  </si>
+  <si>
+    <t>Dreieck</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>dreieck</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/elektrische-steckdose-macht-elektro-29589/</t>
+  </si>
+  <si>
+    <t>Steckdose</t>
+  </si>
+  <si>
+    <t>steckdose</t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t>Englisches Wort</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/algebra-mathematik-schule-bildung-39822/</t>
+  </si>
+  <si>
+    <t>Mathematik</t>
+  </si>
+  <si>
+    <t>maths</t>
+  </si>
+  <si>
+    <t>maths=BE, math=AE</t>
+  </si>
+  <si>
+    <t>mathe</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/auge-schwarz-sch%C3%BCler-skizze-39618/</t>
+  </si>
+  <si>
+    <t>Auge</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>auge</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/pille-medizin-kapsel-rot-311365/</t>
+  </si>
+  <si>
+    <t>tablette3</t>
+  </si>
+  <si>
+    <t>oder: Medizin</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/compass-rose-s%C3%BCden-norden-osten-297758/</t>
+  </si>
+  <si>
+    <t>Kompass</t>
+  </si>
+  <si>
+    <t>compass</t>
+  </si>
+  <si>
+    <t>kompass</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/sonnenblume-sommer-natur-gelb-310638/</t>
+  </si>
+  <si>
+    <t>Sonnenblume</t>
+  </si>
+  <si>
+    <t>sunflower</t>
+  </si>
+  <si>
+    <t>sonnenblume</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/tornado-grau-zyklon-twister-gefahr-311711/</t>
+  </si>
+  <si>
+    <t>Tornado</t>
+  </si>
+  <si>
+    <t>tornado</t>
+  </si>
+  <si>
+    <t>Alternativ: http://pixabay.com/de/tornado-schwarz-sturm-trichter-304745/</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/skyline-stadt-blau-silhouette-296469/</t>
+  </si>
+  <si>
+    <t>stadt2</t>
+  </si>
+  <si>
+    <t>Alternativ: http://pixabay.com/de/skyline-stadt-silhouette-pittsburgh-304802/</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/lipgloss-lippen-kuss-romantik-303125/</t>
+  </si>
+  <si>
+    <t>Lippen</t>
+  </si>
+  <si>
+    <t>lippen</t>
+  </si>
+  <si>
+    <t>lip</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/fu%C3%9Fg%C3%A4nger-cross-walk-stra%C3%9Fe-310304/</t>
+  </si>
+  <si>
+    <t>Fussgänger</t>
+  </si>
+  <si>
+    <t>pedestrian</t>
+  </si>
+  <si>
+    <t>fussgaenger</t>
+  </si>
+  <si>
+    <t>Alternativ http://pixabay.com/de/lorbeerkranz-lorbeeren-bl%C3%A4tter-297675/ oder http://pixabay.com/de/kranz-gewinner-auszeichnung-306711/ oder http://pixabay.com/de/kranz-gold-laurel-auszeichnung-305501/</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/tennisball-kugel-tennis-sport-310082/</t>
+  </si>
+  <si>
+    <t>Tennisball</t>
+  </si>
+  <si>
+    <t>tennisball</t>
+  </si>
+  <si>
+    <t>NEU</t>
+  </si>
+  <si>
+    <t>Bonnybbx</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/ph%C3%B6nix-vogel-feuer-sonne-feuerrot-500469/</t>
+  </si>
+  <si>
+    <t>Phönix</t>
+  </si>
+  <si>
+    <t>phoenix</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/einhorn-horn-pferd-fantasie-313411/</t>
+  </si>
+  <si>
+    <t>Einhorn</t>
+  </si>
+  <si>
+    <t>unicorn</t>
+  </si>
+  <si>
+    <t>einhorn</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/qualle-tentakel-medusa-marinen-154799/</t>
+  </si>
+  <si>
+    <t>Qualle</t>
+  </si>
+  <si>
+    <t>yellifish</t>
+  </si>
+  <si>
+    <t>qualle</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/papageien-v%C3%B6gel-natur-bunte-528392/</t>
+  </si>
+  <si>
+    <t>parrots</t>
+  </si>
+  <si>
+    <t>Papageien</t>
+  </si>
+  <si>
+    <t>papagei</t>
+  </si>
+  <si>
+    <t>http://pixabay.com/de/weihnachten-baum-grafik-symbol-572882/</t>
+  </si>
+  <si>
+    <t>Weihnachtsbaum</t>
+  </si>
+  <si>
+    <t>christmastree</t>
+  </si>
+  <si>
+    <t>weihnachtsbaum</t>
+  </si>
+  <si>
+    <t>shadow darkness reduced</t>
+  </si>
+  <si>
+    <t>Alternativ http://pixabay.com/de/tisch-m%C3%B6bel-oberfl%C3%A4che-holz-brown-576785/</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;stuhl&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stuhl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;chair&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/st%C3%BChle-holz-m%C3%B6bel-brown-gelb-575873/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stuhl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;kirsche&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kirsche&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cherry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kirschen-lebensmittel-produkte-di%C3%A4t-36904/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kirsche&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;dreieck&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Dreieck&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;triangle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/dreieck-verkehr-flughafen-kontrolle-38204/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dreieck&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;steckdose&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Steckdose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;socket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/elektrische-steckdose-macht-elektro-29589/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;steckdose&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;mathe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Mathematik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;maths&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/algebra-mathematik-schule-bildung-39822/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;mathe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;auge&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auge&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eye&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auge-schwarz-sch%C3%BCler-skizze-39618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auge&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;tablette3&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tablette&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pill&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pille-medizin-kapsel-rot-311365/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tablette3&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;kompass&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kompass&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;compass&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/compass-rose-s%C3%BCden-norden-osten-297758/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kompass&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;sonnenblume&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnenblume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sunflower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sonnenblume-sommer-natur-gelb-310638/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonnenblume&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;tornado&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tornado&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tornado&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tornado-grau-zyklon-twister-gefahr-311711/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tornado&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;stadt2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stadt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;city&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/skyline-stadt-blau-silhouette-296469/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stadt2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;lippen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lippen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lip&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lipgloss-lippen-kuss-romantik-303125/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lippen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;fussgaenger&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fussgänger&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pedestrian&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fu%C3%9Fg%C3%A4nger-cross-walk-stra%C3%9Fe-310304/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fussgaenger&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;tennisball&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tennisball&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tennisball&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tennisball-kugel-tennis-sport-310082/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tennisball&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;phoenix&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Phönix&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;phoenix&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Bonnybbx&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ph%C3%B6nix-vogel-feuer-sonne-feuerrot-500469/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;phoenix&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;einhorn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Einhorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;unicorn&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/einhorn-horn-pferd-fantasie-313411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;einhorn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;qualle&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Qualle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yellifish&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/qualle-tentakel-medusa-marinen-154799/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;qualle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;papagei&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Papageien&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;parrots&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/papageien-v%C3%B6gel-natur-bunte-528392/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;papagei&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;weihnachtsbaum&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Weihnachtsbaum&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;christmastree&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/weihnachten-baum-grafik-symbol-572882/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;weihnachtsbaum&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;buchstabe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Buchstabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;letter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/abc-alphabet-m-stoff-streifen-732849/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;buchstabe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;schaufel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schaufel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shovel&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schaufel-werkzeug-graben-sch%C3%B6pfen-312360/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schaufel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;tisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;table&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tisch&lt;/title&gt;&lt;extras&gt;shadow darkness reduced&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>wabe</t>
+  </si>
+  <si>
+    <t>&lt;image&gt;&lt;resname&gt;wabe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;comb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wabe-gelb-design-zelle-sechskant-312095/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</t>
   </si>
 </sst>
 </file>
@@ -3311,7 +3581,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3329,6 +3599,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3344,7 +3620,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3377,24 +3653,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3460,32 +3746,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3617,19 +3887,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:M182" totalsRowShown="0">
-  <autoFilter ref="A1:M182"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:M200" totalsRowShown="0">
+  <autoFilter ref="A1:M200">
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:M182">
     <sortCondition ref="I1:I182"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="2" name="Autor/Psyeudonym" dataDxfId="8"/>
-    <tableColumn id="3" name="ggf. Bildtitel" dataDxfId="7">
+    <tableColumn id="2" name="Autor/Psyeudonym" dataDxfId="7"/>
+    <tableColumn id="3" name="ggf. Bildtitel" dataDxfId="6">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Dateiname]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Lizenzname" dataDxfId="6"/>
-    <tableColumn id="5" name="Quelle" dataDxfId="5" dataCellStyle="Link"/>
-    <tableColumn id="6" name="Modi" dataDxfId="4" dataCellStyle="Link"/>
+    <tableColumn id="4" name="Lizenzname" dataDxfId="5"/>
+    <tableColumn id="5" name="Quelle" dataDxfId="4" dataCellStyle="Link"/>
+    <tableColumn id="6" name="Modi" dataDxfId="3" dataCellStyle="Link"/>
     <tableColumn id="7" name="Auflösung"/>
     <tableColumn id="8" name="Lösung Deutsch"/>
     <tableColumn id="9" name="Englisch"/>
@@ -3637,7 +3911,7 @@
     <tableColumn id="20" name="Schwierigkeit"/>
     <tableColumn id="1" name="Preference"/>
     <tableColumn id="11" name="Dislike"/>
-    <tableColumn id="12" name="Kommentar2"/>
+    <tableColumn id="12" name="Kommentar"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3653,16 +3927,16 @@
     <tableColumn id="2" name="Imagename">
       <calculatedColumnFormula>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Solution" dataDxfId="3">
+    <tableColumn id="3" name="Solution" dataDxfId="11">
       <calculatedColumnFormula>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Author" dataDxfId="2">
+    <tableColumn id="4" name="Author" dataDxfId="10">
       <calculatedColumnFormula>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Preference" dataDxfId="1">
+    <tableColumn id="5" name="Preference" dataDxfId="9">
       <calculatedColumnFormula>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Dislike" dataDxfId="0">
+    <tableColumn id="6" name="Dislike" dataDxfId="8">
       <calculatedColumnFormula>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="Summary">
@@ -3936,11 +4210,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M178" sqref="M178"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3951,7 +4225,7 @@
     <col min="4" max="4" width="87.28515625" customWidth="1"/>
     <col min="5" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.7109375"/>
     <col min="10" max="10" width="10.5703125"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3998,7 +4272,7 @@
         <v>386</v>
       </c>
       <c r="M1" t="s">
-        <v>775</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4040,7 +4314,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G3" t="s">
         <v>101</v>
@@ -4067,20 +4341,20 @@
         <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="E4" s="16"/>
       <c r="G4" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="H4" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="I4" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
       <c r="M4" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -4098,7 +4372,7 @@
         <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G5" t="s">
         <v>98</v>
@@ -4128,7 +4402,7 @@
         <v>350</v>
       </c>
       <c r="F6" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G6" t="s">
         <v>351</v>
@@ -4140,7 +4414,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>243</v>
       </c>
@@ -4182,7 +4456,7 @@
         <v>659</v>
       </c>
       <c r="F8" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G8" t="s">
         <v>247</v>
@@ -4206,11 +4480,11 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G9" t="s">
         <v>330</v>
@@ -4219,7 +4493,7 @@
         <v>331</v>
       </c>
       <c r="I9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>655</v>
@@ -4241,7 +4515,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G10" t="s">
         <v>330</v>
@@ -4256,7 +4530,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -4286,7 +4560,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4355,7 +4629,7 @@
         <v>308</v>
       </c>
       <c r="F14" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G14" t="s">
         <v>309</v>
@@ -4385,7 +4659,7 @@
         <v>317</v>
       </c>
       <c r="F15" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G15" t="s">
         <v>318</v>
@@ -4418,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="J16" t="s">
         <v>177</v>
@@ -4466,7 +4740,7 @@
         <v>128</v>
       </c>
       <c r="F18" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G18" t="s">
         <v>381</v>
@@ -4496,7 +4770,7 @@
         <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G19" t="s">
         <v>77</v>
@@ -4505,7 +4779,7 @@
         <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="J19" t="s">
         <v>178</v>
@@ -4547,16 +4821,19 @@
         <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>892</v>
+        <v>883</v>
+      </c>
+      <c r="F21" t="s">
+        <v>854</v>
       </c>
       <c r="G21" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="H21" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="I21" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -4574,7 +4851,7 @@
         <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G22" t="s">
         <v>112</v>
@@ -4583,7 +4860,7 @@
         <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="J22" t="s">
         <v>180</v>
@@ -4604,7 +4881,7 @@
         <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G23" t="s">
         <v>68</v>
@@ -4631,7 +4908,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G24" t="s">
         <v>68</v>
@@ -4640,10 +4917,10 @@
         <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="M24" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4661,7 +4938,7 @@
         <v>469</v>
       </c>
       <c r="F25" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G25" t="s">
         <v>470</v>
@@ -4688,7 +4965,7 @@
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -4697,7 +4974,7 @@
         <v>30</v>
       </c>
       <c r="I26" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="J26" t="s">
         <v>177</v>
@@ -4718,7 +4995,7 @@
         <v>715</v>
       </c>
       <c r="F27" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G27" t="s">
         <v>718</v>
@@ -4745,7 +5022,7 @@
         <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G28" t="s">
         <v>92</v>
@@ -4762,7 +5039,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B29" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -4772,19 +5049,19 @@
         <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="F29" t="s">
+        <v>854</v>
+      </c>
+      <c r="G29" t="s">
+        <v>787</v>
+      </c>
+      <c r="H29" t="s">
+        <v>788</v>
+      </c>
+      <c r="I29" t="s">
         <v>789</v>
-      </c>
-      <c r="F29" t="s">
-        <v>860</v>
-      </c>
-      <c r="G29" t="s">
-        <v>790</v>
-      </c>
-      <c r="H29" t="s">
-        <v>791</v>
-      </c>
-      <c r="I29" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4799,17 +5076,17 @@
         <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="H30" t="s">
-        <v>970</v>
+        <v>955</v>
       </c>
       <c r="I30" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4827,7 +5104,7 @@
         <v>213</v>
       </c>
       <c r="F31" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G31" t="s">
         <v>214</v>
@@ -4836,7 +5113,7 @@
         <v>215</v>
       </c>
       <c r="I31" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>656</v>
@@ -4857,7 +5134,7 @@
         <v>657</v>
       </c>
       <c r="F32" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G32" t="s">
         <v>214</v>
@@ -4872,7 +5149,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>85</v>
       </c>
@@ -4887,7 +5164,7 @@
         <v>366</v>
       </c>
       <c r="F33" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G33" t="s">
         <v>367</v>
@@ -4899,7 +5176,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>85</v>
       </c>
@@ -4911,22 +5188,22 @@
         <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>907</v>
+        <v>898</v>
+      </c>
+      <c r="F34" t="s">
+        <v>854</v>
       </c>
       <c r="G34" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="H34" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="I34" t="s">
-        <v>908</v>
-      </c>
-      <c r="M34" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>85</v>
       </c>
@@ -4941,7 +5218,7 @@
         <v>361</v>
       </c>
       <c r="F35" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G35" t="s">
         <v>123</v>
@@ -4950,10 +5227,10 @@
         <v>124</v>
       </c>
       <c r="I35" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>85</v>
       </c>
@@ -4968,7 +5245,7 @@
         <v>632</v>
       </c>
       <c r="F36" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G36" t="s">
         <v>633</v>
@@ -4980,7 +5257,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>85</v>
       </c>
@@ -4995,7 +5272,7 @@
         <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G37" t="s">
         <v>89</v>
@@ -5010,7 +5287,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>11</v>
       </c>
@@ -5034,7 +5311,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>79</v>
       </c>
@@ -5049,7 +5326,7 @@
         <v>307</v>
       </c>
       <c r="F39" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G39" t="s">
         <v>415</v>
@@ -5058,10 +5335,10 @@
         <v>416</v>
       </c>
       <c r="I39" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>243</v>
       </c>
@@ -5082,13 +5359,13 @@
         <v>253</v>
       </c>
       <c r="I40" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="L40" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>85</v>
       </c>
@@ -5100,20 +5377,20 @@
         <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="E41" s="16"/>
       <c r="G41" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
       <c r="H41" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="I41" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>85</v>
       </c>
@@ -5128,7 +5405,7 @@
         <v>429</v>
       </c>
       <c r="F42" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G42" t="s">
         <v>430</v>
@@ -5140,7 +5417,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>85</v>
       </c>
@@ -5152,22 +5429,22 @@
         <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F43" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G43" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H43" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I43" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>85</v>
       </c>
@@ -5182,7 +5459,7 @@
         <v>372</v>
       </c>
       <c r="F44" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G44" t="s">
         <v>320</v>
@@ -5194,7 +5471,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>85</v>
       </c>
@@ -5209,7 +5486,7 @@
         <v>364</v>
       </c>
       <c r="F45" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G45" t="s">
         <v>603</v>
@@ -5221,7 +5498,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>187</v>
       </c>
@@ -5248,7 +5525,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>434</v>
       </c>
@@ -5261,7 +5538,7 @@
         <v>433</v>
       </c>
       <c r="F47" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G47" t="s">
         <v>435</v>
@@ -5273,7 +5550,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>85</v>
       </c>
@@ -5288,7 +5565,7 @@
         <v>338</v>
       </c>
       <c r="F48" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G48" t="s">
         <v>339</v>
@@ -5318,7 +5595,7 @@
         <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G49" t="s">
         <v>182</v>
@@ -5333,7 +5610,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>255</v>
       </c>
@@ -5375,7 +5652,7 @@
         <v>613</v>
       </c>
       <c r="F51" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G51" t="s">
         <v>614</v>
@@ -5387,7 +5664,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>233</v>
       </c>
@@ -5429,7 +5706,7 @@
         <v>106</v>
       </c>
       <c r="F53" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G53" t="s">
         <v>107</v>
@@ -5456,19 +5733,19 @@
         <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="F54" t="s">
+        <v>854</v>
+      </c>
+      <c r="G54" t="s">
+        <v>853</v>
+      </c>
+      <c r="H54" t="s">
         <v>763</v>
       </c>
-      <c r="F54" t="s">
-        <v>860</v>
-      </c>
-      <c r="G54" t="s">
-        <v>859</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>764</v>
-      </c>
-      <c r="I54" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -5486,7 +5763,7 @@
         <v>448</v>
       </c>
       <c r="F55" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G55" t="s">
         <v>604</v>
@@ -5510,19 +5787,19 @@
         <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F56" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G56" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="H56" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="I56" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -5540,7 +5817,7 @@
         <v>696</v>
       </c>
       <c r="F57" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G57" t="s">
         <v>697</v>
@@ -5564,16 +5841,16 @@
         <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="G58" t="s">
         <v>759</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>760</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>761</v>
-      </c>
-      <c r="I58" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -5591,7 +5868,7 @@
         <v>689</v>
       </c>
       <c r="F59" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G59" t="s">
         <v>690</v>
@@ -5603,7 +5880,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>187</v>
       </c>
@@ -5642,20 +5919,20 @@
         <v>6</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>972</v>
+        <v>957</v>
       </c>
       <c r="E61" s="16"/>
       <c r="G61" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="H61" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
       <c r="I61" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>311</v>
       </c>
@@ -5703,10 +5980,10 @@
         <v>245</v>
       </c>
       <c r="I63" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>85</v>
       </c>
@@ -5748,19 +6025,19 @@
         <v>6</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F65" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G65" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="H65" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="I65" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -5778,7 +6055,7 @@
         <v>442</v>
       </c>
       <c r="F66" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G66" t="s">
         <v>362</v>
@@ -5843,29 +6120,29 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="B69" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>herzen</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="B69" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>herzen</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>758</v>
-      </c>
       <c r="F69" t="s">
+        <v>854</v>
+      </c>
+      <c r="G69" t="s">
+        <v>859</v>
+      </c>
+      <c r="H69" t="s">
         <v>860</v>
       </c>
-      <c r="G69" t="s">
-        <v>865</v>
-      </c>
-      <c r="H69" t="s">
-        <v>866</v>
-      </c>
       <c r="I69" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -5912,7 +6189,7 @@
         <v>22</v>
       </c>
       <c r="I71" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="J71" t="s">
         <v>177</v>
@@ -5939,10 +6216,10 @@
         <v>358</v>
       </c>
       <c r="I72" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>183</v>
       </c>
@@ -5996,7 +6273,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>301</v>
       </c>
@@ -6034,19 +6311,19 @@
         <v>6</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F76" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G76" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="H76" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="I76" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -6064,7 +6341,7 @@
         <v>94</v>
       </c>
       <c r="F77" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G77" t="s">
         <v>95</v>
@@ -6094,7 +6371,7 @@
         <v>621</v>
       </c>
       <c r="F78" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G78" t="s">
         <v>622</v>
@@ -6118,16 +6395,16 @@
         <v>6</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="G79" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="H79" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="I79" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -6178,7 +6455,7 @@
         <v>211</v>
       </c>
       <c r="I81" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -6196,7 +6473,7 @@
         <v>609</v>
       </c>
       <c r="F82" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G82" t="s">
         <v>610</v>
@@ -6223,7 +6500,7 @@
         <v>473</v>
       </c>
       <c r="F83" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G83" t="s">
         <v>474</v>
@@ -6250,7 +6527,7 @@
         <v>344</v>
       </c>
       <c r="F84" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G84" t="s">
         <v>345</v>
@@ -6277,7 +6554,7 @@
         <v>216</v>
       </c>
       <c r="F85" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G85" t="s">
         <v>217</v>
@@ -6327,7 +6604,7 @@
         <v>205</v>
       </c>
       <c r="F87" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G87" t="s">
         <v>203</v>
@@ -6336,7 +6613,7 @@
         <v>204</v>
       </c>
       <c r="I87" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -6363,7 +6640,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>266</v>
       </c>
@@ -6390,7 +6667,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>220</v>
       </c>
@@ -6480,20 +6757,20 @@
         <v>6</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="E93" s="16"/>
       <c r="G93" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="H93" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="I93" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="M93" s="17" t="s">
-        <v>963</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -6508,19 +6785,19 @@
         <v>6</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F94" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G94" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="H94" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="I94" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -6538,7 +6815,7 @@
         <v>335</v>
       </c>
       <c r="F95" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G95" t="s">
         <v>336</v>
@@ -6643,7 +6920,7 @@
         <v>122</v>
       </c>
       <c r="F99" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G99" t="s">
         <v>378</v>
@@ -6667,19 +6944,19 @@
         <v>6</v>
       </c>
       <c r="D100" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="F100" t="s">
+        <v>854</v>
+      </c>
+      <c r="G100" t="s">
+        <v>780</v>
+      </c>
+      <c r="H100" t="s">
         <v>781</v>
       </c>
-      <c r="F100" t="s">
-        <v>860</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="I100" t="s">
         <v>782</v>
-      </c>
-      <c r="H100" t="s">
-        <v>783</v>
-      </c>
-      <c r="I100" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -6697,7 +6974,7 @@
         <v>492</v>
       </c>
       <c r="F101" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G101" t="s">
         <v>493</v>
@@ -6721,19 +6998,19 @@
         <v>6</v>
       </c>
       <c r="D102" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="F102" t="s">
+        <v>854</v>
+      </c>
+      <c r="G102" t="s">
+        <v>777</v>
+      </c>
+      <c r="H102" t="s">
+        <v>819</v>
+      </c>
+      <c r="I102" t="s">
         <v>778</v>
-      </c>
-      <c r="F102" t="s">
-        <v>860</v>
-      </c>
-      <c r="G102" t="s">
-        <v>779</v>
-      </c>
-      <c r="H102" t="s">
-        <v>823</v>
-      </c>
-      <c r="I102" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -6751,7 +7028,7 @@
         <v>651</v>
       </c>
       <c r="F103" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G103" t="s">
         <v>652</v>
@@ -6775,21 +7052,24 @@
         <v>6</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>904</v>
+        <v>895</v>
+      </c>
+      <c r="F104" t="s">
+        <v>854</v>
       </c>
       <c r="G104" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="H104" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="I104" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B105" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -6799,22 +7079,22 @@
         <v>6</v>
       </c>
       <c r="D105" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="F105" t="s">
+        <v>854</v>
+      </c>
+      <c r="G105" t="s">
+        <v>784</v>
+      </c>
+      <c r="H105" t="s">
         <v>785</v>
       </c>
-      <c r="F105" t="s">
-        <v>860</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="I105" t="s">
         <v>786</v>
       </c>
-      <c r="H105" t="s">
-        <v>787</v>
-      </c>
-      <c r="I105" t="s">
-        <v>788</v>
-      </c>
       <c r="M105" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -6832,7 +7112,7 @@
         <v>359</v>
       </c>
       <c r="F106" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G106" t="s">
         <v>414</v>
@@ -6859,7 +7139,7 @@
         <v>80</v>
       </c>
       <c r="F107" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G107" t="s">
         <v>417</v>
@@ -6874,7 +7154,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>183</v>
       </c>
@@ -6966,7 +7246,7 @@
         <v>451</v>
       </c>
       <c r="F111" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G111" t="s">
         <v>452</v>
@@ -6993,7 +7273,7 @@
         <v>341</v>
       </c>
       <c r="F112" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G112" t="s">
         <v>342</v>
@@ -7020,7 +7300,7 @@
         <v>369</v>
       </c>
       <c r="F113" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G113" t="s">
         <v>370</v>
@@ -7029,7 +7309,7 @@
         <v>371</v>
       </c>
       <c r="I113" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -7047,7 +7327,7 @@
         <v>693</v>
       </c>
       <c r="F114" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G114" t="s">
         <v>694</v>
@@ -7074,7 +7354,7 @@
         <v>682</v>
       </c>
       <c r="F115" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G115" t="s">
         <v>683</v>
@@ -7101,7 +7381,7 @@
         <v>672</v>
       </c>
       <c r="F116" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G116" t="s">
         <v>673</v>
@@ -7128,7 +7408,7 @@
         <v>481</v>
       </c>
       <c r="F117" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G117" t="s">
         <v>482</v>
@@ -7155,7 +7435,7 @@
         <v>708</v>
       </c>
       <c r="F118" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G118" t="s">
         <v>709</v>
@@ -7179,16 +7459,16 @@
         <v>6</v>
       </c>
       <c r="D119" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="G119" t="s">
         <v>770</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>771</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>772</v>
-      </c>
-      <c r="I119" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -7205,6 +7485,9 @@
       <c r="D120" s="11" t="s">
         <v>636</v>
       </c>
+      <c r="F120" t="s">
+        <v>854</v>
+      </c>
       <c r="G120" t="s">
         <v>637</v>
       </c>
@@ -7227,17 +7510,17 @@
         <v>6</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
       <c r="E121" s="16"/>
       <c r="G121" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="H121" t="s">
-        <v>966</v>
+        <v>951</v>
       </c>
       <c r="I121" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -7255,7 +7538,7 @@
         <v>65</v>
       </c>
       <c r="F122" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G122" t="s">
         <v>63</v>
@@ -7270,7 +7553,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>61</v>
       </c>
@@ -7318,7 +7601,7 @@
         <v>332</v>
       </c>
       <c r="F124" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G124" t="s">
         <v>333</v>
@@ -7330,7 +7613,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>47</v>
       </c>
@@ -7375,7 +7658,7 @@
         <v>640</v>
       </c>
       <c r="F126" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G126" t="s">
         <v>641</v>
@@ -7429,7 +7712,7 @@
         <v>644</v>
       </c>
       <c r="F128" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G128" t="s">
         <v>645</v>
@@ -7440,8 +7723,11 @@
       <c r="I128" t="s">
         <v>647</v>
       </c>
+      <c r="K128" t="s">
+        <v>388</v>
+      </c>
       <c r="M128" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -7459,7 +7745,7 @@
         <v>444</v>
       </c>
       <c r="F129" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G129" t="s">
         <v>445</v>
@@ -7483,17 +7769,17 @@
         <v>6</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="E130" s="16"/>
       <c r="G130" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="H130" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="I130" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -7559,7 +7845,7 @@
         <v>456</v>
       </c>
       <c r="F133" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G133" t="s">
         <v>457</v>
@@ -7583,19 +7869,19 @@
         <v>6</v>
       </c>
       <c r="D134" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="F134" t="s">
+        <v>854</v>
+      </c>
+      <c r="G134" t="s">
+        <v>792</v>
+      </c>
+      <c r="H134" t="s">
+        <v>793</v>
+      </c>
+      <c r="I134" t="s">
         <v>794</v>
-      </c>
-      <c r="F134" t="s">
-        <v>860</v>
-      </c>
-      <c r="G134" t="s">
-        <v>795</v>
-      </c>
-      <c r="H134" t="s">
-        <v>796</v>
-      </c>
-      <c r="I134" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -7613,7 +7899,7 @@
         <v>70</v>
       </c>
       <c r="F135" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G135" t="s">
         <v>71</v>
@@ -7667,7 +7953,7 @@
         <v>304</v>
       </c>
       <c r="F137" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G137" t="s">
         <v>427</v>
@@ -7697,7 +7983,7 @@
         <v>438</v>
       </c>
       <c r="F138" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G138" t="s">
         <v>439</v>
@@ -7724,7 +8010,7 @@
         <v>627</v>
       </c>
       <c r="F139" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G139" t="s">
         <v>629</v>
@@ -7751,7 +8037,7 @@
         <v>711</v>
       </c>
       <c r="F140" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G140" t="s">
         <v>712</v>
@@ -7801,7 +8087,7 @@
         <v>679</v>
       </c>
       <c r="F142" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G142" t="s">
         <v>680</v>
@@ -7828,7 +8114,7 @@
         <v>375</v>
       </c>
       <c r="F143" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G143" t="s">
         <v>376</v>
@@ -7855,10 +8141,10 @@
         <v>676</v>
       </c>
       <c r="F144" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G144" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="H144" t="s">
         <v>677</v>
@@ -7906,22 +8192,22 @@
         <v>6</v>
       </c>
       <c r="D146" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="F146" t="s">
+        <v>854</v>
+      </c>
+      <c r="G146" t="s">
+        <v>800</v>
+      </c>
+      <c r="H146" t="s">
+        <v>801</v>
+      </c>
+      <c r="I146" t="s">
+        <v>802</v>
+      </c>
+      <c r="M146" t="s">
         <v>803</v>
-      </c>
-      <c r="F146" t="s">
-        <v>860</v>
-      </c>
-      <c r="G146" t="s">
-        <v>804</v>
-      </c>
-      <c r="H146" t="s">
-        <v>805</v>
-      </c>
-      <c r="I146" t="s">
-        <v>806</v>
-      </c>
-      <c r="M146" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -7936,19 +8222,19 @@
         <v>6</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="F147" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G147" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="H147" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="I147" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -7972,7 +8258,7 @@
         <v>190</v>
       </c>
       <c r="I148" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -7990,7 +8276,7 @@
         <v>661</v>
       </c>
       <c r="F149" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G149" t="s">
         <v>662</v>
@@ -8017,7 +8303,7 @@
         <v>125</v>
       </c>
       <c r="F150" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G150" t="s">
         <v>126</v>
@@ -8053,7 +8339,7 @@
         <v>225</v>
       </c>
       <c r="I151" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -8095,7 +8381,7 @@
         <v>617</v>
       </c>
       <c r="F153" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G153" t="s">
         <v>618</v>
@@ -8122,7 +8408,7 @@
         <v>103</v>
       </c>
       <c r="F154" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G154" t="s">
         <v>104</v>
@@ -8182,7 +8468,7 @@
         <v>669</v>
       </c>
       <c r="F156" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G156" t="s">
         <v>670</v>
@@ -8206,22 +8492,28 @@
         <v>6</v>
       </c>
       <c r="D157" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F157" t="s">
+        <v>854</v>
+      </c>
+      <c r="G157" t="s">
+        <v>796</v>
+      </c>
+      <c r="H157" t="s">
+        <v>797</v>
+      </c>
+      <c r="I157" t="s">
         <v>798</v>
       </c>
-      <c r="F157" t="s">
-        <v>860</v>
-      </c>
-      <c r="G157" t="s">
-        <v>799</v>
-      </c>
-      <c r="H157" t="s">
-        <v>800</v>
-      </c>
-      <c r="I157" t="s">
-        <v>801</v>
+      <c r="K157" t="s">
+        <v>388</v>
       </c>
       <c r="M157" t="s">
-        <v>802</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -8295,7 +8587,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>114</v>
       </c>
@@ -8310,7 +8602,7 @@
         <v>115</v>
       </c>
       <c r="F161" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G161" t="s">
         <v>116</v>
@@ -8325,7 +8617,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>85</v>
       </c>
@@ -8340,7 +8632,7 @@
         <v>259</v>
       </c>
       <c r="F162" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G162" t="s">
         <v>260</v>
@@ -8349,10 +8641,10 @@
         <v>261</v>
       </c>
       <c r="I162" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>266</v>
       </c>
@@ -8373,10 +8665,10 @@
         <v>269</v>
       </c>
       <c r="I163" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>85</v>
       </c>
@@ -8391,7 +8683,7 @@
         <v>605</v>
       </c>
       <c r="F164" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G164" t="s">
         <v>606</v>
@@ -8403,400 +8695,400 @@
         <v>607</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B165" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wabe1</v>
+        <v>wabe</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="G165" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="H165" t="s">
-        <v>885</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="M165" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B166" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wabe2</v>
+        <v>waffen</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="E166" t="s">
-        <v>912</v>
+        <v>624</v>
+      </c>
+      <c r="F166" t="s">
+        <v>854</v>
       </c>
       <c r="G166" t="s">
-        <v>884</v>
+        <v>628</v>
       </c>
       <c r="H166" t="s">
-        <v>885</v>
-      </c>
-      <c r="I166" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="M166" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+      <c r="I166" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B167" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>waffen</v>
+        <v>warnung</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>624</v>
+        <v>665</v>
       </c>
       <c r="F167" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G167" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="H167" t="s">
-        <v>626</v>
+        <v>667</v>
       </c>
       <c r="I167" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="14" t="s">
-        <v>85</v>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="B168" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>warnung</v>
+        <v>wassertropfen</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="F168" t="s">
-        <v>860</v>
+        <v>263</v>
       </c>
       <c r="G168" t="s">
-        <v>666</v>
+        <v>264</v>
       </c>
       <c r="H168" t="s">
-        <v>667</v>
+        <v>265</v>
       </c>
       <c r="I168" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B169" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wassertropfen</v>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>wolke</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D169" s="11" t="s">
-        <v>263</v>
+      <c r="D169" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G169" t="s">
-        <v>264</v>
+        <v>17</v>
       </c>
       <c r="H169" t="s">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="I169" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+      <c r="J169" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B170" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wolke</v>
+        <v>wuerfel</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H170" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I170" t="s">
-        <v>868</v>
+        <v>505</v>
       </c>
       <c r="J170" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B171" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wuerfel</v>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B171" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>wuerfel2</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>7</v>
+      <c r="D171" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="F171" t="s">
+        <v>854</v>
       </c>
       <c r="G171" t="s">
         <v>8</v>
       </c>
       <c r="H171" t="s">
-        <v>9</v>
+        <v>649</v>
       </c>
       <c r="I171" t="s">
-        <v>505</v>
-      </c>
-      <c r="J171" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>wueste</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>511</v>
+      </c>
+      <c r="J172" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="14" t="s">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B172" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wuerfel2</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="F172" t="s">
-        <v>860</v>
-      </c>
-      <c r="G172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H172" t="s">
-        <v>649</v>
-      </c>
-      <c r="I172" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B173" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>wurm</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="F173" t="s">
+        <v>854</v>
+      </c>
+      <c r="G173" t="s">
+        <v>486</v>
+      </c>
+      <c r="H173" t="s">
+        <v>487</v>
+      </c>
+      <c r="I173" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B173" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wueste</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" t="s">
-        <v>13</v>
-      </c>
-      <c r="H173" t="s">
-        <v>14</v>
-      </c>
-      <c r="I173" t="s">
-        <v>511</v>
-      </c>
-      <c r="J173" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="14" t="s">
+      <c r="B174" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>yak</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G174" t="s">
+        <v>238</v>
+      </c>
+      <c r="H174" t="s">
+        <v>239</v>
+      </c>
+      <c r="I174" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B175" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>yinyang</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="F175" t="s">
+        <v>854</v>
+      </c>
+      <c r="G175" t="s">
+        <v>817</v>
+      </c>
+      <c r="H175" t="s">
+        <v>818</v>
+      </c>
+      <c r="I175" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B176" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>zahl</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="F176" t="s">
+        <v>854</v>
+      </c>
+      <c r="G176" t="s">
+        <v>766</v>
+      </c>
+      <c r="H176" t="s">
+        <v>767</v>
+      </c>
+      <c r="I176" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B174" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>wurm</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D174" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="F174" t="s">
-        <v>860</v>
-      </c>
-      <c r="G174" t="s">
-        <v>486</v>
-      </c>
-      <c r="H174" t="s">
-        <v>487</v>
-      </c>
-      <c r="I174" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B175" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>yak</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G175" t="s">
-        <v>238</v>
-      </c>
-      <c r="H175" t="s">
-        <v>239</v>
-      </c>
-      <c r="I175" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" s="8" t="s">
+      <c r="B177" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>zahn</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="F177" t="s">
+        <v>854</v>
+      </c>
+      <c r="G177" t="s">
+        <v>701</v>
+      </c>
+      <c r="H177" t="s">
+        <v>702</v>
+      </c>
+      <c r="I177" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B176" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>yinyang</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="F176" t="s">
-        <v>860</v>
-      </c>
-      <c r="G176" t="s">
-        <v>821</v>
-      </c>
-      <c r="H176" t="s">
-        <v>822</v>
-      </c>
-      <c r="I176" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B177" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>zahl</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>766</v>
-      </c>
-      <c r="G177" t="s">
-        <v>767</v>
-      </c>
-      <c r="H177" t="s">
-        <v>768</v>
-      </c>
-      <c r="I177" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="B178" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>zahn</v>
+        <v>zaun</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>700</v>
+        <v>804</v>
       </c>
       <c r="F178" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G178" t="s">
-        <v>701</v>
+        <v>805</v>
       </c>
       <c r="H178" t="s">
-        <v>702</v>
+        <v>806</v>
       </c>
       <c r="I178" t="s">
-        <v>703</v>
+        <v>807</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B179" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>zaun</v>
+        <v>zelt</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>808</v>
+        <v>887</v>
       </c>
       <c r="G179" t="s">
-        <v>809</v>
+        <v>888</v>
       </c>
       <c r="H179" t="s">
-        <v>810</v>
+        <v>889</v>
       </c>
       <c r="I179" t="s">
-        <v>811</v>
+        <v>890</v>
+      </c>
+      <c r="M179" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8805,102 +9097,623 @@
       </c>
       <c r="B180" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>zelt</v>
+        <v>zeppelin</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="G180" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="H180" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="I180" t="s">
-        <v>899</v>
-      </c>
-      <c r="M180" t="s">
-        <v>807</v>
+        <v>882</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B181" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>zeppelin</v>
+        <v>zielscheibe</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>889</v>
+        <v>704</v>
+      </c>
+      <c r="F181" t="s">
+        <v>854</v>
       </c>
       <c r="G181" t="s">
-        <v>890</v>
+        <v>705</v>
       </c>
       <c r="H181" t="s">
-        <v>891</v>
+        <v>706</v>
       </c>
       <c r="I181" t="s">
-        <v>891</v>
+        <v>707</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="14" t="s">
+      <c r="A182" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B182" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>stuhl</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="E182" s="16"/>
+      <c r="F182" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G182" t="s">
+        <v>971</v>
+      </c>
+      <c r="H182" t="s">
+        <v>972</v>
+      </c>
+      <c r="I182" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B182" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>zielscheibe</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D182" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="F182" t="s">
-        <v>860</v>
-      </c>
-      <c r="G182" t="s">
-        <v>705</v>
-      </c>
-      <c r="H182" t="s">
-        <v>706</v>
-      </c>
-      <c r="I182" t="s">
-        <v>707</v>
+      <c r="B183" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>kirsche</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="E183" s="16"/>
+      <c r="F183" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G183" t="s">
+        <v>975</v>
+      </c>
+      <c r="H183" t="s">
+        <v>976</v>
+      </c>
+      <c r="I183" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B184" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>dreieck</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="E184" s="16"/>
+      <c r="F184" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G184" t="s">
+        <v>979</v>
+      </c>
+      <c r="H184" t="s">
+        <v>980</v>
+      </c>
+      <c r="I184" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B185" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>steckdose</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="E185" s="16"/>
+      <c r="F185" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G185" t="s">
+        <v>983</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="I185" t="s">
+        <v>984</v>
+      </c>
+      <c r="M185" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B186" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>mathe</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="E186" s="16"/>
+      <c r="F186" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G186" t="s">
+        <v>988</v>
+      </c>
+      <c r="H186" t="s">
+        <v>989</v>
+      </c>
+      <c r="I186" t="s">
+        <v>991</v>
+      </c>
+      <c r="M186" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B187" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>auge</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="E187" s="16"/>
+      <c r="F187" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G187" t="s">
+        <v>993</v>
+      </c>
+      <c r="H187" t="s">
+        <v>994</v>
+      </c>
+      <c r="I187" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B188" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>tablette3</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="E188" s="16"/>
+      <c r="F188" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G188" t="s">
+        <v>686</v>
+      </c>
+      <c r="H188" t="s">
+        <v>687</v>
+      </c>
+      <c r="I188" t="s">
+        <v>997</v>
+      </c>
+      <c r="M188" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B189" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>kompass</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="E189" s="16"/>
+      <c r="F189" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B190" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>sonnenblume</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E190" s="16"/>
+      <c r="F190" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I190" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B191" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>tornado</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E191" s="16"/>
+      <c r="F191" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I191" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M191" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B192" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>stadt2</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E192" s="16"/>
+      <c r="F192" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G192" t="s">
+        <v>189</v>
+      </c>
+      <c r="H192" t="s">
+        <v>190</v>
+      </c>
+      <c r="I192" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M192" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B193" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>lippen</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E193" s="16"/>
+      <c r="F193" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I193" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B194" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>fussgaenger</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E194" s="16"/>
+      <c r="F194" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I194" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B195" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>tennisball</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E195" s="16"/>
+      <c r="F195" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G195" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I195" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B196" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>phoenix</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E196" s="16"/>
+      <c r="F196" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I196" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L196" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B197" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>einhorn</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E197" s="16"/>
+      <c r="F197" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I197" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B198" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>qualle</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E198" s="16"/>
+      <c r="F198" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G198" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I198" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="B199" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>papagei</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E199" s="16"/>
+      <c r="F199" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G199" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I199" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L199" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="B200" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>weihnachtsbaum</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E200" s="16"/>
+      <c r="F200" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I200" t="s">
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="ß">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="ß">
       <formula>NOT(ISERROR(SEARCH("ß",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F82:F1048576 M81 F1:F7 M8:M9 F10:F80 E1:E80">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="M81 F1:F7 M8:M9 F10:F80 E1:E80 E82:F1048576">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"NEU"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:M24">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"NEU"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"NEU"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D173" r:id="rId1"/>
-    <hyperlink ref="D170" r:id="rId2"/>
+    <hyperlink ref="D172" r:id="rId1"/>
+    <hyperlink ref="D169" r:id="rId2"/>
     <hyperlink ref="D71" r:id="rId3"/>
     <hyperlink ref="D74" r:id="rId4"/>
     <hyperlink ref="D26" r:id="rId5"/>
@@ -8926,7 +9739,7 @@
     <hyperlink ref="D99" r:id="rId25"/>
     <hyperlink ref="D150" r:id="rId26"/>
     <hyperlink ref="D18" r:id="rId27"/>
-    <hyperlink ref="D171" r:id="rId28" display="http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/ "/>
+    <hyperlink ref="D170" r:id="rId28" display="http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/ "/>
     <hyperlink ref="D73" r:id="rId29"/>
     <hyperlink ref="D148" r:id="rId30"/>
     <hyperlink ref="D136" r:id="rId31"/>
@@ -8949,7 +9762,7 @@
     <hyperlink ref="D127" r:id="rId48"/>
     <hyperlink ref="D40" r:id="rId49"/>
     <hyperlink ref="D162" r:id="rId50"/>
-    <hyperlink ref="D169" r:id="rId51"/>
+    <hyperlink ref="D168" r:id="rId51"/>
     <hyperlink ref="D163" r:id="rId52"/>
     <hyperlink ref="D89" r:id="rId53"/>
     <hyperlink ref="C86" r:id="rId54"/>
@@ -8984,7 +9797,7 @@
     <hyperlink ref="D83" r:id="rId83"/>
     <hyperlink ref="D96" r:id="rId84"/>
     <hyperlink ref="D117" r:id="rId85"/>
-    <hyperlink ref="D174" r:id="rId86"/>
+    <hyperlink ref="D173" r:id="rId86"/>
     <hyperlink ref="D132" r:id="rId87"/>
     <hyperlink ref="D101" r:id="rId88"/>
     <hyperlink ref="D164" r:id="rId89"/>
@@ -8992,18 +9805,18 @@
     <hyperlink ref="D51" r:id="rId91"/>
     <hyperlink ref="D153" r:id="rId92"/>
     <hyperlink ref="D78" r:id="rId93"/>
-    <hyperlink ref="D167" r:id="rId94"/>
+    <hyperlink ref="D166" r:id="rId94"/>
     <hyperlink ref="D139" r:id="rId95"/>
     <hyperlink ref="D36" r:id="rId96"/>
     <hyperlink ref="D120" r:id="rId97"/>
     <hyperlink ref="D126" r:id="rId98"/>
     <hyperlink ref="D128" r:id="rId99"/>
-    <hyperlink ref="D172" r:id="rId100"/>
+    <hyperlink ref="D171" r:id="rId100"/>
     <hyperlink ref="D103" r:id="rId101"/>
     <hyperlink ref="D32" r:id="rId102"/>
     <hyperlink ref="D8" r:id="rId103"/>
     <hyperlink ref="D149" r:id="rId104"/>
-    <hyperlink ref="D168" r:id="rId105"/>
+    <hyperlink ref="D167" r:id="rId105"/>
     <hyperlink ref="D156" r:id="rId106"/>
     <hyperlink ref="D116" r:id="rId107"/>
     <hyperlink ref="D144" r:id="rId108"/>
@@ -9013,8 +9826,8 @@
     <hyperlink ref="D59" r:id="rId112"/>
     <hyperlink ref="D114" r:id="rId113"/>
     <hyperlink ref="D57" r:id="rId114"/>
-    <hyperlink ref="D178" r:id="rId115"/>
-    <hyperlink ref="D182" r:id="rId116"/>
+    <hyperlink ref="D177" r:id="rId115"/>
+    <hyperlink ref="D181" r:id="rId116"/>
     <hyperlink ref="D118" r:id="rId117"/>
     <hyperlink ref="D140" r:id="rId118"/>
     <hyperlink ref="D27" r:id="rId119"/>
@@ -9022,47 +9835,65 @@
     <hyperlink ref="D69" r:id="rId121"/>
     <hyperlink ref="D58" r:id="rId122"/>
     <hyperlink ref="D54" r:id="rId123"/>
-    <hyperlink ref="D177" r:id="rId124"/>
+    <hyperlink ref="D176" r:id="rId124"/>
     <hyperlink ref="D119" r:id="rId125"/>
     <hyperlink ref="D24" r:id="rId126"/>
     <hyperlink ref="D102" r:id="rId127"/>
     <hyperlink ref="D100" r:id="rId128"/>
     <hyperlink ref="D105" r:id="rId129"/>
-    <hyperlink ref="D29" r:id="rId130"/>
-    <hyperlink ref="D134" r:id="rId131"/>
-    <hyperlink ref="D157" r:id="rId132"/>
-    <hyperlink ref="D146" r:id="rId133"/>
-    <hyperlink ref="D179" r:id="rId134"/>
-    <hyperlink ref="D94" r:id="rId135"/>
-    <hyperlink ref="D76" r:id="rId136"/>
-    <hyperlink ref="D176" r:id="rId137"/>
-    <hyperlink ref="D65" r:id="rId138"/>
-    <hyperlink ref="D56" r:id="rId139"/>
-    <hyperlink ref="D147" r:id="rId140"/>
-    <hyperlink ref="D43" r:id="rId141"/>
-    <hyperlink ref="D165" r:id="rId142"/>
-    <hyperlink ref="D166" r:id="rId143"/>
-    <hyperlink ref="D181" r:id="rId144"/>
-    <hyperlink ref="D21" r:id="rId145"/>
-    <hyperlink ref="D180" r:id="rId146"/>
-    <hyperlink ref="D79" r:id="rId147"/>
-    <hyperlink ref="D104" r:id="rId148"/>
-    <hyperlink ref="D34" r:id="rId149"/>
-    <hyperlink ref="D80" r:id="rId150"/>
-    <hyperlink ref="D4" r:id="rId151"/>
-    <hyperlink ref="D130" r:id="rId152"/>
-    <hyperlink ref="D41" r:id="rId153"/>
-    <hyperlink ref="D93" r:id="rId154"/>
-    <hyperlink ref="D121" r:id="rId155"/>
-    <hyperlink ref="D30" r:id="rId156"/>
-    <hyperlink ref="D61" r:id="rId157"/>
+    <hyperlink ref="D134" r:id="rId130"/>
+    <hyperlink ref="D157" r:id="rId131"/>
+    <hyperlink ref="D146" r:id="rId132"/>
+    <hyperlink ref="D178" r:id="rId133"/>
+    <hyperlink ref="D94" r:id="rId134"/>
+    <hyperlink ref="D76" r:id="rId135"/>
+    <hyperlink ref="D175" r:id="rId136"/>
+    <hyperlink ref="D65" r:id="rId137"/>
+    <hyperlink ref="D56" r:id="rId138"/>
+    <hyperlink ref="D147" r:id="rId139"/>
+    <hyperlink ref="D43" r:id="rId140"/>
+    <hyperlink ref="D165" r:id="rId141"/>
+    <hyperlink ref="D180" r:id="rId142"/>
+    <hyperlink ref="D21" r:id="rId143"/>
+    <hyperlink ref="D179" r:id="rId144"/>
+    <hyperlink ref="D79" r:id="rId145"/>
+    <hyperlink ref="D104" r:id="rId146"/>
+    <hyperlink ref="D34" r:id="rId147"/>
+    <hyperlink ref="D80" r:id="rId148"/>
+    <hyperlink ref="D4" r:id="rId149"/>
+    <hyperlink ref="D130" r:id="rId150"/>
+    <hyperlink ref="D41" r:id="rId151"/>
+    <hyperlink ref="D93" r:id="rId152"/>
+    <hyperlink ref="D121" r:id="rId153"/>
+    <hyperlink ref="D30" r:id="rId154"/>
+    <hyperlink ref="D61" r:id="rId155"/>
+    <hyperlink ref="D29" r:id="rId156"/>
+    <hyperlink ref="D182" r:id="rId157"/>
+    <hyperlink ref="D183" r:id="rId158"/>
+    <hyperlink ref="D184" r:id="rId159"/>
+    <hyperlink ref="D185" r:id="rId160"/>
+    <hyperlink ref="D186" r:id="rId161"/>
+    <hyperlink ref="D187" r:id="rId162"/>
+    <hyperlink ref="D188" r:id="rId163"/>
+    <hyperlink ref="D189" r:id="rId164"/>
+    <hyperlink ref="D190" r:id="rId165"/>
+    <hyperlink ref="D191" r:id="rId166"/>
+    <hyperlink ref="D192" r:id="rId167"/>
+    <hyperlink ref="D193" r:id="rId168"/>
+    <hyperlink ref="D194" r:id="rId169"/>
+    <hyperlink ref="D195" r:id="rId170"/>
+    <hyperlink ref="D196" r:id="rId171"/>
+    <hyperlink ref="D197" r:id="rId172"/>
+    <hyperlink ref="D198" r:id="rId173"/>
+    <hyperlink ref="D199" r:id="rId174"/>
+    <hyperlink ref="D200" r:id="rId175"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId158"/>
-  <drawing r:id="rId159"/>
-  <legacyDrawing r:id="rId160"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId176"/>
+  <drawing r:id="rId177"/>
+  <legacyDrawing r:id="rId178"/>
   <tableParts count="1">
-    <tablePart r:id="rId161"/>
+    <tablePart r:id="rId179"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9071,8 +9902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K260"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
+    <sheetView windowProtection="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J205" sqref="J205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9088,7 +9919,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B1" t="s">
         <v>383</v>
@@ -9171,7 +10002,7 @@
         <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G32" si="0">B3&amp;C3&amp;D3&amp;E3&amp;F3</f>
+        <f t="shared" ref="G2:G32" si="0">B3&amp;C3&amp;D3&amp;E3&amp;F3</f>
         <v>&lt;image&gt;&lt;resname&gt;alien&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Alien&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;alien&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/au%C3%9Ferirdischer-geste-des-friedens-308429/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;alien&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -9208,7 +10039,7 @@
         <v>&lt;image&gt;&lt;resname&gt;ampel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Ampel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;trafficlight&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/trafficlight-stra%C3%9Fe-signal-vorsicht-306969/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;ampel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9373,7 +10204,7 @@
         <v>&lt;image&gt;&lt;resname&gt;auto1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auto&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;car&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auto-fahrzeug-edel-limousine-681338/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auto1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9505,7 +10336,7 @@
         <v>&lt;image&gt;&lt;resname&gt;balance&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Balance&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;balance&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stein-balance-gleichgewicht-698354/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;balance&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -9604,7 +10435,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bank&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bank&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bench&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;catherinemary&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bank-rot-himmel-blau-natur-185234/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bank&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9703,7 +10534,7 @@
         <v>&lt;image&gt;&lt;resname&gt;baum&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baum&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tree&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baum-scherenschnitt-natur-657481/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;baum&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -9769,7 +10600,7 @@
         <v>&lt;image&gt;&lt;resname&gt;biene&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Biene&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bee&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/biene-honigbiene-stachel-fl%C3%BCgel-312770/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;biene&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9802,7 +10633,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bildschirm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bildschirm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monitor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/monitor-flatscreen-bildschirm-23269/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bildschirm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -9868,7 +10699,7 @@
         <v>&lt;image&gt;&lt;resname&gt;blume2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Blume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blume-kontur-gelb-umrisse-668854/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;blume2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -9934,7 +10765,7 @@
         <v>&lt;image&gt;&lt;resname&gt;boot&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Boot&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;boat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Suedelbien&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fischerboot-d%C3%A4nemark-strand-meer-49523/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;boot&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -10018,7 +10849,7 @@
       </c>
       <c r="D29" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/abc-alphabet-t-schreiben-schriften-725081/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;buchstabe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/abc-alphabet-m-stoff-streifen-732849/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;buchstabe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E29" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -10030,10 +10861,10 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;image&gt;&lt;resname&gt;buchstabe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Buchstabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;letter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/abc-alphabet-t-schreiben-schriften-725081/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;buchstabe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;buchstabe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Buchstabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;letter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/abc-alphabet-m-stoff-streifen-732849/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;buchstabe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>847</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -10066,7 +10897,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bueroklammer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Büroklammer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;paperclip&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/b%C3%BCroklammer-b%C3%BCro-pin-inhaber-308487/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bueroklammer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>978</v>
+        <v>963</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -10099,7 +10930,7 @@
         <v>&lt;image&gt;&lt;resname&gt;diamant1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Diamant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;diamond&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/diamant-teuer-juwel-wertvolle-158431/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;diamant1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -10161,7 +10992,7 @@
         <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" ref="G33:G96" si="1">B33&amp;C33&amp;D33&amp;E33&amp;F33</f>
+        <f t="shared" ref="G32:G96" si="1">B33&amp;C33&amp;D33&amp;E33&amp;F33</f>
         <v>&lt;image&gt;&lt;resname&gt;dinosaurier&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Dinosaurier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dinosaur&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/brontosaurus-dinosaurier-dino-297003/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dinosaurier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K33" s="3" t="s">
@@ -10198,7 +11029,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dna&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Dna&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dna&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/dna-doppelhelix-helix-wissenschaft-312438/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dna&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -10231,7 +11062,7 @@
         <v>&lt;image&gt;&lt;resname&gt;drache&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Drache&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dragon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-rot-symbol-fantasie-312035/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;drache&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -10363,7 +11194,7 @@
         <v>&lt;image&gt;&lt;resname&gt;ente&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Ente&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;duck&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummi-ente-quietschende-schwimmen-156597/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;ente&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -10396,7 +11227,7 @@
         <v>&lt;image&gt;&lt;resname&gt;erdbeere&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Erdbeere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;strawberry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/erdbeere-rot-makro-629180/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;erdbeere&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -10429,7 +11260,7 @@
         <v>&lt;image&gt;&lt;resname&gt;erde&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Erde&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;earth&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/erde-globus-amerika-welt-304437/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;erde&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>979</v>
+        <v>964</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -10495,7 +11326,7 @@
         <v>&lt;image&gt;&lt;resname&gt;europa&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Europa&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;europe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/europa-karte-l%C3%A4nder-silhouette-23571/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;europa&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -10858,7 +11689,7 @@
         <v>&lt;image&gt;&lt;resname&gt;frau&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Weiblich&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;female&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/weiblich-symbol-frau-menschen-709700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;frau&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -10924,7 +11755,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gedanke&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gedanken&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;thought&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gedanken-sprache-blasen-idee-24152/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gedanke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -10990,7 +11821,7 @@
         <v>&lt;image&gt;&lt;resname&gt;geschlecht&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Geschlecht&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;gender&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%A4nnlich-weiblich-geschlecht-709687/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;geschlecht&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -11089,7 +11920,7 @@
         <v>&lt;image&gt;&lt;resname&gt;globus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Globus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;globe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/globus-gitter-breitengrad-l%C3%A4nge-312523/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;globus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>980</v>
+        <v>965</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -11155,7 +11986,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gurke&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gurke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cucumber&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gem%C3%BCse-gurke-lebensmittel-700047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gurke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -11221,7 +12052,7 @@
         <v>&lt;image&gt;&lt;resname&gt;handabdruck&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Handabdruck&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;handprint&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/handabdruck-finger-palm-anschlag-23837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;handabdruck&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -11353,7 +12184,7 @@
         <v>&lt;image&gt;&lt;resname&gt;herzen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Herzen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;hearths&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/valentine-herz-liebe-eingebettet-601705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;herzen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -11419,7 +12250,7 @@
         <v>&lt;image&gt;&lt;resname&gt;himmel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Himmel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sky&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;alexis&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-berg-wolke-berge-wolken-62732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;himmel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -11452,7 +12283,7 @@
         <v>&lt;image&gt;&lt;resname&gt;hochzeit&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hochzeit&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;wedding&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ringe-hochzeit-bands-duo-mann-312341/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;hochzeit&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -11584,7 +12415,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kamera&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kamera&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;camera&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kamera-cctv-sicherheit-cam-156730/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kamera&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -11683,7 +12514,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kassette&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kassette&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cassette&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kassette-band-audio-musik-ton-312681/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kassette&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -11749,7 +12580,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kieselsteine&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kieselsteine&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pebble&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;SuXxLe&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kies-steine-desktop-hintergrund-618737/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kieselsteine&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -11947,7 +12778,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lagerfeuer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lagerfeuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;campfire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-lager-holz-w%C3%A4rme-flammen-30231/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lagerfeuer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -12145,7 +12976,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lorbeeren&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lorbeeren&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;laurel&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ruhm-lorbeerkranz-sieg-kranz-156160/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lorbeeren&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>981</v>
+        <v>966</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -12178,7 +13009,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lupe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lupe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;loupe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/linse-vergr%C3%B6%C3%9Fern-glas-lupen-lupe-156813/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lupe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -12273,7 +13104,7 @@
         <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" ref="G97:G100" si="2">B97&amp;C97&amp;D97&amp;E97&amp;F97</f>
+        <f t="shared" ref="G96:G100" si="2">B97&amp;C97&amp;D97&amp;E97&amp;F97</f>
         <v>&lt;image&gt;&lt;resname&gt;meer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Meer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sea&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;rolypolys&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/d%C3%A4nemark-ostsee-k%C3%BCste-meer-wasser-239992/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;meer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K97" s="3" t="s">
@@ -12343,7 +13174,7 @@
         <v>&lt;image&gt;&lt;resname&gt;monster&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monster&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monster&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-eidechse-monster-chinesisch-149393/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;monster&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -12376,7 +13207,7 @@
         <v>&lt;image&gt;&lt;resname&gt;musik&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Musik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;music&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/notenschl%C3%BCssel-musik-melodie-ton-296775/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;musik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -12405,7 +13236,7 @@
         <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" ref="G101:G115" si="3">B101&amp;C101&amp;D101&amp;E101&amp;F101</f>
+        <f t="shared" ref="G100:G115" si="3">B101&amp;C101&amp;D101&amp;E101&amp;F101</f>
         <v>&lt;image&gt;&lt;resname&gt;nikolaus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nikolaus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;santa&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/santa-claus-st-nicholas-funny-x-mas-153309/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;nikolaus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K101" s="3" t="s">
@@ -12442,7 +13273,7 @@
         <v>&lt;image&gt;&lt;resname&gt;noten&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Noten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;note&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/noten-notenblatt-musik-takt-668862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;noten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -12508,7 +13339,7 @@
         <v>&lt;image&gt;&lt;resname&gt;panda&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Panda&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;panda&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/panda-riese-b%C3%A4r-china-tier-312682/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;panda&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -12541,7 +13372,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pfeile&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pfeile&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;arrows&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pfeile-farbverlauf-design-symbol-539917/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pfeile&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -12805,7 +13636,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pirat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pirat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pirate&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pirat-hut-kappe-tod-warnung-311819/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pirat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -12900,7 +13731,7 @@
         <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" ref="G116:G179" si="4">B116&amp;C116&amp;D116&amp;E116&amp;F116</f>
+        <f t="shared" ref="G115:G168" si="4">B116&amp;C116&amp;D116&amp;E116&amp;F116</f>
         <v>&lt;image&gt;&lt;resname&gt;radioaktiv&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Radioaktiv&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;radioactive&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nukleare-atommasse-strahlung-303831/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;radioaktiv&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K116" s="3" t="s">
@@ -13003,7 +13834,7 @@
         <v>&lt;image&gt;&lt;resname&gt;regenbogen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenbogen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rainbow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenbogen-streifen-muster-298752/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenbogen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -13069,7 +13900,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rettungsring&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rettungsring&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lifesaver&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lebensretter-lebensring-24968/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rettungsring&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>982</v>
+        <v>967</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -13201,7 +14032,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rose&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rose&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;MJO&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/rosa-rot-blume-geschenk-143445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rose&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -13289,7 +14120,7 @@
       </c>
       <c r="E128" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;</v>
       </c>
       <c r="F128" t="str">
         <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
@@ -13297,10 +14128,10 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;schaufel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schaufel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shovel&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schaufel-werkzeug-graben-sch%C3%B6pfen-312360/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schaufel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;schaufel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schaufel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shovel&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schaufel-werkzeug-graben-sch%C3%B6pfen-312360/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schaufel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>739</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -13366,7 +14197,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schild&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schild&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shield&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schild-blau-sicherheit-schutz-303392/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schild&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>983</v>
+        <v>968</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -13498,7 +14329,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schluessel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schlüssel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;key&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schl%C3%BCssel-sperre-gesperrt-575680/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schluessel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -13663,7 +14494,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schwert&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwert&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sword&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwert-mittelalter-waffe-metall-308836/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwert&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -13696,7 +14527,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schwimmer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwimmer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;swimmer&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwimmer-piktogramm-sport-wasser-305260/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwimmer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -13762,7 +14593,7 @@
         <v>&lt;image&gt;&lt;resname&gt;signal&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Signal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;signal&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wlan-signal-schwarz-wireless-303722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;signal&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -13828,7 +14659,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sonne&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonne&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sun&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sonne-gelb-spirale-sommer-design-303773/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonne&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -13894,7 +14725,7 @@
         <v>&lt;image&gt;&lt;resname&gt;spiegelei&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spiegelei&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;friedegg&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ei-sonnenseite-bis-gebraten-576086/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spiegelei&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -13927,7 +14758,7 @@
         <v>&lt;image&gt;&lt;resname&gt;spirale&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spirale&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;spiral&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/spirale-design-muster-wirbel-24981/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spirale&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -13956,11 +14787,11 @@
         <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G148" t="str">
-        <f t="shared" ref="G148" si="5">B148&amp;C148&amp;D148&amp;E148&amp;F148</f>
+        <f t="shared" ref="G147:G148" si="5">B148&amp;C148&amp;D148&amp;E148&amp;F148</f>
         <v>&lt;image&gt;&lt;resname&gt;stadt&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stadt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;city&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/san-francisco-geb%C3%A4ude-t%C3%BCrme-690243/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stadt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -13993,7 +14824,7 @@
         <v>&lt;image&gt;&lt;resname&gt;stern&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stern&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;star&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stern-favorit-orange-gliederung-304120/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stern&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -14059,7 +14890,7 @@
         <v>&lt;image&gt;&lt;resname&gt;struktur&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Struktur&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;structure&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/struktur-herbst-weinlaub-698163/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;struktur&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -14125,7 +14956,7 @@
         <v>&lt;image&gt;&lt;resname&gt;tanzpaar&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Paar&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;couple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mann-frau-hand-h%C3%A4lt-m%C3%A4nnlich-312413/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tanzpaar&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -14224,7 +15055,7 @@
         <v>&lt;image&gt;&lt;resname&gt;theater&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Theater&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;theater&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/theater-kom%C3%B6die-trag%C3%B6die-masken-311730/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;theater&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -14242,11 +15073,11 @@
       </c>
       <c r="D157" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tisch&lt;/title&gt;&lt;extras&gt;shadow darkness reduced&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E157" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;</v>
       </c>
       <c r="F157" t="str">
         <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
@@ -14254,10 +15085,10 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;tisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;table&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;tisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;table&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tisch&lt;/title&gt;&lt;extras&gt;shadow darkness reduced&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>849</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -14422,7 +15253,7 @@
         <v>&lt;image&gt;&lt;resname&gt;vulkan&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Vulkan&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;volcano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkan-eruption-ausbruch-lava-berg-310172/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vulkan&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -14455,7 +15286,7 @@
         <v>&lt;image&gt;&lt;resname&gt;vulkan2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Eruption&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eruption&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/vulkanausbruch-eruption-vulkan-67668/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;vulkan2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -14488,7 +15319,7 @@
         <v>&lt;image&gt;&lt;resname&gt;waage&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waage&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scales&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/waage-gleichgewicht-gewicht-311504/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waage&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -14498,7 +15329,7 @@
       </c>
       <c r="B165" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wabe1&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wabe&lt;/resname&gt;</v>
       </c>
       <c r="C165" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
@@ -14506,7 +15337,7 @@
       </c>
       <c r="D165" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sechskant-muster-biene-bienenkorb-37436/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wabe-gelb-design-zelle-sechskant-312095/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E165" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14518,10 +15349,10 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;wabe1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;comb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sechskant-muster-biene-bienenkorb-37436/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wabe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;comb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wabe-gelb-design-zelle-sechskant-312095/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>940</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -14531,15 +15362,15 @@
       </c>
       <c r="B166" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wabe2&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;waffen&lt;/resname&gt;</v>
       </c>
       <c r="C166" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;comb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waffen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;weapons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D166" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wabe-gelb-design-zelle-sechskant-312095/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe2&lt;/title&gt;&lt;extras&gt;g added top right&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwerter-dolche-%C3%BCberschritten-312440/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waffen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E166" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14551,10 +15382,10 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;wabe2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;comb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wabe-gelb-design-zelle-sechskant-312095/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wabe2&lt;/title&gt;&lt;extras&gt;g added top right&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;waffen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waffen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;weapons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwerter-dolche-%C3%BCberschritten-312440/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waffen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>941</v>
+        <v>746</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -14564,15 +15395,15 @@
       </c>
       <c r="B167" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;waffen&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;warnung&lt;/resname&gt;</v>
       </c>
       <c r="C167" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waffen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;weapons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Warnung&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;warning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D167" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwerter-dolche-%C3%BCberschritten-312440/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waffen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/warnung-anmelden-rot-dreieck-303898/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;warnung&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E167" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14584,7 +15415,7 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;waffen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Waffen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;weapons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwerter-dolche-%C3%BCberschritten-312440/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;waffen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;warnung&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Warnung&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;warning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/warnung-anmelden-rot-dreieck-303898/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;warnung&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K167" s="3" t="s">
         <v>747</v>
@@ -14597,15 +15428,15 @@
       </c>
       <c r="B168" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;warnung&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wassertropfen&lt;/resname&gt;</v>
       </c>
       <c r="C168" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Warnung&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;warning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wassertropfen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;waterdrop&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D168" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/warnung-anmelden-rot-dreieck-303898/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;warnung&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;roegger&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wassertropfen-spritzen-wasser-545377/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wassertropfen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E168" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14617,10 +15448,10 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;image&gt;&lt;resname&gt;warnung&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Warnung&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;warning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/warnung-anmelden-rot-dreieck-303898/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;warnung&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wassertropfen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wassertropfen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;waterdrop&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;roegger&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wassertropfen-spritzen-wasser-545377/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wassertropfen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>748</v>
+        <v>591</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -14630,15 +15461,15 @@
       </c>
       <c r="B169" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wassertropfen&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wolke&lt;/resname&gt;</v>
       </c>
       <c r="C169" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wassertropfen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;waterdrop&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wolke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cloud&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D169" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;roegger&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wassertropfen-spritzen-wasser-545377/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wassertropfen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;hongmyeon&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-wolke-sonnenschein-sommer-383823/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wolke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E169" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14649,11 +15480,11 @@
         <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G169" t="str">
-        <f t="shared" ref="G169:G177" si="6">B169&amp;C169&amp;D169&amp;E169&amp;F169</f>
-        <v>&lt;image&gt;&lt;resname&gt;wassertropfen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wassertropfen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;waterdrop&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;roegger&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wassertropfen-spritzen-wasser-545377/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wassertropfen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <f t="shared" ref="G168:G175" si="6">B169&amp;C169&amp;D169&amp;E169&amp;F169</f>
+        <v>&lt;image&gt;&lt;resname&gt;wolke&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wolke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cloud&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hongmyeon&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-wolke-sonnenschein-sommer-383823/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wolke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>591</v>
+        <v>928</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -14663,15 +15494,15 @@
       </c>
       <c r="B170" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wolke&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wuerfel&lt;/resname&gt;</v>
       </c>
       <c r="C170" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wolke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cloud&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cube&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D170" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;hongmyeon&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-wolke-sonnenschein-sommer-383823/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wolke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;wilhei&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E170" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14683,10 +15514,10 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;image&gt;&lt;resname&gt;wolke&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wolke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cloud&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hongmyeon&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-wolke-sonnenschein-sommer-383823/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wolke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wuerfel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cube&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;wilhei&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>942</v>
+        <v>592</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -14696,15 +15527,15 @@
       </c>
       <c r="B171" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wuerfel&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wuerfel2&lt;/resname&gt;</v>
       </c>
       <c r="C171" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cube&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dice&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D171" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;wilhei&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-f%C3%BCnf-gl%C3%BCcksspiel-gl%C3%BCck-312622/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E171" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14716,10 +15547,10 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;image&gt;&lt;resname&gt;wuerfel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cube&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;wilhei&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-sechs-gl%C3%BCcksspiel-spielen-689618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wuerfel2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dice&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-f%C3%BCnf-gl%C3%BCcksspiel-gl%C3%BCck-312622/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>592</v>
+        <v>748</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -14729,15 +15560,15 @@
       </c>
       <c r="B172" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wuerfel2&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wueste&lt;/resname&gt;</v>
       </c>
       <c r="C172" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dice&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wüste&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;desert&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D172" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-f%C3%BCnf-gl%C3%BCcksspiel-gl%C3%BCck-312622/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gobi-w%C3%BCste-hei%C3%9F-sandd%C3%BCne-mongolei-692640/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wueste&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E172" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14749,10 +15580,10 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;image&gt;&lt;resname&gt;wuerfel2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Würfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dice&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCrfel-f%C3%BCnf-gl%C3%BCcksspiel-gl%C3%BCck-312622/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wuerfel2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wueste&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wüste&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;desert&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gobi-w%C3%BCste-hei%C3%9F-sandd%C3%BCne-mongolei-692640/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wueste&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>749</v>
+        <v>593</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -14762,15 +15593,15 @@
       </c>
       <c r="B173" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wueste&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wurm&lt;/resname&gt;</v>
       </c>
       <c r="C173" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wüste&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;desert&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wurm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;worm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D173" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gobi-w%C3%BCste-hei%C3%9F-sandd%C3%BCne-mongolei-692640/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wueste&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/worm-cartoon-character-cute-funny-309559/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wurm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E173" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14782,10 +15613,10 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;image&gt;&lt;resname&gt;wueste&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wüste&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;desert&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gobi-w%C3%BCste-hei%C3%9F-sandd%C3%BCne-mongolei-692640/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wueste&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;wurm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wurm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;worm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/worm-cartoon-character-cute-funny-309559/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wurm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -14795,15 +15626,15 @@
       </c>
       <c r="B174" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;wurm&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;yak&lt;/resname&gt;</v>
       </c>
       <c r="C174" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wurm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;worm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yak&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D174" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/worm-cartoon-character-cute-funny-309559/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wurm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yak-tier-tibet-grunzochse-642700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yak&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E174" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14815,10 +15646,10 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;image&gt;&lt;resname&gt;wurm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Wurm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;worm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/worm-cartoon-character-cute-funny-309559/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;wurm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;yak&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yak&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yak-tier-tibet-grunzochse-642700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yak&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -14828,15 +15659,15 @@
       </c>
       <c r="B175" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;yak&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;yinyang&lt;/resname&gt;</v>
       </c>
       <c r="C175" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yak&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yinyang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yinyang&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D175" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yak-tier-tibet-grunzochse-642700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yak&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yinyang-yin-und-yang-yang-yin-156414/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yinyang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E175" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14848,10 +15679,10 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;image&gt;&lt;resname&gt;yak&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yak&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yak-tier-tibet-grunzochse-642700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yak&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;yinyang&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yinyang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yinyang&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yinyang-yin-und-yang-yang-yin-156414/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yinyang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>595</v>
+        <v>848</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -14861,15 +15692,15 @@
       </c>
       <c r="B176" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;yinyang&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zahl&lt;/resname&gt;</v>
       </c>
       <c r="C176" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yinyang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yinyang&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;number&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D176" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yinyang-yin-und-yang-yang-yin-156414/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yinyang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/eine-1-zahl-design-sammlung-706897/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E176" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14880,11 +15711,11 @@
         <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="G176" t="str">
-        <f t="shared" ref="G176:G182" si="7">B176&amp;C176&amp;D176&amp;E176&amp;F176</f>
-        <v>&lt;image&gt;&lt;resname&gt;yinyang&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Yinyang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yinyang&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/yinyang-yin-und-yang-yang-yin-156414/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;yinyang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <f t="shared" ref="G175:G182" si="7">B176&amp;C176&amp;D176&amp;E176&amp;F176</f>
+        <v>&lt;image&gt;&lt;resname&gt;zahl&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;number&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/eine-1-zahl-design-sammlung-706897/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -14894,15 +15725,15 @@
       </c>
       <c r="B177" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;zahl&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zahn&lt;/resname&gt;</v>
       </c>
       <c r="C177" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;number&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tooth&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D177" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/eine-1-zahl-design-sammlung-706897/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/z%C3%A4hne-molaren-zahnmedizin-zahnarzt-310332/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E177" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14914,10 +15745,10 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;image&gt;&lt;resname&gt;zahl&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;number&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/eine-1-zahl-design-sammlung-706897/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zahn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tooth&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/z%C3%A4hne-molaren-zahnmedizin-zahnarzt-310332/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>841</v>
+        <v>749</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -14927,15 +15758,15 @@
       </c>
       <c r="B178" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;zahn&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zaun&lt;/resname&gt;</v>
       </c>
       <c r="C178" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tooth&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zaun&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fence&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D178" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/z%C3%A4hne-molaren-zahnmedizin-zahnarzt-310332/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zaun-gartenzaun-geschlossen-156818/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zaun&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E178" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14947,10 +15778,10 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;image&gt;&lt;resname&gt;zahn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zahn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tooth&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/z%C3%A4hne-molaren-zahnmedizin-zahnarzt-310332/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zahn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zaun&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zaun&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fence&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zaun-gartenzaun-geschlossen-156818/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zaun&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>750</v>
+        <v>845</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -14960,15 +15791,15 @@
       </c>
       <c r="B179" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;zaun&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zelt&lt;/resname&gt;</v>
       </c>
       <c r="C179" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zaun&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fence&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zelt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tent&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D179" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zaun-gartenzaun-geschlossen-156818/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zaun&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zelt-aufgeschlagen-natur-freizeit-312554/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zelt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E179" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -14980,10 +15811,10 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;image&gt;&lt;resname&gt;zaun&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zaun&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fence&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zaun-gartenzaun-geschlossen-156818/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zaun&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zelt&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zelt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tent&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zelt-aufgeschlagen-natur-freizeit-312554/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zelt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>851</v>
+        <v>929</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -14993,15 +15824,15 @@
       </c>
       <c r="B180" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;zelt&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zeppelin&lt;/resname&gt;</v>
       </c>
       <c r="C180" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zelt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tent&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D180" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zelt-aufgeschlagen-natur-freizeit-312554/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zelt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zeppelin-hei%C3%9Fluftballon-luftschiff-311328/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zeppelin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E180" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -15013,10 +15844,10 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;image&gt;&lt;resname&gt;zelt&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zelt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tent&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zelt-aufgeschlagen-natur-freizeit-312554/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zelt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zeppelin&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zeppelin-hei%C3%9Fluftballon-luftschiff-311328/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zeppelin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -15026,15 +15857,15 @@
       </c>
       <c r="B181" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;zeppelin&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zielscheibe&lt;/resname&gt;</v>
       </c>
       <c r="C181" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zielscheibe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;target&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D181" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zeppelin-hei%C3%9Fluftballon-luftschiff-311328/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zeppelin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bull-s-eye-ziel-pfeil-treffen-dart-297805/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zielscheibe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E181" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -15046,10 +15877,10 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;image&gt;&lt;resname&gt;zeppelin&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;zeppelin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zeppelin-hei%C3%9Fluftballon-luftschiff-311328/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zeppelin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;zielscheibe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zielscheibe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;target&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bull-s-eye-ziel-pfeil-treffen-dart-297805/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zielscheibe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>944</v>
+        <v>750</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -15059,15 +15890,15 @@
       </c>
       <c r="B182" t="str">
         <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>&lt;image&gt;&lt;resname&gt;zielscheibe&lt;/resname&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;stuhl&lt;/resname&gt;</v>
       </c>
       <c r="C182" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zielscheibe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;target&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stuhl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;chair&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D182" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bull-s-eye-ziel-pfeil-treffen-dart-297805/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zielscheibe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/st%C3%BChle-holz-m%C3%B6bel-brown-gelb-575873/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stuhl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
       </c>
       <c r="E182" t="str">
         <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
@@ -15079,604 +15910,604 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;image&gt;&lt;resname&gt;zielscheibe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zielscheibe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;target&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bull-s-eye-ziel-pfeil-treffen-dart-297805/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zielscheibe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
-      </c>
-      <c r="K182" s="3" t="s">
-        <v>751</v>
+        <v>&lt;image&gt;&lt;resname&gt;stuhl&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stuhl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;chair&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/st%C3%BChle-holz-m%C3%B6bel-brown-gelb-575873/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stuhl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K182" s="18" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B183" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C183" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D183" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E183" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F183" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G183" t="e">
-        <f t="shared" ref="G180:G243" si="8">B183&amp;C183&amp;D183&amp;E183&amp;F183</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K183" s="3" t="e">
-        <v>#VALUE!</v>
+      <c r="A183">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>183</v>
+      </c>
+      <c r="B183" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;kirsche&lt;/resname&gt;</v>
+      </c>
+      <c r="C183" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kirsche&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cherry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D183" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kirschen-lebensmittel-produkte-di%C3%A4t-36904/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kirsche&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E183" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F183" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G183" t="str">
+        <f t="shared" ref="G182:G202" si="8">B183&amp;C183&amp;D183&amp;E183&amp;F183</f>
+        <v>&lt;image&gt;&lt;resname&gt;kirsche&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kirsche&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cherry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kirschen-lebensmittel-produkte-di%C3%A4t-36904/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kirsche&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K183" s="18" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B184" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C184" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D184" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E184" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F184" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G184" t="e">
+      <c r="A184">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>184</v>
+      </c>
+      <c r="B184" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;dreieck&lt;/resname&gt;</v>
+      </c>
+      <c r="C184" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Dreieck&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;triangle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D184" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/dreieck-verkehr-flughafen-kontrolle-38204/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dreieck&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E184" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F184" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G184" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K184" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;dreieck&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Dreieck&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;triangle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/dreieck-verkehr-flughafen-kontrolle-38204/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dreieck&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K184" s="18" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B185" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C185" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D185" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E185" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F185" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G185" t="e">
+      <c r="A185">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>185</v>
+      </c>
+      <c r="B185" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;steckdose&lt;/resname&gt;</v>
+      </c>
+      <c r="C185" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Steckdose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;socket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D185" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/elektrische-steckdose-macht-elektro-29589/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;steckdose&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E185" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F185" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G185" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K185" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;steckdose&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Steckdose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;socket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/elektrische-steckdose-macht-elektro-29589/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;steckdose&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K185" s="18" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B186" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C186" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D186" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E186" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F186" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G186" t="e">
+      <c r="A186">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>186</v>
+      </c>
+      <c r="B186" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;mathe&lt;/resname&gt;</v>
+      </c>
+      <c r="C186" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Mathematik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;maths&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D186" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/algebra-mathematik-schule-bildung-39822/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;mathe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E186" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F186" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G186" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K186" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;mathe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Mathematik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;maths&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/algebra-mathematik-schule-bildung-39822/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;mathe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K186" s="18" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B187" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C187" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D187" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E187" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F187" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G187" t="e">
+      <c r="A187">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>187</v>
+      </c>
+      <c r="B187" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;auge&lt;/resname&gt;</v>
+      </c>
+      <c r="C187" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auge&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eye&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D187" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auge-schwarz-sch%C3%BCler-skizze-39618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auge&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E187" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F187" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G187" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K187" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;auge&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auge&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eye&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auge-schwarz-sch%C3%BCler-skizze-39618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auge&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K187" s="18" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B188" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C188" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D188" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E188" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F188" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G188" t="e">
+      <c r="A188">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>188</v>
+      </c>
+      <c r="B188" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;tablette3&lt;/resname&gt;</v>
+      </c>
+      <c r="C188" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tablette&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pill&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D188" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pille-medizin-kapsel-rot-311365/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tablette3&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E188" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F188" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G188" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K188" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;tablette3&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tablette&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pill&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pille-medizin-kapsel-rot-311365/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tablette3&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K188" s="18" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B189" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C189" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D189" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E189" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F189" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G189" t="e">
+      <c r="A189">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>189</v>
+      </c>
+      <c r="B189" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;kompass&lt;/resname&gt;</v>
+      </c>
+      <c r="C189" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kompass&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;compass&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D189" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/compass-rose-s%C3%BCden-norden-osten-297758/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kompass&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E189" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F189" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G189" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K189" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;kompass&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kompass&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;compass&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/compass-rose-s%C3%BCden-norden-osten-297758/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kompass&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K189" s="18" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B190" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C190" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D190" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E190" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F190" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G190" t="e">
+      <c r="A190">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>190</v>
+      </c>
+      <c r="B190" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;sonnenblume&lt;/resname&gt;</v>
+      </c>
+      <c r="C190" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnenblume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sunflower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D190" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sonnenblume-sommer-natur-gelb-310638/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonnenblume&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E190" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F190" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G190" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K190" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;sonnenblume&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnenblume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sunflower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sonnenblume-sommer-natur-gelb-310638/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonnenblume&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K190" s="18" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B191" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C191" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D191" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E191" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F191" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G191" t="e">
+      <c r="A191">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>191</v>
+      </c>
+      <c r="B191" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;tornado&lt;/resname&gt;</v>
+      </c>
+      <c r="C191" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tornado&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tornado&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D191" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tornado-grau-zyklon-twister-gefahr-311711/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tornado&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E191" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F191" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G191" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K191" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;tornado&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tornado&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tornado&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tornado-grau-zyklon-twister-gefahr-311711/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tornado&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K191" s="18" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B192" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C192" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D192" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E192" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F192" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G192" t="e">
+      <c r="A192">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>192</v>
+      </c>
+      <c r="B192" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;stadt2&lt;/resname&gt;</v>
+      </c>
+      <c r="C192" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stadt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;city&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D192" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/skyline-stadt-blau-silhouette-296469/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stadt2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E192" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F192" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G192" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K192" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;stadt2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stadt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;city&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/skyline-stadt-blau-silhouette-296469/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stadt2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K192" s="18" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B193" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C193" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D193" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E193" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F193" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G193" t="e">
+      <c r="A193">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>193</v>
+      </c>
+      <c r="B193" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;lippen&lt;/resname&gt;</v>
+      </c>
+      <c r="C193" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lippen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lip&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D193" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lipgloss-lippen-kuss-romantik-303125/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lippen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E193" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F193" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G193" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K193" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;lippen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lippen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lip&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lipgloss-lippen-kuss-romantik-303125/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lippen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K193" s="18" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B194" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C194" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D194" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E194" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F194" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G194" t="e">
+      <c r="A194">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>194</v>
+      </c>
+      <c r="B194" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;fussgaenger&lt;/resname&gt;</v>
+      </c>
+      <c r="C194" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fussgänger&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pedestrian&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D194" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fu%C3%9Fg%C3%A4nger-cross-walk-stra%C3%9Fe-310304/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fussgaenger&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E194" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F194" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G194" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K194" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;fussgaenger&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fussgänger&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pedestrian&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fu%C3%9Fg%C3%A4nger-cross-walk-stra%C3%9Fe-310304/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fussgaenger&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K194" s="18" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B195" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C195" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D195" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E195" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F195" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G195" t="e">
+      <c r="A195">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>195</v>
+      </c>
+      <c r="B195" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;tennisball&lt;/resname&gt;</v>
+      </c>
+      <c r="C195" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tennisball&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tennisball&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D195" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tennisball-kugel-tennis-sport-310082/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tennisball&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E195" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F195" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G195" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K195" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;tennisball&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tennisball&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tennisball&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tennisball-kugel-tennis-sport-310082/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tennisball&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K195" s="18" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B196" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C196" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D196" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E196" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F196" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G196" t="e">
+      <c r="A196">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>196</v>
+      </c>
+      <c r="B196" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;phoenix&lt;/resname&gt;</v>
+      </c>
+      <c r="C196" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Phönix&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;phoenix&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D196" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;Bonnybbx&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ph%C3%B6nix-vogel-feuer-sonne-feuerrot-500469/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;phoenix&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E196" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F196" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G196" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K196" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;phoenix&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Phönix&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;phoenix&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Bonnybbx&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ph%C3%B6nix-vogel-feuer-sonne-feuerrot-500469/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;phoenix&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K196" s="18" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B197" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C197" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D197" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E197" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F197" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G197" t="e">
+      <c r="A197">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>197</v>
+      </c>
+      <c r="B197" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;einhorn&lt;/resname&gt;</v>
+      </c>
+      <c r="C197" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Einhorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;unicorn&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D197" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/einhorn-horn-pferd-fantasie-313411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;einhorn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E197" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F197" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G197" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K197" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;einhorn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Einhorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;unicorn&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/einhorn-horn-pferd-fantasie-313411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;einhorn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K197" s="18" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B198" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C198" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D198" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E198" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F198" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G198" t="e">
+      <c r="A198">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>198</v>
+      </c>
+      <c r="B198" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;qualle&lt;/resname&gt;</v>
+      </c>
+      <c r="C198" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Qualle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yellifish&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D198" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/qualle-tentakel-medusa-marinen-154799/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;qualle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E198" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F198" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G198" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K198" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;qualle&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Qualle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yellifish&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/qualle-tentakel-medusa-marinen-154799/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;qualle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K198" s="18" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B199" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C199" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D199" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E199" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F199" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G199" t="e">
+      <c r="A199">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>199</v>
+      </c>
+      <c r="B199" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;papagei&lt;/resname&gt;</v>
+      </c>
+      <c r="C199" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Papageien&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;parrots&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D199" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/papageien-v%C3%B6gel-natur-bunte-528392/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;papagei&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E199" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F199" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G199" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K199" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;papagei&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Papageien&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;parrots&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/papageien-v%C3%B6gel-natur-bunte-528392/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;papagei&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K199" s="18" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" t="e">
-        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B200" t="e">
-        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C200" t="e">
-        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D200" t="e">
-        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E200" t="e">
-        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F200" t="e">
-        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G200" t="e">
+      <c r="A200">
+        <f>ROW(Tabelle1[[#This Row],[Autor/Psyeudonym]])</f>
+        <v>200</v>
+      </c>
+      <c r="B200" t="str">
+        <f>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</f>
+        <v>&lt;image&gt;&lt;resname&gt;weihnachtsbaum&lt;/resname&gt;</v>
+      </c>
+      <c r="C200" t="str">
+        <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Weihnachtsbaum&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;christmastree&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+      </c>
+      <c r="D200" t="str">
+        <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
+        <v>&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/weihnachten-baum-grafik-symbol-572882/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;weihnachtsbaum&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;</v>
+      </c>
+      <c r="E200" t="str">
+        <f>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</f>
+        <v>&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;</v>
+      </c>
+      <c r="F200" t="str">
+        <f>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Dislike]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</f>
+        <v>&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="G200" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K200" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>&lt;image&gt;&lt;resname&gt;weihnachtsbaum&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Weihnachtsbaum&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;christmastree&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/weihnachten-baum-grafik-symbol-572882/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;weihnachtsbaum&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddledisliked&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;</v>
+      </c>
+      <c r="K200" s="18" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -15771,7 +16602,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G203" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G202:G243" si="9">B203&amp;C203&amp;D203&amp;E203&amp;F203</f>
         <v>#VALUE!</v>
       </c>
       <c r="K203" s="3" t="e">
@@ -15804,7 +16635,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G204" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K204" s="3" t="e">
@@ -15837,7 +16668,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G205" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K205" s="3" t="e">
@@ -15870,7 +16701,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G206" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K206" s="3" t="e">
@@ -15903,7 +16734,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G207" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K207" s="3" t="e">
@@ -15936,7 +16767,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G208" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K208" s="3" t="e">
@@ -15969,7 +16800,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G209" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K209" s="3" t="e">
@@ -16002,7 +16833,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G210" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K210" s="3" t="e">
@@ -16035,7 +16866,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G211" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K211" s="3" t="e">
@@ -16068,7 +16899,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G212" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K212" s="3" t="e">
@@ -16101,7 +16932,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G213" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K213" s="3" t="e">
@@ -16134,7 +16965,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G214" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K214" s="3" t="e">
@@ -16167,7 +16998,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G215" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K215" s="3" t="e">
@@ -16200,7 +17031,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G216" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K216" s="3" t="e">
@@ -16233,7 +17064,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G217" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K217" s="3" t="e">
@@ -16266,7 +17097,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G218" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K218" s="3" t="e">
@@ -16299,7 +17130,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G219" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K219" s="3" t="e">
@@ -16332,7 +17163,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G220" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K220" s="3" t="e">
@@ -16365,7 +17196,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G221" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K221" s="3" t="e">
@@ -16398,7 +17229,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G222" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K222" s="3" t="e">
@@ -16431,7 +17262,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G223" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K223" s="3" t="e">
@@ -16464,7 +17295,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G224" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K224" s="3" t="e">
@@ -16497,7 +17328,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G225" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K225" s="3" t="e">
@@ -16530,7 +17361,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G226" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K226" s="3" t="e">
@@ -16563,7 +17394,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G227" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K227" s="3" t="e">
@@ -16596,7 +17427,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G228" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K228" s="3" t="e">
@@ -16629,7 +17460,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G229" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K229" s="3" t="e">
@@ -16662,7 +17493,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G230" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K230" s="3" t="e">
@@ -16695,7 +17526,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G231" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K231" s="3" t="e">
@@ -16728,7 +17559,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G232" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K232" s="3" t="e">
@@ -16761,7 +17592,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G233" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K233" s="3" t="e">
@@ -16794,7 +17625,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G234" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K234" s="3" t="e">
@@ -16827,7 +17658,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G235" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K235" s="3" t="e">
@@ -16860,7 +17691,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G236" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K236" s="3" t="e">
@@ -16893,7 +17724,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G237" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K237" s="3" t="e">
@@ -16926,7 +17757,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G238" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K238" s="3" t="e">
@@ -16959,7 +17790,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G239" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K239" s="3" t="e">
@@ -16992,7 +17823,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G240" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K240" s="3" t="e">
@@ -17025,7 +17856,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G241" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K241" s="3" t="e">
@@ -17058,7 +17889,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G242" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K242" s="3" t="e">
@@ -17091,7 +17922,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G243" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="K243" s="3" t="e">
@@ -17124,7 +17955,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G244" t="e">
-        <f t="shared" ref="G244:G260" si="9">B244&amp;C244&amp;D244&amp;E244&amp;F244</f>
+        <f t="shared" ref="G243:G260" si="10">B244&amp;C244&amp;D244&amp;E244&amp;F244</f>
         <v>#VALUE!</v>
       </c>
       <c r="K244" s="3" t="e">
@@ -17157,7 +17988,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G245" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K245" s="3" t="e">
@@ -17190,7 +18021,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G246" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K246" s="3" t="e">
@@ -17223,7 +18054,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G247" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K247" s="3" t="e">
@@ -17256,7 +18087,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G248" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K248" s="3" t="e">
@@ -17289,7 +18120,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G249" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K249" s="3" t="e">
@@ -17322,7 +18153,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G250" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K250" s="3" t="e">
@@ -17355,7 +18186,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G251" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K251" s="3" t="e">
@@ -17388,7 +18219,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G252" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K252" s="3" t="e">
@@ -17421,7 +18252,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G253" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K253" s="3" t="e">
@@ -17454,7 +18285,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G254" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K254" s="3" t="e">
@@ -17487,7 +18318,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G255" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K255" s="3" t="e">
@@ -17520,7 +18351,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G256" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K256" s="3" t="e">
@@ -17553,7 +18384,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G257" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K257" s="3" t="e">
@@ -17586,7 +18417,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G258" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K258" s="3" t="e">
@@ -17619,7 +18450,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G259" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K259" s="3" t="e">
@@ -17652,7 +18483,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G260" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="K260" s="3" t="e">
@@ -17673,7 +18504,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/App-Bilder.xlsx
+++ b/app/App-Bilder.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="810" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="810"/>
   </bookViews>
   <sheets>
     <sheet name="Bildersammlung" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="1227">
   <si>
     <t>Autor/Psyeudonym</t>
   </si>
@@ -689,12 +689,6 @@
   </si>
   <si>
     <t>http://pixabay.com/de/struktur-herbst-weinlaub-698163/</t>
-  </si>
-  <si>
-    <t>Struktur</t>
-  </si>
-  <si>
-    <t>structure</t>
   </si>
   <si>
     <t>http://pixabay.com/de/adler-greifvogel-tier-695171/</t>
@@ -3790,6 +3784,15 @@
   </si>
   <si>
     <t>&lt;image&gt;&lt;resname&gt;zielscheibe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Zielscheibe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;target&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bull-s-eye-ziel-pfeil-treffen-dart-297805/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;zielscheibe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>Herbst</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>BE: autumn</t>
   </si>
 </sst>
 </file>
@@ -3936,10 +3939,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -3947,27 +3950,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -4042,6 +4024,27 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4179,13 +4182,13 @@
     <sortCondition ref="I1:I222"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="2" name="Autor/Psyeudonym" dataDxfId="11"/>
-    <tableColumn id="3" name="ggf. Bildtitel" dataDxfId="10">
+    <tableColumn id="2" name="Autor/Psyeudonym" dataDxfId="8"/>
+    <tableColumn id="3" name="ggf. Bildtitel" dataDxfId="7">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Dateiname]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Lizenzname" dataDxfId="9"/>
-    <tableColumn id="5" name="Quelle" dataDxfId="8" dataCellStyle="Link"/>
-    <tableColumn id="6" name="Modi" dataDxfId="7" dataCellStyle="Link"/>
+    <tableColumn id="4" name="Lizenzname" dataDxfId="6"/>
+    <tableColumn id="5" name="Quelle" dataDxfId="5" dataCellStyle="Link"/>
+    <tableColumn id="6" name="Modi" dataDxfId="4" dataCellStyle="Link"/>
     <tableColumn id="7" name="Auflösung"/>
     <tableColumn id="8" name="Lösung Deutsch"/>
     <tableColumn id="9" name="Englisch"/>
@@ -4209,16 +4212,16 @@
     <tableColumn id="2" name="Imagename">
       <calculatedColumnFormula>"&lt;image&gt;&lt;resname&gt;"&amp;Tabelle1[[#This Row],[Dateiname]]&amp;"&lt;/resname&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Solution" dataDxfId="6">
+    <tableColumn id="3" name="Solution" dataDxfId="3">
       <calculatedColumnFormula>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Author" dataDxfId="5">
+    <tableColumn id="4" name="Author" dataDxfId="2">
       <calculatedColumnFormula>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Preference" dataDxfId="4">
+    <tableColumn id="5" name="Preference" dataDxfId="1">
       <calculatedColumnFormula>"&lt;riddleprefs&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Preference]]&amp;"&lt;/type&gt;&lt;/riddleprefs&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Dislike" dataDxfId="3">
+    <tableColumn id="6" name="Dislike" dataDxfId="0">
       <calculatedColumnFormula>"&lt;riddledisliked&gt;&lt;type&gt;"&amp;Tabelle1[[#This Row],[Refused]]&amp;"&lt;/type&gt;&lt;/riddledisliked&gt;&lt;/image&gt;"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="Summary">
@@ -4494,9 +4497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H231" sqref="H231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4536,7 +4539,7 @@
         <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -4548,13 +4551,13 @@
         <v>166</v>
       </c>
       <c r="K1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="M1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4569,16 +4572,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" t="s">
         <v>209</v>
       </c>
-      <c r="G2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H2" t="s">
-        <v>211</v>
-      </c>
       <c r="I2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -4593,20 +4596,20 @@
         <v>5</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E3" s="16"/>
       <c r="G3" t="s">
+        <v>843</v>
+      </c>
+      <c r="H3" t="s">
+        <v>844</v>
+      </c>
+      <c r="I3" t="s">
         <v>845</v>
       </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>846</v>
-      </c>
-      <c r="I3" t="s">
-        <v>847</v>
-      </c>
-      <c r="M3" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -4624,7 +4627,7 @@
         <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G4" t="s">
         <v>94</v>
@@ -4651,20 +4654,20 @@
         <v>5</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E5" s="16"/>
       <c r="G5" t="s">
+        <v>712</v>
+      </c>
+      <c r="H5" t="s">
+        <v>713</v>
+      </c>
+      <c r="I5" t="s">
         <v>714</v>
       </c>
-      <c r="H5" t="s">
-        <v>715</v>
-      </c>
-      <c r="I5" t="s">
-        <v>716</v>
-      </c>
       <c r="L5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -4682,7 +4685,7 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G6" t="s">
         <v>91</v>
@@ -4691,7 +4694,7 @@
         <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J6" t="s">
         <v>164</v>
@@ -4709,17 +4712,17 @@
         <v>5</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E7" s="16"/>
       <c r="G7" t="s">
+        <v>859</v>
+      </c>
+      <c r="H7" t="s">
+        <v>860</v>
+      </c>
+      <c r="I7" t="s">
         <v>861</v>
-      </c>
-      <c r="H7" t="s">
-        <v>862</v>
-      </c>
-      <c r="I7" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -4734,19 +4737,19 @@
         <v>5</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" t="s">
+        <v>664</v>
+      </c>
+      <c r="G8" t="s">
+        <v>322</v>
+      </c>
+      <c r="H8" t="s">
         <v>323</v>
       </c>
-      <c r="F8" t="s">
-        <v>666</v>
-      </c>
-      <c r="G8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H8" t="s">
-        <v>325</v>
-      </c>
       <c r="I8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -4761,19 +4764,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -4788,17 +4791,17 @@
         <v>5</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E10" s="16"/>
       <c r="G10" t="s">
+        <v>758</v>
+      </c>
+      <c r="H10" t="s">
+        <v>759</v>
+      </c>
+      <c r="I10" t="s">
         <v>760</v>
-      </c>
-      <c r="H10" t="s">
-        <v>761</v>
-      </c>
-      <c r="I10" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4813,19 +4816,19 @@
         <v>5</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F11" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -4840,16 +4843,16 @@
         <v>5</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H12" t="s">
         <v>302</v>
       </c>
-      <c r="G12" t="s">
-        <v>303</v>
-      </c>
-      <c r="H12" t="s">
-        <v>304</v>
-      </c>
       <c r="I12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -4888,19 +4891,19 @@
         <v>5</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" t="s">
+        <v>813</v>
+      </c>
+      <c r="G14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H14" t="s">
         <v>282</v>
       </c>
-      <c r="F14" t="s">
-        <v>815</v>
-      </c>
-      <c r="G14" t="s">
-        <v>283</v>
-      </c>
-      <c r="H14" t="s">
-        <v>284</v>
-      </c>
       <c r="I14" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J14" t="s">
         <v>163</v>
@@ -4918,19 +4921,19 @@
         <v>5</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F15" t="s">
+        <v>664</v>
+      </c>
+      <c r="G15" t="s">
+        <v>289</v>
+      </c>
+      <c r="H15" t="s">
         <v>290</v>
       </c>
-      <c r="F15" t="s">
-        <v>666</v>
-      </c>
-      <c r="G15" t="s">
-        <v>291</v>
-      </c>
-      <c r="H15" t="s">
-        <v>292</v>
-      </c>
       <c r="I15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4954,7 +4957,7 @@
         <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J16" t="s">
         <v>162</v>
@@ -4981,7 +4984,7 @@
         <v>112</v>
       </c>
       <c r="I17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J17" t="s">
         <v>164</v>
@@ -5002,16 +5005,16 @@
         <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J18" t="s">
         <v>165</v>
@@ -5032,7 +5035,7 @@
         <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G19" t="s">
         <v>70</v>
@@ -5041,13 +5044,13 @@
         <v>71</v>
       </c>
       <c r="I19" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J19" t="s">
         <v>163</v>
       </c>
       <c r="M19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -5068,13 +5071,13 @@
         <v>181</v>
       </c>
       <c r="H20" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="I20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M20" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5089,17 +5092,17 @@
         <v>5</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="G21" t="s">
+        <v>957</v>
+      </c>
+      <c r="H21" t="s">
         <v>958</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>959</v>
-      </c>
-      <c r="H21" t="s">
-        <v>960</v>
-      </c>
-      <c r="I21" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -5114,20 +5117,20 @@
         <v>5</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E22" s="16"/>
       <c r="G22" t="s">
+        <v>839</v>
+      </c>
+      <c r="H22" t="s">
+        <v>840</v>
+      </c>
+      <c r="I22" t="s">
         <v>841</v>
       </c>
-      <c r="H22" t="s">
-        <v>842</v>
-      </c>
-      <c r="I22" t="s">
-        <v>843</v>
-      </c>
       <c r="M22" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -5142,19 +5145,19 @@
         <v>5</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="F23" t="s">
+        <v>664</v>
+      </c>
+      <c r="G23" t="s">
+        <v>692</v>
+      </c>
+      <c r="H23" t="s">
         <v>693</v>
       </c>
-      <c r="F23" t="s">
-        <v>666</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>694</v>
-      </c>
-      <c r="H23" t="s">
-        <v>695</v>
-      </c>
-      <c r="I23" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -5172,7 +5175,7 @@
         <v>102</v>
       </c>
       <c r="F24" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G24" t="s">
         <v>103</v>
@@ -5181,7 +5184,7 @@
         <v>104</v>
       </c>
       <c r="I24" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J24" t="s">
         <v>165</v>
@@ -5199,17 +5202,17 @@
         <v>5</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E25" s="16"/>
       <c r="G25" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H25" t="s">
         <v>178</v>
       </c>
       <c r="I25" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -5227,7 +5230,7 @@
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G26" t="s">
         <v>61</v>
@@ -5236,7 +5239,7 @@
         <v>62</v>
       </c>
       <c r="I26" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="J26" t="s">
         <v>162</v>
@@ -5254,7 +5257,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G27" t="s">
         <v>61</v>
@@ -5263,10 +5266,10 @@
         <v>62</v>
       </c>
       <c r="I27" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="M27" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -5281,19 +5284,19 @@
         <v>5</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F28" t="s">
+        <v>664</v>
+      </c>
+      <c r="G28" t="s">
+        <v>417</v>
+      </c>
+      <c r="H28" t="s">
         <v>418</v>
       </c>
-      <c r="F28" t="s">
-        <v>666</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>419</v>
-      </c>
-      <c r="H28" t="s">
-        <v>420</v>
-      </c>
-      <c r="I28" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -5317,7 +5320,7 @@
         <v>27</v>
       </c>
       <c r="I29" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J29" t="s">
         <v>162</v>
@@ -5335,19 +5338,19 @@
         <v>5</v>
       </c>
       <c r="D30" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="F30" t="s">
+        <v>813</v>
+      </c>
+      <c r="G30" t="s">
+        <v>582</v>
+      </c>
+      <c r="H30" t="s">
+        <v>580</v>
+      </c>
+      <c r="I30" t="s">
         <v>581</v>
-      </c>
-      <c r="F30" t="s">
-        <v>815</v>
-      </c>
-      <c r="G30" t="s">
-        <v>584</v>
-      </c>
-      <c r="H30" t="s">
-        <v>582</v>
-      </c>
-      <c r="I30" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -5365,7 +5368,7 @@
         <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G31" t="s">
         <v>85</v>
@@ -5374,7 +5377,7 @@
         <v>86</v>
       </c>
       <c r="I31" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J31" t="s">
         <v>164</v>
@@ -5382,7 +5385,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B32" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -5392,19 +5395,19 @@
         <v>5</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F32" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G32" t="s">
+        <v>616</v>
+      </c>
+      <c r="H32" t="s">
+        <v>617</v>
+      </c>
+      <c r="I32" t="s">
         <v>618</v>
-      </c>
-      <c r="H32" t="s">
-        <v>619</v>
-      </c>
-      <c r="I32" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -5419,17 +5422,17 @@
         <v>5</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E33" s="16"/>
       <c r="G33" t="s">
+        <v>729</v>
+      </c>
+      <c r="H33" t="s">
+        <v>730</v>
+      </c>
+      <c r="I33" t="s">
         <v>731</v>
-      </c>
-      <c r="H33" t="s">
-        <v>732</v>
-      </c>
-      <c r="I33" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -5444,17 +5447,17 @@
         <v>5</v>
       </c>
       <c r="D34" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="G34" t="s">
+        <v>945</v>
+      </c>
+      <c r="H34" t="s">
         <v>946</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="G34" t="s">
-        <v>947</v>
-      </c>
-      <c r="H34" t="s">
-        <v>948</v>
-      </c>
       <c r="I34" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -5478,7 +5481,7 @@
         <v>198</v>
       </c>
       <c r="I35" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -5493,16 +5496,16 @@
         <v>5</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G36" t="s">
+        <v>338</v>
+      </c>
+      <c r="H36" t="s">
         <v>339</v>
       </c>
-      <c r="G36" t="s">
-        <v>340</v>
-      </c>
-      <c r="H36" t="s">
-        <v>341</v>
-      </c>
       <c r="I36" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -5517,22 +5520,22 @@
         <v>5</v>
       </c>
       <c r="D37" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="F37" t="s">
+        <v>664</v>
+      </c>
+      <c r="G37" t="s">
         <v>708</v>
       </c>
-      <c r="F37" t="s">
-        <v>666</v>
-      </c>
-      <c r="G37" t="s">
-        <v>710</v>
-      </c>
       <c r="H37" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="I37" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M37" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -5547,17 +5550,17 @@
         <v>5</v>
       </c>
       <c r="D38" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="G38" t="s">
+        <v>918</v>
+      </c>
+      <c r="H38" t="s">
         <v>919</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="G38" t="s">
-        <v>920</v>
-      </c>
-      <c r="H38" t="s">
-        <v>921</v>
-      </c>
       <c r="I38" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5572,7 +5575,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G39" t="s">
         <v>114</v>
@@ -5581,7 +5584,7 @@
         <v>115</v>
       </c>
       <c r="I39" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5596,17 +5599,17 @@
         <v>5</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E40" s="16"/>
       <c r="G40" t="s">
+        <v>744</v>
+      </c>
+      <c r="H40" t="s">
+        <v>745</v>
+      </c>
+      <c r="I40" t="s">
         <v>746</v>
-      </c>
-      <c r="H40" t="s">
-        <v>747</v>
-      </c>
-      <c r="I40" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5621,17 +5624,17 @@
         <v>5</v>
       </c>
       <c r="D41" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="G41" t="s">
+        <v>975</v>
+      </c>
+      <c r="H41" t="s">
         <v>976</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>977</v>
-      </c>
-      <c r="H41" t="s">
-        <v>978</v>
-      </c>
-      <c r="I41" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -5646,17 +5649,17 @@
         <v>5</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E42" s="16"/>
       <c r="G42" t="s">
+        <v>791</v>
+      </c>
+      <c r="H42" t="s">
+        <v>792</v>
+      </c>
+      <c r="I42" t="s">
         <v>793</v>
-      </c>
-      <c r="H42" t="s">
-        <v>794</v>
-      </c>
-      <c r="I42" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -5671,16 +5674,16 @@
         <v>5</v>
       </c>
       <c r="D43" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="G43" t="s">
+        <v>505</v>
+      </c>
+      <c r="H43" t="s">
         <v>506</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
         <v>507</v>
-      </c>
-      <c r="H43" t="s">
-        <v>508</v>
-      </c>
-      <c r="I43" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -5722,24 +5725,24 @@
         <v>5</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G45" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H45" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I45" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B46" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -5749,16 +5752,16 @@
         <v>5</v>
       </c>
       <c r="D46" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46" t="s">
+        <v>231</v>
+      </c>
+      <c r="H46" t="s">
         <v>232</v>
       </c>
-      <c r="G46" t="s">
-        <v>233</v>
-      </c>
-      <c r="H46" t="s">
-        <v>234</v>
-      </c>
       <c r="I46" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5773,16 +5776,16 @@
         <v>5</v>
       </c>
       <c r="D47" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G47" t="s">
+        <v>379</v>
+      </c>
+      <c r="H47" t="s">
         <v>380</v>
       </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
         <v>381</v>
-      </c>
-      <c r="H47" t="s">
-        <v>382</v>
-      </c>
-      <c r="I47" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -5797,19 +5800,19 @@
         <v>5</v>
       </c>
       <c r="D48" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="F48" t="s">
+        <v>664</v>
+      </c>
+      <c r="G48" t="s">
+        <v>659</v>
+      </c>
+      <c r="H48" t="s">
+        <v>661</v>
+      </c>
+      <c r="I48" t="s">
         <v>660</v>
-      </c>
-      <c r="F48" t="s">
-        <v>666</v>
-      </c>
-      <c r="G48" t="s">
-        <v>661</v>
-      </c>
-      <c r="H48" t="s">
-        <v>663</v>
-      </c>
-      <c r="I48" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -5824,24 +5827,24 @@
         <v>5</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F49" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H49" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I49" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B50" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -5851,17 +5854,17 @@
         <v>5</v>
       </c>
       <c r="D50" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="G50" t="s">
+        <v>970</v>
+      </c>
+      <c r="H50" t="s">
         <v>971</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
         <v>972</v>
-      </c>
-      <c r="H50" t="s">
-        <v>973</v>
-      </c>
-      <c r="I50" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -5879,13 +5882,13 @@
         <v>185</v>
       </c>
       <c r="G51" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H51" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I51" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J51" t="s">
         <v>163</v>
@@ -5903,16 +5906,16 @@
         <v>5</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G52" t="s">
+        <v>382</v>
+      </c>
+      <c r="H52" t="s">
+        <v>383</v>
+      </c>
+      <c r="I52" t="s">
         <v>384</v>
-      </c>
-      <c r="H52" t="s">
-        <v>385</v>
-      </c>
-      <c r="I52" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -5927,19 +5930,19 @@
         <v>5</v>
       </c>
       <c r="D53" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F53" t="s">
+        <v>664</v>
+      </c>
+      <c r="G53" t="s">
+        <v>310</v>
+      </c>
+      <c r="H53" t="s">
         <v>311</v>
       </c>
-      <c r="F53" t="s">
-        <v>666</v>
-      </c>
-      <c r="G53" t="s">
-        <v>312</v>
-      </c>
-      <c r="H53" t="s">
-        <v>313</v>
-      </c>
       <c r="I53" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J53" t="s">
         <v>163</v>
@@ -5966,7 +5969,7 @@
         <v>80</v>
       </c>
       <c r="I54" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J54" t="s">
         <v>165</v>
@@ -5974,7 +5977,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B55" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -5984,19 +5987,19 @@
         <v>5</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G55" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I55" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M55" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -6011,46 +6014,46 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F56" t="s">
+        <v>813</v>
+      </c>
+      <c r="G56" t="s">
+        <v>487</v>
+      </c>
+      <c r="H56" t="s">
         <v>488</v>
       </c>
-      <c r="F56" t="s">
-        <v>815</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
         <v>489</v>
-      </c>
-      <c r="H56" t="s">
-        <v>490</v>
-      </c>
-      <c r="I56" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B57" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>flugzeug</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G57" t="s">
         <v>215</v>
       </c>
-      <c r="B57" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>flugzeug</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="10" t="s">
+      <c r="H57" t="s">
         <v>216</v>
       </c>
-      <c r="G57" t="s">
-        <v>217</v>
-      </c>
-      <c r="H57" t="s">
-        <v>218</v>
-      </c>
       <c r="I57" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L57" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -6065,19 +6068,19 @@
         <v>5</v>
       </c>
       <c r="D58" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="F58" t="s">
+        <v>664</v>
+      </c>
+      <c r="G58" t="s">
+        <v>663</v>
+      </c>
+      <c r="H58" t="s">
+        <v>592</v>
+      </c>
+      <c r="I58" t="s">
         <v>593</v>
-      </c>
-      <c r="F58" t="s">
-        <v>666</v>
-      </c>
-      <c r="G58" t="s">
-        <v>665</v>
-      </c>
-      <c r="H58" t="s">
-        <v>594</v>
-      </c>
-      <c r="I58" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -6101,7 +6104,7 @@
         <v>101</v>
       </c>
       <c r="I59" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J59" t="s">
         <v>165</v>
@@ -6119,19 +6122,19 @@
         <v>5</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F60" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H60" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I60" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -6146,19 +6149,19 @@
         <v>5</v>
       </c>
       <c r="D61" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F61" t="s">
+        <v>664</v>
+      </c>
+      <c r="G61" t="s">
+        <v>477</v>
+      </c>
+      <c r="H61" t="s">
+        <v>396</v>
+      </c>
+      <c r="I61" t="s">
         <v>397</v>
-      </c>
-      <c r="F61" t="s">
-        <v>666</v>
-      </c>
-      <c r="G61" t="s">
-        <v>479</v>
-      </c>
-      <c r="H61" t="s">
-        <v>398</v>
-      </c>
-      <c r="I61" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -6173,17 +6176,17 @@
         <v>5</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E62" s="16"/>
       <c r="G62" t="s">
+        <v>780</v>
+      </c>
+      <c r="H62" t="s">
+        <v>781</v>
+      </c>
+      <c r="I62" t="s">
         <v>782</v>
-      </c>
-      <c r="H62" t="s">
-        <v>783</v>
-      </c>
-      <c r="I62" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -6198,19 +6201,19 @@
         <v>5</v>
       </c>
       <c r="D63" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="F63" t="s">
+        <v>664</v>
+      </c>
+      <c r="G63" t="s">
+        <v>652</v>
+      </c>
+      <c r="H63" t="s">
         <v>653</v>
       </c>
-      <c r="F63" t="s">
-        <v>666</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="I63" t="s">
         <v>654</v>
-      </c>
-      <c r="H63" t="s">
-        <v>655</v>
-      </c>
-      <c r="I63" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -6225,19 +6228,19 @@
         <v>5</v>
       </c>
       <c r="D64" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="F64" t="s">
+        <v>664</v>
+      </c>
+      <c r="G64" t="s">
+        <v>561</v>
+      </c>
+      <c r="H64" t="s">
         <v>562</v>
       </c>
-      <c r="F64" t="s">
-        <v>666</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="I64" t="s">
         <v>563</v>
-      </c>
-      <c r="H64" t="s">
-        <v>564</v>
-      </c>
-      <c r="I64" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -6252,16 +6255,16 @@
         <v>5</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G65" t="s">
+        <v>588</v>
+      </c>
+      <c r="H65" t="s">
+        <v>589</v>
+      </c>
+      <c r="I65" t="s">
         <v>590</v>
-      </c>
-      <c r="H65" t="s">
-        <v>591</v>
-      </c>
-      <c r="I65" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -6276,19 +6279,19 @@
         <v>5</v>
       </c>
       <c r="D66" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="F66" t="s">
+        <v>664</v>
+      </c>
+      <c r="G66" t="s">
+        <v>554</v>
+      </c>
+      <c r="H66" t="s">
         <v>555</v>
       </c>
-      <c r="F66" t="s">
-        <v>666</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="I66" t="s">
         <v>556</v>
-      </c>
-      <c r="H66" t="s">
-        <v>557</v>
-      </c>
-      <c r="I66" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -6312,7 +6315,7 @@
         <v>178</v>
       </c>
       <c r="I67" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -6327,17 +6330,17 @@
         <v>5</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E68" s="16"/>
       <c r="G68" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H68" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I68" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -6361,7 +6364,7 @@
         <v>55</v>
       </c>
       <c r="I69" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J69" t="s">
         <v>162</v>
@@ -6369,53 +6372,53 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>gummibaeren</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G70" t="s">
         <v>285</v>
       </c>
-      <c r="B70" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>gummibaeren</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="10" t="s">
+      <c r="H70" t="s">
         <v>286</v>
       </c>
-      <c r="G70" t="s">
-        <v>287</v>
-      </c>
-      <c r="H70" t="s">
-        <v>288</v>
-      </c>
       <c r="I70" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="L70" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>gurke</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G71" t="s">
+        <v>224</v>
+      </c>
+      <c r="H71" t="s">
         <v>225</v>
       </c>
-      <c r="B71" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>gurke</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G71" t="s">
-        <v>226</v>
-      </c>
-      <c r="H71" t="s">
-        <v>227</v>
-      </c>
       <c r="I71" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -6430,17 +6433,17 @@
         <v>5</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E72" s="16"/>
       <c r="G72" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H72" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I72" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -6455,19 +6458,19 @@
         <v>5</v>
       </c>
       <c r="D73" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="F73" t="s">
+        <v>664</v>
+      </c>
+      <c r="G73" t="s">
+        <v>648</v>
+      </c>
+      <c r="H73" t="s">
         <v>649</v>
       </c>
-      <c r="F73" t="s">
-        <v>666</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="I73" t="s">
         <v>650</v>
-      </c>
-      <c r="H73" t="s">
-        <v>651</v>
-      </c>
-      <c r="I73" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -6482,19 +6485,19 @@
         <v>5</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F74" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G74" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H74" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I74" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -6509,16 +6512,16 @@
         <v>5</v>
       </c>
       <c r="D75" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G75" t="s">
+        <v>319</v>
+      </c>
+      <c r="H75" t="s">
         <v>320</v>
       </c>
-      <c r="G75" t="s">
-        <v>321</v>
-      </c>
-      <c r="H75" t="s">
-        <v>322</v>
-      </c>
       <c r="I75" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J75" t="s">
         <v>163</v>
@@ -6539,7 +6542,7 @@
         <v>122</v>
       </c>
       <c r="H76" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I76" t="s">
         <v>121</v>
@@ -6550,7 +6553,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B77" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -6560,42 +6563,42 @@
         <v>5</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F77" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G77" t="s">
+        <v>669</v>
+      </c>
+      <c r="H77" t="s">
+        <v>670</v>
+      </c>
+      <c r="I77" t="s">
         <v>671</v>
-      </c>
-      <c r="H77" t="s">
-        <v>672</v>
-      </c>
-      <c r="I77" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="G78" t="s">
+        <v>259</v>
+      </c>
+      <c r="H78" t="s">
         <v>260</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="G78" t="s">
-        <v>261</v>
-      </c>
-      <c r="H78" t="s">
-        <v>262</v>
-      </c>
       <c r="I78" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -6619,7 +6622,7 @@
         <v>19</v>
       </c>
       <c r="I79" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J79" t="s">
         <v>162</v>
@@ -6637,19 +6640,19 @@
         <v>5</v>
       </c>
       <c r="D80" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F80" t="s">
+        <v>813</v>
+      </c>
+      <c r="G80" t="s">
+        <v>328</v>
+      </c>
+      <c r="H80" t="s">
         <v>329</v>
       </c>
-      <c r="F80" t="s">
-        <v>815</v>
-      </c>
-      <c r="G80" t="s">
-        <v>330</v>
-      </c>
-      <c r="H80" t="s">
-        <v>331</v>
-      </c>
       <c r="I80" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -6664,17 +6667,17 @@
         <v>5</v>
       </c>
       <c r="D81" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="E81" s="19"/>
+      <c r="G81" t="s">
+        <v>925</v>
+      </c>
+      <c r="H81" t="s">
         <v>926</v>
       </c>
-      <c r="E81" s="20"/>
-      <c r="G81" t="s">
+      <c r="I81" t="s">
         <v>927</v>
-      </c>
-      <c r="H81" t="s">
-        <v>928</v>
-      </c>
-      <c r="I81" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -6698,13 +6701,13 @@
         <v>23</v>
       </c>
       <c r="I82" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J82" t="s">
         <v>162</v>
       </c>
       <c r="M82" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -6728,7 +6731,7 @@
         <v>89</v>
       </c>
       <c r="I83" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="J83" t="s">
         <v>165</v>
@@ -6736,50 +6739,50 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G84" t="s">
+        <v>275</v>
+      </c>
+      <c r="H84" t="s">
         <v>276</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H84" t="s">
-        <v>278</v>
-      </c>
       <c r="I84" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="B85" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>kaktus</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>979</v>
+      </c>
+      <c r="E85" s="19"/>
+      <c r="G85" t="s">
         <v>980</v>
       </c>
-      <c r="B85" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>kaktus</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="11" t="s">
+      <c r="H85" t="s">
         <v>981</v>
       </c>
-      <c r="E85" s="20"/>
-      <c r="G85" t="s">
+      <c r="I85" t="s">
         <v>982</v>
-      </c>
-      <c r="H85" t="s">
-        <v>983</v>
-      </c>
-      <c r="I85" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -6794,21 +6797,21 @@
         <v>5</v>
       </c>
       <c r="D86" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="G86" t="s">
+        <v>640</v>
+      </c>
+      <c r="H86" t="s">
         <v>641</v>
       </c>
-      <c r="G86" t="s">
+      <c r="I86" t="s">
         <v>642</v>
-      </c>
-      <c r="H86" t="s">
-        <v>643</v>
-      </c>
-      <c r="I86" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B87" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -6818,17 +6821,17 @@
         <v>5</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>964</v>
-      </c>
-      <c r="E87" s="20"/>
+        <v>962</v>
+      </c>
+      <c r="E87" s="19"/>
       <c r="G87" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H87" t="s">
+        <v>961</v>
+      </c>
+      <c r="I87" t="s">
         <v>963</v>
-      </c>
-      <c r="I87" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -6843,19 +6846,19 @@
         <v>5</v>
       </c>
       <c r="D88" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="F88" t="s">
+        <v>664</v>
+      </c>
+      <c r="G88" t="s">
+        <v>494</v>
+      </c>
+      <c r="H88" t="s">
         <v>495</v>
       </c>
-      <c r="F88" t="s">
-        <v>666</v>
-      </c>
-      <c r="G88" t="s">
-        <v>496</v>
-      </c>
-      <c r="H88" t="s">
-        <v>497</v>
-      </c>
       <c r="I88" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -6870,19 +6873,19 @@
         <v>5</v>
       </c>
       <c r="D89" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="F89" t="s">
+        <v>813</v>
+      </c>
+      <c r="G89" t="s">
+        <v>702</v>
+      </c>
+      <c r="H89" t="s">
+        <v>700</v>
+      </c>
+      <c r="I89" t="s">
         <v>701</v>
-      </c>
-      <c r="F89" t="s">
-        <v>815</v>
-      </c>
-      <c r="G89" t="s">
-        <v>704</v>
-      </c>
-      <c r="H89" t="s">
-        <v>702</v>
-      </c>
-      <c r="I89" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -6906,7 +6909,7 @@
         <v>68</v>
       </c>
       <c r="I90" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J90" t="s">
         <v>163</v>
@@ -6924,20 +6927,20 @@
         <v>5</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E91" s="16"/>
       <c r="G91" t="s">
+        <v>855</v>
+      </c>
+      <c r="H91" t="s">
+        <v>856</v>
+      </c>
+      <c r="I91" t="s">
         <v>857</v>
       </c>
-      <c r="H91" t="s">
-        <v>858</v>
-      </c>
-      <c r="I91" t="s">
-        <v>859</v>
-      </c>
       <c r="M91" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -6961,7 +6964,7 @@
         <v>194</v>
       </c>
       <c r="I92" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -6976,17 +6979,17 @@
         <v>5</v>
       </c>
       <c r="D93" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="E93" s="19"/>
+      <c r="G93" t="s">
+        <v>988</v>
+      </c>
+      <c r="H93" t="s">
         <v>989</v>
       </c>
-      <c r="E93" s="20"/>
-      <c r="G93" t="s">
+      <c r="I93" t="s">
         <v>990</v>
-      </c>
-      <c r="H93" t="s">
-        <v>991</v>
-      </c>
-      <c r="I93" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -7001,17 +7004,17 @@
         <v>5</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E94" s="16"/>
       <c r="G94" t="s">
+        <v>740</v>
+      </c>
+      <c r="H94" t="s">
+        <v>741</v>
+      </c>
+      <c r="I94" t="s">
         <v>742</v>
-      </c>
-      <c r="H94" t="s">
-        <v>743</v>
-      </c>
-      <c r="I94" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -7026,19 +7029,19 @@
         <v>5</v>
       </c>
       <c r="D95" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F95" t="s">
+        <v>664</v>
+      </c>
+      <c r="G95" t="s">
+        <v>483</v>
+      </c>
+      <c r="H95" t="s">
         <v>484</v>
       </c>
-      <c r="F95" t="s">
-        <v>666</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="I95" t="s">
         <v>485</v>
-      </c>
-      <c r="H95" t="s">
-        <v>486</v>
-      </c>
-      <c r="I95" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -7053,19 +7056,19 @@
         <v>5</v>
       </c>
       <c r="D96" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="F96" t="s">
+        <v>813</v>
+      </c>
+      <c r="G96" t="s">
+        <v>421</v>
+      </c>
+      <c r="H96" t="s">
         <v>422</v>
       </c>
-      <c r="F96" t="s">
-        <v>815</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="I96" t="s">
         <v>423</v>
-      </c>
-      <c r="H96" t="s">
-        <v>424</v>
-      </c>
-      <c r="I96" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -7080,17 +7083,17 @@
         <v>5</v>
       </c>
       <c r="D97" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="E97" s="19"/>
+      <c r="G97" t="s">
+        <v>910</v>
+      </c>
+      <c r="H97" t="s">
+        <v>913</v>
+      </c>
+      <c r="I97" t="s">
         <v>911</v>
-      </c>
-      <c r="E97" s="20"/>
-      <c r="G97" t="s">
-        <v>912</v>
-      </c>
-      <c r="H97" t="s">
-        <v>915</v>
-      </c>
-      <c r="I97" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -7105,17 +7108,17 @@
         <v>5</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E98" s="16"/>
       <c r="G98" t="s">
+        <v>764</v>
+      </c>
+      <c r="H98" t="s">
+        <v>765</v>
+      </c>
+      <c r="I98" t="s">
         <v>766</v>
-      </c>
-      <c r="H98" t="s">
-        <v>767</v>
-      </c>
-      <c r="I98" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -7130,17 +7133,17 @@
         <v>5</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E99" s="16"/>
       <c r="G99" t="s">
+        <v>821</v>
+      </c>
+      <c r="H99" t="s">
+        <v>822</v>
+      </c>
+      <c r="I99" t="s">
         <v>823</v>
-      </c>
-      <c r="H99" t="s">
-        <v>824</v>
-      </c>
-      <c r="I99" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -7155,19 +7158,19 @@
         <v>5</v>
       </c>
       <c r="D100" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F100" t="s">
+        <v>664</v>
+      </c>
+      <c r="G100" t="s">
+        <v>316</v>
+      </c>
+      <c r="H100" t="s">
         <v>317</v>
       </c>
-      <c r="F100" t="s">
-        <v>666</v>
-      </c>
-      <c r="G100" t="s">
-        <v>318</v>
-      </c>
-      <c r="H100" t="s">
-        <v>319</v>
-      </c>
       <c r="I100" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -7185,7 +7188,7 @@
         <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G101" t="s">
         <v>200</v>
@@ -7194,7 +7197,7 @@
         <v>201</v>
       </c>
       <c r="I101" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -7209,40 +7212,40 @@
         <v>5</v>
       </c>
       <c r="D102" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="E102" s="19"/>
+      <c r="G102" t="s">
+        <v>992</v>
+      </c>
+      <c r="H102" t="s">
         <v>993</v>
       </c>
-      <c r="E102" s="20"/>
-      <c r="G102" t="s">
+      <c r="I102" t="s">
         <v>994</v>
-      </c>
-      <c r="H102" t="s">
-        <v>995</v>
-      </c>
-      <c r="I102" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G103" t="s">
         <v>255</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D103" s="11" t="s">
+      <c r="H103" t="s">
         <v>256</v>
       </c>
-      <c r="G103" t="s">
-        <v>257</v>
-      </c>
-      <c r="H103" t="s">
-        <v>258</v>
-      </c>
       <c r="I103" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -7266,7 +7269,7 @@
         <v>187</v>
       </c>
       <c r="I104" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -7281,24 +7284,24 @@
         <v>5</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G105" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H105" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I105" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M105" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B106" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -7308,16 +7311,16 @@
         <v>5</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G106" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H106" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I106" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -7344,7 +7347,7 @@
         <v>205</v>
       </c>
       <c r="L107" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -7359,16 +7362,16 @@
         <v>5</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -7392,7 +7395,7 @@
         <v>35</v>
       </c>
       <c r="I109" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J109" t="s">
         <v>162</v>
@@ -7410,17 +7413,17 @@
         <v>5</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E110" s="16"/>
       <c r="G110" t="s">
+        <v>776</v>
+      </c>
+      <c r="H110" t="s">
         <v>778</v>
       </c>
-      <c r="H110" t="s">
-        <v>780</v>
-      </c>
       <c r="I110" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -7435,20 +7438,20 @@
         <v>5</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E111" s="16"/>
       <c r="G111" t="s">
+        <v>721</v>
+      </c>
+      <c r="H111" t="s">
+        <v>722</v>
+      </c>
+      <c r="I111" t="s">
         <v>723</v>
       </c>
-      <c r="H111" t="s">
-        <v>724</v>
-      </c>
-      <c r="I111" t="s">
-        <v>725</v>
-      </c>
       <c r="M111" s="17" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -7463,16 +7466,16 @@
         <v>5</v>
       </c>
       <c r="D112" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="G112" t="s">
+        <v>636</v>
+      </c>
+      <c r="H112" t="s">
         <v>637</v>
       </c>
-      <c r="G112" t="s">
+      <c r="I112" t="s">
         <v>638</v>
-      </c>
-      <c r="H112" t="s">
-        <v>639</v>
-      </c>
-      <c r="I112" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -7487,19 +7490,19 @@
         <v>5</v>
       </c>
       <c r="D113" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F113" t="s">
+        <v>664</v>
+      </c>
+      <c r="G113" t="s">
+        <v>307</v>
+      </c>
+      <c r="H113" t="s">
         <v>308</v>
       </c>
-      <c r="F113" t="s">
-        <v>666</v>
-      </c>
-      <c r="G113" t="s">
-        <v>309</v>
-      </c>
-      <c r="H113" t="s">
-        <v>310</v>
-      </c>
       <c r="I113" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -7514,20 +7517,20 @@
         <v>5</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E114" s="16"/>
       <c r="G114" t="s">
+        <v>753</v>
+      </c>
+      <c r="H114" t="s">
+        <v>754</v>
+      </c>
+      <c r="I114" t="s">
+        <v>756</v>
+      </c>
+      <c r="M114" t="s">
         <v>755</v>
-      </c>
-      <c r="H114" t="s">
-        <v>756</v>
-      </c>
-      <c r="I114" t="s">
-        <v>758</v>
-      </c>
-      <c r="M114" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -7542,19 +7545,19 @@
         <v>5</v>
       </c>
       <c r="D115" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="F115" t="s">
+        <v>664</v>
+      </c>
+      <c r="G115" t="s">
+        <v>425</v>
+      </c>
+      <c r="H115" t="s">
         <v>426</v>
       </c>
-      <c r="F115" t="s">
-        <v>666</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="I115" t="s">
         <v>427</v>
-      </c>
-      <c r="H115" t="s">
-        <v>428</v>
-      </c>
-      <c r="I115" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -7578,7 +7581,7 @@
         <v>51</v>
       </c>
       <c r="I116" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J116" t="s">
         <v>162</v>
@@ -7605,10 +7608,10 @@
         <v>171</v>
       </c>
       <c r="I117" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="L117" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -7632,7 +7635,7 @@
         <v>39</v>
       </c>
       <c r="I118" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J118" t="s">
         <v>162</v>
@@ -7653,16 +7656,16 @@
         <v>113</v>
       </c>
       <c r="F119" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G119" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H119" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I119" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -7677,19 +7680,19 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="F120" t="s">
+        <v>813</v>
+      </c>
+      <c r="G120" t="s">
+        <v>609</v>
+      </c>
+      <c r="H120" t="s">
         <v>610</v>
       </c>
-      <c r="F120" t="s">
-        <v>815</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="I120" t="s">
         <v>611</v>
-      </c>
-      <c r="H120" t="s">
-        <v>612</v>
-      </c>
-      <c r="I120" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -7707,7 +7710,7 @@
         <v>58</v>
       </c>
       <c r="F121" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G121" t="s">
         <v>56</v>
@@ -7716,7 +7719,7 @@
         <v>57</v>
       </c>
       <c r="I121" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J121" t="s">
         <v>165</v>
@@ -7734,19 +7737,19 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="F122" t="s">
+        <v>664</v>
+      </c>
+      <c r="G122" t="s">
+        <v>438</v>
+      </c>
+      <c r="H122" t="s">
         <v>439</v>
       </c>
-      <c r="F122" t="s">
-        <v>666</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="I122" t="s">
         <v>440</v>
-      </c>
-      <c r="H122" t="s">
-        <v>441</v>
-      </c>
-      <c r="I122" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -7761,20 +7764,20 @@
         <v>5</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E123" s="16"/>
       <c r="G123" t="s">
+        <v>835</v>
+      </c>
+      <c r="H123" t="s">
         <v>837</v>
       </c>
-      <c r="H123" t="s">
-        <v>839</v>
-      </c>
       <c r="I123" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="L123" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -7789,16 +7792,16 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="G124" t="s">
+        <v>606</v>
+      </c>
+      <c r="H124" t="s">
+        <v>646</v>
+      </c>
+      <c r="I124" t="s">
         <v>607</v>
-      </c>
-      <c r="G124" t="s">
-        <v>608</v>
-      </c>
-      <c r="H124" t="s">
-        <v>648</v>
-      </c>
-      <c r="I124" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -7813,19 +7816,19 @@
         <v>5</v>
       </c>
       <c r="D125" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F125" t="s">
+        <v>664</v>
+      </c>
+      <c r="G125" t="s">
+        <v>491</v>
+      </c>
+      <c r="H125" t="s">
         <v>492</v>
       </c>
-      <c r="F125" t="s">
-        <v>666</v>
-      </c>
-      <c r="G125" t="s">
-        <v>493</v>
-      </c>
-      <c r="H125" t="s">
-        <v>494</v>
-      </c>
       <c r="I125" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -7840,16 +7843,16 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="G126" t="s">
+        <v>523</v>
+      </c>
+      <c r="H126" t="s">
         <v>524</v>
       </c>
-      <c r="G126" t="s">
+      <c r="I126" t="s">
         <v>525</v>
-      </c>
-      <c r="H126" t="s">
-        <v>526</v>
-      </c>
-      <c r="I126" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -7864,24 +7867,24 @@
         <v>5</v>
       </c>
       <c r="D127" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="F127" t="s">
+        <v>664</v>
+      </c>
+      <c r="G127" t="s">
+        <v>704</v>
+      </c>
+      <c r="H127" t="s">
         <v>705</v>
       </c>
-      <c r="F127" t="s">
-        <v>666</v>
-      </c>
-      <c r="G127" t="s">
-        <v>706</v>
-      </c>
-      <c r="H127" t="s">
-        <v>707</v>
-      </c>
       <c r="I127" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B128" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -7891,22 +7894,22 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E128" s="16"/>
       <c r="G128" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H128" t="s">
+        <v>799</v>
+      </c>
+      <c r="I128" t="s">
         <v>801</v>
-      </c>
-      <c r="I128" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B129" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -7916,19 +7919,19 @@
         <v>5</v>
       </c>
       <c r="D129" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="G129" t="s">
+        <v>613</v>
+      </c>
+      <c r="H129" t="s">
         <v>614</v>
       </c>
-      <c r="G129" t="s">
+      <c r="I129" t="s">
         <v>615</v>
       </c>
-      <c r="H129" t="s">
-        <v>616</v>
-      </c>
-      <c r="I129" t="s">
-        <v>617</v>
-      </c>
       <c r="M129" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -7943,22 +7946,22 @@
         <v>5</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E130" s="16"/>
       <c r="G130" t="s">
+        <v>848</v>
+      </c>
+      <c r="H130" t="s">
+        <v>849</v>
+      </c>
+      <c r="I130" t="s">
         <v>850</v>
-      </c>
-      <c r="H130" t="s">
-        <v>851</v>
-      </c>
-      <c r="I130" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B131" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -7968,17 +7971,17 @@
         <v>5</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E131" s="16"/>
       <c r="G131" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H131" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I131" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -7993,16 +7996,16 @@
         <v>5</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G132" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H132" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I132" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -8020,16 +8023,16 @@
         <v>73</v>
       </c>
       <c r="F133" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G133" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H133" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I133" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J133" t="s">
         <v>164</v>
@@ -8047,19 +8050,19 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F134" t="s">
+        <v>664</v>
+      </c>
+      <c r="G134" t="s">
+        <v>399</v>
+      </c>
+      <c r="H134" t="s">
         <v>400</v>
       </c>
-      <c r="F134" t="s">
-        <v>666</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="I134" t="s">
         <v>401</v>
-      </c>
-      <c r="H134" t="s">
-        <v>402</v>
-      </c>
-      <c r="I134" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -8074,19 +8077,19 @@
         <v>5</v>
       </c>
       <c r="D135" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F135" t="s">
+        <v>813</v>
+      </c>
+      <c r="G135" t="s">
+        <v>313</v>
+      </c>
+      <c r="H135" t="s">
         <v>314</v>
       </c>
-      <c r="F135" t="s">
-        <v>815</v>
-      </c>
-      <c r="G135" t="s">
-        <v>315</v>
-      </c>
-      <c r="H135" t="s">
-        <v>316</v>
-      </c>
       <c r="I135" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -8101,19 +8104,19 @@
         <v>5</v>
       </c>
       <c r="D136" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F136" t="s">
+        <v>813</v>
+      </c>
+      <c r="G136" t="s">
+        <v>341</v>
+      </c>
+      <c r="H136" t="s">
         <v>342</v>
       </c>
-      <c r="F136" t="s">
-        <v>815</v>
-      </c>
-      <c r="G136" t="s">
-        <v>343</v>
-      </c>
-      <c r="H136" t="s">
-        <v>344</v>
-      </c>
       <c r="I136" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -8128,19 +8131,19 @@
         <v>5</v>
       </c>
       <c r="D137" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="F137" t="s">
+        <v>664</v>
+      </c>
+      <c r="G137" t="s">
+        <v>558</v>
+      </c>
+      <c r="H137" t="s">
         <v>559</v>
       </c>
-      <c r="F137" t="s">
-        <v>666</v>
-      </c>
-      <c r="G137" t="s">
-        <v>560</v>
-      </c>
-      <c r="H137" t="s">
-        <v>561</v>
-      </c>
       <c r="I137" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -8155,44 +8158,44 @@
         <v>5</v>
       </c>
       <c r="D138" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="F138" t="s">
+        <v>664</v>
+      </c>
+      <c r="G138" t="s">
+        <v>549</v>
+      </c>
+      <c r="H138" t="s">
         <v>550</v>
       </c>
-      <c r="F138" t="s">
-        <v>666</v>
-      </c>
-      <c r="G138" t="s">
-        <v>551</v>
-      </c>
-      <c r="H138" t="s">
-        <v>552</v>
-      </c>
       <c r="I138" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
+        <v>951</v>
+      </c>
+      <c r="B139" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>pyramide</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="E139" s="19"/>
+      <c r="G139" t="s">
         <v>953</v>
       </c>
-      <c r="B139" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>pyramide</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" s="11" t="s">
+      <c r="H139" t="s">
         <v>954</v>
       </c>
-      <c r="E139" s="20"/>
-      <c r="G139" t="s">
+      <c r="I139" t="s">
         <v>955</v>
-      </c>
-      <c r="H139" t="s">
-        <v>956</v>
-      </c>
-      <c r="I139" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -8207,17 +8210,17 @@
         <v>5</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E140" s="16"/>
       <c r="G140" t="s">
+        <v>795</v>
+      </c>
+      <c r="H140" t="s">
+        <v>796</v>
+      </c>
+      <c r="I140" t="s">
         <v>797</v>
-      </c>
-      <c r="H140" t="s">
-        <v>798</v>
-      </c>
-      <c r="I140" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -8232,19 +8235,19 @@
         <v>5</v>
       </c>
       <c r="D141" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F141" t="s">
+        <v>664</v>
+      </c>
+      <c r="G141" t="s">
+        <v>539</v>
+      </c>
+      <c r="H141" t="s">
         <v>540</v>
       </c>
-      <c r="F141" t="s">
-        <v>666</v>
-      </c>
-      <c r="G141" t="s">
+      <c r="I141" t="s">
         <v>541</v>
-      </c>
-      <c r="H141" t="s">
-        <v>542</v>
-      </c>
-      <c r="I141" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -8259,19 +8262,19 @@
         <v>5</v>
       </c>
       <c r="D142" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="F142" t="s">
+        <v>813</v>
+      </c>
+      <c r="G142" t="s">
+        <v>429</v>
+      </c>
+      <c r="H142" t="s">
         <v>430</v>
       </c>
-      <c r="F142" t="s">
-        <v>815</v>
-      </c>
-      <c r="G142" t="s">
+      <c r="I142" t="s">
         <v>431</v>
-      </c>
-      <c r="H142" t="s">
-        <v>432</v>
-      </c>
-      <c r="I142" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -8286,19 +8289,19 @@
         <v>5</v>
       </c>
       <c r="D143" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="F143" t="s">
+        <v>664</v>
+      </c>
+      <c r="G143" t="s">
+        <v>573</v>
+      </c>
+      <c r="H143" t="s">
         <v>574</v>
       </c>
-      <c r="F143" t="s">
-        <v>666</v>
-      </c>
-      <c r="G143" t="s">
-        <v>575</v>
-      </c>
-      <c r="H143" t="s">
-        <v>576</v>
-      </c>
       <c r="I143" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -8313,16 +8316,16 @@
         <v>5</v>
       </c>
       <c r="D144" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="G144" t="s">
+        <v>599</v>
+      </c>
+      <c r="H144" t="s">
         <v>600</v>
       </c>
-      <c r="G144" t="s">
+      <c r="I144" t="s">
         <v>601</v>
-      </c>
-      <c r="H144" t="s">
-        <v>602</v>
-      </c>
-      <c r="I144" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -8337,19 +8340,19 @@
         <v>5</v>
       </c>
       <c r="D145" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="F145" t="s">
+        <v>664</v>
+      </c>
+      <c r="G145" t="s">
+        <v>509</v>
+      </c>
+      <c r="H145" t="s">
         <v>510</v>
       </c>
-      <c r="F145" t="s">
-        <v>666</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="I145" t="s">
         <v>511</v>
-      </c>
-      <c r="H145" t="s">
-        <v>512</v>
-      </c>
-      <c r="I145" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -8364,17 +8367,17 @@
         <v>5</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E146" s="16"/>
       <c r="G146" t="s">
+        <v>725</v>
+      </c>
+      <c r="H146" t="s">
+        <v>726</v>
+      </c>
+      <c r="I146" t="s">
         <v>727</v>
-      </c>
-      <c r="H146" t="s">
-        <v>728</v>
-      </c>
-      <c r="I146" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -8389,19 +8392,19 @@
         <v>5</v>
       </c>
       <c r="D147" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F147" t="s">
+        <v>664</v>
+      </c>
+      <c r="G147" t="s">
+        <v>304</v>
+      </c>
+      <c r="H147" t="s">
         <v>305</v>
       </c>
-      <c r="F147" t="s">
-        <v>666</v>
-      </c>
-      <c r="G147" t="s">
-        <v>306</v>
-      </c>
-      <c r="H147" t="s">
-        <v>307</v>
-      </c>
       <c r="I147" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -8431,7 +8434,7 @@
         <v>163</v>
       </c>
       <c r="L148" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -8446,24 +8449,24 @@
         <v>5</v>
       </c>
       <c r="D149" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="F149" t="s">
+        <v>664</v>
+      </c>
+      <c r="G149" t="s">
+        <v>513</v>
+      </c>
+      <c r="H149" t="s">
         <v>514</v>
       </c>
-      <c r="F149" t="s">
-        <v>666</v>
-      </c>
-      <c r="G149" t="s">
+      <c r="I149" t="s">
         <v>515</v>
-      </c>
-      <c r="H149" t="s">
-        <v>516</v>
-      </c>
-      <c r="I149" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B150" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -8473,16 +8476,16 @@
         <v>5</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G150" t="s">
         <v>120</v>
       </c>
       <c r="H150" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I150" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J150" t="s">
         <v>163</v>
@@ -8500,22 +8503,22 @@
         <v>5</v>
       </c>
       <c r="D151" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="F151" t="s">
+        <v>813</v>
+      </c>
+      <c r="G151" t="s">
+        <v>517</v>
+      </c>
+      <c r="H151" t="s">
         <v>518</v>
       </c>
-      <c r="F151" t="s">
-        <v>815</v>
-      </c>
-      <c r="G151" t="s">
+      <c r="I151" t="s">
         <v>519</v>
       </c>
-      <c r="H151" t="s">
-        <v>520</v>
-      </c>
-      <c r="I151" t="s">
-        <v>521</v>
-      </c>
       <c r="M151" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -8530,16 +8533,16 @@
         <v>5</v>
       </c>
       <c r="D152" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="G152" t="s">
+        <v>392</v>
+      </c>
+      <c r="H152" t="s">
         <v>393</v>
       </c>
-      <c r="G152" t="s">
+      <c r="I152" t="s">
         <v>394</v>
-      </c>
-      <c r="H152" t="s">
-        <v>395</v>
-      </c>
-      <c r="I152" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -8554,17 +8557,17 @@
         <v>5</v>
       </c>
       <c r="D153" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="E153" s="19"/>
+      <c r="G153" t="s">
+        <v>966</v>
+      </c>
+      <c r="H153" t="s">
         <v>967</v>
       </c>
-      <c r="E153" s="20"/>
-      <c r="G153" t="s">
+      <c r="I153" t="s">
         <v>968</v>
-      </c>
-      <c r="H153" t="s">
-        <v>969</v>
-      </c>
-      <c r="I153" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -8579,17 +8582,17 @@
         <v>5</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E154" s="16"/>
       <c r="G154" t="s">
+        <v>716</v>
+      </c>
+      <c r="H154" t="s">
+        <v>717</v>
+      </c>
+      <c r="I154" t="s">
         <v>718</v>
-      </c>
-      <c r="H154" t="s">
-        <v>719</v>
-      </c>
-      <c r="I154" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -8604,7 +8607,7 @@
         <v>5</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G155" t="s">
         <v>182</v>
@@ -8613,31 +8616,31 @@
         <v>183</v>
       </c>
       <c r="I155" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B156" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>schloss</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="G156" t="s">
         <v>404</v>
       </c>
-      <c r="B156" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>schloss</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D156" s="11" t="s">
+      <c r="H156" t="s">
         <v>405</v>
       </c>
-      <c r="G156" t="s">
+      <c r="I156" t="s">
         <v>406</v>
-      </c>
-      <c r="H156" t="s">
-        <v>407</v>
-      </c>
-      <c r="I156" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -8652,16 +8655,16 @@
         <v>5</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G157" t="s">
+        <v>619</v>
+      </c>
+      <c r="H157" t="s">
+        <v>620</v>
+      </c>
+      <c r="I157" t="s">
         <v>621</v>
-      </c>
-      <c r="H157" t="s">
-        <v>622</v>
-      </c>
-      <c r="I157" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -8685,7 +8688,7 @@
         <v>65</v>
       </c>
       <c r="I158" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J158" t="s">
         <v>162</v>
@@ -8706,13 +8709,13 @@
         <v>176</v>
       </c>
       <c r="G159" t="s">
+        <v>457</v>
+      </c>
+      <c r="H159" t="s">
+        <v>458</v>
+      </c>
+      <c r="I159" t="s">
         <v>459</v>
-      </c>
-      <c r="H159" t="s">
-        <v>460</v>
-      </c>
-      <c r="I159" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -8727,17 +8730,17 @@
         <v>5</v>
       </c>
       <c r="D160" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="E160" s="19"/>
+      <c r="G160" t="s">
+        <v>923</v>
+      </c>
+      <c r="H160" t="s">
+        <v>921</v>
+      </c>
+      <c r="I160" t="s">
         <v>922</v>
-      </c>
-      <c r="E160" s="20"/>
-      <c r="G160" t="s">
-        <v>925</v>
-      </c>
-      <c r="H160" t="s">
-        <v>923</v>
-      </c>
-      <c r="I160" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -8752,19 +8755,19 @@
         <v>5</v>
       </c>
       <c r="D161" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="F161" t="s">
+        <v>664</v>
+      </c>
+      <c r="G161" t="s">
+        <v>386</v>
+      </c>
+      <c r="H161" t="s">
         <v>387</v>
       </c>
-      <c r="F161" t="s">
-        <v>666</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="I161" t="s">
         <v>388</v>
-      </c>
-      <c r="H161" t="s">
-        <v>389</v>
-      </c>
-      <c r="I161" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -8779,16 +8782,16 @@
         <v>5</v>
       </c>
       <c r="D162" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G162" t="s">
         <v>501</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
+        <v>502</v>
+      </c>
+      <c r="I162" t="s">
         <v>503</v>
-      </c>
-      <c r="H162" t="s">
-        <v>504</v>
-      </c>
-      <c r="I162" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -8803,42 +8806,42 @@
         <v>5</v>
       </c>
       <c r="D163" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F163" t="s">
+        <v>664</v>
+      </c>
+      <c r="G163" t="s">
+        <v>576</v>
+      </c>
+      <c r="H163" t="s">
         <v>577</v>
       </c>
-      <c r="F163" t="s">
-        <v>666</v>
-      </c>
-      <c r="G163" t="s">
+      <c r="I163" t="s">
         <v>578</v>
-      </c>
-      <c r="H163" t="s">
-        <v>579</v>
-      </c>
-      <c r="I163" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G164" t="s">
+        <v>262</v>
+      </c>
+      <c r="H164" t="s">
         <v>264</v>
       </c>
-      <c r="H164" t="s">
-        <v>266</v>
-      </c>
       <c r="I164" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -8853,19 +8856,19 @@
         <v>5</v>
       </c>
       <c r="D165" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="F165" t="s">
+        <v>664</v>
+      </c>
+      <c r="G165" t="s">
+        <v>546</v>
+      </c>
+      <c r="H165" t="s">
         <v>547</v>
       </c>
-      <c r="F165" t="s">
-        <v>666</v>
-      </c>
-      <c r="G165" t="s">
-        <v>548</v>
-      </c>
-      <c r="H165" t="s">
-        <v>549</v>
-      </c>
       <c r="I165" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -8880,17 +8883,17 @@
         <v>5</v>
       </c>
       <c r="D166" s="11" t="s">
+        <v>912</v>
+      </c>
+      <c r="E166" s="19"/>
+      <c r="G166" t="s">
         <v>914</v>
       </c>
-      <c r="E166" s="20"/>
-      <c r="G166" t="s">
+      <c r="H166" t="s">
+        <v>915</v>
+      </c>
+      <c r="I166" t="s">
         <v>916</v>
-      </c>
-      <c r="H166" t="s">
-        <v>917</v>
-      </c>
-      <c r="I166" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -8905,19 +8908,19 @@
         <v>5</v>
       </c>
       <c r="D167" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="F167" t="s">
+        <v>664</v>
+      </c>
+      <c r="G167" t="s">
+        <v>667</v>
+      </c>
+      <c r="H167" t="s">
+        <v>543</v>
+      </c>
+      <c r="I167" t="s">
         <v>544</v>
-      </c>
-      <c r="F167" t="s">
-        <v>666</v>
-      </c>
-      <c r="G167" t="s">
-        <v>669</v>
-      </c>
-      <c r="H167" t="s">
-        <v>545</v>
-      </c>
-      <c r="I167" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -8932,17 +8935,17 @@
         <v>5</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E168" s="16"/>
       <c r="G168" t="s">
+        <v>768</v>
+      </c>
+      <c r="H168" t="s">
+        <v>769</v>
+      </c>
+      <c r="I168" t="s">
         <v>770</v>
-      </c>
-      <c r="H168" t="s">
-        <v>771</v>
-      </c>
-      <c r="I168" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -8966,13 +8969,13 @@
         <v>31</v>
       </c>
       <c r="I169" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J169" t="s">
         <v>162</v>
       </c>
       <c r="L169" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -8987,22 +8990,22 @@
         <v>5</v>
       </c>
       <c r="D170" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="F170" t="s">
+        <v>813</v>
+      </c>
+      <c r="G170" t="s">
+        <v>627</v>
+      </c>
+      <c r="H170" t="s">
         <v>628</v>
       </c>
-      <c r="F170" t="s">
-        <v>815</v>
-      </c>
-      <c r="G170" t="s">
+      <c r="I170" t="s">
         <v>629</v>
       </c>
-      <c r="H170" t="s">
+      <c r="M170" t="s">
         <v>630</v>
-      </c>
-      <c r="I170" t="s">
-        <v>631</v>
-      </c>
-      <c r="M170" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -9017,17 +9020,17 @@
         <v>5</v>
       </c>
       <c r="D171" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="E171" s="19"/>
+      <c r="G171" t="s">
+        <v>929</v>
+      </c>
+      <c r="H171" t="s">
         <v>930</v>
       </c>
-      <c r="E171" s="20"/>
-      <c r="G171" t="s">
+      <c r="I171" t="s">
         <v>931</v>
-      </c>
-      <c r="H171" t="s">
-        <v>932</v>
-      </c>
-      <c r="I171" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -9042,17 +9045,17 @@
         <v>5</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E172" s="16"/>
       <c r="G172" t="s">
+        <v>828</v>
+      </c>
+      <c r="H172" t="s">
+        <v>829</v>
+      </c>
+      <c r="I172" t="s">
         <v>830</v>
-      </c>
-      <c r="H172" t="s">
-        <v>831</v>
-      </c>
-      <c r="I172" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -9067,19 +9070,19 @@
         <v>5</v>
       </c>
       <c r="D173" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="F173" t="s">
+        <v>664</v>
+      </c>
+      <c r="G173" t="s">
+        <v>662</v>
+      </c>
+      <c r="H173" t="s">
+        <v>656</v>
+      </c>
+      <c r="I173" t="s">
         <v>657</v>
-      </c>
-      <c r="F173" t="s">
-        <v>666</v>
-      </c>
-      <c r="G173" t="s">
-        <v>664</v>
-      </c>
-      <c r="H173" t="s">
-        <v>658</v>
-      </c>
-      <c r="I173" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -9103,7 +9106,7 @@
         <v>175</v>
       </c>
       <c r="I174" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -9118,7 +9121,7 @@
         <v>5</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E175" s="16"/>
       <c r="G175" t="s">
@@ -9128,7 +9131,7 @@
         <v>175</v>
       </c>
       <c r="I175" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -9143,20 +9146,20 @@
         <v>5</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E176" s="16"/>
       <c r="G176" t="s">
+        <v>748</v>
+      </c>
+      <c r="H176" t="s">
         <v>750</v>
       </c>
-      <c r="H176" t="s">
-        <v>752</v>
-      </c>
       <c r="I176" t="s">
+        <v>749</v>
+      </c>
+      <c r="M176" t="s">
         <v>751</v>
-      </c>
-      <c r="M176" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -9171,19 +9174,19 @@
         <v>5</v>
       </c>
       <c r="D177" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="F177" t="s">
+        <v>664</v>
+      </c>
+      <c r="G177" t="s">
+        <v>528</v>
+      </c>
+      <c r="H177" t="s">
         <v>529</v>
       </c>
-      <c r="F177" t="s">
-        <v>666</v>
-      </c>
-      <c r="G177" t="s">
+      <c r="I177" t="s">
         <v>530</v>
-      </c>
-      <c r="H177" t="s">
-        <v>531</v>
-      </c>
-      <c r="I177" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -9201,7 +9204,7 @@
         <v>116</v>
       </c>
       <c r="F178" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G178" t="s">
         <v>117</v>
@@ -9210,7 +9213,7 @@
         <v>118</v>
       </c>
       <c r="I178" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J178" t="s">
         <v>165</v>
@@ -9228,19 +9231,19 @@
         <v>5</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F179" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G179" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H179" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I179" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="J179" t="s">
         <v>163</v>
@@ -9258,17 +9261,17 @@
         <v>5</v>
       </c>
       <c r="D180" s="11" t="s">
+        <v>940</v>
+      </c>
+      <c r="E180" s="19"/>
+      <c r="G180" t="s">
+        <v>941</v>
+      </c>
+      <c r="H180" t="s">
         <v>942</v>
       </c>
-      <c r="E180" s="20"/>
-      <c r="G180" t="s">
+      <c r="I180" t="s">
         <v>943</v>
-      </c>
-      <c r="H180" t="s">
-        <v>944</v>
-      </c>
-      <c r="I180" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -9286,13 +9289,16 @@
         <v>206</v>
       </c>
       <c r="G181" t="s">
-        <v>207</v>
-      </c>
-      <c r="H181" t="s">
-        <v>208</v>
-      </c>
-      <c r="I181" t="s">
-        <v>683</v>
+        <v>1224</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="M181" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -9307,17 +9313,17 @@
         <v>5</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E182" s="16"/>
       <c r="G182" t="s">
+        <v>736</v>
+      </c>
+      <c r="H182" t="s">
+        <v>737</v>
+      </c>
+      <c r="I182" t="s">
         <v>738</v>
-      </c>
-      <c r="H182" t="s">
-        <v>739</v>
-      </c>
-      <c r="I182" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -9335,39 +9341,39 @@
         <v>184</v>
       </c>
       <c r="G183" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H183" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I183" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G184" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H184" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I184" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="M184" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -9382,20 +9388,20 @@
         <v>5</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E185" s="16"/>
       <c r="G185" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H185" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I185" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="M185" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -9413,7 +9419,7 @@
         <v>96</v>
       </c>
       <c r="F186" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G186" t="s">
         <v>97</v>
@@ -9422,7 +9428,7 @@
         <v>98</v>
       </c>
       <c r="I186" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="J186" t="s">
         <v>164</v>
@@ -9449,13 +9455,13 @@
         <v>77</v>
       </c>
       <c r="I187" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J187" t="s">
         <v>164</v>
       </c>
       <c r="K187" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -9470,17 +9476,17 @@
         <v>5</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E188" s="16"/>
       <c r="G188" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H188" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I188" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -9495,19 +9501,19 @@
         <v>5</v>
       </c>
       <c r="D189" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="G189" t="s">
+        <v>536</v>
+      </c>
+      <c r="H189" t="s">
         <v>537</v>
       </c>
-      <c r="G189" t="s">
-        <v>538</v>
-      </c>
-      <c r="H189" t="s">
-        <v>539</v>
-      </c>
       <c r="I189" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M189" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -9522,51 +9528,51 @@
         <v>5</v>
       </c>
       <c r="D190" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="E190" t="s">
+        <v>806</v>
+      </c>
+      <c r="F190" t="s">
+        <v>664</v>
+      </c>
+      <c r="G190" t="s">
+        <v>623</v>
+      </c>
+      <c r="H190" t="s">
         <v>624</v>
       </c>
-      <c r="E190" t="s">
-        <v>808</v>
-      </c>
-      <c r="F190" t="s">
-        <v>666</v>
-      </c>
-      <c r="G190" t="s">
+      <c r="I190" t="s">
         <v>625</v>
       </c>
-      <c r="H190" t="s">
-        <v>626</v>
-      </c>
-      <c r="I190" t="s">
-        <v>627</v>
-      </c>
       <c r="K190" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M190" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G191" t="s">
         <v>271</v>
       </c>
-      <c r="B191" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="C191" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D191" s="11" t="s">
+      <c r="H191" t="s">
         <v>272</v>
       </c>
-      <c r="G191" t="s">
-        <v>273</v>
-      </c>
-      <c r="H191" t="s">
-        <v>274</v>
-      </c>
       <c r="I191" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -9581,17 +9587,17 @@
         <v>5</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E192" s="16"/>
       <c r="G192" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H192" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I192" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -9606,24 +9612,24 @@
         <v>5</v>
       </c>
       <c r="D193" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F193" t="s">
+        <v>664</v>
+      </c>
+      <c r="G193" t="s">
+        <v>347</v>
+      </c>
+      <c r="H193" t="s">
         <v>348</v>
       </c>
-      <c r="F193" t="s">
-        <v>666</v>
-      </c>
-      <c r="G193" t="s">
-        <v>349</v>
-      </c>
-      <c r="H193" t="s">
-        <v>350</v>
-      </c>
       <c r="I193" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B194" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -9633,16 +9639,16 @@
         <v>5</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G194" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H194" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I194" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -9657,17 +9663,17 @@
         <v>5</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E195" s="16"/>
       <c r="G195" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H195" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I195" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -9682,17 +9688,17 @@
         <v>5</v>
       </c>
       <c r="D196" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="E196" s="19"/>
+      <c r="G196" t="s">
+        <v>937</v>
+      </c>
+      <c r="H196" t="s">
         <v>938</v>
       </c>
-      <c r="E196" s="20"/>
-      <c r="G196" t="s">
+      <c r="I196" t="s">
         <v>939</v>
-      </c>
-      <c r="H196" t="s">
-        <v>940</v>
-      </c>
-      <c r="I196" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -9707,19 +9713,19 @@
         <v>5</v>
       </c>
       <c r="D197" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F197" t="s">
+        <v>664</v>
+      </c>
+      <c r="G197" t="s">
+        <v>325</v>
+      </c>
+      <c r="H197" t="s">
         <v>326</v>
       </c>
-      <c r="F197" t="s">
-        <v>666</v>
-      </c>
-      <c r="G197" t="s">
-        <v>327</v>
-      </c>
-      <c r="H197" t="s">
-        <v>328</v>
-      </c>
       <c r="I197" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -9737,7 +9743,7 @@
         <v>106</v>
       </c>
       <c r="F198" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G198" t="s">
         <v>107</v>
@@ -9746,7 +9752,7 @@
         <v>108</v>
       </c>
       <c r="I198" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J198" t="s">
         <v>165</v>
@@ -9764,17 +9770,17 @@
         <v>5</v>
       </c>
       <c r="D199" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="E199" s="19"/>
+      <c r="G199" t="s">
+        <v>948</v>
+      </c>
+      <c r="H199" t="s">
         <v>949</v>
       </c>
-      <c r="E199" s="20"/>
-      <c r="G199" t="s">
+      <c r="I199" t="s">
         <v>950</v>
-      </c>
-      <c r="H199" t="s">
-        <v>951</v>
-      </c>
-      <c r="I199" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -9789,43 +9795,43 @@
         <v>5</v>
       </c>
       <c r="D200" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F200" t="s">
+        <v>664</v>
+      </c>
+      <c r="G200" t="s">
+        <v>239</v>
+      </c>
+      <c r="H200" t="s">
         <v>240</v>
       </c>
-      <c r="F200" t="s">
-        <v>666</v>
-      </c>
-      <c r="G200" t="s">
-        <v>241</v>
-      </c>
-      <c r="H200" t="s">
-        <v>242</v>
-      </c>
       <c r="I200" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B201" s="9" t="str">
+        <f>Tabelle1[[#This Row],[Dateiname]]</f>
+        <v>vulkan2</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G201" t="s">
         <v>245</v>
       </c>
-      <c r="B201" s="9" t="str">
-        <f>Tabelle1[[#This Row],[Dateiname]]</f>
-        <v>vulkan2</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D201" s="11" t="s">
+      <c r="H201" t="s">
         <v>246</v>
       </c>
-      <c r="G201" t="s">
-        <v>247</v>
-      </c>
-      <c r="H201" t="s">
-        <v>248</v>
-      </c>
       <c r="I201" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -9840,19 +9846,19 @@
         <v>5</v>
       </c>
       <c r="D202" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="F202" t="s">
+        <v>664</v>
+      </c>
+      <c r="G202" t="s">
+        <v>479</v>
+      </c>
+      <c r="H202" t="s">
+        <v>481</v>
+      </c>
+      <c r="I202" t="s">
         <v>480</v>
-      </c>
-      <c r="F202" t="s">
-        <v>666</v>
-      </c>
-      <c r="G202" t="s">
-        <v>481</v>
-      </c>
-      <c r="H202" t="s">
-        <v>483</v>
-      </c>
-      <c r="I202" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -9867,19 +9873,19 @@
         <v>5</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F203" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G203" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H203" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I203" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -9894,19 +9900,19 @@
         <v>5</v>
       </c>
       <c r="D204" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="F204" t="s">
+        <v>664</v>
+      </c>
+      <c r="G204" t="s">
+        <v>500</v>
+      </c>
+      <c r="H204" t="s">
         <v>498</v>
       </c>
-      <c r="F204" t="s">
-        <v>666</v>
-      </c>
-      <c r="G204" t="s">
-        <v>502</v>
-      </c>
-      <c r="H204" t="s">
-        <v>500</v>
-      </c>
       <c r="I204" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -9921,19 +9927,19 @@
         <v>5</v>
       </c>
       <c r="D205" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="F205" t="s">
+        <v>664</v>
+      </c>
+      <c r="G205" t="s">
+        <v>532</v>
+      </c>
+      <c r="H205" t="s">
         <v>533</v>
       </c>
-      <c r="F205" t="s">
-        <v>666</v>
-      </c>
-      <c r="G205" t="s">
+      <c r="I205" t="s">
         <v>534</v>
-      </c>
-      <c r="H205" t="s">
-        <v>535</v>
-      </c>
-      <c r="I205" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -9948,22 +9954,22 @@
         <v>5</v>
       </c>
       <c r="D206" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="E206" s="19"/>
+      <c r="G206" t="s">
+        <v>933</v>
+      </c>
+      <c r="H206" t="s">
         <v>934</v>
       </c>
-      <c r="E206" s="20"/>
-      <c r="G206" t="s">
+      <c r="I206" t="s">
         <v>935</v>
-      </c>
-      <c r="H206" t="s">
-        <v>936</v>
-      </c>
-      <c r="I206" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B207" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -9973,22 +9979,22 @@
         <v>5</v>
       </c>
       <c r="D207" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="E207" s="19"/>
+      <c r="G207" t="s">
+        <v>996</v>
+      </c>
+      <c r="H207" t="s">
         <v>997</v>
       </c>
-      <c r="E207" s="20"/>
-      <c r="G207" t="s">
+      <c r="I207" t="s">
         <v>998</v>
-      </c>
-      <c r="H207" t="s">
-        <v>999</v>
-      </c>
-      <c r="I207" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B208" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -9998,21 +10004,21 @@
         <v>5</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G208" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H208" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I208" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B209" s="9" t="str">
         <f>Tabelle1[[#This Row],[Dateiname]]</f>
@@ -10022,17 +10028,17 @@
         <v>5</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E209" s="16"/>
       <c r="G209" t="s">
+        <v>803</v>
+      </c>
+      <c r="H209" t="s">
+        <v>804</v>
+      </c>
+      <c r="I209" t="s">
         <v>805</v>
-      </c>
-      <c r="H209" t="s">
-        <v>806</v>
-      </c>
-      <c r="I209" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -10047,17 +10053,17 @@
         <v>5</v>
       </c>
       <c r="D210" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="E210" s="19"/>
+      <c r="G210" t="s">
+        <v>984</v>
+      </c>
+      <c r="H210" t="s">
         <v>985</v>
       </c>
-      <c r="E210" s="20"/>
-      <c r="G210" t="s">
+      <c r="I210" t="s">
         <v>986</v>
-      </c>
-      <c r="H210" t="s">
-        <v>987</v>
-      </c>
-      <c r="I210" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -10081,7 +10087,7 @@
         <v>15</v>
       </c>
       <c r="I211" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J211" t="s">
         <v>162</v>
@@ -10099,19 +10105,19 @@
         <v>5</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F212" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G212" t="s">
         <v>6</v>
       </c>
       <c r="H212" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I212" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -10135,7 +10141,7 @@
         <v>11</v>
       </c>
       <c r="I213" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J213" t="s">
         <v>162</v>
@@ -10153,16 +10159,16 @@
         <v>5</v>
       </c>
       <c r="D214" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G214" t="s">
+        <v>433</v>
+      </c>
+      <c r="H214" t="s">
         <v>434</v>
       </c>
-      <c r="G214" t="s">
+      <c r="I214" t="s">
         <v>435</v>
-      </c>
-      <c r="H214" t="s">
-        <v>436</v>
-      </c>
-      <c r="I214" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -10177,16 +10183,16 @@
         <v>5</v>
       </c>
       <c r="D215" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G215" t="s">
+        <v>218</v>
+      </c>
+      <c r="H215" t="s">
         <v>219</v>
       </c>
-      <c r="G215" t="s">
-        <v>220</v>
-      </c>
-      <c r="H215" t="s">
-        <v>221</v>
-      </c>
       <c r="I215" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -10201,19 +10207,19 @@
         <v>5</v>
       </c>
       <c r="D216" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="F216" t="s">
+        <v>664</v>
+      </c>
+      <c r="G216" t="s">
+        <v>644</v>
+      </c>
+      <c r="H216" t="s">
         <v>645</v>
       </c>
-      <c r="F216" t="s">
-        <v>666</v>
-      </c>
-      <c r="G216" t="s">
-        <v>646</v>
-      </c>
-      <c r="H216" t="s">
-        <v>647</v>
-      </c>
       <c r="I216" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -10228,19 +10234,19 @@
         <v>5</v>
       </c>
       <c r="D217" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="F217" t="s">
+        <v>664</v>
+      </c>
+      <c r="G217" t="s">
+        <v>595</v>
+      </c>
+      <c r="H217" t="s">
         <v>596</v>
       </c>
-      <c r="F217" t="s">
-        <v>666</v>
-      </c>
-      <c r="G217" t="s">
+      <c r="I217" t="s">
         <v>597</v>
-      </c>
-      <c r="H217" t="s">
-        <v>598</v>
-      </c>
-      <c r="I217" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -10255,19 +10261,19 @@
         <v>5</v>
       </c>
       <c r="D218" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="F218" t="s">
+        <v>813</v>
+      </c>
+      <c r="G218" t="s">
+        <v>565</v>
+      </c>
+      <c r="H218" t="s">
         <v>566</v>
       </c>
-      <c r="F218" t="s">
-        <v>815</v>
-      </c>
-      <c r="G218" t="s">
+      <c r="I218" t="s">
         <v>567</v>
-      </c>
-      <c r="H218" t="s">
-        <v>568</v>
-      </c>
-      <c r="I218" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -10282,19 +10288,19 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="F219" t="s">
+        <v>664</v>
+      </c>
+      <c r="G219" t="s">
+        <v>632</v>
+      </c>
+      <c r="H219" t="s">
         <v>633</v>
       </c>
-      <c r="F219" t="s">
-        <v>666</v>
-      </c>
-      <c r="G219" t="s">
+      <c r="I219" t="s">
         <v>634</v>
-      </c>
-      <c r="H219" t="s">
-        <v>635</v>
-      </c>
-      <c r="I219" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -10309,22 +10315,22 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="F220" t="s">
+        <v>813</v>
+      </c>
+      <c r="G220" t="s">
+        <v>696</v>
+      </c>
+      <c r="H220" t="s">
         <v>697</v>
       </c>
-      <c r="F220" t="s">
-        <v>815</v>
-      </c>
-      <c r="G220" t="s">
+      <c r="I220" t="s">
         <v>698</v>
       </c>
-      <c r="H220" t="s">
-        <v>699</v>
-      </c>
-      <c r="I220" t="s">
-        <v>700</v>
-      </c>
       <c r="M220" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -10339,19 +10345,19 @@
         <v>5</v>
       </c>
       <c r="D221" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="F221" t="s">
+        <v>813</v>
+      </c>
+      <c r="G221" t="s">
+        <v>689</v>
+      </c>
+      <c r="H221" t="s">
         <v>690</v>
       </c>
-      <c r="F221" t="s">
-        <v>815</v>
-      </c>
-      <c r="G221" t="s">
-        <v>691</v>
-      </c>
-      <c r="H221" t="s">
-        <v>692</v>
-      </c>
       <c r="I221" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -10366,34 +10372,34 @@
         <v>5</v>
       </c>
       <c r="D222" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="F222" t="s">
+        <v>664</v>
+      </c>
+      <c r="G222" t="s">
+        <v>569</v>
+      </c>
+      <c r="H222" t="s">
         <v>570</v>
       </c>
-      <c r="F222" t="s">
-        <v>666</v>
-      </c>
-      <c r="G222" t="s">
+      <c r="I222" t="s">
         <v>571</v>
-      </c>
-      <c r="H222" t="s">
-        <v>572</v>
-      </c>
-      <c r="I222" t="s">
-        <v>573</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="ß">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="ß">
       <formula>NOT(ISERROR(SEARCH("ß",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75 F1:F6 M7 E76:F1048576 F9:F74 E1:E74">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"NEU"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:M22">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"NEU"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10632,89 +10638,89 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>909</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>908</v>
-      </c>
-      <c r="C2" s="19"/>
+        <v>907</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>906</v>
+      </c>
+      <c r="C2" s="20"/>
       <c r="D2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>892</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+        <v>890</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>891</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+        <v>889</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I4" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>910</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>905</v>
+        <v>908</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>903</v>
       </c>
       <c r="C5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>893</v>
-      </c>
-      <c r="B6" s="19"/>
+        <v>891</v>
+      </c>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>894</v>
-      </c>
-      <c r="B7" s="19"/>
+        <v>892</v>
+      </c>
+      <c r="B7" s="20"/>
       <c r="C7" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -10730,7 +10736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K260"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A201" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" topLeftCell="A201" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
@@ -10747,28 +10753,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" t="s">
         <v>356</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" t="s">
         <v>357</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>358</v>
       </c>
-      <c r="E1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G1" t="s">
-        <v>360</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -10801,7 +10807,7 @@
         <v>&lt;image&gt;&lt;resname&gt;adler&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Adler&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eagle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/adler-greifvogel-tier-695171/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;adler&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -10834,7 +10840,7 @@
         <v>&lt;image&gt;&lt;resname&gt;ahornblatt&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Ahornblatt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;maple leaf&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blau-ahorn-blatt-herbst-kanada-309763/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;ahornblatt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -10867,7 +10873,7 @@
         <v>&lt;image&gt;&lt;resname&gt;alien&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Alien&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;alien&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/au%C3%9Ferirdischer-geste-des-friedens-308429/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;alien&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -10900,7 +10906,7 @@
         <v>&lt;image&gt;&lt;resname&gt;ampel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Ampel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;trafficlight&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/trafficlight-stra%C3%9Fe-signal-vorsicht-306969/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;ampel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -10933,7 +10939,7 @@
         <v>&lt;image&gt;&lt;resname&gt;amsel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Amsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;blackbird&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/amsel-stehen-silhouette-rosa-305542/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;amsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -10966,7 +10972,7 @@
         <v>&lt;image&gt;&lt;resname&gt;ananas&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Ananas&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pineapple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ananas-obst-tropisch-frisch-gesund-312415/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;ananas&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -10999,7 +11005,7 @@
         <v>&lt;image&gt;&lt;resname&gt;anker&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Anker&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;anchor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/anker-meer-yacht-marine-schiff-312599/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;anker&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -11032,7 +11038,7 @@
         <v>&lt;image&gt;&lt;resname&gt;apfel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Apfel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;apple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blau-apple-blatt-obst-ernte-309764/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;apfel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -11065,7 +11071,7 @@
         <v>&lt;image&gt;&lt;resname&gt;auge&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auge&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;eye&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auge-schwarz-sch%C3%BCler-skizze-39618/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auge&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -11098,7 +11104,7 @@
         <v>&lt;image&gt;&lt;resname&gt;auto1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auto&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;car&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auto-fahrzeug-edel-limousine-681338/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auto1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -11131,7 +11137,7 @@
         <v>&lt;image&gt;&lt;resname&gt;auto2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Auto&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;car&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/auto-spielzeugauto-spielzeug-spa%C3%9F-312461/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;auto2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -11164,7 +11170,7 @@
         <v>&lt;image&gt;&lt;resname&gt;balance&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Balance&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;balance&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stein-balance-gleichgewicht-698354/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;balance&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -11197,7 +11203,7 @@
         <v>&lt;image&gt;&lt;resname&gt;ballon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Luftballon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;balloons&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/luftballons-aufgeblasen-luft-feier-312654/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;ballon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -11230,7 +11236,7 @@
         <v>&lt;image&gt;&lt;resname&gt;banane&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Banane&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;banana&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/banane-haufen-obst-lebensmittel-25339/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;banane&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -11263,7 +11269,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bank&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bank&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bench&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;catherinemary&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bank-rot-himmel-blau-natur-185234/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bank&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -11296,7 +11302,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bart&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnurrbart&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moustache&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;amandaelizabeth84&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schnurrbart-lenker-m%C3%A4nnlich-haar-473661/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bart&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -11329,7 +11335,7 @@
         <v>&lt;image&gt;&lt;resname&gt;batman&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Batman&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;batman&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fledermaus-schwarz-dracula-fl%C3%BCgel-151366/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;batman&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -11362,7 +11368,7 @@
         <v>&lt;image&gt;&lt;resname&gt;baum&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baum&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tree&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baum-scherenschnitt-natur-657481/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;baum&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -11395,7 +11401,7 @@
         <v>&lt;image&gt;&lt;resname&gt;baumstamm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Baumstamm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;log&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/baumst%C3%A4mme-holz-anmelden-bauholz-690888/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;baumstamm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -11428,7 +11434,7 @@
         <v>&lt;image&gt;&lt;resname&gt;berge&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Berge&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mountain&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/berg-himalaya-nepal-wandern-315296/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;berge&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -11461,7 +11467,7 @@
         <v>&lt;image&gt;&lt;resname&gt;besteck&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Besteck&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cutlery&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/platte-abendessen-gabel-l%C3%B6ffel-304113/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;besteck&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -11494,7 +11500,7 @@
         <v>&lt;image&gt;&lt;resname&gt;biene&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Biene&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bee&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/biene-honigbiene-stachel-fl%C3%BCgel-312770/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;biene&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -11527,7 +11533,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bildschirm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bildschirm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monitor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/monitor-flatscreen-bildschirm-23269/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bildschirm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -11560,7 +11566,7 @@
         <v>&lt;image&gt;&lt;resname&gt;blitz&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Blitz&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lightning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blitz-bolzen-streik-beleuchtung-303595/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;blitz&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -11593,7 +11599,7 @@
         <v>&lt;image&gt;&lt;resname&gt;blume1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Blume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blume-rose-kontur-umrisse-schwarz-681009/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;blume1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -11626,7 +11632,7 @@
         <v>&lt;image&gt;&lt;resname&gt;blume2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Blume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blume-kontur-gelb-umrisse-668854/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;blume2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -11659,7 +11665,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bombe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Bombe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bomb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bomb-explosive-detonation-fuze-154456&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bombe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -11692,7 +11698,7 @@
         <v>&lt;image&gt;&lt;resname&gt;boot&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Boot&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;boat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Suedelbien&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fischerboot-d%C3%A4nemark-strand-meer-49523/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;boot&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -11725,7 +11731,7 @@
         <v>&lt;image&gt;&lt;resname&gt;brief&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Brief&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;envelope&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/umschlag-mail-bereitstellen-306781/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;brief&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -11758,7 +11764,7 @@
         <v>&lt;image&gt;&lt;resname&gt;brille&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Brille&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;glasses&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/brillen-schwarz-silhouette-310516/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;brille&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -11791,7 +11797,7 @@
         <v>&lt;image&gt;&lt;resname&gt;buchstabe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Buchstabe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;letter&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/abc-alphabet-m-stoff-streifen-732849/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;buchstabe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11824,7 +11830,7 @@
         <v>&lt;image&gt;&lt;resname&gt;bueroklammer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Büroklammer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;paperclip&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/b%C3%BCroklammer-b%C3%BCro-pin-inhaber-308487/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;bueroklammer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -11857,7 +11863,7 @@
         <v>&lt;image&gt;&lt;resname&gt;cd&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;CD&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cd&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/bytes-cd-rom-bunte-kompakt-kopie-315546/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;cd&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -11890,7 +11896,7 @@
         <v>&lt;image&gt;&lt;resname&gt;diamant&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Diamant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;diamond&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/diamant-teuer-juwel-wertvolle-158431/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;diamant&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -11923,7 +11929,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dinosaurier&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Dinosaurier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dinosaur&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/brontosaurus-dinosaurier-dino-297003/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dinosaurier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -11956,7 +11962,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dna&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Dna&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dna&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/dna-doppelhelix-helix-wissenschaft-312438/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dna&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -11989,7 +11995,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dollar&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Dollar&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dollar&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/dollar-geld-gesch%C3%A4ft-w%C3%A4hrung-311345/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dollar&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -12022,7 +12028,7 @@
         <v>&lt;image&gt;&lt;resname&gt;drache&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Drache&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;dragon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-rot-symbol-fantasie-312035/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;drache&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -12055,7 +12061,7 @@
         <v>&lt;image&gt;&lt;resname&gt;dreieck&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Dreieck&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;triangle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/dreieck-verkehr-flughafen-kontrolle-38204/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;dreieck&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -12088,7 +12094,7 @@
         <v>&lt;image&gt;&lt;resname&gt;eichhoernchen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Eichhörnchen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;squirrel&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tier-eichh%C3%B6rnchen-baum-s%C3%A4ugetier-316528/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;eichhoernchen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -12121,7 +12127,7 @@
         <v>&lt;image&gt;&lt;resname&gt;einhorn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Einhorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;unicorn&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/einhorn-horn-pferd-fantasie-313411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;einhorn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -12154,7 +12160,7 @@
         <v>&lt;image&gt;&lt;resname&gt;eisenbahn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Eisenbahn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;train&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/zug-reisen-transport-eisenbahn-312227/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;eisenbahn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -12187,7 +12193,7 @@
         <v>&lt;image&gt;&lt;resname&gt;elephant&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Elefant&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;elephant&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/elefant-profil-rot-gro%C3%9F-306223/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;elephant&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -12220,7 +12226,7 @@
         <v>&lt;image&gt;&lt;resname&gt;ente&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Ente&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;duck&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummi-ente-quietschende-schwimmen-156597/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;ente&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -12253,7 +12259,7 @@
         <v>&lt;image&gt;&lt;resname&gt;erdbeere&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Erdbeere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;strawberry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/erdbeere-rot-makro-629180/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;erdbeere&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -12286,7 +12292,7 @@
         <v>&lt;image&gt;&lt;resname&gt;esel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Esel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;donkey&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/donkey-animal-farm-gray-comic-310798/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;esel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -12319,7 +12325,7 @@
         <v>&lt;image&gt;&lt;resname&gt;europa&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Europa&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;europe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/europa-karte-l%C3%A4nder-silhouette-23571/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;europa&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -12352,7 +12358,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fahrrad&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fahrrad&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bicycle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fahrrad-zyklus-rad-pedal-311808/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fahrrad&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -12385,7 +12391,7 @@
         <v>&lt;image&gt;&lt;resname&gt;festung&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Festung&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fortress&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Soudier_P&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/burg-mittelalterliche-foix-542417/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;festung&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -12418,7 +12424,7 @@
         <v>&lt;image&gt;&lt;resname&gt;feuer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Feuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-kamin-flamme-hei%C3%9F-brennen-690944/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;feuer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -12451,7 +12457,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fish&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fisch-thunfisch-meeresfr%C3%BCchte-311077/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fisch&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -12484,7 +12490,7 @@
         <v>&lt;image&gt;&lt;resname&gt;flagge&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flagge&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;flag&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/flagge-rot-signal-aufmerksamkeit-312763/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flagge&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -12517,7 +12523,7 @@
         <v>&lt;image&gt;&lt;resname&gt;flasche&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flasche&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bottle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/flasche-ketchup-leere-geschlossen-306549/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flasche&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -12550,7 +12556,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fliegenpilz&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fliegenpilz&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mushroom&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lichtwerk2&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fliegenpilze-roter-fliegenpilz-pilze-516281/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fliegenpilz&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -12583,7 +12589,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fluegel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flügel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;wings&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fl%C3%BCgel-wei%C3%9F-isoliert-symbol-feder-311429/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fluegel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -12616,7 +12622,7 @@
         <v>&lt;image&gt;&lt;resname&gt;flugzeug&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Flugzeug&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;airplane&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Holgi&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/personenverkehr-fluggesellschaft-122999/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;flugzeug&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -12649,7 +12655,7 @@
         <v>&lt;image&gt;&lt;resname&gt;frau&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Weiblich&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;female&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/weiblich-symbol-frau-menschen-709700/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;frau&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -12682,7 +12688,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fuchs&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fuchs&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fox&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fox-blau-silhouette-kunst-tierwelt-310123/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fuchs&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -12715,7 +12721,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fuesse&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Füsse&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;feet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/f%C3%BC%C3%9Fe-zehen-abdruck-gliederung-311827/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fuesse&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -12748,7 +12754,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fussball&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fussball&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soccer&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/football-ball-sport-soccer-round-157930&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fussball&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -12781,7 +12787,7 @@
         <v>&lt;image&gt;&lt;resname&gt;fussgaenger&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Fussgänger&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pedestrian&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/fu%C3%9Fg%C3%A4nger-cross-walk-stra%C3%9Fe-310304/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;fussgaenger&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -12814,7 +12820,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gedanke&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gedanken&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;thought&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gedanken-sprache-blasen-idee-24152/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gedanke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -12847,7 +12853,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gehirn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gehirn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;brain&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gehirn-menschliche-wissenschaft-303186/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gehirn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -12880,7 +12886,7 @@
         <v>&lt;image&gt;&lt;resname&gt;geschlecht&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Geschlecht&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;gender&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/geschlecht-sex-symbol-m%C3%A4nnlich-312411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;geschlecht&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -12913,7 +12919,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gespenst&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gespenst&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;ghost&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gespenst-halloween-gruselig-angst-303596/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gespenst&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -12946,7 +12952,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gewitter&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gewitter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lightning&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/blitz-himmel-nacht-dunkel-690410/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gewitter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -12979,7 +12985,7 @@
         <v>&lt;image&gt;&lt;resname&gt;globus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Globus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;globe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/globus-gitter-breitengrad-l%C3%A4nge-312523/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;globus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -13012,7 +13018,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gras&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gras&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;grass&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/hintergrund-nahaufnahme-flora-16051/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gras&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -13045,7 +13051,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gummibaeren&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gummibär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;gummibear&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hans&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gummib%C3%A4ren-fruchtgummis-b%C3%A4ren-8551/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gummibaeren&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -13078,7 +13084,7 @@
         <v>&lt;image&gt;&lt;resname&gt;gurke&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Gurke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cucumber&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gem%C3%BCse-gurke-lebensmittel-700047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;gurke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -13111,7 +13117,7 @@
         <v>&lt;image&gt;&lt;resname&gt;hahn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;hahn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rooster&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/hahn-huhn-gefl%C3%BCgel-vogel-h%C3%A4uslich-311959/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;hahn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -13144,7 +13150,7 @@
         <v>&lt;image&gt;&lt;resname&gt;handabdruck&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Handabdruck&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;handprint&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/handabdruck-finger-palm-anschlag-23837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;handabdruck&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -13177,7 +13183,7 @@
         <v>&lt;image&gt;&lt;resname&gt;hase&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hase&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rabbit&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bunny-outline-easter-cutout-cookie-306263/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;hase&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -13210,7 +13216,7 @@
         <v>&lt;image&gt;&lt;resname&gt;haus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Haus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;house&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/h%C3%BCtte-haus-ferienhaus-urlaub-dach-312420/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;haus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -13243,7 +13249,7 @@
         <v>&lt;image&gt;&lt;resname&gt;heissluftballon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Heissluftballon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;aerostat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Fabian&lt;/name&gt;&lt;source&gt;&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;heissluftballon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -13276,7 +13282,7 @@
         <v>&lt;image&gt;&lt;resname&gt;herzen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Herzen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;hearths&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/valentine-herz-liebe-eingebettet-601705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;herzen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -13309,7 +13315,7 @@
         <v>&lt;image&gt;&lt;resname&gt;himbeeren&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Himbeeren&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;raspberry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;donpolo&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/54811.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Ne Hand voll Himbeeren &lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -13342,7 +13348,7 @@
         <v>&lt;image&gt;&lt;resname&gt;himmel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Himmel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sky&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;alexis&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/himmel-berg-wolke-berge-wolken-62732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;himmel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -13375,7 +13381,7 @@
         <v>&lt;image&gt;&lt;resname&gt;hochzeit&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hochzeit&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;wedding&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ringe-hochzeit-bands-duo-mann-312341/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;hochzeit&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -13408,7 +13414,7 @@
         <v>&lt;image&gt;&lt;resname&gt;hut&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Hut&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;hat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/hut-grau-fedora-filzhut-310026/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;hut&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -13441,7 +13447,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kaefer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Marienkäfer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;ladybug&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;blickpixel&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/biologische-blatt-bl%C3%A4tter-181237/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kaefer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -13474,7 +13480,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kaenguru&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Känguru&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;kangaroo&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/k%C3%A4nguru-s%C3%A4ugetier-australien-295261/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kaenguru&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -13507,7 +13513,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kaffeebohne&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kaffeebohne&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;coffebean&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Karl Dichtler &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/136975.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;andere Sicht&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -13540,7 +13546,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kaktus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kaktus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cactus&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;tpsdave&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/w%C3%BCste-catus-kakteen-schotterweg-392747/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kaktus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -13573,7 +13579,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kamera&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kamera&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;camera&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kamera-cctv-sicherheit-cam-156730/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kamera&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -13606,7 +13612,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kanone&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kanone&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;canon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Silberfuchs&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kanone-alt-waffe-historisch-antik-712964/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kanone&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -13639,7 +13645,7 @@
         <v>&lt;image&gt;&lt;resname&gt;karate&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Karate&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;karate&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/karate-martial-kunst-verteidigung-312471/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;karate&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -13672,7 +13678,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kassette&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kassette&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cassette&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kassette-band-audio-musik-ton-312681/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kassette&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -13705,7 +13711,7 @@
         <v>&lt;image&gt;&lt;resname&gt;katze&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Katze&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cat&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tier-katze-kontur-umrisse-675646/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;katze&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -13738,7 +13744,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kegel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kegel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bowling pins&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kegel-bowling-wei%C3%9F-streik-pin-311915/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kegel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -13771,7 +13777,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kieselsteine&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kieselsteine&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pebble&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;SuXxLe&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kies-steine-desktop-hintergrund-618737/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kieselsteine&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -13804,7 +13810,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kirche&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kirche&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;church&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/architektur-sch%C3%B6ne-geb%C3%A4ude-dom-316192/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kirche&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -13837,7 +13843,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kirsche&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kirsche&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cherry&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kirschen-lebensmittel-produkte-di%C3%A4t-36904/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kirsche&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -13870,7 +13876,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kleeblatt&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kleeblatt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shamrock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kleeblatt-vier-kleeblatt-irisch-311391/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kleeblatt&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -13903,7 +13909,7 @@
         <v>&lt;image&gt;&lt;resname&gt;knochen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Knochen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/bones-dog-chicken-comic-307870/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;knochen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -13936,7 +13942,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kolibri&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kolibri&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;hummingbird&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kolibri-silhouette-fliegen-vogel-309492/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kolibri&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -13969,7 +13975,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kompass&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kompass&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;compass&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/compass-rose-s%C3%BCden-norden-osten-297758/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kompass&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -14002,7 +14008,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kopf&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kopf&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;head&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kopf-brown-haar-elf-anonym-303325/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;kopf&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -14035,7 +14041,7 @@
         <v>&lt;image&gt;&lt;resname&gt;korb&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Korb&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;basket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/korb-gr%C3%BCn-kunststoff-container-312684/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;korb&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -14068,7 +14074,7 @@
         <v>&lt;image&gt;&lt;resname&gt;krone&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Krone&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;crown&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/krone-royal-kreuz-edelsteine-308054/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;krone&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -14101,7 +14107,7 @@
         <v>&lt;image&gt;&lt;resname&gt;krug&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Krug&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;jug&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/krug-holz-griff-aktiviert-glatt-316138/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;krug&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -14134,7 +14140,7 @@
         <v>&lt;image&gt;&lt;resname&gt;kuerbis&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Kürbis&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pumpkin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Klaus Maier&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/20758.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Kürbisse - Farben &lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -14167,7 +14173,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lagerfeuer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lagerfeuer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;campfire&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/feuer-lager-holz-w%C3%A4rme-flammen-30231/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lagerfeuer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -14200,7 +14206,7 @@
         <v>&lt;image&gt;&lt;resname&gt;landstrasse&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Strasse&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;street&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/chile-panamericana-stra%C3%9Fe-693053/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;landstrasse&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -14233,7 +14239,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lava&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lava&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lava&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Wikilmages&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lava-magma-vulkanausbruch-gl%C3%BChen-67574/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lava&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -14266,7 +14272,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lego&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lego&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lego&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;mwewering&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lego-legosteine-steine-spielzeug-615239/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lego&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -14299,7 +14305,7 @@
         <v>&lt;image&gt;&lt;resname&gt;leopard&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leopard&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;leopard&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leopard-raubkatze-savuti-botswana-694460/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leopard&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -14332,7 +14338,7 @@
         <v>&lt;image&gt;&lt;resname&gt;leuchtturm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Leuchtturm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lighthouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;prosaica&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/leuchtturm-bodie-island-186722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;leuchtturm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -14365,7 +14371,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lippen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lippen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lip&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lipgloss-lippen-kuss-romantik-303125/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lippen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -14398,7 +14404,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lorbeeren&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lorbeeren&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;laurel&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kranz-gold-laurel-auszeichnung-305501/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lorbeeren&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -14431,7 +14437,7 @@
         <v>&lt;image&gt;&lt;resname&gt;lupe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Lupe&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;loupe&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/linse-vergr%C3%B6%C3%9Fern-glas-lupen-lupe-156813/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;lupe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -14464,7 +14470,7 @@
         <v>&lt;image&gt;&lt;resname&gt;magnet&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Magnet&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;magnet&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/magnet-hufeisen-polen-norden-s%C3%BCden-312777/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;magnet&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -14497,7 +14503,7 @@
         <v>&lt;image&gt;&lt;resname&gt;mathe&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Mathematik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;maths&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/algebra-mathematik-schule-bildung-39822/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;mathe&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -14530,7 +14536,7 @@
         <v>&lt;image&gt;&lt;resname&gt;maus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Maus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;mouse&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/mouse-rodent-animal-small-pet-311207/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;maus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -14563,7 +14569,7 @@
         <v>&lt;image&gt;&lt;resname&gt;meer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Meer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sea&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;rolypolys&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/d%C3%A4nemark-ostsee-k%C3%BCste-meer-wasser-239992/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;meer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -14596,7 +14602,7 @@
         <v>&lt;image&gt;&lt;resname&gt;monat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;month&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/juli-jul-monat-jahr-neue-tag-706938/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;monat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -14629,7 +14635,7 @@
         <v>&lt;image&gt;&lt;resname&gt;mond&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Mond&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;moon&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;jrperes&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mond-himmel-wolken-tag-v%C3%B6gel-323425/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;mond&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -14662,7 +14668,7 @@
         <v>&lt;image&gt;&lt;resname&gt;monster&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Monster&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;monster&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/drache-eidechse-monster-chinesisch-149393/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;monster&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -14695,7 +14701,7 @@
         <v>&lt;image&gt;&lt;resname&gt;musik&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Musik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;music&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/notenschl%C3%BCssel-musik-melodie-ton-296775/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;musik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -14728,7 +14734,7 @@
         <v>&lt;image&gt;&lt;resname&gt;nashorn&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nashorn&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rhino&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nashorn-afrika-tier-s%C3%BCdafrika-161569/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;nashorn&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -14761,7 +14767,7 @@
         <v>&lt;image&gt;&lt;resname&gt;nikolaus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Nikolaus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;santa&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/santa-claus-st-nicholas-funny-x-mas-153309/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;nikolaus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -14794,7 +14800,7 @@
         <v>&lt;image&gt;&lt;resname&gt;notausgang&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Notausgang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;emergencyexit&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/notfall-ausfahrt-gr%C3%BCn-wei%C3%9F-309726/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;notausgang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -14827,7 +14833,7 @@
         <v>&lt;image&gt;&lt;resname&gt;noten&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Noten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;note&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/noten-notenblatt-musik-takt-668862/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;noten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -14860,7 +14866,7 @@
         <v>&lt;image&gt;&lt;resname&gt;paar&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Paar&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;couple&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/mann-frau-hand-h%C3%A4lt-m%C3%A4nnlich-312413/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;paar&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -14893,7 +14899,7 @@
         <v>&lt;image&gt;&lt;resname&gt;palme&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Palme&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;palm&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/kokospalme-baum-gebogen-verdreht-312154/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;palme&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -14926,7 +14932,7 @@
         <v>&lt;image&gt;&lt;resname&gt;panda&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Panda&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;panda&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/panda-riese-b%C3%A4r-china-tier-312682/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;panda&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -14959,7 +14965,7 @@
         <v>&lt;image&gt;&lt;resname&gt;papagei&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Papageien&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;parrots&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/papageien-v%C3%B6gel-natur-bunte-528392/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;papagei&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -14992,7 +14998,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pfeile&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pfeile&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;arrows&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;ZIPNON&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pfeile-farbverlauf-design-symbol-539917/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pfeile&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -15025,7 +15031,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pfote&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pfote&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;paw&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pfote-tatze-druck-hund-tier-312322/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pfote&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -15058,7 +15064,7 @@
         <v>&lt;image&gt;&lt;resname&gt;phoenix&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Phönix&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;phoenix&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Bonnybbx&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ph%C3%B6nix-vogel-feuer-sonne-feuerrot-500469/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;phoenix&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -15091,7 +15097,7 @@
         <v>&lt;image&gt;&lt;resname&gt;piano&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Klavier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;piano&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/klavier-musical-instrument-tastatur-312543/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;piano&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -15124,7 +15130,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pik&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pik&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;peak&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/karte-umrissen-spielen-schwarz-157404/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pik&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -15157,7 +15163,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pinguin&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinguin&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;penguin&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/penguin-aquatic-flightless-birds-41066/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinguin&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -15190,7 +15196,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pinsel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pinsel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;paintbrush&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pinsel-borsten-griff-holz-312711/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pinsel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -15223,7 +15229,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pirat&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pirat&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pirate&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pirat-hut-kappe-tod-warnung-311819/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pirat&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -15256,7 +15262,7 @@
         <v>&lt;image&gt;&lt;resname&gt;plus&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Plus&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;plus&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/button-hinzuf%C3%BCgen-icon-web-symbol-304224/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;plus&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -15289,7 +15295,7 @@
         <v>&lt;image&gt;&lt;resname&gt;puzzle&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Puzzle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;puzzle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/puzzle-stichs%C3%A4ge-st%C3%BCck-wei%C3%9F-303502/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;puzzle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -15322,7 +15328,7 @@
         <v>&lt;image&gt;&lt;resname&gt;pyramide&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Pyramide&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pyramid&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Republica&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pyramide-gizeh-%C3%A4gypten-pferd-wagen-89047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;pyramide&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -15355,7 +15361,7 @@
         <v>&lt;image&gt;&lt;resname&gt;qualle&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Qualle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;yellifish&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/qualle-tentakel-medusa-marinen-154799/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;qualle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -15388,7 +15394,7 @@
         <v>&lt;image&gt;&lt;resname&gt;radioaktiv&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Radioaktiv&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;radioactive&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/nukleare-atommasse-strahlung-303831/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;radioaktiv&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -15421,7 +15427,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rakete&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rakete&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rocket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/rocket-spaceship-space-shuttle-nasa-147466/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rakete&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -15454,7 +15460,7 @@
         <v>&lt;image&gt;&lt;resname&gt;recycle&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Recycle&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;recycle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/recyceln-wiederverwendung-symbol-305031/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;recycle&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -15487,7 +15493,7 @@
         <v>&lt;image&gt;&lt;resname&gt;regenbogen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenbogen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rainbow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenbogen-streifen-muster-298752/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenbogen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -15520,7 +15526,7 @@
         <v>&lt;image&gt;&lt;resname&gt;regenschirm&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Regenschirm&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;umbrella&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/regenschirm-regen-wetter-schutz-312302/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;regenschirm&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -15553,7 +15559,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rettungsring&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rettungsring&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lifesaver&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/lebensretter-lebensring-24968/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rettungsring&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -15586,7 +15592,7 @@
         <v>&lt;image&gt;&lt;resname&gt;roboter&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Roboter&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;robot&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/roboter-maschine-technologie-312566/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;roboter&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -15619,7 +15625,7 @@
         <v>&lt;image&gt;&lt;resname&gt;rose&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Rose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rose&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;MJO&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/rosa-rot-blume-geschenk-143445/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;rose&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -15652,7 +15658,7 @@
         <v>&lt;image&gt;&lt;resname&gt;satellit&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Satellit&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;satellite&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sender-gericht-sendung-%C3%BCbertragen-312354/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;satellit&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -15685,7 +15691,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schatten&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schatten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shadow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;szjeno09190&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/licht-schatten-licht-und-schatten-685069/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -15718,7 +15724,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schaufel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schaufel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shovel&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schaufel-werkzeug-graben-sch%C3%B6pfen-312360/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schaufel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -15751,7 +15757,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schere&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schere&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scissor&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/scissors-shears-cut-tool-equipment-24188/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schere&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -15784,7 +15790,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schienen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schienen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;rails&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stra%C3%9Fe-schienen-eisenbahn-l%C3%A4ndlich-315044/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schienen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -15817,7 +15823,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schild&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schild&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;shield&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schild-blau-sicherheit-schutz-303392/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schild&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -15850,7 +15856,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schildkroete&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schildkröte&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;turtle&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/en/turtle-carapace-tortoise-green-303732/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schildkroete&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -15883,7 +15889,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schloss&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schloss&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;lock&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;stux&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/castle-padlock-shut-off-to-378353&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schloss&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -15916,7 +15922,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schluessel&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schlüssel&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;key&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schl%C3%BCssel-grau-yale-t%C3%BCr-309744/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schluessel&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -15949,7 +15955,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schmetterling&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schmetterling&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;butterfly&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Hebi65&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schmetterling-schwarz-weiss-konturen-658047/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schmetterling&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -15982,7 +15988,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schnee&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schnee&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;snow&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/landschaft-berge-h%C3%BCgel-t%C3%A4ler-690244/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schnee&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -16015,7 +16021,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schneeflocke&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schneeflocke&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;snowflake&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schneeflocke-winter-eiskristall-311497/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schneeflocke&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -16048,7 +16054,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schraubenzieher&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schraubenzieher&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;screwdriver&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;www.pixabay.com/en/screwdriver-starhead-star-torx-33634&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schraubenzieher&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -16081,7 +16087,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schwert&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwert&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sword&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwert-mittelalter-waffe-metall-308836/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwert&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -16114,7 +16120,7 @@
         <v>&lt;image&gt;&lt;resname&gt;schwimmer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Schwimmer&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;swimmer&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schwimmer-piktogramm-sport-wasser-305260/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;schwimmer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -16147,7 +16153,7 @@
         <v>&lt;image&gt;&lt;resname&gt;seife&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Seife&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;soap&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;lukas_reinhardt &lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/103663.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Export&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -16180,7 +16186,7 @@
         <v>&lt;image&gt;&lt;resname&gt;signal&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Signal&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;signal&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/wlan-signal-schwarz-wireless-303722/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;signal&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -16213,7 +16219,7 @@
         <v>&lt;image&gt;&lt;resname&gt;skorpion&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Skorpion&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;scorpion&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/skorpion-silhouette-schwarz-insekt-309388/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;skorpion&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -16246,7 +16252,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sonne&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonne&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sun&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sonne-gelb-spirale-sommer-design-303773/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonne&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -16279,7 +16285,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sonnenblume&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnenblume&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sunflower&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/sonnenblume-sommer-natur-gelb-310638/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonnenblume&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -16312,7 +16318,7 @@
         <v>&lt;image&gt;&lt;resname&gt;sonnenuntergang&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Sonnenuntergang&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;sunset&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;JanneG&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/gl%C3%BChend-gegenlicht-vogel-m%C3%B6we-253676/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;sonnenuntergang&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -16345,7 +16351,7 @@
         <v>&lt;image&gt;&lt;resname&gt;spiegelei&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spiegelei&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;friedegg&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/ei-sonnenseite-bis-gebraten-576086/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spiegelei&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -16378,7 +16384,7 @@
         <v>&lt;image&gt;&lt;resname&gt;spinne&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spinne&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;spider&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/spinne-gruselig-spinnentier-angst-311548/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spinne&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -16411,7 +16417,7 @@
         <v>&lt;image&gt;&lt;resname&gt;spinnennetz&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spinnennetz&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;cobweb&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/spinnennetz-spinne-web-schwarz-311734/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spinnennetz&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -16444,7 +16450,7 @@
         <v>&lt;image&gt;&lt;resname&gt;spirale&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Spirale&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;spiral&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/spirale-design-muster-wirbel-24981/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;spirale&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -16477,7 +16483,7 @@
         <v>&lt;image&gt;&lt;resname&gt;stadt1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stadt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;city&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Unsplash&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/san-francisco-geb%C3%A4ude-t%C3%BCrme-690243/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stadt1&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -16510,7 +16516,7 @@
         <v>&lt;image&gt;&lt;resname&gt;stadt2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stadt&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;city&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/skyline-stadt-silhouette-pittsburgh-304802/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stadt2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -16543,7 +16549,7 @@
         <v>&lt;image&gt;&lt;resname&gt;steckdose&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Steckdose&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;socket&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/elektrische-steckdose-macht-elektro-29589/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;steckdose&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -16576,7 +16582,7 @@
         <v>&lt;image&gt;&lt;resname&gt;stern&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stern&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;star&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stern-favorit-orange-gliederung-304120/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stern&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -16609,7 +16615,7 @@
         <v>&lt;image&gt;&lt;resname&gt;stier&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stier&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;bull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/stier-buffalo-tier-s%C3%A4ugetier-155411/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stier&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -16642,7 +16648,7 @@
         <v>&lt;image&gt;&lt;resname&gt;stift&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stift&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pencil&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/schule-bleistift-stift-schreiben-153561/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stift&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -16675,7 +16681,7 @@
         <v>&lt;image&gt;&lt;resname&gt;streifen&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Streifen&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;stripes&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;PublicDomainPictures&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/streifen-buntes-tuch-streifen-muster-315594/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;streifen&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -16689,7 +16695,7 @@
       </c>
       <c r="C181" t="str">
         <f>"&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Lösung Deutsch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;"&amp;Tabelle1[[#This Row],[Englisch]]&amp;"&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;"</f>
-        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Struktur&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;structure&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
+        <v>&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Herbst&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fall&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;</v>
       </c>
       <c r="D181" t="str">
         <f>"&lt;author&gt;&lt;name&gt;"&amp;Tabelle1[[#This Row],[Autor/Psyeudonym]]&amp;"&lt;/name&gt;&lt;source&gt;"&amp;Tabelle1[[#This Row],[Quelle]]&amp;"&lt;/source&gt;&lt;license&gt;"&amp;Tabelle1[[#This Row],[Lizenzname]]&amp;"&lt;/license&gt;&lt;title&gt;"&amp;Tabelle1[[#This Row],[ggf. Bildtitel]]&amp;"&lt;/title&gt;&lt;extras&gt;"&amp;Tabelle1[[#This Row],[Modi]]&amp;"&lt;/extras&gt;&lt;/author&gt;"</f>
@@ -16705,10 +16711,10 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;image&gt;&lt;resname&gt;struktur&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Struktur&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;structure&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/struktur-herbst-weinlaub-698163/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;struktur&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
+        <v>&lt;image&gt;&lt;resname&gt;struktur&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Herbst&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;fall&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;hbieser&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/struktur-herbst-weinlaub-698163/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;struktur&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -16741,7 +16747,7 @@
         <v>&lt;image&gt;&lt;resname&gt;stuhl&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Stuhl&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;chair&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/st%C3%BChle-holz-m%C3%B6bel-brown-gelb-575873/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;stuhl&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -16774,7 +16780,7 @@
         <v>&lt;image&gt;&lt;resname&gt;symbol&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Email&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;email&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Pete Linforth&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/symbol-bei-computer-icon-design-684962/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;symbol&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -16807,7 +16813,7 @@
         <v>&lt;image&gt;&lt;resname&gt;tablette1&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tabletten&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pills&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Angie525A&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/16045.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;Licht und Schatten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -16840,7 +16846,7 @@
         <v>&lt;image&gt;&lt;resname&gt;tablette2&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tablette&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;pill&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/pille-medizin-kapsel-rot-311365/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tablette2&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -16873,7 +16879,7 @@
         <v>&lt;image&gt;&lt;resname&gt;teddybaer&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Teddybär&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;teddy&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/teddyb%C3%A4r-b%C3%A4r-pl%C3%BCsch-gef%C3%BCllt-anial-303837/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;teddybaer&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -16906,7 +16912,7 @@
         <v>&lt;image&gt;&lt;resname&gt;telefon&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Telefon&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;phone&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;traude&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/telefon-handy-telefonieren-558022/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;telefon&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -16939,7 +16945,7 @@
         <v>&lt;image&gt;&lt;resname&gt;tennisball&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tennisball&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tennisball&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tennisball-kugel-tennis-sport-310082/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tennisball&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -16972,7 +16978,7 @@
         <v>&lt;image&gt;&lt;resname&gt;theater&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Theater&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;theater&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/theater-kom%C3%B6die-trag%C3%B6die-masken-311730/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;theater&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -17005,7 +17011,7 @@
         <v>&lt;image&gt;&lt;resname&gt;tisch&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tisch&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;table&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;OpenClips&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/m%C3%B6bel-hocker-stativ-licht-sitz-575705/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tisch&lt;/title&gt;&lt;extras&gt;shadow darkness reduced&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;RTpCircle&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -17038,7 +17044,7 @@
         <v>&lt;image&gt;&lt;resname&gt;tomate&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tomate&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tomato&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;naliha&lt;/name&gt;&lt;source&gt;http://piqs.de/fotos/33783.html&lt;/source&gt;&lt;license&gt;http://creativecommons.org/licenses/by/2.0/de/deed.de&lt;/license&gt;&lt;title&gt;rote Tomaten&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -17071,7 +17077,7 @@
         <v>&lt;image&gt;&lt;resname&gt;tornado&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Tornado&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;tornado&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/tornado-grau-zyklon-twister-gefahr-311711/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;tornado&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -17104,7 +17110,7 @@
         <v>&lt;image&gt;&lt;resname&gt;totenkopf&lt;/resname&gt;&lt;solutions&gt;&lt;solution&gt;&lt;tongue&gt;de&lt;/tongue&gt;&lt;word&gt;Totenkopf&lt;/word&gt;&lt;/solution&gt;&lt;solution&gt;&lt;tongue&gt;en&lt;/tongue&gt;&lt;word&gt;skull&lt;/word&gt;&lt;/solution&gt;&lt;/solutions&gt;&lt;author&gt;&lt;name&gt;Nemo&lt;/name&gt;&lt;source&gt;http://pixabay.com/de/totenkopf-sch%C3%A4del-gekreuzten-knochen-30325/&lt;/source&gt;&lt;license&gt;CC0 Public Domain&lt;/license&gt;&lt;title&gt;totenkopf&lt;/title&gt;&lt;extras&gt;&lt;/extras&gt;&lt;/author&gt;&lt;riddleprefs&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddleprefs&gt;&lt;riddlerefused&gt;&lt;type&gt;&lt;/type&gt;&lt;/riddlerefused&gt;&lt;/image&gt;</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14a